--- a/src/test/resources/test_descriptions/RottenTomatoes_TestCases.xlsx
+++ b/src/test/resources/test_descriptions/RottenTomatoes_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\project\UITest2Code\src\test\resources\test_descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112A9065-4D32-48AF-9559-039E57A3AFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9639AC7-AFD6-4CF3-9ABB-8FF4B132CA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{791CFF3F-B61E-4861-A956-A2059CE938E6}"/>
   </bookViews>
@@ -208,21 +208,12 @@
     <t>An item will be presented in the headliners carousel</t>
   </si>
   <si>
-    <t>1. Wait 5 seconds</t>
-  </si>
-  <si>
     <t>A different item will be presented in the headliners carousel</t>
   </si>
   <si>
-    <t>2. Wait another 5 seconds</t>
-  </si>
-  <si>
     <t>1. Click the Item presented in the headliners carousel</t>
   </si>
   <si>
-    <t>A page will be displayed with a title that contains the title in the carousel</t>
-  </si>
-  <si>
     <t>Homepage Spotlight</t>
   </si>
   <si>
@@ -253,7 +244,16 @@
     <t>A page with the title COMING SOON will be displayed</t>
   </si>
   <si>
-    <t>The number of displayed posters will be as mentioned in the count link and all the posters contain an information about the release date in the form of Available [date]</t>
+    <t>1. Wait 6 seconds</t>
+  </si>
+  <si>
+    <t>2. Wait another 6 seconds</t>
+  </si>
+  <si>
+    <t>A page will be displayed with the same URL as the link of the item in the carousel</t>
+  </si>
+  <si>
+    <t>The number of displayed posters will be as mentioned in the count link and all the posters contain an information about the release date that starts with the word Available.</t>
   </si>
 </sst>
 </file>
@@ -787,6 +787,144 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -795,144 +933,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1251,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B4C97A-71D1-473B-A994-4B6E5B9F3EEF}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1285,365 +1285,384 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="25" t="s">
+    <row r="4" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="21" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="25" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="21" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="37"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="38" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="33" t="s">
+      <c r="A9" s="45"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="15"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="38" t="s">
+      <c r="A11" s="44"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="38" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="42" t="s">
+      <c r="A15" s="40"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="42" t="s">
+      <c r="A16" s="40"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="15" t="s">
+      <c r="E17" s="12"/>
+      <c r="F17" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="40"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="38" t="s">
+      <c r="A18" s="36"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="15" t="s">
+    </row>
+    <row r="19" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="37"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="34" t="s">
+      <c r="F20" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="41" t="s">
+      <c r="C21" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="E21" s="12"/>
+      <c r="F21" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="26" t="s">
+    </row>
+    <row r="22" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A22" s="24"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="18" t="s">
+      <c r="F22" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="19" t="s">
+    </row>
+    <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="18" t="s">
+      <c r="F24" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="49" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="25" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="26" t="s">
+      <c r="A25" s="31"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:C25"/>
@@ -1652,30 +1671,11 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="D17:D19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>

--- a/src/test/resources/test_descriptions/RottenTomatoes_TestCases.xlsx
+++ b/src/test/resources/test_descriptions/RottenTomatoes_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\project\UITest2Code\src\test\resources\test_descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9639AC7-AFD6-4CF3-9ABB-8FF4B132CA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F0E712-CFFC-43A5-B20B-678F8771F3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{791CFF3F-B61E-4861-A956-A2059CE938E6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="111">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -254,6 +254,117 @@
   </si>
   <si>
     <t>The number of displayed posters will be as mentioned in the count link and all the posters contain an information about the release date that starts with the word Available.</t>
+  </si>
+  <si>
+    <t>RT_11</t>
+  </si>
+  <si>
+    <t>NEW &amp; UPCOMING MOVIES - VIEW ALL - List View</t>
+  </si>
+  <si>
+    <t>Verify that clicking that it is possible to change the view to list view in the VIEW ALL - NEW &amp; UPCOMING MOVIES page</t>
+  </si>
+  <si>
+    <t>2. Click on the second view-icon</t>
+  </si>
+  <si>
+    <t>The movies will be displayed in a list-view and the recently clicked butoon will become active.</t>
+  </si>
+  <si>
+    <t>RT_12</t>
+  </si>
+  <si>
+    <t>NEW &amp; UPCOMING MOVIES - VIEW ALL - Certified Fresh Only</t>
+  </si>
+  <si>
+    <t>Verify that clicking that clicking the Certified Fresh Only button in the VIEW ALL - NEW &amp; UPCOMING MOVIES page works</t>
+  </si>
+  <si>
+    <t>2. Hover over the Tomatometer Filter</t>
+  </si>
+  <si>
+    <t>A dropdown menu will be presented with a slider and a Certified Fresh Only check box</t>
+  </si>
+  <si>
+    <t>3. Check the Certified Fresh Only</t>
+  </si>
+  <si>
+    <t>The presented movies will have tomatometer score between 70 and 100, and these will be the limits in the Tomatometer filter button.</t>
+  </si>
+  <si>
+    <t>RT_13</t>
+  </si>
+  <si>
+    <t>3. Take the left noUi slider into the middle of the slider</t>
+  </si>
+  <si>
+    <t>The presented movies will have tomatometer score between 50 and 100, and these will be the limits in the Tomatometer filter button.</t>
+  </si>
+  <si>
+    <t>Verify that the tomatometer filter slider in the VIEW ALL - NEW &amp; UPCOMING MOVIES page works</t>
+  </si>
+  <si>
+    <t>Clicking a movie in the POPULAR STREAMING MOVIES section works</t>
+  </si>
+  <si>
+    <t>POPULAR STREAMING MOVIES - Click A Movie</t>
+  </si>
+  <si>
+    <t>RT_14</t>
+  </si>
+  <si>
+    <t>1. Scroll to the POPULAR STREAMING MOVIES section</t>
+  </si>
+  <si>
+    <t>2. Click the first movie title</t>
+  </si>
+  <si>
+    <t>RT_15</t>
+  </si>
+  <si>
+    <t>POPULAR STREAMING MOVIES - Display</t>
+  </si>
+  <si>
+    <t>The POPULAR STREAMING MOVIES section is displayed well</t>
+  </si>
+  <si>
+    <t>The section's title will be presented to the user</t>
+  </si>
+  <si>
+    <t>A list of movies will be displayed. Each movie will have a name and a tomatometer score, along a tomatometer icon</t>
+  </si>
+  <si>
+    <t>BEST SERIES ON NETFLIX - View All</t>
+  </si>
+  <si>
+    <t>BEST SERIES ON NETFLIX - Click A Series</t>
+  </si>
+  <si>
+    <t>RT_16</t>
+  </si>
+  <si>
+    <t>RT_17</t>
+  </si>
+  <si>
+    <t>Confirm a series in the Best Series On Netflix section can be watched on Netflix</t>
+  </si>
+  <si>
+    <t>1. Scroll to the BEST SERIES ON NETFLIX section</t>
+  </si>
+  <si>
+    <t>2. Click the View All link</t>
+  </si>
+  <si>
+    <t>BEST NETFLIX SERIES TO WATCH RIGHT NOW title will be presented. There will be number of presented series as stated in the title, numbered from the high limit to number 1.</t>
+  </si>
+  <si>
+    <t>Verify that clicking the VIEW ALL button in the Best Series On Netflix section works</t>
+  </si>
+  <si>
+    <t>2. Click the first presented movie</t>
+  </si>
+  <si>
+    <t>A movie's page will be displayed with the correct movie title and Tomatometer. The TV Network will be Netflix.</t>
   </si>
 </sst>
 </file>
@@ -779,7 +890,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -841,88 +952,28 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -932,7 +983,70 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1249,10 +1363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B4C97A-71D1-473B-A994-4B6E5B9F3EEF}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1285,26 +1399,26 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="36" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -1315,10 +1429,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="22"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
@@ -1327,16 +1441,16 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="27" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="3"/>
@@ -1345,10 +1459,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="38"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="8" t="s">
         <v>17</v>
       </c>
@@ -1357,16 +1471,16 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="38" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="36" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="3"/>
@@ -1375,10 +1489,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="44"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="42"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="22"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="13" t="s">
         <v>21</v>
       </c>
@@ -1387,10 +1501,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="42"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="22"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="37"/>
       <c r="E9" s="10" t="s">
         <v>23</v>
       </c>
@@ -1399,16 +1513,16 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="38" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="27" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="12" t="s">
@@ -1417,10 +1531,10 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="42"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="22"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="13" t="s">
         <v>39</v>
       </c>
@@ -1429,16 +1543,16 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="27" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="12" t="s">
@@ -1449,10 +1563,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="22"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="13" t="s">
         <v>42</v>
       </c>
@@ -1461,16 +1575,16 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="46" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="27" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="12" t="s">
@@ -1481,10 +1595,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A15" s="40"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="42"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="22"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="15" t="s">
         <v>53</v>
       </c>
@@ -1493,10 +1607,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="42"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="22"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="15" t="s">
         <v>55</v>
       </c>
@@ -1505,16 +1619,16 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="27" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="12"/>
@@ -1523,10 +1637,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="36"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="22"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="13" t="s">
         <v>70</v>
       </c>
@@ -1535,10 +1649,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="38"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="11" t="s">
         <v>71</v>
       </c>
@@ -1567,16 +1681,16 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="50" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="12"/>
@@ -1585,10 +1699,10 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A22" s="24"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="30"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="52"/>
       <c r="E22" s="13" t="s">
         <v>62</v>
       </c>
@@ -1597,26 +1711,26 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="30"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="16"/>
       <c r="F23" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="50" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="12" t="s">
@@ -1627,18 +1741,318 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="34"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="51"/>
       <c r="E25" s="8"/>
       <c r="F25" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="49"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A29" s="32"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="49"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A32" s="32"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="49"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="17"/>
+    </row>
+    <row r="35" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="49"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="49"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="49"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="49"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="65">
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -1648,34 +2062,6 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>

--- a/src/test/resources/test_descriptions/RottenTomatoes_TestCases.xlsx
+++ b/src/test/resources/test_descriptions/RottenTomatoes_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\project\UITest2Code\src\test\resources\test_descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F0E712-CFFC-43A5-B20B-678F8771F3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D11284-2559-411A-B53E-13C5265317C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{791CFF3F-B61E-4861-A956-A2059CE938E6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="157">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -365,6 +365,144 @@
   </si>
   <si>
     <t>A movie's page will be displayed with the correct movie title and Tomatometer. The TV Network will be Netflix.</t>
+  </si>
+  <si>
+    <t>WHAT IS THE TOMATOMETER®?</t>
+  </si>
+  <si>
+    <t>1. Click the WHAT IS THE TOMATOMETER®? Link at the top of the page</t>
+  </si>
+  <si>
+    <t>The about page wil get loaded, with the WHAT IS THE TOMATOMETER®? Title visible to the user.</t>
+  </si>
+  <si>
+    <t>RT_18</t>
+  </si>
+  <si>
+    <t>Clicking the what is the tomatometer link works</t>
+  </si>
+  <si>
+    <t>Critics</t>
+  </si>
+  <si>
+    <t>RT_19</t>
+  </si>
+  <si>
+    <t>Clicking the Critics link works</t>
+  </si>
+  <si>
+    <t>1. Click the Critics Link at the top of the page</t>
+  </si>
+  <si>
+    <t>A page with the title Who are the Tomatometer-approved critics? Will be presented, including CRITIC SPOTLIGHT with 4 spotlights</t>
+  </si>
+  <si>
+    <t>2. Click one of the twitter links of the critics</t>
+  </si>
+  <si>
+    <t>A twitter page with the sane handle will be presented</t>
+  </si>
+  <si>
+    <t>TOP HEADLINES</t>
+  </si>
+  <si>
+    <t>1. Scroll to the TOP HEADLINES section</t>
+  </si>
+  <si>
+    <t>The section's title will be presented to the user. 8 headline links are displayed.</t>
+  </si>
+  <si>
+    <t>RT_20</t>
+  </si>
+  <si>
+    <t>Verify that clicking the VIEW ALL button in the Top Headlines section works</t>
+  </si>
+  <si>
+    <t>RT_21</t>
+  </si>
+  <si>
+    <t>Movies Tab</t>
+  </si>
+  <si>
+    <t>Verify that after hovering over the Movies top tab, a menu will get opened</t>
+  </si>
+  <si>
+    <t>1. Hover over the MOVIES tab</t>
+  </si>
+  <si>
+    <t>A menu will be displayed, with the titles MOVIES IN THEATERS, ON DVD &amp; STREAMING, MORE, CERTIFIED FRESH PICKS</t>
+  </si>
+  <si>
+    <t>2. Click one of the movies</t>
+  </si>
+  <si>
+    <t>RT_22</t>
+  </si>
+  <si>
+    <t>Movies - Certified fresh picks</t>
+  </si>
+  <si>
+    <t>A menu will be displayed.</t>
+  </si>
+  <si>
+    <t>2. Click the link Top Movies</t>
+  </si>
+  <si>
+    <t>The TOP MOVIES page will be displayed with the titles BEST MOVIES OF 2021, TOP 100 MOVIES BY GENRE, BEST MOVIES OF ALL TIME, BEST MOVIES OF 2020, MOVIE AWARD WINNERS, BEST MOVIES BY YEAR, BEST MOVIES OF 2019, BEST MOVIES OF 2019, MOVIE GUIDES</t>
+  </si>
+  <si>
+    <t>Movies - Top Movies</t>
+  </si>
+  <si>
+    <t>Verify that the Certifies fresh picks in the movies menu functions</t>
+  </si>
+  <si>
+    <t>Verify that the Top Movies link in the movies menu functions</t>
+  </si>
+  <si>
+    <t>Movies - TOP 100 MOVIES OF 2021</t>
+  </si>
+  <si>
+    <t>Verify that the TOP 100 MOVIES OF 2021 list is presnted well</t>
+  </si>
+  <si>
+    <t>The TOP MOVIES page will be displayed with the title BEST MOVIES OF 2021</t>
+  </si>
+  <si>
+    <t>3. Click the View All link at the bottom of the TOP 100 MOVIES OF 2021 section</t>
+  </si>
+  <si>
+    <t>TOP 100 MOVIES OF 2021 page will be displayed. 100 movies are presnted and all of them were released in 2021.</t>
+  </si>
+  <si>
+    <t>RT_23</t>
+  </si>
+  <si>
+    <t>RT_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Click the Year dropdown </t>
+  </si>
+  <si>
+    <t>A dropdown will get opened, with the years 2021 to 1950</t>
+  </si>
+  <si>
+    <t>5. Click 2018</t>
+  </si>
+  <si>
+    <t>TOP 100 MOVIES OF 2018 page will be displayed. 100 movies are presnted and all of them were released in 2018.</t>
+  </si>
+  <si>
+    <t>RT_25</t>
+  </si>
+  <si>
+    <t>Section 2</t>
+  </si>
+  <si>
+    <t>TOP HEADLINES title will be presented. There will be a number of publication rows</t>
+  </si>
+  <si>
+    <t>A menu will be displayed. under the CERTIFIED FRESH PICKS title there are three movies.</t>
   </si>
 </sst>
 </file>
@@ -397,19 +535,6 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Trebuchet MS"/>
@@ -428,8 +553,23 @@
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -478,8 +618,14 @@
         <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="34">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -886,11 +1032,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -898,156 +1102,188 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1363,10 +1599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B4C97A-71D1-473B-A994-4B6E5B9F3EEF}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1398,27 +1634,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="50" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -1429,10 +1665,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="37"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
@@ -1441,16 +1677,16 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="37" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="3"/>
@@ -1459,10 +1695,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="28"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="8" t="s">
         <v>17</v>
       </c>
@@ -1471,16 +1707,16 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="50" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="3"/>
@@ -1489,10 +1725,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="39"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="37"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="13" t="s">
         <v>21</v>
       </c>
@@ -1501,10 +1737,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="37"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="10" t="s">
         <v>23</v>
       </c>
@@ -1513,16 +1749,16 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="37" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="12" t="s">
@@ -1531,10 +1767,10 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="37"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="13" t="s">
         <v>39</v>
       </c>
@@ -1543,16 +1779,16 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="37" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="12" t="s">
@@ -1563,10 +1799,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="37"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="13" t="s">
         <v>42</v>
       </c>
@@ -1575,16 +1811,16 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="37" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="12" t="s">
@@ -1595,10 +1831,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A15" s="47"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="37"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="15" t="s">
         <v>53</v>
       </c>
@@ -1607,10 +1843,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="37"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="15" t="s">
         <v>55</v>
       </c>
@@ -1619,16 +1855,16 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="37" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="12"/>
@@ -1637,10 +1873,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="45"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="37"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="13" t="s">
         <v>70</v>
       </c>
@@ -1649,10 +1885,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="28"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="39"/>
       <c r="E19" s="11" t="s">
         <v>71</v>
       </c>
@@ -1681,16 +1917,16 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="12"/>
@@ -1699,10 +1935,10 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A22" s="32"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="52"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="40"/>
       <c r="E22" s="13" t="s">
         <v>62</v>
       </c>
@@ -1711,26 +1947,26 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="52"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="40"/>
       <c r="E23" s="16"/>
       <c r="F23" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="50" t="s">
+      <c r="D24" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="12" t="s">
@@ -1741,26 +1977,26 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="51"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="8"/>
       <c r="F25" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="50" t="s">
+      <c r="D26" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="12" t="s">
@@ -1771,10 +2007,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="51"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="8" t="s">
         <v>77</v>
       </c>
@@ -1783,16 +2019,16 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E28" s="12" t="s">
@@ -1803,10 +2039,10 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A29" s="32"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="53"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="33"/>
       <c r="E29" s="16" t="s">
         <v>82</v>
       </c>
@@ -1815,10 +2051,10 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="51"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="8" t="s">
         <v>84</v>
       </c>
@@ -1827,16 +2063,16 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="50" t="s">
+      <c r="D31" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="12" t="s">
@@ -1847,10 +2083,10 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A32" s="32"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="53"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="33"/>
       <c r="E32" s="16" t="s">
         <v>82</v>
       </c>
@@ -1859,10 +2095,10 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="51"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="23"/>
       <c r="E33" s="8" t="s">
         <v>87</v>
       </c>
@@ -1871,16 +2107,16 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="48" t="s">
+      <c r="A34" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="50" t="s">
+      <c r="D34" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E34" s="12" t="s">
@@ -1889,10 +2125,10 @@
       <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="51"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="8" t="s">
         <v>94</v>
       </c>
@@ -1901,16 +2137,16 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="50" t="s">
+      <c r="D36" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E36" s="12" t="s">
@@ -1921,26 +2157,26 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="51"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="23"/>
       <c r="E37" s="8"/>
       <c r="F37" s="9" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="48" t="s">
+      <c r="A38" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="50" t="s">
+      <c r="D38" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E38" s="12" t="s">
@@ -1951,10 +2187,10 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="51"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="23"/>
       <c r="E39" s="8" t="s">
         <v>106</v>
       </c>
@@ -1963,16 +2199,16 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="48" t="s">
+      <c r="A40" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="D40" s="50" t="s">
+      <c r="D40" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E40" s="12" t="s">
@@ -1983,10 +2219,10 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="51"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="23"/>
       <c r="E41" s="8" t="s">
         <v>109</v>
       </c>
@@ -1994,25 +2230,361 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:6" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="50.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="27"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="27"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="B47" s="62"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
+    </row>
+    <row r="48" spans="1:6" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="27"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="83.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="27"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="B53" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A54" s="59"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="61"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="B56" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A57" s="59"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A58" s="59"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="59"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="61"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
+  <mergeCells count="90">
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="C36:C37"/>
@@ -2025,48 +2597,26 @@
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="C28:C30"/>
     <mergeCell ref="D28:D30"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C38:C39"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="null!A1" display="Test Case ID" xr:uid="{DDA96A86-26DC-4AFB-8004-D958B8DC7B8E}"/>
-    <hyperlink ref="A2" location="null!A2:A24" display="Section 1" xr:uid="{E45C9948-449C-41B6-86CD-DFB7A8889B07}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/test/resources/test_descriptions/RottenTomatoes_TestCases.xlsx
+++ b/src/test/resources/test_descriptions/RottenTomatoes_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\project\UITest2Code\src\test\resources\test_descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D11284-2559-411A-B53E-13C5265317C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23ABD9B-27E6-4B54-9275-21751C338CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{791CFF3F-B61E-4861-A956-A2059CE938E6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="167">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -448,9 +448,6 @@
     <t>2. Click the link Top Movies</t>
   </si>
   <si>
-    <t>The TOP MOVIES page will be displayed with the titles BEST MOVIES OF 2021, TOP 100 MOVIES BY GENRE, BEST MOVIES OF ALL TIME, BEST MOVIES OF 2020, MOVIE AWARD WINNERS, BEST MOVIES BY YEAR, BEST MOVIES OF 2019, BEST MOVIES OF 2019, MOVIE GUIDES</t>
-  </si>
-  <si>
     <t>Movies - Top Movies</t>
   </si>
   <si>
@@ -503,6 +500,39 @@
   </si>
   <si>
     <t>A menu will be displayed. under the CERTIFIED FRESH PICKS title there are three movies.</t>
+  </si>
+  <si>
+    <t>The TOP MOVIES page will be displayed with the titles BEST MOVIES OF 2021, TOP 100 MOVIES BY GENRE, BEST MOVIES OF ALL TIME, BEST MOVIES OF 2020, MOVIE AWARD WINNERS, BEST MOVIES BY YEAR, BEST MOVIES OF 2019, TODAY'S TOP RATED MOVIES, MOVIE GUIDES</t>
+  </si>
+  <si>
+    <t>Verify that changing a year is possible in the TOP 100 MOVIES OF 2021 page</t>
+  </si>
+  <si>
+    <t>Movies - TOP 100 MOVIES OF 2021 - Change Year</t>
+  </si>
+  <si>
+    <t>Movies - TOP 100 MOVIES OF 2021 - Sorted by Adjusted Score</t>
+  </si>
+  <si>
+    <t>TOP 100 MOVIES OF 2021 page will be displayed.</t>
+  </si>
+  <si>
+    <t>4. Hover over the Sorted by Adjusted Score glyphicon</t>
+  </si>
+  <si>
+    <t>A tooltip will be displayed, with the text "Each critic from our discrete list gets one vote, weighted equally. A movie must have 40 or more rated reviews to be considered. The 'Adjusted Score' comes from a weighted formula (Bayesian) that we use that accounts for variation in the number of reviews per movie."</t>
+  </si>
+  <si>
+    <t>5. Hover to a different point in the page</t>
+  </si>
+  <si>
+    <t>The tooltip won't be visible anymore.</t>
+  </si>
+  <si>
+    <t>RT_26</t>
+  </si>
+  <si>
+    <t>Verify that the Sorted by Adjusted Score information is presented after hovering over the '?' glyphicon in the TOP 100 MOVIES OF 2021 page</t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1159,99 +1189,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1264,26 +1201,113 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1599,10 +1623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B4C97A-71D1-473B-A994-4B6E5B9F3EEF}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1635,26 +1659,26 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="49" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -1665,10 +1689,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="38"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
@@ -1677,16 +1701,16 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="43" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="3"/>
@@ -1695,10 +1719,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="39"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="8" t="s">
         <v>17</v>
       </c>
@@ -1707,16 +1731,16 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="49" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="3"/>
@@ -1725,10 +1749,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="38"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="50"/>
       <c r="E8" s="13" t="s">
         <v>21</v>
       </c>
@@ -1737,10 +1761,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="38"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="50"/>
       <c r="E9" s="10" t="s">
         <v>23</v>
       </c>
@@ -1749,16 +1773,16 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="43" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="12" t="s">
@@ -1767,10 +1791,10 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="38"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="50"/>
       <c r="E11" s="13" t="s">
         <v>39</v>
       </c>
@@ -1779,16 +1803,16 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="43" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="12" t="s">
@@ -1799,10 +1823,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="38"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="50"/>
       <c r="E13" s="13" t="s">
         <v>42</v>
       </c>
@@ -1811,16 +1835,16 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="43" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="12" t="s">
@@ -1831,10 +1855,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A15" s="42"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="38"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="50"/>
       <c r="E15" s="15" t="s">
         <v>53</v>
       </c>
@@ -1843,10 +1867,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="38"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="50"/>
       <c r="E16" s="15" t="s">
         <v>55</v>
       </c>
@@ -1855,16 +1879,16 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="43" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="12"/>
@@ -1873,10 +1897,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="35"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="38"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="13" t="s">
         <v>70</v>
       </c>
@@ -1885,10 +1909,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="39"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="44"/>
       <c r="E19" s="11" t="s">
         <v>71</v>
       </c>
@@ -1917,16 +1941,16 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="32" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="12"/>
@@ -1935,10 +1959,10 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="40"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="60"/>
       <c r="E22" s="13" t="s">
         <v>62</v>
       </c>
@@ -1947,26 +1971,26 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="40"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="60"/>
       <c r="E23" s="16"/>
       <c r="F23" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="32" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="12" t="s">
@@ -1977,26 +2001,26 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="23"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="34"/>
       <c r="E25" s="8"/>
       <c r="F25" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="32" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="12" t="s">
@@ -2007,10 +2031,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="23"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="8" t="s">
         <v>77</v>
       </c>
@@ -2019,16 +2043,16 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="32" t="s">
         <v>10</v>
       </c>
       <c r="E28" s="12" t="s">
@@ -2039,9 +2063,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A29" s="30"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="32"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="30"/>
       <c r="D29" s="33"/>
       <c r="E29" s="16" t="s">
         <v>82</v>
@@ -2051,10 +2075,10 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="23"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="34"/>
       <c r="E30" s="8" t="s">
         <v>84</v>
       </c>
@@ -2063,16 +2087,16 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="32" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="12" t="s">
@@ -2083,9 +2107,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A32" s="30"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="30"/>
       <c r="D32" s="33"/>
       <c r="E32" s="16" t="s">
         <v>82</v>
@@ -2095,10 +2119,10 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="23"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="34"/>
       <c r="E33" s="8" t="s">
         <v>87</v>
       </c>
@@ -2107,16 +2131,16 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="32" t="s">
         <v>10</v>
       </c>
       <c r="E34" s="12" t="s">
@@ -2125,10 +2149,10 @@
       <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="23"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="34"/>
       <c r="E35" s="8" t="s">
         <v>94</v>
       </c>
@@ -2137,16 +2161,16 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="32" t="s">
         <v>10</v>
       </c>
       <c r="E36" s="12" t="s">
@@ -2157,26 +2181,26 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="23"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="34"/>
       <c r="E37" s="8"/>
       <c r="F37" s="9" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="32" t="s">
         <v>10</v>
       </c>
       <c r="E38" s="12" t="s">
@@ -2187,10 +2211,10 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="23"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="34"/>
       <c r="E39" s="8" t="s">
         <v>106</v>
       </c>
@@ -2199,16 +2223,16 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="32" t="s">
         <v>10</v>
       </c>
       <c r="E40" s="12" t="s">
@@ -2219,10 +2243,10 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="23"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="34"/>
       <c r="E41" s="8" t="s">
         <v>109</v>
       </c>
@@ -2231,16 +2255,16 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="53" t="s">
+      <c r="A42" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="B42" s="54" t="s">
+      <c r="B42" s="23" t="s">
         <v>111</v>
       </c>
       <c r="C42" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D42" s="55" t="s">
+      <c r="D42" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E42" s="8" t="s">
@@ -2251,16 +2275,16 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="50.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="26" t="s">
+      <c r="A43" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="32" t="s">
         <v>10</v>
       </c>
       <c r="E43" s="12" t="s">
@@ -2271,10 +2295,10 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="23"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="34"/>
       <c r="E44" s="8" t="s">
         <v>121</v>
       </c>
@@ -2283,16 +2307,16 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="32" t="s">
         <v>10</v>
       </c>
       <c r="E45" s="12" t="s">
@@ -2303,38 +2327,38 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="27"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="23"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="34"/>
       <c r="E46" s="8" t="s">
         <v>106</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="63" t="s">
-        <v>154</v>
-      </c>
-      <c r="B47" s="62"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
+      <c r="A47" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
     </row>
     <row r="48" spans="1:6" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="53" t="s">
+      <c r="A48" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B48" s="54" t="s">
+      <c r="B48" s="23" t="s">
         <v>129</v>
       </c>
       <c r="C48" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="D48" s="55" t="s">
+      <c r="D48" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E48" s="8" t="s">
@@ -2345,30 +2369,30 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="C49" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="D49" s="22" t="s">
+      <c r="C49" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" s="32" t="s">
         <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
         <v>131</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="27"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="23"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="34"/>
       <c r="E50" s="8" t="s">
         <v>133</v>
       </c>
@@ -2377,16 +2401,16 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="B51" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="D51" s="22" t="s">
+      <c r="A51" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="B51" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D51" s="32" t="s">
         <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
@@ -2397,28 +2421,28 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="83.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="27"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="23"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="34"/>
       <c r="E52" s="8" t="s">
         <v>137</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="B53" s="57" t="s">
+      <c r="A53" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B53" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="C53" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="D53" s="22" t="s">
+      <c r="D53" s="32" t="s">
         <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
@@ -2429,40 +2453,40 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A54" s="59"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="32"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="30"/>
       <c r="D54" s="33"/>
-      <c r="E54" s="56" t="s">
+      <c r="E54" s="25" t="s">
         <v>137</v>
       </c>
       <c r="F54" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="28"/>
+      <c r="B55" s="61"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="8" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="61"/>
-      <c r="B55" s="60"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="8" t="s">
+      <c r="F55" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="F55" s="9" t="s">
-        <v>146</v>
-      </c>
     </row>
     <row r="56" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="B56" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="C56" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="D56" s="22" t="s">
+      <c r="A56" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B56" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D56" s="32" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
@@ -2473,118 +2497,140 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A57" s="59"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="32"/>
+      <c r="A57" s="27"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="30"/>
       <c r="D57" s="33"/>
-      <c r="E57" s="56" t="s">
+      <c r="E57" s="25" t="s">
         <v>137</v>
       </c>
       <c r="F57" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A58" s="27"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="25" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A58" s="59"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="56" t="s">
+      <c r="F58" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F58" s="6" t="s">
-        <v>146</v>
-      </c>
     </row>
     <row r="59" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="59"/>
-      <c r="B59" s="58"/>
-      <c r="C59" s="32"/>
+      <c r="A59" s="27"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="30"/>
       <c r="D59" s="33"/>
-      <c r="E59" s="56" t="s">
+      <c r="E59" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="F59" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="F59" s="6" t="s">
+    </row>
+    <row r="60" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="28"/>
+      <c r="B60" s="61"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="8" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="61"/>
-      <c r="B60" s="60"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="8" t="s">
+      <c r="F60" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="F60" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="61" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="B61" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="D61" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A62" s="27"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A63" s="27"/>
+      <c r="B63" s="55"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="99" x14ac:dyDescent="0.2">
+      <c r="A64" s="27"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="28"/>
+      <c r="B65" s="61"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="90">
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
+  <mergeCells count="94">
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="C61:C65"/>
+    <mergeCell ref="D61:D65"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D38:D39"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="C36:C37"/>
@@ -2601,18 +2647,68 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="C31:C33"/>
     <mergeCell ref="D31:D33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="A53:A55"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>

--- a/src/test/resources/test_descriptions/RottenTomatoes_TestCases.xlsx
+++ b/src/test/resources/test_descriptions/RottenTomatoes_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\project\UITest2Code\src\test\resources\test_descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23ABD9B-27E6-4B54-9275-21751C338CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22D91FC-76B9-44F1-AEC0-6E9D38F0FBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{791CFF3F-B61E-4861-A956-A2059CE938E6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="211">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -533,6 +533,138 @@
   </si>
   <si>
     <t>Verify that the Sorted by Adjusted Score information is presented after hovering over the '?' glyphicon in the TOP 100 MOVIES OF 2021 page</t>
+  </si>
+  <si>
+    <t>Movies - Browse All - Sort By Tomatometer</t>
+  </si>
+  <si>
+    <t>Movies - Browse All - Show More</t>
+  </si>
+  <si>
+    <t>ON DVD &amp; STREAMING - Display</t>
+  </si>
+  <si>
+    <t>ON DVD &amp; STREAMING - New on DVD - Hover</t>
+  </si>
+  <si>
+    <t>ON DVD &amp; STREAMING - New on DVD - Next</t>
+  </si>
+  <si>
+    <t>2. Click the link Browse All</t>
+  </si>
+  <si>
+    <t>BROWSE ALL page title will be presented</t>
+  </si>
+  <si>
+    <t>3. Hover over the sort dropdown</t>
+  </si>
+  <si>
+    <t>The dropdown options will be displayed</t>
+  </si>
+  <si>
+    <t>The results are sorted by higher tomatometer scores first</t>
+  </si>
+  <si>
+    <t>4. Click Tomatomater</t>
+  </si>
+  <si>
+    <t>RT_27</t>
+  </si>
+  <si>
+    <t>RT_28</t>
+  </si>
+  <si>
+    <t>Verify that sorting by tomatometer movies works</t>
+  </si>
+  <si>
+    <t>Verify that clicking the show more button in the browse all page works</t>
+  </si>
+  <si>
+    <t>3. Click The Show More button</t>
+  </si>
+  <si>
+    <t>BROWSE ALL page title will be presented with 32 results, as mentioned in the count link</t>
+  </si>
+  <si>
+    <t>64 results will be presented, as mentioned in the count link</t>
+  </si>
+  <si>
+    <t>3. Hover over Movies &amp; DVDs</t>
+  </si>
+  <si>
+    <t>4. Click the title ON DVD &amp; STREAMING</t>
+  </si>
+  <si>
+    <t>The following titles will be presented: NEW ON DVD, UPCOMING DVDS, CERTIFIED FRESH PICK, WHAT'S HOT ON RT, TOP RENTALS, CRITICS' BUZZ, GALLERIES, NEWS &amp; FEATURES</t>
+  </si>
+  <si>
+    <t>RT_29</t>
+  </si>
+  <si>
+    <t>RT_30</t>
+  </si>
+  <si>
+    <t>RT_31</t>
+  </si>
+  <si>
+    <t>ON DVD &amp; STREAMING - Galleries</t>
+  </si>
+  <si>
+    <t>A page with the title GALLERIES will be displayed</t>
+  </si>
+  <si>
+    <t>A photos page will be displayed, with a photo gallery</t>
+  </si>
+  <si>
+    <t>RT_32</t>
+  </si>
+  <si>
+    <t>New on dvd section will be presented, including a movies carousel</t>
+  </si>
+  <si>
+    <t>5. Click one of the media article links under the Galleries title</t>
+  </si>
+  <si>
+    <t>5. Hover over one of the movies posters</t>
+  </si>
+  <si>
+    <t>A poster caption for the poster image will be displayed</t>
+  </si>
+  <si>
+    <t>RT_33</t>
+  </si>
+  <si>
+    <t>5.Click the next button in the carousel</t>
+  </si>
+  <si>
+    <t>Different movies are presented in the carousel</t>
+  </si>
+  <si>
+    <t>Verify that ON DVD &amp; STREAMING page is displayed well</t>
+  </si>
+  <si>
+    <t>Verify that the galleries media items are functioning well in the ON DVD &amp; STREAMING page</t>
+  </si>
+  <si>
+    <t>Verify that the hovering function in the New on DVD section in the ON DVD &amp; STREAMING page works</t>
+  </si>
+  <si>
+    <t>Verify that the next function in the New on DVD section in the ON DVD &amp; STREAMING page works</t>
+  </si>
+  <si>
+    <t>Movies - Browse All - Genre</t>
+  </si>
+  <si>
+    <t>3. Hover over the genre dropdown</t>
+  </si>
+  <si>
+    <t>4. Click the 'only' link in the Action option</t>
+  </si>
+  <si>
+    <t>The number of results will decrease</t>
+  </si>
+  <si>
+    <t>Verify that sorting by genre function in the browse all page works</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1201,6 +1333,33 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1210,22 +1369,46 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1234,48 +1417,15 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1285,30 +1435,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1623,10 +1756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B4C97A-71D1-473B-A994-4B6E5B9F3EEF}">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77:D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1659,26 +1792,26 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="55" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="56" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -1689,10 +1822,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="48"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="30"/>
-      <c r="D4" s="50"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
@@ -1701,16 +1834,16 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="40" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="47" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="3"/>
@@ -1719,10 +1852,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="40"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="31"/>
-      <c r="D6" s="44"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="8" t="s">
         <v>17</v>
       </c>
@@ -1731,16 +1864,16 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="56" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="3"/>
@@ -1749,10 +1882,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="52"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="50"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="48"/>
       <c r="E8" s="13" t="s">
         <v>21</v>
       </c>
@@ -1761,10 +1894,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="50"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="10" t="s">
         <v>23</v>
       </c>
@@ -1773,16 +1906,16 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="47" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="12" t="s">
@@ -1791,10 +1924,10 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
-      <c r="B11" s="55"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="30"/>
-      <c r="D11" s="50"/>
+      <c r="D11" s="48"/>
       <c r="E11" s="13" t="s">
         <v>39</v>
       </c>
@@ -1803,16 +1936,16 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="40" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="47" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="12" t="s">
@@ -1823,10 +1956,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
-      <c r="B13" s="48"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="30"/>
-      <c r="D13" s="50"/>
+      <c r="D13" s="48"/>
       <c r="E13" s="13" t="s">
         <v>42</v>
       </c>
@@ -1835,16 +1968,16 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="26" t="s">
         <v>47</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="47" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="12" t="s">
@@ -1855,10 +1988,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A15" s="59"/>
-      <c r="B15" s="55"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="30"/>
-      <c r="D15" s="50"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="15" t="s">
         <v>53</v>
       </c>
@@ -1867,10 +2000,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
-      <c r="B16" s="55"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="30"/>
-      <c r="D16" s="50"/>
+      <c r="D16" s="48"/>
       <c r="E16" s="15" t="s">
         <v>55</v>
       </c>
@@ -1879,16 +2012,16 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="40" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="47" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="12"/>
@@ -1897,10 +2030,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="58"/>
-      <c r="B18" s="48"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="30"/>
-      <c r="D18" s="50"/>
+      <c r="D18" s="48"/>
       <c r="E18" s="13" t="s">
         <v>70</v>
       </c>
@@ -1909,10 +2042,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="40"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="31"/>
-      <c r="D19" s="44"/>
+      <c r="D19" s="49"/>
       <c r="E19" s="11" t="s">
         <v>71</v>
       </c>
@@ -1941,10 +2074,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="40" t="s">
         <v>60</v>
       </c>
       <c r="C21" s="29" t="s">
@@ -1959,10 +2092,10 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A22" s="46"/>
-      <c r="B22" s="48"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="30"/>
-      <c r="D22" s="60"/>
+      <c r="D22" s="50"/>
       <c r="E22" s="13" t="s">
         <v>62</v>
       </c>
@@ -1971,20 +2104,20 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
-      <c r="B23" s="48"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="30"/>
-      <c r="D23" s="60"/>
+      <c r="D23" s="50"/>
       <c r="E23" s="16"/>
       <c r="F23" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="40" t="s">
         <v>66</v>
       </c>
       <c r="C24" s="29" t="s">
@@ -2001,8 +2134,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="40"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="41"/>
       <c r="C25" s="31"/>
       <c r="D25" s="34"/>
       <c r="E25" s="8"/>
@@ -2011,10 +2144,10 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="40" t="s">
         <v>75</v>
       </c>
       <c r="C26" s="29" t="s">
@@ -2031,8 +2164,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="40"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="41"/>
       <c r="C27" s="31"/>
       <c r="D27" s="34"/>
       <c r="E27" s="8" t="s">
@@ -2043,10 +2176,10 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="40" t="s">
         <v>80</v>
       </c>
       <c r="C28" s="29" t="s">
@@ -2063,8 +2196,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A29" s="46"/>
-      <c r="B29" s="48"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="30"/>
       <c r="D29" s="33"/>
       <c r="E29" s="16" t="s">
@@ -2075,8 +2208,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
-      <c r="B30" s="40"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="31"/>
       <c r="D30" s="34"/>
       <c r="E30" s="8" t="s">
@@ -2087,10 +2220,10 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="40" t="s">
         <v>80</v>
       </c>
       <c r="C31" s="29" t="s">
@@ -2107,8 +2240,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A32" s="46"/>
-      <c r="B32" s="48"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="43"/>
       <c r="C32" s="30"/>
       <c r="D32" s="33"/>
       <c r="E32" s="16" t="s">
@@ -2119,8 +2252,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
-      <c r="B33" s="40"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="41"/>
       <c r="C33" s="31"/>
       <c r="D33" s="34"/>
       <c r="E33" s="8" t="s">
@@ -2130,11 +2263,11 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="37" t="s">
+    <row r="34" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="40" t="s">
         <v>91</v>
       </c>
       <c r="C34" s="29" t="s">
@@ -2149,8 +2282,8 @@
       <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
-      <c r="B35" s="40"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="41"/>
       <c r="C35" s="31"/>
       <c r="D35" s="34"/>
       <c r="E35" s="8" t="s">
@@ -2160,11 +2293,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="37" t="s">
+    <row r="36" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="40" t="s">
         <v>96</v>
       </c>
       <c r="C36" s="29" t="s">
@@ -2181,8 +2314,8 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
-      <c r="B37" s="40"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="41"/>
       <c r="C37" s="31"/>
       <c r="D37" s="34"/>
       <c r="E37" s="8"/>
@@ -2191,10 +2324,10 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="40" t="s">
         <v>100</v>
       </c>
       <c r="C38" s="29" t="s">
@@ -2210,9 +2343,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
-      <c r="B39" s="40"/>
+    <row r="39" spans="1:6" ht="66.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="39"/>
+      <c r="B39" s="41"/>
       <c r="C39" s="31"/>
       <c r="D39" s="34"/>
       <c r="E39" s="8" t="s">
@@ -2223,10 +2356,10 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="37" t="s">
+      <c r="A40" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="40" t="s">
         <v>101</v>
       </c>
       <c r="C40" s="29" t="s">
@@ -2243,8 +2376,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
-      <c r="B41" s="40"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="41"/>
       <c r="C41" s="31"/>
       <c r="D41" s="34"/>
       <c r="E41" s="8" t="s">
@@ -2275,10 +2408,10 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="50.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="37" t="s">
+      <c r="A43" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="B43" s="39" t="s">
+      <c r="B43" s="40" t="s">
         <v>116</v>
       </c>
       <c r="C43" s="29" t="s">
@@ -2295,8 +2428,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
-      <c r="B44" s="40"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="41"/>
       <c r="C44" s="31"/>
       <c r="D44" s="34"/>
       <c r="E44" s="8" t="s">
@@ -2307,10 +2440,10 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="B45" s="39" t="s">
+      <c r="B45" s="40" t="s">
         <v>123</v>
       </c>
       <c r="C45" s="29" t="s">
@@ -2327,8 +2460,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
-      <c r="B46" s="40"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="41"/>
       <c r="C46" s="31"/>
       <c r="D46" s="34"/>
       <c r="E46" s="8" t="s">
@@ -2339,14 +2472,14 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
     </row>
     <row r="48" spans="1:6" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
@@ -2369,10 +2502,10 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="37" t="s">
+      <c r="A49" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="B49" s="39" t="s">
+      <c r="B49" s="40" t="s">
         <v>135</v>
       </c>
       <c r="C49" s="29" t="s">
@@ -2389,8 +2522,8 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="38"/>
-      <c r="B50" s="40"/>
+      <c r="A50" s="39"/>
+      <c r="B50" s="41"/>
       <c r="C50" s="31"/>
       <c r="D50" s="34"/>
       <c r="E50" s="8" t="s">
@@ -2400,11 +2533,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="37" t="s">
+    <row r="51" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="B51" s="39" t="s">
+      <c r="B51" s="40" t="s">
         <v>138</v>
       </c>
       <c r="C51" s="29" t="s">
@@ -2421,8 +2554,8 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="83.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
-      <c r="B52" s="40"/>
+      <c r="A52" s="39"/>
+      <c r="B52" s="41"/>
       <c r="C52" s="31"/>
       <c r="D52" s="34"/>
       <c r="E52" s="8" t="s">
@@ -2432,11 +2565,11 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="26" t="s">
+    <row r="53" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="B53" s="54" t="s">
+      <c r="B53" s="26" t="s">
         <v>141</v>
       </c>
       <c r="C53" s="29" t="s">
@@ -2453,8 +2586,8 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A54" s="27"/>
-      <c r="B54" s="55"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="27"/>
       <c r="C54" s="30"/>
       <c r="D54" s="33"/>
       <c r="E54" s="25" t="s">
@@ -2465,8 +2598,8 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="28"/>
-      <c r="B55" s="61"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="28"/>
       <c r="C55" s="31"/>
       <c r="D55" s="34"/>
       <c r="E55" s="8" t="s">
@@ -2477,10 +2610,10 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="26" t="s">
+      <c r="A56" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="B56" s="54" t="s">
+      <c r="B56" s="26" t="s">
         <v>158</v>
       </c>
       <c r="C56" s="29" t="s">
@@ -2497,8 +2630,8 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A57" s="27"/>
-      <c r="B57" s="55"/>
+      <c r="A57" s="36"/>
+      <c r="B57" s="27"/>
       <c r="C57" s="30"/>
       <c r="D57" s="33"/>
       <c r="E57" s="25" t="s">
@@ -2509,8 +2642,8 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A58" s="27"/>
-      <c r="B58" s="55"/>
+      <c r="A58" s="36"/>
+      <c r="B58" s="27"/>
       <c r="C58" s="30"/>
       <c r="D58" s="33"/>
       <c r="E58" s="25" t="s">
@@ -2521,8 +2654,8 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="27"/>
-      <c r="B59" s="55"/>
+      <c r="A59" s="36"/>
+      <c r="B59" s="27"/>
       <c r="C59" s="30"/>
       <c r="D59" s="33"/>
       <c r="E59" s="25" t="s">
@@ -2533,8 +2666,8 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="28"/>
-      <c r="B60" s="61"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="28"/>
       <c r="C60" s="31"/>
       <c r="D60" s="34"/>
       <c r="E60" s="8" t="s">
@@ -2545,10 +2678,10 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="26" t="s">
+      <c r="A61" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="B61" s="54" t="s">
+      <c r="B61" s="26" t="s">
         <v>159</v>
       </c>
       <c r="C61" s="29" t="s">
@@ -2565,8 +2698,8 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A62" s="27"/>
-      <c r="B62" s="55"/>
+      <c r="A62" s="36"/>
+      <c r="B62" s="27"/>
       <c r="C62" s="30"/>
       <c r="D62" s="33"/>
       <c r="E62" s="25" t="s">
@@ -2577,8 +2710,8 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A63" s="27"/>
-      <c r="B63" s="55"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="27"/>
       <c r="C63" s="30"/>
       <c r="D63" s="33"/>
       <c r="E63" s="25" t="s">
@@ -2589,8 +2722,8 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="99" x14ac:dyDescent="0.2">
-      <c r="A64" s="27"/>
-      <c r="B64" s="55"/>
+      <c r="A64" s="36"/>
+      <c r="B64" s="27"/>
       <c r="C64" s="30"/>
       <c r="D64" s="33"/>
       <c r="E64" s="25" t="s">
@@ -2601,8 +2734,8 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="28"/>
-      <c r="B65" s="61"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="28"/>
       <c r="C65" s="31"/>
       <c r="D65" s="34"/>
       <c r="E65" s="8" t="s">
@@ -2612,92 +2745,451 @@
         <v>164</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="66" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C66" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="D66" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F66" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="36"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="36"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="37"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C70" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="D70" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F70" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A71" s="36"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="37"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="B73" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="C73" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="D73" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="42"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="48"/>
+      <c r="E74" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="42"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="42"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="48"/>
+      <c r="E76" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="C77" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="D77" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F77" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="36"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="F78" s="6"/>
+    </row>
+    <row r="79" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="36"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="66.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="37"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="B81" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="C81" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="D81" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F81" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="36"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="F82" s="6"/>
+    </row>
+    <row r="83" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="36"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="36"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="37"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="B86" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C86" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="D86" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F86" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="36"/>
+      <c r="B87" s="27"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" s="6"/>
+    </row>
+    <row r="88" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="36"/>
+      <c r="B88" s="27"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A89" s="36"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="37"/>
+      <c r="B90" s="28"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="34"/>
+      <c r="E90" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="B91" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C91" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="D91" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F91" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A92" s="36"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="F92" s="6"/>
+    </row>
+    <row r="93" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A93" s="36"/>
+      <c r="B93" s="27"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A94" s="36"/>
+      <c r="B94" s="27"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="37"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B97" s="62"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B98" s="62"/>
+    </row>
   </sheetData>
-  <mergeCells count="94">
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="C61:C65"/>
-    <mergeCell ref="D61:D65"/>
-    <mergeCell ref="A61:A65"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="B56:B60"/>
+  <mergeCells count="122">
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="C86:C90"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="C91:C95"/>
+    <mergeCell ref="D91:D95"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="C81:C85"/>
+    <mergeCell ref="D81:D85"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="C73:C76"/>
+    <mergeCell ref="D73:D76"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:D72"/>
     <mergeCell ref="C56:C60"/>
     <mergeCell ref="D56:D60"/>
     <mergeCell ref="A47:F47"/>
@@ -2709,6 +3201,89 @@
     <mergeCell ref="C53:C55"/>
     <mergeCell ref="B53:B55"/>
     <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="C61:C65"/>
+    <mergeCell ref="D61:D65"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="B56:B60"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>

--- a/src/test/resources/test_descriptions/RottenTomatoes_TestCases.xlsx
+++ b/src/test/resources/test_descriptions/RottenTomatoes_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\project\UITest2Code\src\test\resources\test_descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22D91FC-76B9-44F1-AEC0-6E9D38F0FBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BEF56C-361C-4CA5-A7AA-79D668E0A270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{791CFF3F-B61E-4861-A956-A2059CE938E6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="228">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -622,9 +622,6 @@
     <t>New on dvd section will be presented, including a movies carousel</t>
   </si>
   <si>
-    <t>5. Click one of the media article links under the Galleries title</t>
-  </si>
-  <si>
     <t>5. Hover over one of the movies posters</t>
   </si>
   <si>
@@ -634,9 +631,6 @@
     <t>RT_33</t>
   </si>
   <si>
-    <t>5.Click the next button in the carousel</t>
-  </si>
-  <si>
     <t>Different movies are presented in the carousel</t>
   </si>
   <si>
@@ -665,6 +659,63 @@
   </si>
   <si>
     <t>Verify that sorting by genre function in the browse all page works</t>
+  </si>
+  <si>
+    <t>5. Click one of the media links under the Galleries title</t>
+  </si>
+  <si>
+    <t>RT_34</t>
+  </si>
+  <si>
+    <t>A page with the title NEWS &amp; INTERVIEWS will be displayed</t>
+  </si>
+  <si>
+    <t>ON DVD &amp; STREAMING - More News &amp; Interview - Display</t>
+  </si>
+  <si>
+    <t>ON DVD &amp; STREAMING - More News &amp; Interview - Next</t>
+  </si>
+  <si>
+    <t>5. Click the More News &amp; Interview link</t>
+  </si>
+  <si>
+    <t>5. Click the next button in the carousel</t>
+  </si>
+  <si>
+    <t>6. Click the Next link</t>
+  </si>
+  <si>
+    <t>different articles are presented, and a previous link</t>
+  </si>
+  <si>
+    <t>6. Click the page dropdown</t>
+  </si>
+  <si>
+    <t>The dropdown option go from 1 to the indicated number of pages</t>
+  </si>
+  <si>
+    <t>7. Choose page 2</t>
+  </si>
+  <si>
+    <t>different articles are presented, and a previous link. The 2 is selected in the dropdown</t>
+  </si>
+  <si>
+    <t>ON DVD &amp; STREAMING - More News &amp; Interview - Dropdown</t>
+  </si>
+  <si>
+    <t>Verify that the next link is working in the More News &amp; Interview page</t>
+  </si>
+  <si>
+    <t>Verify that the link More News &amp; Interview is working in the ON DVD &amp; STREAMING page works</t>
+  </si>
+  <si>
+    <t>Verify that the page selector dropdown link is working in the More News &amp; Interview page</t>
+  </si>
+  <si>
+    <t>RT_35</t>
+  </si>
+  <si>
+    <t>RT_36</t>
   </si>
 </sst>
 </file>
@@ -1256,7 +1307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1333,6 +1384,15 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1360,55 +1420,22 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1417,31 +1444,54 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1756,10 +1806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B4C97A-71D1-473B-A994-4B6E5B9F3EEF}">
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77:D80"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1792,23 +1842,23 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
     </row>
     <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="33" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="56" t="s">
@@ -1822,10 +1872,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="48"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
@@ -1834,16 +1884,16 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="3"/>
@@ -1852,10 +1902,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="49"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="8" t="s">
         <v>17</v>
       </c>
@@ -1864,13 +1914,13 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="56" t="s">
@@ -1882,10 +1932,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="58"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="48"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="13" t="s">
         <v>21</v>
       </c>
@@ -1894,10 +1944,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="48"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="10" t="s">
         <v>23</v>
       </c>
@@ -1906,16 +1956,16 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="12" t="s">
@@ -1924,10 +1974,10 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="48"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="13" t="s">
         <v>39</v>
       </c>
@@ -1936,16 +1986,16 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="50" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="12" t="s">
@@ -1956,10 +2006,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="48"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="13" t="s">
         <v>42</v>
       </c>
@@ -1968,16 +2018,16 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="12" t="s">
@@ -1988,10 +2038,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A15" s="51"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="48"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="15" t="s">
         <v>53</v>
       </c>
@@ -2000,10 +2050,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="48"/>
+      <c r="A16" s="60"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="43"/>
       <c r="E16" s="15" t="s">
         <v>55</v>
       </c>
@@ -2012,16 +2062,16 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="50" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="12"/>
@@ -2030,10 +2080,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="45"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="48"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="13" t="s">
         <v>70</v>
       </c>
@@ -2042,10 +2092,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="49"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="11" t="s">
         <v>71</v>
       </c>
@@ -2080,10 +2130,10 @@
       <c r="B21" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="35" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="12"/>
@@ -2092,10 +2142,10 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A22" s="42"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="50"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="61"/>
       <c r="E22" s="13" t="s">
         <v>62</v>
       </c>
@@ -2104,10 +2154,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="50"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="61"/>
       <c r="E23" s="16"/>
       <c r="F23" s="9" t="s">
         <v>64</v>
@@ -2120,10 +2170,10 @@
       <c r="B24" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="35" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="12" t="s">
@@ -2134,10 +2184,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="34"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="37"/>
       <c r="E25" s="8"/>
       <c r="F25" s="9" t="s">
         <v>73</v>
@@ -2150,10 +2200,10 @@
       <c r="B26" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="35" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="12" t="s">
@@ -2164,10 +2214,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="34"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="37"/>
       <c r="E27" s="8" t="s">
         <v>77</v>
       </c>
@@ -2182,10 +2232,10 @@
       <c r="B28" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="35" t="s">
         <v>10</v>
       </c>
       <c r="E28" s="12" t="s">
@@ -2196,10 +2246,10 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A29" s="42"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="33"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="36"/>
       <c r="E29" s="16" t="s">
         <v>82</v>
       </c>
@@ -2208,10 +2258,10 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="34"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="37"/>
       <c r="E30" s="8" t="s">
         <v>84</v>
       </c>
@@ -2226,10 +2276,10 @@
       <c r="B31" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="35" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="12" t="s">
@@ -2240,10 +2290,10 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A32" s="42"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="33"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="36"/>
       <c r="E32" s="16" t="s">
         <v>82</v>
       </c>
@@ -2252,10 +2302,10 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="34"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="37"/>
       <c r="E33" s="8" t="s">
         <v>87</v>
       </c>
@@ -2270,10 +2320,10 @@
       <c r="B34" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D34" s="35" t="s">
         <v>10</v>
       </c>
       <c r="E34" s="12" t="s">
@@ -2282,10 +2332,10 @@
       <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="34"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="37"/>
       <c r="E35" s="8" t="s">
         <v>94</v>
       </c>
@@ -2300,10 +2350,10 @@
       <c r="B36" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D36" s="35" t="s">
         <v>10</v>
       </c>
       <c r="E36" s="12" t="s">
@@ -2314,10 +2364,10 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="34"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="37"/>
       <c r="E37" s="8"/>
       <c r="F37" s="9" t="s">
         <v>99</v>
@@ -2330,10 +2380,10 @@
       <c r="B38" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="32" t="s">
+      <c r="D38" s="35" t="s">
         <v>10</v>
       </c>
       <c r="E38" s="12" t="s">
@@ -2344,10 +2394,10 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="66.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="34"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="37"/>
       <c r="E39" s="8" t="s">
         <v>106</v>
       </c>
@@ -2362,10 +2412,10 @@
       <c r="B40" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C40" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="D40" s="32" t="s">
+      <c r="D40" s="35" t="s">
         <v>10</v>
       </c>
       <c r="E40" s="12" t="s">
@@ -2376,10 +2426,10 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="34"/>
+      <c r="A41" s="46"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="37"/>
       <c r="E41" s="8" t="s">
         <v>109</v>
       </c>
@@ -2414,10 +2464,10 @@
       <c r="B43" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="D43" s="32" t="s">
+      <c r="D43" s="35" t="s">
         <v>10</v>
       </c>
       <c r="E43" s="12" t="s">
@@ -2428,10 +2478,10 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="34"/>
+      <c r="A44" s="46"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="37"/>
       <c r="E44" s="8" t="s">
         <v>121</v>
       </c>
@@ -2446,10 +2496,10 @@
       <c r="B45" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="C45" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="D45" s="32" t="s">
+      <c r="D45" s="35" t="s">
         <v>10</v>
       </c>
       <c r="E45" s="12" t="s">
@@ -2460,10 +2510,10 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="34"/>
+      <c r="A46" s="46"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="37"/>
       <c r="E46" s="8" t="s">
         <v>106</v>
       </c>
@@ -2472,14 +2522,14 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="52" t="s">
+      <c r="A47" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="B47" s="53"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
     </row>
     <row r="48" spans="1:6" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
@@ -2508,10 +2558,10 @@
       <c r="B49" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="D49" s="32" t="s">
+      <c r="D49" s="35" t="s">
         <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
@@ -2522,10 +2572,10 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="34"/>
+      <c r="A50" s="46"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="37"/>
       <c r="E50" s="8" t="s">
         <v>133</v>
       </c>
@@ -2540,10 +2590,10 @@
       <c r="B51" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="C51" s="29" t="s">
+      <c r="C51" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="D51" s="32" t="s">
+      <c r="D51" s="35" t="s">
         <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
@@ -2554,10 +2604,10 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="83.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="39"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="34"/>
+      <c r="A52" s="46"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="37"/>
       <c r="E52" s="8" t="s">
         <v>137</v>
       </c>
@@ -2566,16 +2616,16 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="35" t="s">
+      <c r="A53" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="C53" s="29" t="s">
+      <c r="C53" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="D53" s="32" t="s">
+      <c r="D53" s="35" t="s">
         <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
@@ -2586,10 +2636,10 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A54" s="36"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="33"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="36"/>
       <c r="E54" s="25" t="s">
         <v>137</v>
       </c>
@@ -2598,10 +2648,10 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="37"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="34"/>
+      <c r="A55" s="28"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="37"/>
       <c r="E55" s="8" t="s">
         <v>144</v>
       </c>
@@ -2610,16 +2660,16 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="35" t="s">
+      <c r="A56" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B56" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="C56" s="29" t="s">
+      <c r="C56" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="D56" s="32" t="s">
+      <c r="D56" s="35" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
@@ -2630,10 +2680,10 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A57" s="36"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="33"/>
+      <c r="A57" s="27"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="36"/>
       <c r="E57" s="25" t="s">
         <v>137</v>
       </c>
@@ -2642,10 +2692,10 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A58" s="36"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="33"/>
+      <c r="A58" s="27"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="36"/>
       <c r="E58" s="25" t="s">
         <v>144</v>
       </c>
@@ -2654,10 +2704,10 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="36"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="33"/>
+      <c r="A59" s="27"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="36"/>
       <c r="E59" s="25" t="s">
         <v>148</v>
       </c>
@@ -2666,10 +2716,10 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="37"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="34"/>
+      <c r="A60" s="28"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="37"/>
       <c r="E60" s="8" t="s">
         <v>150</v>
       </c>
@@ -2678,16 +2728,16 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="35" t="s">
+      <c r="A61" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="C61" s="29" t="s">
+      <c r="C61" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="D61" s="32" t="s">
+      <c r="D61" s="35" t="s">
         <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
@@ -2698,10 +2748,10 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A62" s="36"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="33"/>
+      <c r="A62" s="27"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="36"/>
       <c r="E62" s="25" t="s">
         <v>137</v>
       </c>
@@ -2710,10 +2760,10 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A63" s="36"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="33"/>
+      <c r="A63" s="27"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="36"/>
       <c r="E63" s="25" t="s">
         <v>144</v>
       </c>
@@ -2722,10 +2772,10 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="99" x14ac:dyDescent="0.2">
-      <c r="A64" s="36"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="33"/>
+      <c r="A64" s="27"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="36"/>
       <c r="E64" s="25" t="s">
         <v>161</v>
       </c>
@@ -2734,10 +2784,10 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="37"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="34"/>
+      <c r="A65" s="28"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="37"/>
       <c r="E65" s="8" t="s">
         <v>163</v>
       </c>
@@ -2746,16 +2796,16 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="35" t="s">
+      <c r="A66" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="B66" s="26" t="s">
+      <c r="B66" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="C66" s="29" t="s">
+      <c r="C66" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="D66" s="32" t="s">
+      <c r="D66" s="35" t="s">
         <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
@@ -2766,10 +2816,10 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="36"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="33"/>
+      <c r="A67" s="27"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="36"/>
       <c r="E67" s="25" t="s">
         <v>172</v>
       </c>
@@ -2778,10 +2828,10 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="36"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="33"/>
+      <c r="A68" s="27"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="36"/>
       <c r="E68" s="25" t="s">
         <v>174</v>
       </c>
@@ -2790,10 +2840,10 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="37"/>
-      <c r="B69" s="28"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="34"/>
+      <c r="A69" s="28"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="37"/>
       <c r="E69" s="8" t="s">
         <v>177</v>
       </c>
@@ -2802,16 +2852,16 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="35" t="s">
+      <c r="A70" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="B70" s="26" t="s">
+      <c r="B70" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="C70" s="29" t="s">
+      <c r="C70" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="D70" s="32" t="s">
+      <c r="D70" s="35" t="s">
         <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
@@ -2822,10 +2872,10 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A71" s="36"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="33"/>
+      <c r="A71" s="27"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="36"/>
       <c r="E71" s="25" t="s">
         <v>172</v>
       </c>
@@ -2834,10 +2884,10 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="37"/>
-      <c r="B72" s="28"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="34"/>
+      <c r="A72" s="28"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="37"/>
       <c r="E72" s="8" t="s">
         <v>182</v>
       </c>
@@ -2850,12 +2900,12 @@
         <v>188</v>
       </c>
       <c r="B73" s="40" t="s">
-        <v>206</v>
-      </c>
-      <c r="C73" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="D73" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="C73" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="D73" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
@@ -2866,10 +2916,10 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="42"/>
-      <c r="B74" s="43"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="48"/>
+      <c r="A74" s="39"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="43"/>
       <c r="E74" s="25" t="s">
         <v>172</v>
       </c>
@@ -2878,40 +2928,40 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="42"/>
-      <c r="B75" s="43"/>
-      <c r="C75" s="30"/>
-      <c r="D75" s="48"/>
+      <c r="A75" s="39"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="43"/>
       <c r="E75" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="42"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="48"/>
+      <c r="A76" s="39"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="43"/>
       <c r="E76" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="35" t="s">
+      <c r="A77" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="B77" s="26" t="s">
+      <c r="B77" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="C77" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="D77" s="32" t="s">
+      <c r="C77" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="D77" s="35" t="s">
         <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
@@ -2922,20 +2972,20 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="36"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="30"/>
-      <c r="D78" s="33"/>
+      <c r="A78" s="27"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="36"/>
       <c r="E78" s="25" t="s">
         <v>172</v>
       </c>
       <c r="F78" s="6"/>
     </row>
     <row r="79" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="36"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="30"/>
-      <c r="D79" s="33"/>
+      <c r="A79" s="27"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="36"/>
       <c r="E79" s="25" t="s">
         <v>185</v>
       </c>
@@ -2944,10 +2994,10 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="66.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="37"/>
-      <c r="B80" s="28"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="34"/>
+      <c r="A80" s="28"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="37"/>
       <c r="E80" s="8" t="s">
         <v>186</v>
       </c>
@@ -2956,16 +3006,16 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="35" t="s">
+      <c r="A81" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="B81" s="26" t="s">
+      <c r="B81" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="C81" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="D81" s="32" t="s">
+      <c r="C81" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="D81" s="35" t="s">
         <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
@@ -2976,20 +3026,20 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="36"/>
-      <c r="B82" s="27"/>
-      <c r="C82" s="30"/>
-      <c r="D82" s="33"/>
+      <c r="A82" s="27"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="36"/>
       <c r="E82" s="25" t="s">
         <v>172</v>
       </c>
       <c r="F82" s="6"/>
     </row>
     <row r="83" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="36"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="30"/>
-      <c r="D83" s="33"/>
+      <c r="A83" s="27"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="36"/>
       <c r="E83" s="25" t="s">
         <v>185</v>
       </c>
@@ -2998,10 +3048,10 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="36"/>
-      <c r="B84" s="27"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="33"/>
+      <c r="A84" s="27"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="36"/>
       <c r="E84" s="16" t="s">
         <v>186</v>
       </c>
@@ -3009,29 +3059,29 @@
         <v>192</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="37"/>
-      <c r="B85" s="28"/>
-      <c r="C85" s="31"/>
-      <c r="D85" s="34"/>
+    <row r="85" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="28"/>
+      <c r="B85" s="31"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="37"/>
       <c r="E85" s="8" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="F85" s="9" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="35" t="s">
+      <c r="A86" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="B86" s="26" t="s">
+      <c r="B86" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="C86" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="D86" s="32" t="s">
+      <c r="C86" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="D86" s="35" t="s">
         <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
@@ -3042,20 +3092,20 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="36"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="30"/>
-      <c r="D87" s="33"/>
+      <c r="A87" s="27"/>
+      <c r="B87" s="30"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="36"/>
       <c r="E87" s="25" t="s">
         <v>172</v>
       </c>
       <c r="F87" s="6"/>
     </row>
     <row r="88" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="36"/>
-      <c r="B88" s="27"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="33"/>
+      <c r="A88" s="27"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="36"/>
       <c r="E88" s="25" t="s">
         <v>185</v>
       </c>
@@ -3064,10 +3114,10 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A89" s="36"/>
-      <c r="B89" s="27"/>
-      <c r="C89" s="30"/>
-      <c r="D89" s="33"/>
+      <c r="A89" s="27"/>
+      <c r="B89" s="30"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="36"/>
       <c r="E89" s="16" t="s">
         <v>186</v>
       </c>
@@ -3076,28 +3126,28 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="37"/>
-      <c r="B90" s="28"/>
-      <c r="C90" s="31"/>
-      <c r="D90" s="34"/>
+      <c r="A90" s="28"/>
+      <c r="B90" s="31"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="37"/>
       <c r="E90" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F90" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="F90" s="9" t="s">
+    </row>
+    <row r="91" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="26" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="B91" s="26" t="s">
+      <c r="B91" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="C91" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="D91" s="32" t="s">
+      <c r="C91" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="D91" s="35" t="s">
         <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
@@ -3108,20 +3158,20 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="36"/>
-      <c r="B92" s="27"/>
-      <c r="C92" s="30"/>
-      <c r="D92" s="33"/>
+      <c r="A92" s="27"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="36"/>
       <c r="E92" s="25" t="s">
         <v>172</v>
       </c>
       <c r="F92" s="6"/>
     </row>
     <row r="93" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="36"/>
-      <c r="B93" s="27"/>
-      <c r="C93" s="30"/>
-      <c r="D93" s="33"/>
+      <c r="A93" s="27"/>
+      <c r="B93" s="30"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="36"/>
       <c r="E93" s="25" t="s">
         <v>185</v>
       </c>
@@ -3130,10 +3180,10 @@
       </c>
     </row>
     <row r="94" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A94" s="36"/>
-      <c r="B94" s="27"/>
-      <c r="C94" s="30"/>
-      <c r="D94" s="33"/>
+      <c r="A94" s="27"/>
+      <c r="B94" s="30"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="36"/>
       <c r="E94" s="16" t="s">
         <v>186</v>
       </c>
@@ -3142,98 +3192,296 @@
       </c>
     </row>
     <row r="95" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="37"/>
-      <c r="B95" s="28"/>
-      <c r="C95" s="31"/>
-      <c r="D95" s="34"/>
+      <c r="A95" s="28"/>
+      <c r="B95" s="31"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="37"/>
       <c r="E95" s="8" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B97" s="62"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B98" s="62"/>
-    </row>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="B96" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="C96" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="D96" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F96" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A97" s="27"/>
+      <c r="B97" s="30"/>
+      <c r="C97" s="33"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="F97" s="6"/>
+    </row>
+    <row r="98" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A98" s="27"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="36"/>
+      <c r="E98" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A99" s="27"/>
+      <c r="B99" s="30"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="36"/>
+      <c r="E99" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="28"/>
+      <c r="B100" s="31"/>
+      <c r="C100" s="34"/>
+      <c r="D100" s="37"/>
+      <c r="E100" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="B101" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="C101" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="D101" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F101" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A102" s="27"/>
+      <c r="B102" s="30"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="36"/>
+      <c r="E102" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="F102" s="6"/>
+    </row>
+    <row r="103" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A103" s="27"/>
+      <c r="B103" s="30"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A104" s="27"/>
+      <c r="B104" s="30"/>
+      <c r="C104" s="33"/>
+      <c r="D104" s="36"/>
+      <c r="E104" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A105" s="27"/>
+      <c r="B105" s="30"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="36"/>
+      <c r="E105" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="28"/>
+      <c r="B106" s="31"/>
+      <c r="C106" s="34"/>
+      <c r="D106" s="37"/>
+      <c r="E106" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="B107" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="C107" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D107" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F107" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A108" s="27"/>
+      <c r="B108" s="30"/>
+      <c r="C108" s="33"/>
+      <c r="D108" s="36"/>
+      <c r="E108" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="F108" s="6"/>
+    </row>
+    <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A109" s="27"/>
+      <c r="B109" s="30"/>
+      <c r="C109" s="33"/>
+      <c r="D109" s="36"/>
+      <c r="E109" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A110" s="27"/>
+      <c r="B110" s="30"/>
+      <c r="C110" s="33"/>
+      <c r="D110" s="36"/>
+      <c r="E110" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A111" s="27"/>
+      <c r="B111" s="30"/>
+      <c r="C111" s="33"/>
+      <c r="D111" s="36"/>
+      <c r="E111" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A112" s="27"/>
+      <c r="B112" s="30"/>
+      <c r="C112" s="33"/>
+      <c r="D112" s="36"/>
+      <c r="E112" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="28"/>
+      <c r="B113" s="31"/>
+      <c r="C113" s="34"/>
+      <c r="D113" s="37"/>
+      <c r="E113" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="122">
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="C86:C90"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="B91:B95"/>
-    <mergeCell ref="C91:C95"/>
-    <mergeCell ref="D91:D95"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="C81:C85"/>
-    <mergeCell ref="D81:D85"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="C73:C76"/>
-    <mergeCell ref="D73:D76"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
+  <mergeCells count="134">
+    <mergeCell ref="A96:A100"/>
+    <mergeCell ref="B96:B100"/>
+    <mergeCell ref="C96:C100"/>
+    <mergeCell ref="D96:D100"/>
+    <mergeCell ref="A101:A106"/>
+    <mergeCell ref="B101:B106"/>
+    <mergeCell ref="C101:C106"/>
+    <mergeCell ref="D101:D106"/>
+    <mergeCell ref="A107:A113"/>
+    <mergeCell ref="B107:B113"/>
+    <mergeCell ref="C107:C113"/>
+    <mergeCell ref="D107:D113"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="C61:C65"/>
+    <mergeCell ref="D61:D65"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="A38:A39"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="C21:C23"/>
@@ -3254,36 +3502,78 @@
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="C28:C30"/>
     <mergeCell ref="D28:D30"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="C61:C65"/>
-    <mergeCell ref="D61:D65"/>
-    <mergeCell ref="A61:A65"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="C73:C76"/>
+    <mergeCell ref="D73:D76"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="C86:C90"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="C91:C95"/>
+    <mergeCell ref="D91:D95"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="C81:C85"/>
+    <mergeCell ref="D81:D85"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>

--- a/src/test/resources/test_descriptions/RottenTomatoes_TestCases.xlsx
+++ b/src/test/resources/test_descriptions/RottenTomatoes_TestCases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\project\UITest2Code\src\test\resources\test_descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BEF56C-361C-4CA5-A7AA-79D668E0A270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC66ADB7-160D-4991-8DEE-CC65CB3BAAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{791CFF3F-B61E-4861-A956-A2059CE938E6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="301">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -716,6 +716,225 @@
   </si>
   <si>
     <t>RT_36</t>
+  </si>
+  <si>
+    <t>Section 3</t>
+  </si>
+  <si>
+    <t>RT_37</t>
+  </si>
+  <si>
+    <t>TV Shows Tab</t>
+  </si>
+  <si>
+    <t>Verify that after hovering over the TV shows top tab, a menu will get opened</t>
+  </si>
+  <si>
+    <t>1. Hover over the TV SHOWS tab</t>
+  </si>
+  <si>
+    <t>A menu will be displayed, with the titles NEW TV TONIGHT, MOST POPULAR TV ON RT, MORE, EPISODIC REVIEWS, CERTIFIED FRESH PICK</t>
+  </si>
+  <si>
+    <t>TV Shows - New TV Tonight - With Score</t>
+  </si>
+  <si>
+    <t>A menu will be displayed, with the title NEW TV TONIGHT. Under it there is a list of shows, some have a score, and some have no rating.</t>
+  </si>
+  <si>
+    <t>2. Click one of the shows with a score</t>
+  </si>
+  <si>
+    <t>RT_38</t>
+  </si>
+  <si>
+    <t>RT_39</t>
+  </si>
+  <si>
+    <t>2. Click one of the shows with no score</t>
+  </si>
+  <si>
+    <t>A movie's page will be displayed with the correct movie title and a no score message</t>
+  </si>
+  <si>
+    <t>TV Shows - New TV Tonight - View All</t>
+  </si>
+  <si>
+    <t>A menu will be displayed, with the title NEW TV TONIGHT.</t>
+  </si>
+  <si>
+    <t>2. Click the View All link under the title</t>
+  </si>
+  <si>
+    <t>Verify that clicking a show line from the new tv tonight category that has a score from the TV shows top tab works</t>
+  </si>
+  <si>
+    <t>Verify that clicking a show line from the new tv tonight category that has no score from the TV shows top tab works</t>
+  </si>
+  <si>
+    <t>RT_40</t>
+  </si>
+  <si>
+    <t>A page with the title NEW TV TONIGHT will be displayed. On the navigator column, the line New TV Tonight is active. The presented shows are sorted by tomatometer score.</t>
+  </si>
+  <si>
+    <t>A page with the title NEW TV TONIGHT will be displayed. The presented shows are sorted by tomatometer score.</t>
+  </si>
+  <si>
+    <t>TV Shows - New TV Tonight - View All - Change View</t>
+  </si>
+  <si>
+    <t>Verify that the changing view option in the New TV Tonight page is working</t>
+  </si>
+  <si>
+    <t>3. Click on the second view-icon</t>
+  </si>
+  <si>
+    <t>The shows will be displayed in a list-view and still sorted by score and the recently clicked butoon will become active.</t>
+  </si>
+  <si>
+    <t>4. Click on the first view-icon</t>
+  </si>
+  <si>
+    <t>The shows will not be displayed in a list-view and still sorted by score and the recently clicked butoon will become active.</t>
+  </si>
+  <si>
+    <t>RT_41</t>
+  </si>
+  <si>
+    <t>A menu will be displayed</t>
+  </si>
+  <si>
+    <t>2. Click the Top TV Shows link</t>
+  </si>
+  <si>
+    <t>A page with the title Top TV Shows will be displayed, including a carousel with items that change automatically</t>
+  </si>
+  <si>
+    <t>Verify that clicking the view all link of the new tv tonight category from the TV shows top tab works</t>
+  </si>
+  <si>
+    <t>RT_42</t>
+  </si>
+  <si>
+    <t>RT_43</t>
+  </si>
+  <si>
+    <t>TV Shows - Top TV Shows - Display</t>
+  </si>
+  <si>
+    <t>TV Shows - Top TV Shows - POPULAR SHOWS AVAILABLE ON STREAMING</t>
+  </si>
+  <si>
+    <t>3. Click the View All link at the bottom of POPULAR SHOWS AVAILABLE ON STREAMING</t>
+  </si>
+  <si>
+    <t>A page with the title Top TV Shows will be displayed, including a POPULAR SHOWS AVAILABLE ON STREAMING section with 7 media links</t>
+  </si>
+  <si>
+    <t>16 media links will be presented under the section</t>
+  </si>
+  <si>
+    <t>RT_44</t>
+  </si>
+  <si>
+    <t>A page with the title Top TV Shows will be displayed</t>
+  </si>
+  <si>
+    <t>3. Click the banner with the title PREMIERE DATES</t>
+  </si>
+  <si>
+    <t>A page with the title TV PREMIERE DATES 2021 will be presented. Under November title, there'll be dates of all the days in the month. Same for December.</t>
+  </si>
+  <si>
+    <t>TV Shows - Top TV Shows - Premiere Dates - Display</t>
+  </si>
+  <si>
+    <t>Verify that after clicking the Top TV Shows link in the TV Shows tab, its page is presented well</t>
+  </si>
+  <si>
+    <t>Verify that the View All function in POPULAR SHOWS AVAILABLE ON STREAMING section in Top TV Shows page works</t>
+  </si>
+  <si>
+    <t>Verify that Premiere Dates for TV shows page is presented well</t>
+  </si>
+  <si>
+    <t>RT_45</t>
+  </si>
+  <si>
+    <t>A page with the title TV PREMIERE DATES 2021 will be presented.</t>
+  </si>
+  <si>
+    <t>4. Click the November link</t>
+  </si>
+  <si>
+    <t>November title will be visible to the user</t>
+  </si>
+  <si>
+    <t>TV Shows - Top TV Shows - Premiere Dates - November Link</t>
+  </si>
+  <si>
+    <t>Verify that clicking a month link in Premiere Dates for TV shows page is working</t>
+  </si>
+  <si>
+    <t>TV PREMIERE DATES 2021 ARCHIVE page title will be displayed. January title will be visible to the user</t>
+  </si>
+  <si>
+    <t>4. Click the Archive January link</t>
+  </si>
+  <si>
+    <t>TV Shows - Top TV Shows - Premiere Dates - Archive Link</t>
+  </si>
+  <si>
+    <t>Verify that clicking an archive month link in Premiere Dates for TV shows page is working</t>
+  </si>
+  <si>
+    <t>RT_46</t>
+  </si>
+  <si>
+    <t>RT_47</t>
+  </si>
+  <si>
+    <t>4. Click the Renewed &amp; Cancelled link</t>
+  </si>
+  <si>
+    <t>TV Shows - Top TV Shows - Premiere Dates - Renewed &amp; Cancelled</t>
+  </si>
+  <si>
+    <t>RENEWED AND CANCELLED TV SHOWS 2021 page title will be displayed, with a letters menu (# A-Z).</t>
+  </si>
+  <si>
+    <t>5. Click the letter link 'G'</t>
+  </si>
+  <si>
+    <t>Verify that clicking the Renewed &amp; Cancelled link in Premiere Dates for TV shows page is working and the page functions well</t>
+  </si>
+  <si>
+    <t>The title 'G' will be visible. Under it there'll be a video and a list of shows. For each of them there will be a spesification - Renewed or Cancelled</t>
+  </si>
+  <si>
+    <t>6. Click the Back to Top link in the G section</t>
+  </si>
+  <si>
+    <t>The letters menu will become visible</t>
+  </si>
+  <si>
+    <t>RT_48</t>
+  </si>
+  <si>
+    <t>TV Shows - EPISODIC REVIEWS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A menu will be displayed, with the title EPISODIC REVIEWS. </t>
+  </si>
+  <si>
+    <t>2. Click one of the links under the episodic reviews title</t>
+  </si>
+  <si>
+    <t>A movie's page will be displayed with the correct movie title. The subtitle EPISODES is visible.</t>
+  </si>
+  <si>
+    <t>Verify that clicking one of the episodic reviews links in the TV Shows tab, works well</t>
   </si>
 </sst>
 </file>
@@ -1307,7 +1526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1384,6 +1603,9 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1423,42 +1645,57 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1474,22 +1711,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1806,10 +2028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B4C97A-71D1-473B-A994-4B6E5B9F3EEF}">
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="E154" sqref="E154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1842,26 +2064,26 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="50" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -1872,10 +2094,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="43"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
@@ -1884,16 +2106,16 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="54" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="3"/>
@@ -1902,10 +2124,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="52"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="58"/>
       <c r="E6" s="8" t="s">
         <v>17</v>
       </c>
@@ -1914,16 +2136,16 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="50" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="3"/>
@@ -1932,10 +2154,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="49"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="43"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="51"/>
       <c r="E8" s="13" t="s">
         <v>21</v>
       </c>
@@ -1944,10 +2166,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="43"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="51"/>
       <c r="E9" s="10" t="s">
         <v>23</v>
       </c>
@@ -1956,16 +2178,16 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="54" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="12" t="s">
@@ -1974,10 +2196,10 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="43"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="51"/>
       <c r="E11" s="13" t="s">
         <v>39</v>
       </c>
@@ -1986,16 +2208,16 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="54" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="12" t="s">
@@ -2006,10 +2228,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="43"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="13" t="s">
         <v>42</v>
       </c>
@@ -2018,16 +2240,16 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="54" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="12" t="s">
@@ -2038,10 +2260,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A15" s="60"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="43"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="51"/>
       <c r="E15" s="15" t="s">
         <v>53</v>
       </c>
@@ -2050,10 +2272,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="43"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="51"/>
       <c r="E16" s="15" t="s">
         <v>55</v>
       </c>
@@ -2062,16 +2284,16 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="54" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="12"/>
@@ -2080,10 +2302,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="59"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="43"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="51"/>
       <c r="E18" s="13" t="s">
         <v>70</v>
       </c>
@@ -2092,10 +2314,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="52"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="58"/>
       <c r="E19" s="11" t="s">
         <v>71</v>
       </c>
@@ -2124,16 +2346,16 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="36" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="12"/>
@@ -2142,10 +2364,10 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A22" s="39"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="61"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="45"/>
       <c r="E22" s="13" t="s">
         <v>62</v>
       </c>
@@ -2154,26 +2376,26 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="61"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="16"/>
       <c r="F23" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="36" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="12" t="s">
@@ -2184,26 +2406,26 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="37"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="8"/>
       <c r="F25" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="36" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="12" t="s">
@@ -2214,10 +2436,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="37"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="8" t="s">
         <v>77</v>
       </c>
@@ -2226,16 +2448,16 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="36" t="s">
         <v>10</v>
       </c>
       <c r="E28" s="12" t="s">
@@ -2246,10 +2468,10 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A29" s="39"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="36"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="37"/>
       <c r="E29" s="16" t="s">
         <v>82</v>
       </c>
@@ -2258,10 +2480,10 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="37"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="38"/>
       <c r="E30" s="8" t="s">
         <v>84</v>
       </c>
@@ -2270,16 +2492,16 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="36" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="12" t="s">
@@ -2290,10 +2512,10 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A32" s="39"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="36"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="37"/>
       <c r="E32" s="16" t="s">
         <v>82</v>
       </c>
@@ -2302,10 +2524,10 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="37"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="38"/>
       <c r="E33" s="8" t="s">
         <v>87</v>
       </c>
@@ -2314,16 +2536,16 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="D34" s="36" t="s">
         <v>10</v>
       </c>
       <c r="E34" s="12" t="s">
@@ -2332,10 +2554,10 @@
       <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="46"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="37"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="38"/>
       <c r="E35" s="8" t="s">
         <v>94</v>
       </c>
@@ -2344,16 +2566,16 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="36" t="s">
         <v>10</v>
       </c>
       <c r="E36" s="12" t="s">
@@ -2364,26 +2586,26 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="46"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="37"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="38"/>
       <c r="E37" s="8"/>
       <c r="F37" s="9" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="C38" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="36" t="s">
         <v>10</v>
       </c>
       <c r="E38" s="12" t="s">
@@ -2394,10 +2616,10 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="66.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="46"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="37"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="38"/>
       <c r="E39" s="8" t="s">
         <v>106</v>
       </c>
@@ -2406,16 +2628,16 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="40" t="s">
+      <c r="B40" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="32" t="s">
+      <c r="C40" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="D40" s="35" t="s">
+      <c r="D40" s="36" t="s">
         <v>10</v>
       </c>
       <c r="E40" s="12" t="s">
@@ -2426,10 +2648,10 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="46"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="37"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="38"/>
       <c r="E41" s="8" t="s">
         <v>109</v>
       </c>
@@ -2458,16 +2680,16 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="50.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="C43" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="D43" s="35" t="s">
+      <c r="D43" s="36" t="s">
         <v>10</v>
       </c>
       <c r="E43" s="12" t="s">
@@ -2478,10 +2700,10 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="46"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="37"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="38"/>
       <c r="E44" s="8" t="s">
         <v>121</v>
       </c>
@@ -2490,16 +2712,16 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="B45" s="40" t="s">
+      <c r="B45" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C45" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="D45" s="35" t="s">
+      <c r="D45" s="36" t="s">
         <v>10</v>
       </c>
       <c r="E45" s="12" t="s">
@@ -2510,10 +2732,10 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="46"/>
-      <c r="B46" s="47"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="37"/>
+      <c r="A46" s="40"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="38"/>
       <c r="E46" s="8" t="s">
         <v>106</v>
       </c>
@@ -2522,14 +2744,14 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="44" t="s">
+      <c r="A47" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
     </row>
     <row r="48" spans="1:6" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
@@ -2552,16 +2774,16 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="38" t="s">
+      <c r="A49" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="C49" s="32" t="s">
+      <c r="C49" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="D49" s="35" t="s">
+      <c r="D49" s="36" t="s">
         <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
@@ -2572,10 +2794,10 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="46"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="37"/>
+      <c r="A50" s="40"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="38"/>
       <c r="E50" s="8" t="s">
         <v>133</v>
       </c>
@@ -2584,16 +2806,16 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="38" t="s">
+      <c r="A51" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="B51" s="40" t="s">
+      <c r="B51" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="C51" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="D51" s="35" t="s">
+      <c r="D51" s="36" t="s">
         <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
@@ -2604,10 +2826,10 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="83.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="46"/>
-      <c r="B52" s="47"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="37"/>
+      <c r="A52" s="40"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="38"/>
       <c r="E52" s="8" t="s">
         <v>137</v>
       </c>
@@ -2616,16 +2838,16 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="26" t="s">
+      <c r="A53" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="C53" s="32" t="s">
+      <c r="C53" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="D53" s="35" t="s">
+      <c r="D53" s="36" t="s">
         <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
@@ -2636,10 +2858,10 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A54" s="27"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="36"/>
+      <c r="A54" s="28"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="37"/>
       <c r="E54" s="25" t="s">
         <v>137</v>
       </c>
@@ -2648,10 +2870,10 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="28"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="37"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="38"/>
       <c r="E55" s="8" t="s">
         <v>144</v>
       </c>
@@ -2660,16 +2882,16 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="26" t="s">
+      <c r="A56" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="B56" s="29" t="s">
+      <c r="B56" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="C56" s="32" t="s">
+      <c r="C56" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="D56" s="35" t="s">
+      <c r="D56" s="36" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
@@ -2680,10 +2902,10 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A57" s="27"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="36"/>
+      <c r="A57" s="28"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="37"/>
       <c r="E57" s="25" t="s">
         <v>137</v>
       </c>
@@ -2692,10 +2914,10 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A58" s="27"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="36"/>
+      <c r="A58" s="28"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="37"/>
       <c r="E58" s="25" t="s">
         <v>144</v>
       </c>
@@ -2704,10 +2926,10 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="27"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="36"/>
+      <c r="A59" s="28"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="37"/>
       <c r="E59" s="25" t="s">
         <v>148</v>
       </c>
@@ -2716,10 +2938,10 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="28"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="37"/>
+      <c r="A60" s="29"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="38"/>
       <c r="E60" s="8" t="s">
         <v>150</v>
       </c>
@@ -2728,16 +2950,16 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="26" t="s">
+      <c r="A61" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="B61" s="29" t="s">
+      <c r="B61" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="C61" s="32" t="s">
+      <c r="C61" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="D61" s="35" t="s">
+      <c r="D61" s="36" t="s">
         <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
@@ -2748,10 +2970,10 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A62" s="27"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="36"/>
+      <c r="A62" s="28"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="37"/>
       <c r="E62" s="25" t="s">
         <v>137</v>
       </c>
@@ -2760,10 +2982,10 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A63" s="27"/>
-      <c r="B63" s="30"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="36"/>
+      <c r="A63" s="28"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="37"/>
       <c r="E63" s="25" t="s">
         <v>144</v>
       </c>
@@ -2772,10 +2994,10 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="99" x14ac:dyDescent="0.2">
-      <c r="A64" s="27"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="36"/>
+      <c r="A64" s="28"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="37"/>
       <c r="E64" s="25" t="s">
         <v>161</v>
       </c>
@@ -2784,10 +3006,10 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="28"/>
-      <c r="B65" s="31"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="37"/>
+      <c r="A65" s="29"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="38"/>
       <c r="E65" s="8" t="s">
         <v>163</v>
       </c>
@@ -2796,16 +3018,16 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="26" t="s">
+      <c r="A66" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="B66" s="29" t="s">
+      <c r="B66" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="C66" s="32" t="s">
+      <c r="C66" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="D66" s="35" t="s">
+      <c r="D66" s="36" t="s">
         <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
@@ -2816,10 +3038,10 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="27"/>
-      <c r="B67" s="30"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="36"/>
+      <c r="A67" s="28"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="37"/>
       <c r="E67" s="25" t="s">
         <v>172</v>
       </c>
@@ -2828,10 +3050,10 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="27"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="36"/>
+      <c r="A68" s="28"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="37"/>
       <c r="E68" s="25" t="s">
         <v>174</v>
       </c>
@@ -2840,10 +3062,10 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="28"/>
-      <c r="B69" s="31"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="37"/>
+      <c r="A69" s="29"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="38"/>
       <c r="E69" s="8" t="s">
         <v>177</v>
       </c>
@@ -2852,16 +3074,16 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="26" t="s">
+      <c r="A70" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="B70" s="29" t="s">
+      <c r="B70" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="C70" s="32" t="s">
+      <c r="C70" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="D70" s="35" t="s">
+      <c r="D70" s="36" t="s">
         <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
@@ -2872,10 +3094,10 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A71" s="27"/>
-      <c r="B71" s="30"/>
-      <c r="C71" s="33"/>
-      <c r="D71" s="36"/>
+      <c r="A71" s="28"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="37"/>
       <c r="E71" s="25" t="s">
         <v>172</v>
       </c>
@@ -2884,10 +3106,10 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="28"/>
-      <c r="B72" s="31"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="37"/>
+      <c r="A72" s="29"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="38"/>
       <c r="E72" s="8" t="s">
         <v>182</v>
       </c>
@@ -2896,16 +3118,16 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="38" t="s">
+      <c r="A73" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="B73" s="40" t="s">
+      <c r="B73" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="C73" s="32" t="s">
+      <c r="C73" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="D73" s="42" t="s">
+      <c r="D73" s="54" t="s">
         <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
@@ -2916,10 +3138,10 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="39"/>
-      <c r="B74" s="41"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="43"/>
+      <c r="A74" s="43"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="51"/>
       <c r="E74" s="25" t="s">
         <v>172</v>
       </c>
@@ -2928,10 +3150,10 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="39"/>
-      <c r="B75" s="41"/>
-      <c r="C75" s="33"/>
-      <c r="D75" s="43"/>
+      <c r="A75" s="43"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="51"/>
       <c r="E75" s="25" t="s">
         <v>205</v>
       </c>
@@ -2940,10 +3162,10 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="39"/>
-      <c r="B76" s="41"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="43"/>
+      <c r="A76" s="43"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="51"/>
       <c r="E76" s="8" t="s">
         <v>206</v>
       </c>
@@ -2952,16 +3174,16 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="26" t="s">
+      <c r="A77" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="B77" s="29" t="s">
+      <c r="B77" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="C77" s="32" t="s">
+      <c r="C77" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="D77" s="35" t="s">
+      <c r="D77" s="36" t="s">
         <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
@@ -2972,20 +3194,20 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="27"/>
-      <c r="B78" s="30"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="36"/>
+      <c r="A78" s="28"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="37"/>
       <c r="E78" s="25" t="s">
         <v>172</v>
       </c>
       <c r="F78" s="6"/>
     </row>
     <row r="79" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="27"/>
-      <c r="B79" s="30"/>
-      <c r="C79" s="33"/>
-      <c r="D79" s="36"/>
+      <c r="A79" s="28"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="37"/>
       <c r="E79" s="25" t="s">
         <v>185</v>
       </c>
@@ -2994,10 +3216,10 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="66.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="28"/>
-      <c r="B80" s="31"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="37"/>
+      <c r="A80" s="29"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="38"/>
       <c r="E80" s="8" t="s">
         <v>186</v>
       </c>
@@ -3006,16 +3228,16 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="26" t="s">
+      <c r="A81" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="B81" s="29" t="s">
+      <c r="B81" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="C81" s="32" t="s">
+      <c r="C81" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="D81" s="35" t="s">
+      <c r="D81" s="36" t="s">
         <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
@@ -3026,20 +3248,20 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="27"/>
-      <c r="B82" s="30"/>
-      <c r="C82" s="33"/>
-      <c r="D82" s="36"/>
+      <c r="A82" s="28"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="37"/>
       <c r="E82" s="25" t="s">
         <v>172</v>
       </c>
       <c r="F82" s="6"/>
     </row>
     <row r="83" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="27"/>
-      <c r="B83" s="30"/>
-      <c r="C83" s="33"/>
-      <c r="D83" s="36"/>
+      <c r="A83" s="28"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="37"/>
       <c r="E83" s="25" t="s">
         <v>185</v>
       </c>
@@ -3048,10 +3270,10 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="27"/>
-      <c r="B84" s="30"/>
-      <c r="C84" s="33"/>
-      <c r="D84" s="36"/>
+      <c r="A84" s="28"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="37"/>
       <c r="E84" s="16" t="s">
         <v>186</v>
       </c>
@@ -3060,10 +3282,10 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="28"/>
-      <c r="B85" s="31"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="37"/>
+      <c r="A85" s="29"/>
+      <c r="B85" s="32"/>
+      <c r="C85" s="35"/>
+      <c r="D85" s="38"/>
       <c r="E85" s="8" t="s">
         <v>209</v>
       </c>
@@ -3072,16 +3294,16 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="26" t="s">
+      <c r="A86" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="B86" s="29" t="s">
+      <c r="B86" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="C86" s="32" t="s">
+      <c r="C86" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="D86" s="35" t="s">
+      <c r="D86" s="36" t="s">
         <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
@@ -3092,20 +3314,20 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="27"/>
-      <c r="B87" s="30"/>
-      <c r="C87" s="33"/>
-      <c r="D87" s="36"/>
+      <c r="A87" s="28"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="37"/>
       <c r="E87" s="25" t="s">
         <v>172</v>
       </c>
       <c r="F87" s="6"/>
     </row>
     <row r="88" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="27"/>
-      <c r="B88" s="30"/>
-      <c r="C88" s="33"/>
-      <c r="D88" s="36"/>
+      <c r="A88" s="28"/>
+      <c r="B88" s="31"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="37"/>
       <c r="E88" s="25" t="s">
         <v>185</v>
       </c>
@@ -3114,10 +3336,10 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A89" s="27"/>
-      <c r="B89" s="30"/>
-      <c r="C89" s="33"/>
-      <c r="D89" s="36"/>
+      <c r="A89" s="28"/>
+      <c r="B89" s="31"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="37"/>
       <c r="E89" s="16" t="s">
         <v>186</v>
       </c>
@@ -3126,10 +3348,10 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="28"/>
-      <c r="B90" s="31"/>
-      <c r="C90" s="34"/>
-      <c r="D90" s="37"/>
+      <c r="A90" s="29"/>
+      <c r="B90" s="32"/>
+      <c r="C90" s="35"/>
+      <c r="D90" s="38"/>
       <c r="E90" s="8" t="s">
         <v>196</v>
       </c>
@@ -3138,16 +3360,16 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="26" t="s">
+      <c r="A91" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="B91" s="29" t="s">
+      <c r="B91" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="C91" s="32" t="s">
+      <c r="C91" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="D91" s="35" t="s">
+      <c r="D91" s="36" t="s">
         <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
@@ -3158,20 +3380,20 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="27"/>
-      <c r="B92" s="30"/>
-      <c r="C92" s="33"/>
-      <c r="D92" s="36"/>
+      <c r="A92" s="28"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="37"/>
       <c r="E92" s="25" t="s">
         <v>172</v>
       </c>
       <c r="F92" s="6"/>
     </row>
     <row r="93" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="27"/>
-      <c r="B93" s="30"/>
-      <c r="C93" s="33"/>
-      <c r="D93" s="36"/>
+      <c r="A93" s="28"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="37"/>
       <c r="E93" s="25" t="s">
         <v>185</v>
       </c>
@@ -3180,10 +3402,10 @@
       </c>
     </row>
     <row r="94" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A94" s="27"/>
-      <c r="B94" s="30"/>
-      <c r="C94" s="33"/>
-      <c r="D94" s="36"/>
+      <c r="A94" s="28"/>
+      <c r="B94" s="31"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="37"/>
       <c r="E94" s="16" t="s">
         <v>186</v>
       </c>
@@ -3192,10 +3414,10 @@
       </c>
     </row>
     <row r="95" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="28"/>
-      <c r="B95" s="31"/>
-      <c r="C95" s="34"/>
-      <c r="D95" s="37"/>
+      <c r="A95" s="29"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="35"/>
+      <c r="D95" s="38"/>
       <c r="E95" s="8" t="s">
         <v>215</v>
       </c>
@@ -3204,16 +3426,16 @@
       </c>
     </row>
     <row r="96" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="26" t="s">
+      <c r="A96" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="B96" s="29" t="s">
+      <c r="B96" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="C96" s="32" t="s">
+      <c r="C96" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="D96" s="35" t="s">
+      <c r="D96" s="36" t="s">
         <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
@@ -3224,20 +3446,20 @@
       </c>
     </row>
     <row r="97" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A97" s="27"/>
-      <c r="B97" s="30"/>
-      <c r="C97" s="33"/>
-      <c r="D97" s="36"/>
+      <c r="A97" s="28"/>
+      <c r="B97" s="31"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="37"/>
       <c r="E97" s="25" t="s">
         <v>172</v>
       </c>
       <c r="F97" s="6"/>
     </row>
     <row r="98" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="27"/>
-      <c r="B98" s="30"/>
-      <c r="C98" s="33"/>
-      <c r="D98" s="36"/>
+      <c r="A98" s="28"/>
+      <c r="B98" s="31"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="37"/>
       <c r="E98" s="25" t="s">
         <v>185</v>
       </c>
@@ -3246,10 +3468,10 @@
       </c>
     </row>
     <row r="99" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A99" s="27"/>
-      <c r="B99" s="30"/>
-      <c r="C99" s="33"/>
-      <c r="D99" s="36"/>
+      <c r="A99" s="28"/>
+      <c r="B99" s="31"/>
+      <c r="C99" s="34"/>
+      <c r="D99" s="37"/>
       <c r="E99" s="16" t="s">
         <v>186</v>
       </c>
@@ -3258,10 +3480,10 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="28"/>
-      <c r="B100" s="31"/>
-      <c r="C100" s="34"/>
-      <c r="D100" s="37"/>
+      <c r="A100" s="29"/>
+      <c r="B100" s="32"/>
+      <c r="C100" s="35"/>
+      <c r="D100" s="38"/>
       <c r="E100" s="8" t="s">
         <v>214</v>
       </c>
@@ -3270,16 +3492,16 @@
       </c>
     </row>
     <row r="101" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="26" t="s">
+      <c r="A101" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="B101" s="29" t="s">
+      <c r="B101" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="C101" s="32" t="s">
+      <c r="C101" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="D101" s="35" t="s">
+      <c r="D101" s="36" t="s">
         <v>10</v>
       </c>
       <c r="E101" s="16" t="s">
@@ -3290,20 +3512,20 @@
       </c>
     </row>
     <row r="102" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="27"/>
-      <c r="B102" s="30"/>
-      <c r="C102" s="33"/>
-      <c r="D102" s="36"/>
+      <c r="A102" s="28"/>
+      <c r="B102" s="31"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="37"/>
       <c r="E102" s="25" t="s">
         <v>172</v>
       </c>
       <c r="F102" s="6"/>
     </row>
     <row r="103" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="27"/>
-      <c r="B103" s="30"/>
-      <c r="C103" s="33"/>
-      <c r="D103" s="36"/>
+      <c r="A103" s="28"/>
+      <c r="B103" s="31"/>
+      <c r="C103" s="34"/>
+      <c r="D103" s="37"/>
       <c r="E103" s="25" t="s">
         <v>185</v>
       </c>
@@ -3312,10 +3534,10 @@
       </c>
     </row>
     <row r="104" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A104" s="27"/>
-      <c r="B104" s="30"/>
-      <c r="C104" s="33"/>
-      <c r="D104" s="36"/>
+      <c r="A104" s="28"/>
+      <c r="B104" s="31"/>
+      <c r="C104" s="34"/>
+      <c r="D104" s="37"/>
       <c r="E104" s="25" t="s">
         <v>186</v>
       </c>
@@ -3324,10 +3546,10 @@
       </c>
     </row>
     <row r="105" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="27"/>
-      <c r="B105" s="30"/>
-      <c r="C105" s="33"/>
-      <c r="D105" s="36"/>
+      <c r="A105" s="28"/>
+      <c r="B105" s="31"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="37"/>
       <c r="E105" s="25" t="s">
         <v>214</v>
       </c>
@@ -3336,10 +3558,10 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="28"/>
-      <c r="B106" s="31"/>
-      <c r="C106" s="34"/>
-      <c r="D106" s="37"/>
+      <c r="A106" s="29"/>
+      <c r="B106" s="32"/>
+      <c r="C106" s="35"/>
+      <c r="D106" s="38"/>
       <c r="E106" s="8" t="s">
         <v>216</v>
       </c>
@@ -3348,16 +3570,16 @@
       </c>
     </row>
     <row r="107" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="26" t="s">
+      <c r="A107" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="B107" s="29" t="s">
+      <c r="B107" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="C107" s="32" t="s">
+      <c r="C107" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="D107" s="35" t="s">
+      <c r="D107" s="36" t="s">
         <v>10</v>
       </c>
       <c r="E107" s="16" t="s">
@@ -3368,20 +3590,20 @@
       </c>
     </row>
     <row r="108" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="27"/>
-      <c r="B108" s="30"/>
-      <c r="C108" s="33"/>
-      <c r="D108" s="36"/>
+      <c r="A108" s="28"/>
+      <c r="B108" s="31"/>
+      <c r="C108" s="34"/>
+      <c r="D108" s="37"/>
       <c r="E108" s="25" t="s">
         <v>172</v>
       </c>
       <c r="F108" s="6"/>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="27"/>
-      <c r="B109" s="30"/>
-      <c r="C109" s="33"/>
-      <c r="D109" s="36"/>
+      <c r="A109" s="28"/>
+      <c r="B109" s="31"/>
+      <c r="C109" s="34"/>
+      <c r="D109" s="37"/>
       <c r="E109" s="25" t="s">
         <v>185</v>
       </c>
@@ -3390,10 +3612,10 @@
       </c>
     </row>
     <row r="110" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A110" s="27"/>
-      <c r="B110" s="30"/>
-      <c r="C110" s="33"/>
-      <c r="D110" s="36"/>
+      <c r="A110" s="28"/>
+      <c r="B110" s="31"/>
+      <c r="C110" s="34"/>
+      <c r="D110" s="37"/>
       <c r="E110" s="25" t="s">
         <v>186</v>
       </c>
@@ -3402,10 +3624,10 @@
       </c>
     </row>
     <row r="111" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="27"/>
-      <c r="B111" s="30"/>
-      <c r="C111" s="33"/>
-      <c r="D111" s="36"/>
+      <c r="A111" s="28"/>
+      <c r="B111" s="31"/>
+      <c r="C111" s="34"/>
+      <c r="D111" s="37"/>
       <c r="E111" s="25" t="s">
         <v>214</v>
       </c>
@@ -3414,10 +3636,10 @@
       </c>
     </row>
     <row r="112" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A112" s="27"/>
-      <c r="B112" s="30"/>
-      <c r="C112" s="33"/>
-      <c r="D112" s="36"/>
+      <c r="A112" s="28"/>
+      <c r="B112" s="31"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="37"/>
       <c r="E112" s="16" t="s">
         <v>218</v>
       </c>
@@ -3426,10 +3648,10 @@
       </c>
     </row>
     <row r="113" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="28"/>
-      <c r="B113" s="31"/>
-      <c r="C113" s="34"/>
-      <c r="D113" s="37"/>
+      <c r="A113" s="29"/>
+      <c r="B113" s="32"/>
+      <c r="C113" s="35"/>
+      <c r="D113" s="38"/>
       <c r="E113" s="8" t="s">
         <v>220</v>
       </c>
@@ -3437,21 +3659,678 @@
         <v>221</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="114" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="B114" s="47"/>
+      <c r="C114" s="47"/>
+      <c r="D114" s="47"/>
+      <c r="E114" s="47"/>
+      <c r="F114" s="47"/>
+    </row>
+    <row r="115" spans="1:6" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="B115" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="C115" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="D115" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="50.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="B116" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="C116" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="D116" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="F116" s="17" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="40"/>
+      <c r="B117" s="42"/>
+      <c r="C117" s="35"/>
+      <c r="D117" s="38"/>
+      <c r="E117" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="50.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="B118" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="C118" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="D118" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="F118" s="17" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="40"/>
+      <c r="B119" s="42"/>
+      <c r="C119" s="35"/>
+      <c r="D119" s="38"/>
+      <c r="E119" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="B120" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="C120" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="D120" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="F120" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="40"/>
+      <c r="B121" s="42"/>
+      <c r="C121" s="35"/>
+      <c r="D121" s="38"/>
+      <c r="E121" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="B122" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="C122" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="D122" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E122" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="F122" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A123" s="43"/>
+      <c r="B123" s="44"/>
+      <c r="C123" s="34"/>
+      <c r="D123" s="37"/>
+      <c r="E123" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A124" s="43"/>
+      <c r="B124" s="44"/>
+      <c r="C124" s="34"/>
+      <c r="D124" s="37"/>
+      <c r="E124" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="40"/>
+      <c r="B125" s="42"/>
+      <c r="C125" s="35"/>
+      <c r="D125" s="38"/>
+      <c r="E125" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="B126" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="C126" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="D126" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="F126" s="17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="40"/>
+      <c r="B127" s="42"/>
+      <c r="C127" s="35"/>
+      <c r="D127" s="38"/>
+      <c r="E127" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="B128" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="C128" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="D128" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="F128" s="17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A129" s="43"/>
+      <c r="B129" s="44"/>
+      <c r="C129" s="34"/>
+      <c r="D129" s="37"/>
+      <c r="E129" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="40"/>
+      <c r="B130" s="42"/>
+      <c r="C130" s="35"/>
+      <c r="D130" s="38"/>
+      <c r="E130" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="B131" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="C131" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="D131" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E131" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="F131" s="17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A132" s="43"/>
+      <c r="B132" s="44"/>
+      <c r="C132" s="34"/>
+      <c r="D132" s="37"/>
+      <c r="E132" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="40"/>
+      <c r="B133" s="42"/>
+      <c r="C133" s="35"/>
+      <c r="D133" s="38"/>
+      <c r="E133" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="B134" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="C134" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="D134" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E134" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="F134" s="17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A135" s="43"/>
+      <c r="B135" s="44"/>
+      <c r="C135" s="34"/>
+      <c r="D135" s="37"/>
+      <c r="E135" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A136" s="43"/>
+      <c r="B136" s="44"/>
+      <c r="C136" s="34"/>
+      <c r="D136" s="37"/>
+      <c r="E136" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="40"/>
+      <c r="B137" s="42"/>
+      <c r="C137" s="35"/>
+      <c r="D137" s="38"/>
+      <c r="E137" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="B138" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="C138" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="D138" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E138" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="F138" s="17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A139" s="43"/>
+      <c r="B139" s="44"/>
+      <c r="C139" s="34"/>
+      <c r="D139" s="37"/>
+      <c r="E139" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A140" s="43"/>
+      <c r="B140" s="44"/>
+      <c r="C140" s="34"/>
+      <c r="D140" s="37"/>
+      <c r="E140" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="40"/>
+      <c r="B141" s="42"/>
+      <c r="C141" s="35"/>
+      <c r="D141" s="38"/>
+      <c r="E141" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="39" t="s">
+        <v>286</v>
+      </c>
+      <c r="B142" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="C142" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="D142" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E142" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="F142" s="17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A143" s="43"/>
+      <c r="B143" s="44"/>
+      <c r="C143" s="34"/>
+      <c r="D143" s="37"/>
+      <c r="E143" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A144" s="43"/>
+      <c r="B144" s="44"/>
+      <c r="C144" s="34"/>
+      <c r="D144" s="37"/>
+      <c r="E144" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A145" s="43"/>
+      <c r="B145" s="44"/>
+      <c r="C145" s="34"/>
+      <c r="D145" s="37"/>
+      <c r="E145" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A146" s="43"/>
+      <c r="B146" s="44"/>
+      <c r="C146" s="34"/>
+      <c r="D146" s="37"/>
+      <c r="E146" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="40"/>
+      <c r="B147" s="42"/>
+      <c r="C147" s="35"/>
+      <c r="D147" s="38"/>
+      <c r="E147" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="B148" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="C148" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="D148" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E148" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="F148" s="17" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="40"/>
+      <c r="B149" s="42"/>
+      <c r="C149" s="35"/>
+      <c r="D149" s="38"/>
+      <c r="E149" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="134">
-    <mergeCell ref="A96:A100"/>
-    <mergeCell ref="B96:B100"/>
-    <mergeCell ref="C96:C100"/>
-    <mergeCell ref="D96:D100"/>
-    <mergeCell ref="A101:A106"/>
-    <mergeCell ref="B101:B106"/>
-    <mergeCell ref="C101:C106"/>
-    <mergeCell ref="D101:D106"/>
-    <mergeCell ref="A107:A113"/>
-    <mergeCell ref="B107:B113"/>
-    <mergeCell ref="C107:C113"/>
-    <mergeCell ref="D107:D113"/>
+  <mergeCells count="179">
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="D138:D141"/>
+    <mergeCell ref="A142:A147"/>
+    <mergeCell ref="B142:B147"/>
+    <mergeCell ref="C142:C147"/>
+    <mergeCell ref="D142:D147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="D128:D130"/>
+    <mergeCell ref="A131:A133"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="C131:C133"/>
+    <mergeCell ref="D131:D133"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="D134:D137"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="C86:C90"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="C91:C95"/>
+    <mergeCell ref="D91:D95"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="C81:C85"/>
+    <mergeCell ref="D81:D85"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="C73:C76"/>
+    <mergeCell ref="D73:D76"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="A38:A39"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="B40:B41"/>
@@ -3472,108 +4351,22 @@
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="A56:A60"/>
     <mergeCell ref="B56:B60"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
     <mergeCell ref="D45:D46"/>
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="C73:C76"/>
-    <mergeCell ref="D73:D76"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="C86:C90"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="B91:B95"/>
-    <mergeCell ref="C91:C95"/>
-    <mergeCell ref="D91:D95"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="C81:C85"/>
-    <mergeCell ref="D81:D85"/>
+    <mergeCell ref="A96:A100"/>
+    <mergeCell ref="B96:B100"/>
+    <mergeCell ref="C96:C100"/>
+    <mergeCell ref="D96:D100"/>
+    <mergeCell ref="A101:A106"/>
+    <mergeCell ref="B101:B106"/>
+    <mergeCell ref="C101:C106"/>
+    <mergeCell ref="D101:D106"/>
+    <mergeCell ref="A107:A113"/>
+    <mergeCell ref="B107:B113"/>
+    <mergeCell ref="C107:C113"/>
+    <mergeCell ref="D107:D113"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>

--- a/src/test/resources/test_descriptions/RottenTomatoes_TestCases.xlsx
+++ b/src/test/resources/test_descriptions/RottenTomatoes_TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\project\UITest2Code\src\test\resources\test_descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC66ADB7-160D-4991-8DEE-CC65CB3BAAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55B4FC5-E6A4-4FF0-AF1B-E1E35D1427EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{791CFF3F-B61E-4861-A956-A2059CE938E6}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15600" xr2:uid="{791CFF3F-B61E-4861-A956-A2059CE938E6}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="303">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -754,9 +754,6 @@
     <t>2. Click one of the shows with no score</t>
   </si>
   <si>
-    <t>A movie's page will be displayed with the correct movie title and a no score message</t>
-  </si>
-  <si>
     <t>TV Shows - New TV Tonight - View All</t>
   </si>
   <si>
@@ -935,6 +932,15 @@
   </si>
   <si>
     <t>Verify that clicking one of the episodic reviews links in the TV Shows tab, works well</t>
+  </si>
+  <si>
+    <t>A show's page will be displayed with the correct movie title and Tomatometer</t>
+  </si>
+  <si>
+    <t>A show's page will be displayed with the correct movie title and a no score message</t>
+  </si>
+  <si>
+    <t>TV Shows - New TV Tonight - With No Score</t>
   </si>
 </sst>
 </file>
@@ -1606,6 +1612,48 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1624,50 +1672,26 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1678,30 +1702,12 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1711,7 +1717,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2030,8 +2036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B4C97A-71D1-473B-A994-4B6E5B9F3EEF}">
   <dimension ref="A1:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="E154" sqref="E154"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122:B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2064,26 +2070,26 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="55" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="56" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -2094,10 +2100,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="34"/>
-      <c r="D4" s="51"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
@@ -2106,16 +2112,16 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="30" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="47" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="3"/>
@@ -2124,10 +2130,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="35"/>
-      <c r="D6" s="58"/>
+      <c r="D6" s="53"/>
       <c r="E6" s="8" t="s">
         <v>17</v>
       </c>
@@ -2136,16 +2142,16 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="44" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="56" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="3"/>
@@ -2154,10 +2160,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="56"/>
-      <c r="B8" s="31"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="61"/>
-      <c r="D8" s="51"/>
+      <c r="D8" s="48"/>
       <c r="E8" s="13" t="s">
         <v>21</v>
       </c>
@@ -2167,9 +2173,9 @@
     </row>
     <row r="9" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="59"/>
-      <c r="B9" s="31"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="61"/>
-      <c r="D9" s="51"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="10" t="s">
         <v>23</v>
       </c>
@@ -2178,16 +2184,16 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="47" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="12" t="s">
@@ -2196,10 +2202,10 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="34"/>
-      <c r="D11" s="51"/>
+      <c r="D11" s="48"/>
       <c r="E11" s="13" t="s">
         <v>39</v>
       </c>
@@ -2208,16 +2214,16 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="30" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="47" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="12" t="s">
@@ -2228,10 +2234,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="34"/>
-      <c r="D13" s="51"/>
+      <c r="D13" s="48"/>
       <c r="E13" s="13" t="s">
         <v>42</v>
       </c>
@@ -2240,16 +2246,16 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="44" t="s">
         <v>47</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="47" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="12" t="s">
@@ -2260,10 +2266,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A15" s="62"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="34"/>
-      <c r="D15" s="51"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="15" t="s">
         <v>53</v>
       </c>
@@ -2272,10 +2278,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="34"/>
-      <c r="D16" s="51"/>
+      <c r="D16" s="48"/>
       <c r="E16" s="15" t="s">
         <v>55</v>
       </c>
@@ -2284,16 +2290,16 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="30" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="47" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="12"/>
@@ -2302,10 +2308,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="53"/>
-      <c r="B18" s="44"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="34"/>
-      <c r="D18" s="51"/>
+      <c r="D18" s="48"/>
       <c r="E18" s="13" t="s">
         <v>70</v>
       </c>
@@ -2314,10 +2320,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
-      <c r="B19" s="42"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="35"/>
-      <c r="D19" s="58"/>
+      <c r="D19" s="53"/>
       <c r="E19" s="11" t="s">
         <v>71</v>
       </c>
@@ -2346,10 +2352,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="30" t="s">
         <v>60</v>
       </c>
       <c r="C21" s="33" t="s">
@@ -2364,10 +2370,10 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A22" s="43"/>
-      <c r="B22" s="44"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="34"/>
-      <c r="D22" s="45"/>
+      <c r="D22" s="62"/>
       <c r="E22" s="13" t="s">
         <v>62</v>
       </c>
@@ -2376,20 +2382,20 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
-      <c r="B23" s="44"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="34"/>
-      <c r="D23" s="45"/>
+      <c r="D23" s="62"/>
       <c r="E23" s="16"/>
       <c r="F23" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="30" t="s">
         <v>66</v>
       </c>
       <c r="C24" s="33" t="s">
@@ -2406,8 +2412,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="42"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="35"/>
       <c r="D25" s="38"/>
       <c r="E25" s="8"/>
@@ -2416,10 +2422,10 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="30" t="s">
         <v>75</v>
       </c>
       <c r="C26" s="33" t="s">
@@ -2436,8 +2442,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="42"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="35"/>
       <c r="D27" s="38"/>
       <c r="E27" s="8" t="s">
@@ -2448,10 +2454,10 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="30" t="s">
         <v>80</v>
       </c>
       <c r="C28" s="33" t="s">
@@ -2468,8 +2474,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A29" s="43"/>
-      <c r="B29" s="44"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="34"/>
       <c r="D29" s="37"/>
       <c r="E29" s="16" t="s">
@@ -2480,8 +2486,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="42"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="35"/>
       <c r="D30" s="38"/>
       <c r="E30" s="8" t="s">
@@ -2492,10 +2498,10 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="30" t="s">
         <v>80</v>
       </c>
       <c r="C31" s="33" t="s">
@@ -2512,8 +2518,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A32" s="43"/>
-      <c r="B32" s="44"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="34"/>
       <c r="D32" s="37"/>
       <c r="E32" s="16" t="s">
@@ -2524,8 +2530,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="42"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="35"/>
       <c r="D33" s="38"/>
       <c r="E33" s="8" t="s">
@@ -2536,10 +2542,10 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="30" t="s">
         <v>91</v>
       </c>
       <c r="C34" s="33" t="s">
@@ -2554,8 +2560,8 @@
       <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
-      <c r="B35" s="42"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="35"/>
       <c r="D35" s="38"/>
       <c r="E35" s="8" t="s">
@@ -2566,10 +2572,10 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="30" t="s">
         <v>96</v>
       </c>
       <c r="C36" s="33" t="s">
@@ -2586,8 +2592,8 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="42"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="35"/>
       <c r="D37" s="38"/>
       <c r="E37" s="8"/>
@@ -2596,10 +2602,10 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="39" t="s">
+      <c r="A38" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="30" t="s">
         <v>100</v>
       </c>
       <c r="C38" s="33" t="s">
@@ -2616,8 +2622,8 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="66.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
-      <c r="B39" s="42"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="35"/>
       <c r="D39" s="38"/>
       <c r="E39" s="8" t="s">
@@ -2628,10 +2634,10 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="30" t="s">
         <v>101</v>
       </c>
       <c r="C40" s="33" t="s">
@@ -2648,8 +2654,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
-      <c r="B41" s="42"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="32"/>
       <c r="C41" s="35"/>
       <c r="D41" s="38"/>
       <c r="E41" s="8" t="s">
@@ -2680,10 +2686,10 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="50.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="30" t="s">
         <v>116</v>
       </c>
       <c r="C43" s="33" t="s">
@@ -2700,8 +2706,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
-      <c r="B44" s="42"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="35"/>
       <c r="D44" s="38"/>
       <c r="E44" s="8" t="s">
@@ -2712,10 +2718,10 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="39" t="s">
+      <c r="A45" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="30" t="s">
         <v>123</v>
       </c>
       <c r="C45" s="33" t="s">
@@ -2732,8 +2738,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="40"/>
-      <c r="B46" s="42"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="32"/>
       <c r="C46" s="35"/>
       <c r="D46" s="38"/>
       <c r="E46" s="8" t="s">
@@ -2744,14 +2750,14 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="46" t="s">
+      <c r="A47" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
     </row>
     <row r="48" spans="1:6" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
@@ -2774,10 +2780,10 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="39" t="s">
+      <c r="A49" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="30" t="s">
         <v>135</v>
       </c>
       <c r="C49" s="33" t="s">
@@ -2794,8 +2800,8 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
-      <c r="B50" s="42"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="32"/>
       <c r="C50" s="35"/>
       <c r="D50" s="38"/>
       <c r="E50" s="8" t="s">
@@ -2806,10 +2812,10 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B51" s="41" t="s">
+      <c r="B51" s="30" t="s">
         <v>138</v>
       </c>
       <c r="C51" s="33" t="s">
@@ -2826,8 +2832,8 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="83.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="40"/>
-      <c r="B52" s="42"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="32"/>
       <c r="C52" s="35"/>
       <c r="D52" s="38"/>
       <c r="E52" s="8" t="s">
@@ -2838,10 +2844,10 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="44" t="s">
         <v>141</v>
       </c>
       <c r="C53" s="33" t="s">
@@ -2858,8 +2864,8 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A54" s="28"/>
-      <c r="B54" s="31"/>
+      <c r="A54" s="42"/>
+      <c r="B54" s="45"/>
       <c r="C54" s="34"/>
       <c r="D54" s="37"/>
       <c r="E54" s="25" t="s">
@@ -2870,8 +2876,8 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="29"/>
-      <c r="B55" s="32"/>
+      <c r="A55" s="43"/>
+      <c r="B55" s="46"/>
       <c r="C55" s="35"/>
       <c r="D55" s="38"/>
       <c r="E55" s="8" t="s">
@@ -2882,10 +2888,10 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="B56" s="30" t="s">
+      <c r="B56" s="44" t="s">
         <v>158</v>
       </c>
       <c r="C56" s="33" t="s">
@@ -2902,8 +2908,8 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A57" s="28"/>
-      <c r="B57" s="31"/>
+      <c r="A57" s="42"/>
+      <c r="B57" s="45"/>
       <c r="C57" s="34"/>
       <c r="D57" s="37"/>
       <c r="E57" s="25" t="s">
@@ -2914,8 +2920,8 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A58" s="28"/>
-      <c r="B58" s="31"/>
+      <c r="A58" s="42"/>
+      <c r="B58" s="45"/>
       <c r="C58" s="34"/>
       <c r="D58" s="37"/>
       <c r="E58" s="25" t="s">
@@ -2926,8 +2932,8 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="28"/>
-      <c r="B59" s="31"/>
+      <c r="A59" s="42"/>
+      <c r="B59" s="45"/>
       <c r="C59" s="34"/>
       <c r="D59" s="37"/>
       <c r="E59" s="25" t="s">
@@ -2938,8 +2944,8 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="29"/>
-      <c r="B60" s="32"/>
+      <c r="A60" s="43"/>
+      <c r="B60" s="46"/>
       <c r="C60" s="35"/>
       <c r="D60" s="38"/>
       <c r="E60" s="8" t="s">
@@ -2950,10 +2956,10 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="27" t="s">
+      <c r="A61" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="B61" s="30" t="s">
+      <c r="B61" s="44" t="s">
         <v>159</v>
       </c>
       <c r="C61" s="33" t="s">
@@ -2970,8 +2976,8 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A62" s="28"/>
-      <c r="B62" s="31"/>
+      <c r="A62" s="42"/>
+      <c r="B62" s="45"/>
       <c r="C62" s="34"/>
       <c r="D62" s="37"/>
       <c r="E62" s="25" t="s">
@@ -2982,8 +2988,8 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A63" s="28"/>
-      <c r="B63" s="31"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="45"/>
       <c r="C63" s="34"/>
       <c r="D63" s="37"/>
       <c r="E63" s="25" t="s">
@@ -2994,8 +3000,8 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="99" x14ac:dyDescent="0.2">
-      <c r="A64" s="28"/>
-      <c r="B64" s="31"/>
+      <c r="A64" s="42"/>
+      <c r="B64" s="45"/>
       <c r="C64" s="34"/>
       <c r="D64" s="37"/>
       <c r="E64" s="25" t="s">
@@ -3006,8 +3012,8 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="29"/>
-      <c r="B65" s="32"/>
+      <c r="A65" s="43"/>
+      <c r="B65" s="46"/>
       <c r="C65" s="35"/>
       <c r="D65" s="38"/>
       <c r="E65" s="8" t="s">
@@ -3018,10 +3024,10 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="27" t="s">
+      <c r="A66" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="B66" s="30" t="s">
+      <c r="B66" s="44" t="s">
         <v>167</v>
       </c>
       <c r="C66" s="33" t="s">
@@ -3038,8 +3044,8 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="28"/>
-      <c r="B67" s="31"/>
+      <c r="A67" s="42"/>
+      <c r="B67" s="45"/>
       <c r="C67" s="34"/>
       <c r="D67" s="37"/>
       <c r="E67" s="25" t="s">
@@ -3050,8 +3056,8 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="28"/>
-      <c r="B68" s="31"/>
+      <c r="A68" s="42"/>
+      <c r="B68" s="45"/>
       <c r="C68" s="34"/>
       <c r="D68" s="37"/>
       <c r="E68" s="25" t="s">
@@ -3062,8 +3068,8 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="29"/>
-      <c r="B69" s="32"/>
+      <c r="A69" s="43"/>
+      <c r="B69" s="46"/>
       <c r="C69" s="35"/>
       <c r="D69" s="38"/>
       <c r="E69" s="8" t="s">
@@ -3074,10 +3080,10 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="27" t="s">
+      <c r="A70" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="B70" s="30" t="s">
+      <c r="B70" s="44" t="s">
         <v>168</v>
       </c>
       <c r="C70" s="33" t="s">
@@ -3094,8 +3100,8 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A71" s="28"/>
-      <c r="B71" s="31"/>
+      <c r="A71" s="42"/>
+      <c r="B71" s="45"/>
       <c r="C71" s="34"/>
       <c r="D71" s="37"/>
       <c r="E71" s="25" t="s">
@@ -3106,8 +3112,8 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="29"/>
-      <c r="B72" s="32"/>
+      <c r="A72" s="43"/>
+      <c r="B72" s="46"/>
       <c r="C72" s="35"/>
       <c r="D72" s="38"/>
       <c r="E72" s="8" t="s">
@@ -3118,16 +3124,16 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="39" t="s">
+      <c r="A73" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="B73" s="41" t="s">
+      <c r="B73" s="30" t="s">
         <v>204</v>
       </c>
       <c r="C73" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="D73" s="54" t="s">
+      <c r="D73" s="47" t="s">
         <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
@@ -3138,10 +3144,10 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="43"/>
-      <c r="B74" s="44"/>
+      <c r="A74" s="28"/>
+      <c r="B74" s="31"/>
       <c r="C74" s="34"/>
-      <c r="D74" s="51"/>
+      <c r="D74" s="48"/>
       <c r="E74" s="25" t="s">
         <v>172</v>
       </c>
@@ -3150,10 +3156,10 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="43"/>
-      <c r="B75" s="44"/>
+      <c r="A75" s="28"/>
+      <c r="B75" s="31"/>
       <c r="C75" s="34"/>
-      <c r="D75" s="51"/>
+      <c r="D75" s="48"/>
       <c r="E75" s="25" t="s">
         <v>205</v>
       </c>
@@ -3162,10 +3168,10 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="43"/>
-      <c r="B76" s="44"/>
+      <c r="A76" s="28"/>
+      <c r="B76" s="31"/>
       <c r="C76" s="34"/>
-      <c r="D76" s="51"/>
+      <c r="D76" s="48"/>
       <c r="E76" s="8" t="s">
         <v>206</v>
       </c>
@@ -3174,10 +3180,10 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="27" t="s">
+      <c r="A77" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="B77" s="30" t="s">
+      <c r="B77" s="44" t="s">
         <v>169</v>
       </c>
       <c r="C77" s="33" t="s">
@@ -3194,8 +3200,8 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="28"/>
-      <c r="B78" s="31"/>
+      <c r="A78" s="42"/>
+      <c r="B78" s="45"/>
       <c r="C78" s="34"/>
       <c r="D78" s="37"/>
       <c r="E78" s="25" t="s">
@@ -3204,8 +3210,8 @@
       <c r="F78" s="6"/>
     </row>
     <row r="79" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="28"/>
-      <c r="B79" s="31"/>
+      <c r="A79" s="42"/>
+      <c r="B79" s="45"/>
       <c r="C79" s="34"/>
       <c r="D79" s="37"/>
       <c r="E79" s="25" t="s">
@@ -3216,8 +3222,8 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="66.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="29"/>
-      <c r="B80" s="32"/>
+      <c r="A80" s="43"/>
+      <c r="B80" s="46"/>
       <c r="C80" s="35"/>
       <c r="D80" s="38"/>
       <c r="E80" s="8" t="s">
@@ -3228,10 +3234,10 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="27" t="s">
+      <c r="A81" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="B81" s="30" t="s">
+      <c r="B81" s="44" t="s">
         <v>191</v>
       </c>
       <c r="C81" s="33" t="s">
@@ -3248,8 +3254,8 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="28"/>
-      <c r="B82" s="31"/>
+      <c r="A82" s="42"/>
+      <c r="B82" s="45"/>
       <c r="C82" s="34"/>
       <c r="D82" s="37"/>
       <c r="E82" s="25" t="s">
@@ -3258,8 +3264,8 @@
       <c r="F82" s="6"/>
     </row>
     <row r="83" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="28"/>
-      <c r="B83" s="31"/>
+      <c r="A83" s="42"/>
+      <c r="B83" s="45"/>
       <c r="C83" s="34"/>
       <c r="D83" s="37"/>
       <c r="E83" s="25" t="s">
@@ -3270,8 +3276,8 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="28"/>
-      <c r="B84" s="31"/>
+      <c r="A84" s="42"/>
+      <c r="B84" s="45"/>
       <c r="C84" s="34"/>
       <c r="D84" s="37"/>
       <c r="E84" s="16" t="s">
@@ -3282,8 +3288,8 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="29"/>
-      <c r="B85" s="32"/>
+      <c r="A85" s="43"/>
+      <c r="B85" s="46"/>
       <c r="C85" s="35"/>
       <c r="D85" s="38"/>
       <c r="E85" s="8" t="s">
@@ -3294,10 +3300,10 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="27" t="s">
+      <c r="A86" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="B86" s="30" t="s">
+      <c r="B86" s="44" t="s">
         <v>170</v>
       </c>
       <c r="C86" s="33" t="s">
@@ -3314,8 +3320,8 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="28"/>
-      <c r="B87" s="31"/>
+      <c r="A87" s="42"/>
+      <c r="B87" s="45"/>
       <c r="C87" s="34"/>
       <c r="D87" s="37"/>
       <c r="E87" s="25" t="s">
@@ -3324,8 +3330,8 @@
       <c r="F87" s="6"/>
     </row>
     <row r="88" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="28"/>
-      <c r="B88" s="31"/>
+      <c r="A88" s="42"/>
+      <c r="B88" s="45"/>
       <c r="C88" s="34"/>
       <c r="D88" s="37"/>
       <c r="E88" s="25" t="s">
@@ -3336,8 +3342,8 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A89" s="28"/>
-      <c r="B89" s="31"/>
+      <c r="A89" s="42"/>
+      <c r="B89" s="45"/>
       <c r="C89" s="34"/>
       <c r="D89" s="37"/>
       <c r="E89" s="16" t="s">
@@ -3348,8 +3354,8 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="29"/>
-      <c r="B90" s="32"/>
+      <c r="A90" s="43"/>
+      <c r="B90" s="46"/>
       <c r="C90" s="35"/>
       <c r="D90" s="38"/>
       <c r="E90" s="8" t="s">
@@ -3360,10 +3366,10 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="27" t="s">
+      <c r="A91" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="B91" s="30" t="s">
+      <c r="B91" s="44" t="s">
         <v>171</v>
       </c>
       <c r="C91" s="33" t="s">
@@ -3380,8 +3386,8 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="28"/>
-      <c r="B92" s="31"/>
+      <c r="A92" s="42"/>
+      <c r="B92" s="45"/>
       <c r="C92" s="34"/>
       <c r="D92" s="37"/>
       <c r="E92" s="25" t="s">
@@ -3390,8 +3396,8 @@
       <c r="F92" s="6"/>
     </row>
     <row r="93" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="28"/>
-      <c r="B93" s="31"/>
+      <c r="A93" s="42"/>
+      <c r="B93" s="45"/>
       <c r="C93" s="34"/>
       <c r="D93" s="37"/>
       <c r="E93" s="25" t="s">
@@ -3402,8 +3408,8 @@
       </c>
     </row>
     <row r="94" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A94" s="28"/>
-      <c r="B94" s="31"/>
+      <c r="A94" s="42"/>
+      <c r="B94" s="45"/>
       <c r="C94" s="34"/>
       <c r="D94" s="37"/>
       <c r="E94" s="16" t="s">
@@ -3414,8 +3420,8 @@
       </c>
     </row>
     <row r="95" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="29"/>
-      <c r="B95" s="32"/>
+      <c r="A95" s="43"/>
+      <c r="B95" s="46"/>
       <c r="C95" s="35"/>
       <c r="D95" s="38"/>
       <c r="E95" s="8" t="s">
@@ -3426,10 +3432,10 @@
       </c>
     </row>
     <row r="96" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="27" t="s">
+      <c r="A96" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="B96" s="30" t="s">
+      <c r="B96" s="44" t="s">
         <v>212</v>
       </c>
       <c r="C96" s="33" t="s">
@@ -3446,8 +3452,8 @@
       </c>
     </row>
     <row r="97" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A97" s="28"/>
-      <c r="B97" s="31"/>
+      <c r="A97" s="42"/>
+      <c r="B97" s="45"/>
       <c r="C97" s="34"/>
       <c r="D97" s="37"/>
       <c r="E97" s="25" t="s">
@@ -3456,8 +3462,8 @@
       <c r="F97" s="6"/>
     </row>
     <row r="98" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="28"/>
-      <c r="B98" s="31"/>
+      <c r="A98" s="42"/>
+      <c r="B98" s="45"/>
       <c r="C98" s="34"/>
       <c r="D98" s="37"/>
       <c r="E98" s="25" t="s">
@@ -3468,8 +3474,8 @@
       </c>
     </row>
     <row r="99" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A99" s="28"/>
-      <c r="B99" s="31"/>
+      <c r="A99" s="42"/>
+      <c r="B99" s="45"/>
       <c r="C99" s="34"/>
       <c r="D99" s="37"/>
       <c r="E99" s="16" t="s">
@@ -3480,8 +3486,8 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="29"/>
-      <c r="B100" s="32"/>
+      <c r="A100" s="43"/>
+      <c r="B100" s="46"/>
       <c r="C100" s="35"/>
       <c r="D100" s="38"/>
       <c r="E100" s="8" t="s">
@@ -3492,10 +3498,10 @@
       </c>
     </row>
     <row r="101" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="27" t="s">
+      <c r="A101" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="B101" s="30" t="s">
+      <c r="B101" s="44" t="s">
         <v>213</v>
       </c>
       <c r="C101" s="33" t="s">
@@ -3512,8 +3518,8 @@
       </c>
     </row>
     <row r="102" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="28"/>
-      <c r="B102" s="31"/>
+      <c r="A102" s="42"/>
+      <c r="B102" s="45"/>
       <c r="C102" s="34"/>
       <c r="D102" s="37"/>
       <c r="E102" s="25" t="s">
@@ -3522,8 +3528,8 @@
       <c r="F102" s="6"/>
     </row>
     <row r="103" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="28"/>
-      <c r="B103" s="31"/>
+      <c r="A103" s="42"/>
+      <c r="B103" s="45"/>
       <c r="C103" s="34"/>
       <c r="D103" s="37"/>
       <c r="E103" s="25" t="s">
@@ -3534,8 +3540,8 @@
       </c>
     </row>
     <row r="104" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A104" s="28"/>
-      <c r="B104" s="31"/>
+      <c r="A104" s="42"/>
+      <c r="B104" s="45"/>
       <c r="C104" s="34"/>
       <c r="D104" s="37"/>
       <c r="E104" s="25" t="s">
@@ -3546,8 +3552,8 @@
       </c>
     </row>
     <row r="105" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="28"/>
-      <c r="B105" s="31"/>
+      <c r="A105" s="42"/>
+      <c r="B105" s="45"/>
       <c r="C105" s="34"/>
       <c r="D105" s="37"/>
       <c r="E105" s="25" t="s">
@@ -3558,8 +3564,8 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="29"/>
-      <c r="B106" s="32"/>
+      <c r="A106" s="43"/>
+      <c r="B106" s="46"/>
       <c r="C106" s="35"/>
       <c r="D106" s="38"/>
       <c r="E106" s="8" t="s">
@@ -3570,10 +3576,10 @@
       </c>
     </row>
     <row r="107" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="27" t="s">
+      <c r="A107" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="B107" s="30" t="s">
+      <c r="B107" s="44" t="s">
         <v>222</v>
       </c>
       <c r="C107" s="33" t="s">
@@ -3590,8 +3596,8 @@
       </c>
     </row>
     <row r="108" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="28"/>
-      <c r="B108" s="31"/>
+      <c r="A108" s="42"/>
+      <c r="B108" s="45"/>
       <c r="C108" s="34"/>
       <c r="D108" s="37"/>
       <c r="E108" s="25" t="s">
@@ -3600,8 +3606,8 @@
       <c r="F108" s="6"/>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="28"/>
-      <c r="B109" s="31"/>
+      <c r="A109" s="42"/>
+      <c r="B109" s="45"/>
       <c r="C109" s="34"/>
       <c r="D109" s="37"/>
       <c r="E109" s="25" t="s">
@@ -3612,8 +3618,8 @@
       </c>
     </row>
     <row r="110" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A110" s="28"/>
-      <c r="B110" s="31"/>
+      <c r="A110" s="42"/>
+      <c r="B110" s="45"/>
       <c r="C110" s="34"/>
       <c r="D110" s="37"/>
       <c r="E110" s="25" t="s">
@@ -3624,8 +3630,8 @@
       </c>
     </row>
     <row r="111" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="28"/>
-      <c r="B111" s="31"/>
+      <c r="A111" s="42"/>
+      <c r="B111" s="45"/>
       <c r="C111" s="34"/>
       <c r="D111" s="37"/>
       <c r="E111" s="25" t="s">
@@ -3636,8 +3642,8 @@
       </c>
     </row>
     <row r="112" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A112" s="28"/>
-      <c r="B112" s="31"/>
+      <c r="A112" s="42"/>
+      <c r="B112" s="45"/>
       <c r="C112" s="34"/>
       <c r="D112" s="37"/>
       <c r="E112" s="16" t="s">
@@ -3648,8 +3654,8 @@
       </c>
     </row>
     <row r="113" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="29"/>
-      <c r="B113" s="32"/>
+      <c r="A113" s="43"/>
+      <c r="B113" s="46"/>
       <c r="C113" s="35"/>
       <c r="D113" s="38"/>
       <c r="E113" s="8" t="s">
@@ -3660,14 +3666,14 @@
       </c>
     </row>
     <row r="114" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="46" t="s">
+      <c r="A114" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="B114" s="47"/>
-      <c r="C114" s="47"/>
-      <c r="D114" s="47"/>
-      <c r="E114" s="47"/>
-      <c r="F114" s="47"/>
+      <c r="B114" s="40"/>
+      <c r="C114" s="40"/>
+      <c r="D114" s="40"/>
+      <c r="E114" s="40"/>
+      <c r="F114" s="40"/>
     </row>
     <row r="115" spans="1:6" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="22" t="s">
@@ -3690,14 +3696,14 @@
       </c>
     </row>
     <row r="116" spans="1:6" ht="50.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="39" t="s">
+      <c r="A116" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="B116" s="41" t="s">
+      <c r="B116" s="30" t="s">
         <v>234</v>
       </c>
       <c r="C116" s="33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D116" s="36" t="s">
         <v>10</v>
@@ -3710,26 +3716,26 @@
       </c>
     </row>
     <row r="117" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="40"/>
-      <c r="B117" s="42"/>
+      <c r="A117" s="29"/>
+      <c r="B117" s="32"/>
       <c r="C117" s="35"/>
       <c r="D117" s="38"/>
       <c r="E117" s="8" t="s">
         <v>236</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>18</v>
+        <v>300</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="50.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="39" t="s">
+      <c r="A118" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="B118" s="41" t="s">
-        <v>234</v>
+      <c r="B118" s="30" t="s">
+        <v>302</v>
       </c>
       <c r="C118" s="33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D118" s="36" t="s">
         <v>10</v>
@@ -3742,26 +3748,26 @@
       </c>
     </row>
     <row r="119" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="40"/>
-      <c r="B119" s="42"/>
+      <c r="A119" s="29"/>
+      <c r="B119" s="32"/>
       <c r="C119" s="35"/>
       <c r="D119" s="38"/>
       <c r="E119" s="8" t="s">
         <v>239</v>
       </c>
       <c r="F119" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="B120" s="30" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="39" t="s">
-        <v>246</v>
-      </c>
-      <c r="B120" s="41" t="s">
-        <v>241</v>
-      </c>
       <c r="C120" s="33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D120" s="36" t="s">
         <v>10</v>
@@ -3770,30 +3776,30 @@
         <v>232</v>
       </c>
       <c r="F120" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="40"/>
-      <c r="B121" s="42"/>
+      <c r="A121" s="29"/>
+      <c r="B121" s="32"/>
       <c r="C121" s="35"/>
       <c r="D121" s="38"/>
       <c r="E121" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="B122" s="41" t="s">
+      <c r="A122" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="B122" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="C122" s="33" t="s">
         <v>249</v>
-      </c>
-      <c r="C122" s="33" t="s">
-        <v>250</v>
       </c>
       <c r="D122" s="36" t="s">
         <v>10</v>
@@ -3802,54 +3808,54 @@
         <v>232</v>
       </c>
       <c r="F122" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A123" s="43"/>
-      <c r="B123" s="44"/>
+      <c r="A123" s="28"/>
+      <c r="B123" s="31"/>
       <c r="C123" s="34"/>
       <c r="D123" s="37"/>
       <c r="E123" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A124" s="43"/>
-      <c r="B124" s="44"/>
+      <c r="A124" s="28"/>
+      <c r="B124" s="31"/>
       <c r="C124" s="34"/>
       <c r="D124" s="37"/>
       <c r="E124" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="F124" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="F124" s="6" t="s">
-        <v>252</v>
-      </c>
     </row>
     <row r="125" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="40"/>
-      <c r="B125" s="42"/>
+      <c r="A125" s="29"/>
+      <c r="B125" s="32"/>
       <c r="C125" s="35"/>
       <c r="D125" s="38"/>
       <c r="E125" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="F125" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="F125" s="9" t="s">
-        <v>254</v>
-      </c>
     </row>
     <row r="126" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="39" t="s">
-        <v>260</v>
-      </c>
-      <c r="B126" s="41" t="s">
-        <v>262</v>
+      <c r="A126" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="B126" s="30" t="s">
+        <v>261</v>
       </c>
       <c r="C126" s="33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D126" s="36" t="s">
         <v>10</v>
@@ -3858,30 +3864,30 @@
         <v>232</v>
       </c>
       <c r="F126" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="40"/>
-      <c r="B127" s="42"/>
+      <c r="A127" s="29"/>
+      <c r="B127" s="32"/>
       <c r="C127" s="35"/>
       <c r="D127" s="38"/>
       <c r="E127" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F127" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="F127" s="9" t="s">
-        <v>258</v>
-      </c>
     </row>
     <row r="128" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="39" t="s">
-        <v>261</v>
-      </c>
-      <c r="B128" s="41" t="s">
-        <v>263</v>
+      <c r="A128" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="B128" s="30" t="s">
+        <v>262</v>
       </c>
       <c r="C128" s="33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D128" s="36" t="s">
         <v>10</v>
@@ -3890,42 +3896,42 @@
         <v>232</v>
       </c>
       <c r="F128" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A129" s="43"/>
-      <c r="B129" s="44"/>
+      <c r="A129" s="28"/>
+      <c r="B129" s="31"/>
       <c r="C129" s="34"/>
       <c r="D129" s="37"/>
       <c r="E129" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="40"/>
-      <c r="B130" s="42"/>
+      <c r="A130" s="29"/>
+      <c r="B130" s="32"/>
       <c r="C130" s="35"/>
       <c r="D130" s="38"/>
       <c r="E130" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F130" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="27" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="39" t="s">
-        <v>267</v>
-      </c>
-      <c r="B131" s="41" t="s">
-        <v>271</v>
+      <c r="B131" s="30" t="s">
+        <v>270</v>
       </c>
       <c r="C131" s="33" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D131" s="36" t="s">
         <v>10</v>
@@ -3934,42 +3940,42 @@
         <v>232</v>
       </c>
       <c r="F131" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="43"/>
-      <c r="B132" s="44"/>
+      <c r="A132" s="28"/>
+      <c r="B132" s="31"/>
       <c r="C132" s="34"/>
       <c r="D132" s="37"/>
       <c r="E132" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="40"/>
-      <c r="B133" s="42"/>
+      <c r="A133" s="29"/>
+      <c r="B133" s="32"/>
       <c r="C133" s="35"/>
       <c r="D133" s="38"/>
       <c r="E133" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="F133" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="F133" s="9" t="s">
-        <v>270</v>
-      </c>
     </row>
     <row r="134" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="B134" s="41" t="s">
+      <c r="A134" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="B134" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="C134" s="33" t="s">
         <v>279</v>
-      </c>
-      <c r="C134" s="33" t="s">
-        <v>280</v>
       </c>
       <c r="D134" s="36" t="s">
         <v>10</v>
@@ -3978,54 +3984,54 @@
         <v>232</v>
       </c>
       <c r="F134" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A135" s="43"/>
-      <c r="B135" s="44"/>
+      <c r="A135" s="28"/>
+      <c r="B135" s="31"/>
       <c r="C135" s="34"/>
       <c r="D135" s="37"/>
       <c r="E135" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A136" s="43"/>
-      <c r="B136" s="44"/>
+      <c r="A136" s="28"/>
+      <c r="B136" s="31"/>
       <c r="C136" s="34"/>
       <c r="D136" s="37"/>
       <c r="E136" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="40"/>
-      <c r="B137" s="42"/>
+      <c r="A137" s="29"/>
+      <c r="B137" s="32"/>
       <c r="C137" s="35"/>
       <c r="D137" s="38"/>
       <c r="E137" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="F137" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="F137" s="9" t="s">
-        <v>278</v>
-      </c>
     </row>
     <row r="138" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="39" t="s">
-        <v>285</v>
-      </c>
-      <c r="B138" s="41" t="s">
+      <c r="A138" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="B138" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="C138" s="33" t="s">
         <v>283</v>
-      </c>
-      <c r="C138" s="33" t="s">
-        <v>284</v>
       </c>
       <c r="D138" s="36" t="s">
         <v>10</v>
@@ -4034,54 +4040,54 @@
         <v>232</v>
       </c>
       <c r="F138" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A139" s="43"/>
-      <c r="B139" s="44"/>
+      <c r="A139" s="28"/>
+      <c r="B139" s="31"/>
       <c r="C139" s="34"/>
       <c r="D139" s="37"/>
       <c r="E139" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A140" s="43"/>
-      <c r="B140" s="44"/>
+      <c r="A140" s="28"/>
+      <c r="B140" s="31"/>
       <c r="C140" s="34"/>
       <c r="D140" s="37"/>
       <c r="E140" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="40"/>
-      <c r="B141" s="42"/>
+      <c r="A141" s="29"/>
+      <c r="B141" s="32"/>
       <c r="C141" s="35"/>
       <c r="D141" s="38"/>
       <c r="E141" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="39" t="s">
-        <v>286</v>
-      </c>
-      <c r="B142" s="41" t="s">
-        <v>288</v>
+      <c r="A142" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="B142" s="30" t="s">
+        <v>287</v>
       </c>
       <c r="C142" s="33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D142" s="36" t="s">
         <v>10</v>
@@ -4090,78 +4096,78 @@
         <v>232</v>
       </c>
       <c r="F142" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A143" s="43"/>
-      <c r="B143" s="44"/>
+      <c r="A143" s="28"/>
+      <c r="B143" s="31"/>
       <c r="C143" s="34"/>
       <c r="D143" s="37"/>
       <c r="E143" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A144" s="43"/>
-      <c r="B144" s="44"/>
+      <c r="A144" s="28"/>
+      <c r="B144" s="31"/>
       <c r="C144" s="34"/>
       <c r="D144" s="37"/>
       <c r="E144" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A145" s="43"/>
-      <c r="B145" s="44"/>
+      <c r="A145" s="28"/>
+      <c r="B145" s="31"/>
       <c r="C145" s="34"/>
       <c r="D145" s="37"/>
       <c r="E145" s="25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A146" s="43"/>
-      <c r="B146" s="44"/>
+      <c r="A146" s="28"/>
+      <c r="B146" s="31"/>
       <c r="C146" s="34"/>
       <c r="D146" s="37"/>
       <c r="E146" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="40"/>
-      <c r="B147" s="42"/>
+      <c r="A147" s="29"/>
+      <c r="B147" s="32"/>
       <c r="C147" s="35"/>
       <c r="D147" s="38"/>
       <c r="E147" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="F147" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="F147" s="9" t="s">
+    </row>
+    <row r="148" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="27" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="39" t="s">
+      <c r="B148" s="30" t="s">
         <v>295</v>
       </c>
-      <c r="B148" s="41" t="s">
-        <v>296</v>
-      </c>
       <c r="C148" s="33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D148" s="36" t="s">
         <v>10</v>
@@ -4170,167 +4176,36 @@
         <v>232</v>
       </c>
       <c r="F148" s="17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="40"/>
-      <c r="B149" s="42"/>
+      <c r="A149" s="29"/>
+      <c r="B149" s="32"/>
       <c r="C149" s="35"/>
       <c r="D149" s="38"/>
       <c r="E149" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="F149" s="9" t="s">
         <v>298</v>
-      </c>
-      <c r="F149" s="9" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="D138:D141"/>
-    <mergeCell ref="A142:A147"/>
-    <mergeCell ref="B142:B147"/>
-    <mergeCell ref="C142:C147"/>
-    <mergeCell ref="D142:D147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="D128:D130"/>
-    <mergeCell ref="A131:A133"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="C131:C133"/>
-    <mergeCell ref="D131:D133"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="C134:C137"/>
-    <mergeCell ref="D134:D137"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="C86:C90"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="B91:B95"/>
-    <mergeCell ref="C91:C95"/>
-    <mergeCell ref="D91:D95"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="C81:C85"/>
-    <mergeCell ref="D81:D85"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="C73:C76"/>
-    <mergeCell ref="D73:D76"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A96:A100"/>
+    <mergeCell ref="B96:B100"/>
+    <mergeCell ref="C96:C100"/>
+    <mergeCell ref="D96:D100"/>
+    <mergeCell ref="A101:A106"/>
+    <mergeCell ref="B101:B106"/>
+    <mergeCell ref="C101:C106"/>
+    <mergeCell ref="D101:D106"/>
+    <mergeCell ref="A107:A113"/>
+    <mergeCell ref="B107:B113"/>
+    <mergeCell ref="C107:C113"/>
+    <mergeCell ref="D107:D113"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="B40:B41"/>
@@ -4355,18 +4230,149 @@
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="A96:A100"/>
-    <mergeCell ref="B96:B100"/>
-    <mergeCell ref="C96:C100"/>
-    <mergeCell ref="D96:D100"/>
-    <mergeCell ref="A101:A106"/>
-    <mergeCell ref="B101:B106"/>
-    <mergeCell ref="C101:C106"/>
-    <mergeCell ref="D101:D106"/>
-    <mergeCell ref="A107:A113"/>
-    <mergeCell ref="B107:B113"/>
-    <mergeCell ref="C107:C113"/>
-    <mergeCell ref="D107:D113"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="C73:C76"/>
+    <mergeCell ref="D73:D76"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="C86:C90"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="C91:C95"/>
+    <mergeCell ref="D91:D95"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="C81:C85"/>
+    <mergeCell ref="D81:D85"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="D128:D130"/>
+    <mergeCell ref="A131:A133"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="C131:C133"/>
+    <mergeCell ref="D131:D133"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="D134:D137"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="D138:D141"/>
+    <mergeCell ref="A142:A147"/>
+    <mergeCell ref="B142:B147"/>
+    <mergeCell ref="C142:C147"/>
+    <mergeCell ref="D142:D147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="D148:D149"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>

--- a/src/test/resources/test_descriptions/RottenTomatoes_TestCases.xlsx
+++ b/src/test/resources/test_descriptions/RottenTomatoes_TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\project\UITest2Code\src\test\resources\test_descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55B4FC5-E6A4-4FF0-AF1B-E1E35D1427EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14653154-9894-427B-8FFF-FC0980B6BE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15600" xr2:uid="{791CFF3F-B61E-4861-A956-A2059CE938E6}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="15600" xr2:uid="{791CFF3F-B61E-4861-A956-A2059CE938E6}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -841,9 +841,6 @@
     <t>3. Click the banner with the title PREMIERE DATES</t>
   </si>
   <si>
-    <t>A page with the title TV PREMIERE DATES 2021 will be presented. Under November title, there'll be dates of all the days in the month. Same for December.</t>
-  </si>
-  <si>
     <t>TV Shows - Top TV Shows - Premiere Dates - Display</t>
   </si>
   <si>
@@ -862,15 +859,6 @@
     <t>A page with the title TV PREMIERE DATES 2021 will be presented.</t>
   </si>
   <si>
-    <t>4. Click the November link</t>
-  </si>
-  <si>
-    <t>November title will be visible to the user</t>
-  </si>
-  <si>
-    <t>TV Shows - Top TV Shows - Premiere Dates - November Link</t>
-  </si>
-  <si>
     <t>Verify that clicking a month link in Premiere Dates for TV shows page is working</t>
   </si>
   <si>
@@ -941,6 +929,18 @@
   </si>
   <si>
     <t>TV Shows - New TV Tonight - With No Score</t>
+  </si>
+  <si>
+    <t>A page with the title TV PREMIERE DATES 2021 will be presented. Under December title, there'll be dates of all the days in the month.</t>
+  </si>
+  <si>
+    <t>4. Click the December link</t>
+  </si>
+  <si>
+    <t>December title will be visible to the user</t>
+  </si>
+  <si>
+    <t>TV Shows - Top TV Shows - Premiere Dates - December Link</t>
   </si>
 </sst>
 </file>
@@ -1612,79 +1612,91 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1693,21 +1705,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1715,6 +1712,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2036,8 +2036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B4C97A-71D1-473B-A994-4B6E5B9F3EEF}">
   <dimension ref="A1:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122:B125"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="E156" sqref="E156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2070,26 +2070,26 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="48" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="49" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -2100,10 +2100,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="34"/>
-      <c r="D4" s="48"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
@@ -2112,16 +2112,16 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="41" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="53" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="3"/>
@@ -2130,10 +2130,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="32"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="35"/>
-      <c r="D6" s="53"/>
+      <c r="D6" s="57"/>
       <c r="E6" s="8" t="s">
         <v>17</v>
       </c>
@@ -2142,16 +2142,16 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="49" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="3"/>
@@ -2160,10 +2160,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="58"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="48"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="50"/>
       <c r="E8" s="13" t="s">
         <v>21</v>
       </c>
@@ -2172,10 +2172,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="48"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="50"/>
       <c r="E9" s="10" t="s">
         <v>23</v>
       </c>
@@ -2184,16 +2184,16 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="30" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="53" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="12" t="s">
@@ -2202,10 +2202,10 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
-      <c r="B11" s="45"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="34"/>
-      <c r="D11" s="48"/>
+      <c r="D11" s="50"/>
       <c r="E11" s="13" t="s">
         <v>39</v>
       </c>
@@ -2214,16 +2214,16 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="41" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="53" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="12" t="s">
@@ -2234,10 +2234,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="34"/>
-      <c r="D13" s="48"/>
+      <c r="D13" s="50"/>
       <c r="E13" s="13" t="s">
         <v>42</v>
       </c>
@@ -2246,16 +2246,16 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="30" t="s">
         <v>47</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="53" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="12" t="s">
@@ -2266,10 +2266,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A15" s="49"/>
-      <c r="B15" s="45"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="34"/>
-      <c r="D15" s="48"/>
+      <c r="D15" s="50"/>
       <c r="E15" s="15" t="s">
         <v>53</v>
       </c>
@@ -2278,10 +2278,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="45"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="34"/>
-      <c r="D16" s="48"/>
+      <c r="D16" s="50"/>
       <c r="E16" s="15" t="s">
         <v>55</v>
       </c>
@@ -2290,16 +2290,16 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="53" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="12"/>
@@ -2308,10 +2308,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="51"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="34"/>
-      <c r="D18" s="48"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="13" t="s">
         <v>70</v>
       </c>
@@ -2320,10 +2320,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="35"/>
-      <c r="D19" s="53"/>
+      <c r="D19" s="57"/>
       <c r="E19" s="11" t="s">
         <v>71</v>
       </c>
@@ -2352,10 +2352,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="41" t="s">
         <v>60</v>
       </c>
       <c r="C21" s="33" t="s">
@@ -2370,8 +2370,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
-      <c r="B22" s="31"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="34"/>
       <c r="D22" s="62"/>
       <c r="E22" s="13" t="s">
@@ -2382,8 +2382,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="31"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="34"/>
       <c r="D23" s="62"/>
       <c r="E23" s="16"/>
@@ -2392,10 +2392,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="41" t="s">
         <v>66</v>
       </c>
       <c r="C24" s="33" t="s">
@@ -2412,8 +2412,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="32"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="35"/>
       <c r="D25" s="38"/>
       <c r="E25" s="8"/>
@@ -2422,10 +2422,10 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="41" t="s">
         <v>75</v>
       </c>
       <c r="C26" s="33" t="s">
@@ -2442,8 +2442,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="32"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="42"/>
       <c r="C27" s="35"/>
       <c r="D27" s="38"/>
       <c r="E27" s="8" t="s">
@@ -2454,10 +2454,10 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="41" t="s">
         <v>80</v>
       </c>
       <c r="C28" s="33" t="s">
@@ -2474,8 +2474,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A29" s="28"/>
-      <c r="B29" s="31"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="34"/>
       <c r="D29" s="37"/>
       <c r="E29" s="16" t="s">
@@ -2486,8 +2486,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="32"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="42"/>
       <c r="C30" s="35"/>
       <c r="D30" s="38"/>
       <c r="E30" s="8" t="s">
@@ -2498,10 +2498,10 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="41" t="s">
         <v>80</v>
       </c>
       <c r="C31" s="33" t="s">
@@ -2518,8 +2518,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A32" s="28"/>
-      <c r="B32" s="31"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="43"/>
       <c r="C32" s="34"/>
       <c r="D32" s="37"/>
       <c r="E32" s="16" t="s">
@@ -2530,8 +2530,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="32"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="35"/>
       <c r="D33" s="38"/>
       <c r="E33" s="8" t="s">
@@ -2542,10 +2542,10 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="41" t="s">
         <v>91</v>
       </c>
       <c r="C34" s="33" t="s">
@@ -2560,8 +2560,8 @@
       <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="32"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="42"/>
       <c r="C35" s="35"/>
       <c r="D35" s="38"/>
       <c r="E35" s="8" t="s">
@@ -2572,10 +2572,10 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="41" t="s">
         <v>96</v>
       </c>
       <c r="C36" s="33" t="s">
@@ -2592,8 +2592,8 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
-      <c r="B37" s="32"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="42"/>
       <c r="C37" s="35"/>
       <c r="D37" s="38"/>
       <c r="E37" s="8"/>
@@ -2602,10 +2602,10 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="41" t="s">
         <v>100</v>
       </c>
       <c r="C38" s="33" t="s">
@@ -2622,8 +2622,8 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="66.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="32"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="42"/>
       <c r="C39" s="35"/>
       <c r="D39" s="38"/>
       <c r="E39" s="8" t="s">
@@ -2634,10 +2634,10 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="41" t="s">
         <v>101</v>
       </c>
       <c r="C40" s="33" t="s">
@@ -2654,8 +2654,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
-      <c r="B41" s="32"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="42"/>
       <c r="C41" s="35"/>
       <c r="D41" s="38"/>
       <c r="E41" s="8" t="s">
@@ -2686,10 +2686,10 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="50.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="41" t="s">
         <v>116</v>
       </c>
       <c r="C43" s="33" t="s">
@@ -2706,8 +2706,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
-      <c r="B44" s="32"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="42"/>
       <c r="C44" s="35"/>
       <c r="D44" s="38"/>
       <c r="E44" s="8" t="s">
@@ -2718,10 +2718,10 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="41" t="s">
         <v>123</v>
       </c>
       <c r="C45" s="33" t="s">
@@ -2738,8 +2738,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
-      <c r="B46" s="32"/>
+      <c r="A46" s="40"/>
+      <c r="B46" s="42"/>
       <c r="C46" s="35"/>
       <c r="D46" s="38"/>
       <c r="E46" s="8" t="s">
@@ -2750,14 +2750,14 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="39" t="s">
+      <c r="A47" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
     </row>
     <row r="48" spans="1:6" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
@@ -2780,10 +2780,10 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="41" t="s">
         <v>135</v>
       </c>
       <c r="C49" s="33" t="s">
@@ -2800,8 +2800,8 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="29"/>
-      <c r="B50" s="32"/>
+      <c r="A50" s="40"/>
+      <c r="B50" s="42"/>
       <c r="C50" s="35"/>
       <c r="D50" s="38"/>
       <c r="E50" s="8" t="s">
@@ -2812,10 +2812,10 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="27" t="s">
+      <c r="A51" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="41" t="s">
         <v>138</v>
       </c>
       <c r="C51" s="33" t="s">
@@ -2832,8 +2832,8 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="83.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
-      <c r="B52" s="32"/>
+      <c r="A52" s="40"/>
+      <c r="B52" s="42"/>
       <c r="C52" s="35"/>
       <c r="D52" s="38"/>
       <c r="E52" s="8" t="s">
@@ -2844,10 +2844,10 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="B53" s="44" t="s">
+      <c r="B53" s="30" t="s">
         <v>141</v>
       </c>
       <c r="C53" s="33" t="s">
@@ -2864,8 +2864,8 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A54" s="42"/>
-      <c r="B54" s="45"/>
+      <c r="A54" s="28"/>
+      <c r="B54" s="31"/>
       <c r="C54" s="34"/>
       <c r="D54" s="37"/>
       <c r="E54" s="25" t="s">
@@ -2876,8 +2876,8 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="43"/>
-      <c r="B55" s="46"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="32"/>
       <c r="C55" s="35"/>
       <c r="D55" s="38"/>
       <c r="E55" s="8" t="s">
@@ -2888,10 +2888,10 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="41" t="s">
+      <c r="A56" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="B56" s="44" t="s">
+      <c r="B56" s="30" t="s">
         <v>158</v>
       </c>
       <c r="C56" s="33" t="s">
@@ -2908,8 +2908,8 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A57" s="42"/>
-      <c r="B57" s="45"/>
+      <c r="A57" s="28"/>
+      <c r="B57" s="31"/>
       <c r="C57" s="34"/>
       <c r="D57" s="37"/>
       <c r="E57" s="25" t="s">
@@ -2920,8 +2920,8 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A58" s="42"/>
-      <c r="B58" s="45"/>
+      <c r="A58" s="28"/>
+      <c r="B58" s="31"/>
       <c r="C58" s="34"/>
       <c r="D58" s="37"/>
       <c r="E58" s="25" t="s">
@@ -2932,8 +2932,8 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="42"/>
-      <c r="B59" s="45"/>
+      <c r="A59" s="28"/>
+      <c r="B59" s="31"/>
       <c r="C59" s="34"/>
       <c r="D59" s="37"/>
       <c r="E59" s="25" t="s">
@@ -2944,8 +2944,8 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="43"/>
-      <c r="B60" s="46"/>
+      <c r="A60" s="29"/>
+      <c r="B60" s="32"/>
       <c r="C60" s="35"/>
       <c r="D60" s="38"/>
       <c r="E60" s="8" t="s">
@@ -2956,10 +2956,10 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="41" t="s">
+      <c r="A61" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="B61" s="44" t="s">
+      <c r="B61" s="30" t="s">
         <v>159</v>
       </c>
       <c r="C61" s="33" t="s">
@@ -2976,8 +2976,8 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A62" s="42"/>
-      <c r="B62" s="45"/>
+      <c r="A62" s="28"/>
+      <c r="B62" s="31"/>
       <c r="C62" s="34"/>
       <c r="D62" s="37"/>
       <c r="E62" s="25" t="s">
@@ -2988,8 +2988,8 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A63" s="42"/>
-      <c r="B63" s="45"/>
+      <c r="A63" s="28"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="34"/>
       <c r="D63" s="37"/>
       <c r="E63" s="25" t="s">
@@ -3000,8 +3000,8 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="99" x14ac:dyDescent="0.2">
-      <c r="A64" s="42"/>
-      <c r="B64" s="45"/>
+      <c r="A64" s="28"/>
+      <c r="B64" s="31"/>
       <c r="C64" s="34"/>
       <c r="D64" s="37"/>
       <c r="E64" s="25" t="s">
@@ -3012,8 +3012,8 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="43"/>
-      <c r="B65" s="46"/>
+      <c r="A65" s="29"/>
+      <c r="B65" s="32"/>
       <c r="C65" s="35"/>
       <c r="D65" s="38"/>
       <c r="E65" s="8" t="s">
@@ -3024,10 +3024,10 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="41" t="s">
+      <c r="A66" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="B66" s="44" t="s">
+      <c r="B66" s="30" t="s">
         <v>167</v>
       </c>
       <c r="C66" s="33" t="s">
@@ -3044,8 +3044,8 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="42"/>
-      <c r="B67" s="45"/>
+      <c r="A67" s="28"/>
+      <c r="B67" s="31"/>
       <c r="C67" s="34"/>
       <c r="D67" s="37"/>
       <c r="E67" s="25" t="s">
@@ -3056,8 +3056,8 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="42"/>
-      <c r="B68" s="45"/>
+      <c r="A68" s="28"/>
+      <c r="B68" s="31"/>
       <c r="C68" s="34"/>
       <c r="D68" s="37"/>
       <c r="E68" s="25" t="s">
@@ -3068,8 +3068,8 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="43"/>
-      <c r="B69" s="46"/>
+      <c r="A69" s="29"/>
+      <c r="B69" s="32"/>
       <c r="C69" s="35"/>
       <c r="D69" s="38"/>
       <c r="E69" s="8" t="s">
@@ -3080,10 +3080,10 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="41" t="s">
+      <c r="A70" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="B70" s="44" t="s">
+      <c r="B70" s="30" t="s">
         <v>168</v>
       </c>
       <c r="C70" s="33" t="s">
@@ -3100,8 +3100,8 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A71" s="42"/>
-      <c r="B71" s="45"/>
+      <c r="A71" s="28"/>
+      <c r="B71" s="31"/>
       <c r="C71" s="34"/>
       <c r="D71" s="37"/>
       <c r="E71" s="25" t="s">
@@ -3112,8 +3112,8 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="43"/>
-      <c r="B72" s="46"/>
+      <c r="A72" s="29"/>
+      <c r="B72" s="32"/>
       <c r="C72" s="35"/>
       <c r="D72" s="38"/>
       <c r="E72" s="8" t="s">
@@ -3124,16 +3124,16 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="27" t="s">
+      <c r="A73" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="B73" s="30" t="s">
+      <c r="B73" s="41" t="s">
         <v>204</v>
       </c>
       <c r="C73" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="D73" s="47" t="s">
+      <c r="D73" s="53" t="s">
         <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
@@ -3144,10 +3144,10 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="28"/>
-      <c r="B74" s="31"/>
+      <c r="A74" s="44"/>
+      <c r="B74" s="43"/>
       <c r="C74" s="34"/>
-      <c r="D74" s="48"/>
+      <c r="D74" s="50"/>
       <c r="E74" s="25" t="s">
         <v>172</v>
       </c>
@@ -3156,10 +3156,10 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="28"/>
-      <c r="B75" s="31"/>
+      <c r="A75" s="44"/>
+      <c r="B75" s="43"/>
       <c r="C75" s="34"/>
-      <c r="D75" s="48"/>
+      <c r="D75" s="50"/>
       <c r="E75" s="25" t="s">
         <v>205</v>
       </c>
@@ -3168,10 +3168,10 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="28"/>
-      <c r="B76" s="31"/>
+      <c r="A76" s="44"/>
+      <c r="B76" s="43"/>
       <c r="C76" s="34"/>
-      <c r="D76" s="48"/>
+      <c r="D76" s="50"/>
       <c r="E76" s="8" t="s">
         <v>206</v>
       </c>
@@ -3180,10 +3180,10 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="41" t="s">
+      <c r="A77" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="B77" s="44" t="s">
+      <c r="B77" s="30" t="s">
         <v>169</v>
       </c>
       <c r="C77" s="33" t="s">
@@ -3200,8 +3200,8 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="42"/>
-      <c r="B78" s="45"/>
+      <c r="A78" s="28"/>
+      <c r="B78" s="31"/>
       <c r="C78" s="34"/>
       <c r="D78" s="37"/>
       <c r="E78" s="25" t="s">
@@ -3210,8 +3210,8 @@
       <c r="F78" s="6"/>
     </row>
     <row r="79" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="42"/>
-      <c r="B79" s="45"/>
+      <c r="A79" s="28"/>
+      <c r="B79" s="31"/>
       <c r="C79" s="34"/>
       <c r="D79" s="37"/>
       <c r="E79" s="25" t="s">
@@ -3222,8 +3222,8 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="66.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="43"/>
-      <c r="B80" s="46"/>
+      <c r="A80" s="29"/>
+      <c r="B80" s="32"/>
       <c r="C80" s="35"/>
       <c r="D80" s="38"/>
       <c r="E80" s="8" t="s">
@@ -3234,10 +3234,10 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="41" t="s">
+      <c r="A81" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="B81" s="44" t="s">
+      <c r="B81" s="30" t="s">
         <v>191</v>
       </c>
       <c r="C81" s="33" t="s">
@@ -3254,8 +3254,8 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="42"/>
-      <c r="B82" s="45"/>
+      <c r="A82" s="28"/>
+      <c r="B82" s="31"/>
       <c r="C82" s="34"/>
       <c r="D82" s="37"/>
       <c r="E82" s="25" t="s">
@@ -3264,8 +3264,8 @@
       <c r="F82" s="6"/>
     </row>
     <row r="83" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="42"/>
-      <c r="B83" s="45"/>
+      <c r="A83" s="28"/>
+      <c r="B83" s="31"/>
       <c r="C83" s="34"/>
       <c r="D83" s="37"/>
       <c r="E83" s="25" t="s">
@@ -3276,8 +3276,8 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="42"/>
-      <c r="B84" s="45"/>
+      <c r="A84" s="28"/>
+      <c r="B84" s="31"/>
       <c r="C84" s="34"/>
       <c r="D84" s="37"/>
       <c r="E84" s="16" t="s">
@@ -3288,8 +3288,8 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="43"/>
-      <c r="B85" s="46"/>
+      <c r="A85" s="29"/>
+      <c r="B85" s="32"/>
       <c r="C85" s="35"/>
       <c r="D85" s="38"/>
       <c r="E85" s="8" t="s">
@@ -3300,10 +3300,10 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="41" t="s">
+      <c r="A86" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="B86" s="44" t="s">
+      <c r="B86" s="30" t="s">
         <v>170</v>
       </c>
       <c r="C86" s="33" t="s">
@@ -3320,8 +3320,8 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="42"/>
-      <c r="B87" s="45"/>
+      <c r="A87" s="28"/>
+      <c r="B87" s="31"/>
       <c r="C87" s="34"/>
       <c r="D87" s="37"/>
       <c r="E87" s="25" t="s">
@@ -3330,8 +3330,8 @@
       <c r="F87" s="6"/>
     </row>
     <row r="88" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="42"/>
-      <c r="B88" s="45"/>
+      <c r="A88" s="28"/>
+      <c r="B88" s="31"/>
       <c r="C88" s="34"/>
       <c r="D88" s="37"/>
       <c r="E88" s="25" t="s">
@@ -3342,8 +3342,8 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A89" s="42"/>
-      <c r="B89" s="45"/>
+      <c r="A89" s="28"/>
+      <c r="B89" s="31"/>
       <c r="C89" s="34"/>
       <c r="D89" s="37"/>
       <c r="E89" s="16" t="s">
@@ -3354,8 +3354,8 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="43"/>
-      <c r="B90" s="46"/>
+      <c r="A90" s="29"/>
+      <c r="B90" s="32"/>
       <c r="C90" s="35"/>
       <c r="D90" s="38"/>
       <c r="E90" s="8" t="s">
@@ -3366,10 +3366,10 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="41" t="s">
+      <c r="A91" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="B91" s="44" t="s">
+      <c r="B91" s="30" t="s">
         <v>171</v>
       </c>
       <c r="C91" s="33" t="s">
@@ -3386,8 +3386,8 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="42"/>
-      <c r="B92" s="45"/>
+      <c r="A92" s="28"/>
+      <c r="B92" s="31"/>
       <c r="C92" s="34"/>
       <c r="D92" s="37"/>
       <c r="E92" s="25" t="s">
@@ -3396,8 +3396,8 @@
       <c r="F92" s="6"/>
     </row>
     <row r="93" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="42"/>
-      <c r="B93" s="45"/>
+      <c r="A93" s="28"/>
+      <c r="B93" s="31"/>
       <c r="C93" s="34"/>
       <c r="D93" s="37"/>
       <c r="E93" s="25" t="s">
@@ -3408,8 +3408,8 @@
       </c>
     </row>
     <row r="94" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A94" s="42"/>
-      <c r="B94" s="45"/>
+      <c r="A94" s="28"/>
+      <c r="B94" s="31"/>
       <c r="C94" s="34"/>
       <c r="D94" s="37"/>
       <c r="E94" s="16" t="s">
@@ -3420,8 +3420,8 @@
       </c>
     </row>
     <row r="95" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="43"/>
-      <c r="B95" s="46"/>
+      <c r="A95" s="29"/>
+      <c r="B95" s="32"/>
       <c r="C95" s="35"/>
       <c r="D95" s="38"/>
       <c r="E95" s="8" t="s">
@@ -3432,10 +3432,10 @@
       </c>
     </row>
     <row r="96" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="41" t="s">
+      <c r="A96" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="B96" s="44" t="s">
+      <c r="B96" s="30" t="s">
         <v>212</v>
       </c>
       <c r="C96" s="33" t="s">
@@ -3452,8 +3452,8 @@
       </c>
     </row>
     <row r="97" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A97" s="42"/>
-      <c r="B97" s="45"/>
+      <c r="A97" s="28"/>
+      <c r="B97" s="31"/>
       <c r="C97" s="34"/>
       <c r="D97" s="37"/>
       <c r="E97" s="25" t="s">
@@ -3462,8 +3462,8 @@
       <c r="F97" s="6"/>
     </row>
     <row r="98" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="42"/>
-      <c r="B98" s="45"/>
+      <c r="A98" s="28"/>
+      <c r="B98" s="31"/>
       <c r="C98" s="34"/>
       <c r="D98" s="37"/>
       <c r="E98" s="25" t="s">
@@ -3474,8 +3474,8 @@
       </c>
     </row>
     <row r="99" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A99" s="42"/>
-      <c r="B99" s="45"/>
+      <c r="A99" s="28"/>
+      <c r="B99" s="31"/>
       <c r="C99" s="34"/>
       <c r="D99" s="37"/>
       <c r="E99" s="16" t="s">
@@ -3486,8 +3486,8 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="43"/>
-      <c r="B100" s="46"/>
+      <c r="A100" s="29"/>
+      <c r="B100" s="32"/>
       <c r="C100" s="35"/>
       <c r="D100" s="38"/>
       <c r="E100" s="8" t="s">
@@ -3498,10 +3498,10 @@
       </c>
     </row>
     <row r="101" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="41" t="s">
+      <c r="A101" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="B101" s="44" t="s">
+      <c r="B101" s="30" t="s">
         <v>213</v>
       </c>
       <c r="C101" s="33" t="s">
@@ -3518,8 +3518,8 @@
       </c>
     </row>
     <row r="102" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="42"/>
-      <c r="B102" s="45"/>
+      <c r="A102" s="28"/>
+      <c r="B102" s="31"/>
       <c r="C102" s="34"/>
       <c r="D102" s="37"/>
       <c r="E102" s="25" t="s">
@@ -3528,8 +3528,8 @@
       <c r="F102" s="6"/>
     </row>
     <row r="103" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="42"/>
-      <c r="B103" s="45"/>
+      <c r="A103" s="28"/>
+      <c r="B103" s="31"/>
       <c r="C103" s="34"/>
       <c r="D103" s="37"/>
       <c r="E103" s="25" t="s">
@@ -3540,8 +3540,8 @@
       </c>
     </row>
     <row r="104" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A104" s="42"/>
-      <c r="B104" s="45"/>
+      <c r="A104" s="28"/>
+      <c r="B104" s="31"/>
       <c r="C104" s="34"/>
       <c r="D104" s="37"/>
       <c r="E104" s="25" t="s">
@@ -3552,8 +3552,8 @@
       </c>
     </row>
     <row r="105" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="42"/>
-      <c r="B105" s="45"/>
+      <c r="A105" s="28"/>
+      <c r="B105" s="31"/>
       <c r="C105" s="34"/>
       <c r="D105" s="37"/>
       <c r="E105" s="25" t="s">
@@ -3564,8 +3564,8 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="43"/>
-      <c r="B106" s="46"/>
+      <c r="A106" s="29"/>
+      <c r="B106" s="32"/>
       <c r="C106" s="35"/>
       <c r="D106" s="38"/>
       <c r="E106" s="8" t="s">
@@ -3576,10 +3576,10 @@
       </c>
     </row>
     <row r="107" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="41" t="s">
+      <c r="A107" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="B107" s="44" t="s">
+      <c r="B107" s="30" t="s">
         <v>222</v>
       </c>
       <c r="C107" s="33" t="s">
@@ -3596,8 +3596,8 @@
       </c>
     </row>
     <row r="108" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="42"/>
-      <c r="B108" s="45"/>
+      <c r="A108" s="28"/>
+      <c r="B108" s="31"/>
       <c r="C108" s="34"/>
       <c r="D108" s="37"/>
       <c r="E108" s="25" t="s">
@@ -3606,8 +3606,8 @@
       <c r="F108" s="6"/>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="42"/>
-      <c r="B109" s="45"/>
+      <c r="A109" s="28"/>
+      <c r="B109" s="31"/>
       <c r="C109" s="34"/>
       <c r="D109" s="37"/>
       <c r="E109" s="25" t="s">
@@ -3618,8 +3618,8 @@
       </c>
     </row>
     <row r="110" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A110" s="42"/>
-      <c r="B110" s="45"/>
+      <c r="A110" s="28"/>
+      <c r="B110" s="31"/>
       <c r="C110" s="34"/>
       <c r="D110" s="37"/>
       <c r="E110" s="25" t="s">
@@ -3630,8 +3630,8 @@
       </c>
     </row>
     <row r="111" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="42"/>
-      <c r="B111" s="45"/>
+      <c r="A111" s="28"/>
+      <c r="B111" s="31"/>
       <c r="C111" s="34"/>
       <c r="D111" s="37"/>
       <c r="E111" s="25" t="s">
@@ -3642,8 +3642,8 @@
       </c>
     </row>
     <row r="112" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A112" s="42"/>
-      <c r="B112" s="45"/>
+      <c r="A112" s="28"/>
+      <c r="B112" s="31"/>
       <c r="C112" s="34"/>
       <c r="D112" s="37"/>
       <c r="E112" s="16" t="s">
@@ -3654,8 +3654,8 @@
       </c>
     </row>
     <row r="113" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="43"/>
-      <c r="B113" s="46"/>
+      <c r="A113" s="29"/>
+      <c r="B113" s="32"/>
       <c r="C113" s="35"/>
       <c r="D113" s="38"/>
       <c r="E113" s="8" t="s">
@@ -3666,14 +3666,14 @@
       </c>
     </row>
     <row r="114" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="39" t="s">
+      <c r="A114" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="B114" s="40"/>
-      <c r="C114" s="40"/>
-      <c r="D114" s="40"/>
-      <c r="E114" s="40"/>
-      <c r="F114" s="40"/>
+      <c r="B114" s="46"/>
+      <c r="C114" s="46"/>
+      <c r="D114" s="46"/>
+      <c r="E114" s="46"/>
+      <c r="F114" s="46"/>
     </row>
     <row r="115" spans="1:6" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="22" t="s">
@@ -3696,10 +3696,10 @@
       </c>
     </row>
     <row r="116" spans="1:6" ht="50.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="27" t="s">
+      <c r="A116" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="B116" s="30" t="s">
+      <c r="B116" s="41" t="s">
         <v>234</v>
       </c>
       <c r="C116" s="33" t="s">
@@ -3716,23 +3716,23 @@
       </c>
     </row>
     <row r="117" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="29"/>
-      <c r="B117" s="32"/>
+      <c r="A117" s="40"/>
+      <c r="B117" s="42"/>
       <c r="C117" s="35"/>
       <c r="D117" s="38"/>
       <c r="E117" s="8" t="s">
         <v>236</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="50.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="27" t="s">
+      <c r="A118" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="B118" s="30" t="s">
-        <v>302</v>
+      <c r="B118" s="41" t="s">
+        <v>298</v>
       </c>
       <c r="C118" s="33" t="s">
         <v>244</v>
@@ -3748,22 +3748,22 @@
       </c>
     </row>
     <row r="119" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="29"/>
-      <c r="B119" s="32"/>
+      <c r="A119" s="40"/>
+      <c r="B119" s="42"/>
       <c r="C119" s="35"/>
       <c r="D119" s="38"/>
       <c r="E119" s="8" t="s">
         <v>239</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="27" t="s">
+      <c r="A120" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="B120" s="30" t="s">
+      <c r="B120" s="41" t="s">
         <v>240</v>
       </c>
       <c r="C120" s="33" t="s">
@@ -3780,8 +3780,8 @@
       </c>
     </row>
     <row r="121" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="29"/>
-      <c r="B121" s="32"/>
+      <c r="A121" s="40"/>
+      <c r="B121" s="42"/>
       <c r="C121" s="35"/>
       <c r="D121" s="38"/>
       <c r="E121" s="8" t="s">
@@ -3792,10 +3792,10 @@
       </c>
     </row>
     <row r="122" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="27" t="s">
+      <c r="A122" s="39" t="s">
         <v>254</v>
       </c>
-      <c r="B122" s="30" t="s">
+      <c r="B122" s="41" t="s">
         <v>248</v>
       </c>
       <c r="C122" s="33" t="s">
@@ -3812,8 +3812,8 @@
       </c>
     </row>
     <row r="123" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A123" s="28"/>
-      <c r="B123" s="31"/>
+      <c r="A123" s="44"/>
+      <c r="B123" s="43"/>
       <c r="C123" s="34"/>
       <c r="D123" s="37"/>
       <c r="E123" s="25" t="s">
@@ -3824,8 +3824,8 @@
       </c>
     </row>
     <row r="124" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A124" s="28"/>
-      <c r="B124" s="31"/>
+      <c r="A124" s="44"/>
+      <c r="B124" s="43"/>
       <c r="C124" s="34"/>
       <c r="D124" s="37"/>
       <c r="E124" s="25" t="s">
@@ -3836,8 +3836,8 @@
       </c>
     </row>
     <row r="125" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="29"/>
-      <c r="B125" s="32"/>
+      <c r="A125" s="40"/>
+      <c r="B125" s="42"/>
       <c r="C125" s="35"/>
       <c r="D125" s="38"/>
       <c r="E125" s="8" t="s">
@@ -3848,14 +3848,14 @@
       </c>
     </row>
     <row r="126" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="27" t="s">
+      <c r="A126" s="39" t="s">
         <v>259</v>
       </c>
-      <c r="B126" s="30" t="s">
+      <c r="B126" s="41" t="s">
         <v>261</v>
       </c>
       <c r="C126" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D126" s="36" t="s">
         <v>10</v>
@@ -3868,8 +3868,8 @@
       </c>
     </row>
     <row r="127" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="29"/>
-      <c r="B127" s="32"/>
+      <c r="A127" s="40"/>
+      <c r="B127" s="42"/>
       <c r="C127" s="35"/>
       <c r="D127" s="38"/>
       <c r="E127" s="8" t="s">
@@ -3880,14 +3880,14 @@
       </c>
     </row>
     <row r="128" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="27" t="s">
+      <c r="A128" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="B128" s="30" t="s">
+      <c r="B128" s="41" t="s">
         <v>262</v>
       </c>
       <c r="C128" s="33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D128" s="36" t="s">
         <v>10</v>
@@ -3900,8 +3900,8 @@
       </c>
     </row>
     <row r="129" spans="1:6" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A129" s="28"/>
-      <c r="B129" s="31"/>
+      <c r="A129" s="44"/>
+      <c r="B129" s="43"/>
       <c r="C129" s="34"/>
       <c r="D129" s="37"/>
       <c r="E129" s="25" t="s">
@@ -3912,8 +3912,8 @@
       </c>
     </row>
     <row r="130" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="29"/>
-      <c r="B130" s="32"/>
+      <c r="A130" s="40"/>
+      <c r="B130" s="42"/>
       <c r="C130" s="35"/>
       <c r="D130" s="38"/>
       <c r="E130" s="8" t="s">
@@ -3924,14 +3924,14 @@
       </c>
     </row>
     <row r="131" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="27" t="s">
+      <c r="A131" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="B131" s="30" t="s">
-        <v>270</v>
+      <c r="B131" s="41" t="s">
+        <v>269</v>
       </c>
       <c r="C131" s="33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D131" s="36" t="s">
         <v>10</v>
@@ -3944,8 +3944,8 @@
       </c>
     </row>
     <row r="132" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="28"/>
-      <c r="B132" s="31"/>
+      <c r="A132" s="44"/>
+      <c r="B132" s="43"/>
       <c r="C132" s="34"/>
       <c r="D132" s="37"/>
       <c r="E132" s="25" t="s">
@@ -3956,26 +3956,26 @@
       </c>
     </row>
     <row r="133" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="29"/>
-      <c r="B133" s="32"/>
+      <c r="A133" s="40"/>
+      <c r="B133" s="42"/>
       <c r="C133" s="35"/>
       <c r="D133" s="38"/>
       <c r="E133" s="8" t="s">
         <v>268</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="B134" s="30" t="s">
-        <v>278</v>
+      <c r="A134" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="B134" s="41" t="s">
+        <v>302</v>
       </c>
       <c r="C134" s="33" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D134" s="36" t="s">
         <v>10</v>
@@ -3988,8 +3988,8 @@
       </c>
     </row>
     <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A135" s="28"/>
-      <c r="B135" s="31"/>
+      <c r="A135" s="44"/>
+      <c r="B135" s="43"/>
       <c r="C135" s="34"/>
       <c r="D135" s="37"/>
       <c r="E135" s="25" t="s">
@@ -4000,38 +4000,38 @@
       </c>
     </row>
     <row r="136" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A136" s="28"/>
-      <c r="B136" s="31"/>
+      <c r="A136" s="44"/>
+      <c r="B136" s="43"/>
       <c r="C136" s="34"/>
       <c r="D136" s="37"/>
       <c r="E136" s="16" t="s">
         <v>268</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="29"/>
-      <c r="B137" s="32"/>
+      <c r="A137" s="40"/>
+      <c r="B137" s="42"/>
       <c r="C137" s="35"/>
       <c r="D137" s="38"/>
       <c r="E137" s="8" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="27" t="s">
-        <v>284</v>
-      </c>
-      <c r="B138" s="30" t="s">
-        <v>282</v>
+      <c r="A138" s="39" t="s">
+        <v>280</v>
+      </c>
+      <c r="B138" s="41" t="s">
+        <v>278</v>
       </c>
       <c r="C138" s="33" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D138" s="36" t="s">
         <v>10</v>
@@ -4044,8 +4044,8 @@
       </c>
     </row>
     <row r="139" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A139" s="28"/>
-      <c r="B139" s="31"/>
+      <c r="A139" s="44"/>
+      <c r="B139" s="43"/>
       <c r="C139" s="34"/>
       <c r="D139" s="37"/>
       <c r="E139" s="25" t="s">
@@ -4056,38 +4056,38 @@
       </c>
     </row>
     <row r="140" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A140" s="28"/>
-      <c r="B140" s="31"/>
+      <c r="A140" s="44"/>
+      <c r="B140" s="43"/>
       <c r="C140" s="34"/>
       <c r="D140" s="37"/>
       <c r="E140" s="16" t="s">
         <v>268</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="29"/>
-      <c r="B141" s="32"/>
+      <c r="A141" s="40"/>
+      <c r="B141" s="42"/>
       <c r="C141" s="35"/>
       <c r="D141" s="38"/>
       <c r="E141" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="39" t="s">
         <v>281</v>
       </c>
-      <c r="F141" s="9" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="B142" s="30" t="s">
-        <v>287</v>
+      <c r="B142" s="41" t="s">
+        <v>283</v>
       </c>
       <c r="C142" s="33" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D142" s="36" t="s">
         <v>10</v>
@@ -4100,8 +4100,8 @@
       </c>
     </row>
     <row r="143" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A143" s="28"/>
-      <c r="B143" s="31"/>
+      <c r="A143" s="44"/>
+      <c r="B143" s="43"/>
       <c r="C143" s="34"/>
       <c r="D143" s="37"/>
       <c r="E143" s="25" t="s">
@@ -4112,62 +4112,62 @@
       </c>
     </row>
     <row r="144" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A144" s="28"/>
-      <c r="B144" s="31"/>
+      <c r="A144" s="44"/>
+      <c r="B144" s="43"/>
       <c r="C144" s="34"/>
       <c r="D144" s="37"/>
       <c r="E144" s="25" t="s">
         <v>268</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A145" s="28"/>
-      <c r="B145" s="31"/>
+      <c r="A145" s="44"/>
+      <c r="B145" s="43"/>
       <c r="C145" s="34"/>
       <c r="D145" s="37"/>
       <c r="E145" s="25" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A146" s="28"/>
-      <c r="B146" s="31"/>
+      <c r="A146" s="44"/>
+      <c r="B146" s="43"/>
       <c r="C146" s="34"/>
       <c r="D146" s="37"/>
       <c r="E146" s="16" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="29"/>
-      <c r="B147" s="32"/>
+      <c r="A147" s="40"/>
+      <c r="B147" s="42"/>
       <c r="C147" s="35"/>
       <c r="D147" s="38"/>
       <c r="E147" s="8" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F147" s="9" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="B148" s="30" t="s">
+      <c r="A148" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="B148" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="C148" s="33" t="s">
         <v>295</v>
-      </c>
-      <c r="C148" s="33" t="s">
-        <v>299</v>
       </c>
       <c r="D148" s="36" t="s">
         <v>10</v>
@@ -4176,36 +4176,167 @@
         <v>232</v>
       </c>
       <c r="F148" s="17" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="29"/>
-      <c r="B149" s="32"/>
+      <c r="A149" s="40"/>
+      <c r="B149" s="42"/>
       <c r="C149" s="35"/>
       <c r="D149" s="38"/>
       <c r="E149" s="8" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F149" s="9" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="A96:A100"/>
-    <mergeCell ref="B96:B100"/>
-    <mergeCell ref="C96:C100"/>
-    <mergeCell ref="D96:D100"/>
-    <mergeCell ref="A101:A106"/>
-    <mergeCell ref="B101:B106"/>
-    <mergeCell ref="C101:C106"/>
-    <mergeCell ref="D101:D106"/>
-    <mergeCell ref="A107:A113"/>
-    <mergeCell ref="B107:B113"/>
-    <mergeCell ref="C107:C113"/>
-    <mergeCell ref="D107:D113"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="D138:D141"/>
+    <mergeCell ref="A142:A147"/>
+    <mergeCell ref="B142:B147"/>
+    <mergeCell ref="C142:C147"/>
+    <mergeCell ref="D142:D147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="D128:D130"/>
+    <mergeCell ref="A131:A133"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="C131:C133"/>
+    <mergeCell ref="D131:D133"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="D134:D137"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="C86:C90"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="C91:C95"/>
+    <mergeCell ref="D91:D95"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="C81:C85"/>
+    <mergeCell ref="D81:D85"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="C73:C76"/>
+    <mergeCell ref="D73:D76"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="A38:A39"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="B40:B41"/>
@@ -4230,149 +4361,18 @@
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="C73:C76"/>
-    <mergeCell ref="D73:D76"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="C86:C90"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="B91:B95"/>
-    <mergeCell ref="C91:C95"/>
-    <mergeCell ref="D91:D95"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="C81:C85"/>
-    <mergeCell ref="D81:D85"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="D128:D130"/>
-    <mergeCell ref="A131:A133"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="C131:C133"/>
-    <mergeCell ref="D131:D133"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="C134:C137"/>
-    <mergeCell ref="D134:D137"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="D138:D141"/>
-    <mergeCell ref="A142:A147"/>
-    <mergeCell ref="B142:B147"/>
-    <mergeCell ref="C142:C147"/>
-    <mergeCell ref="D142:D147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="A96:A100"/>
+    <mergeCell ref="B96:B100"/>
+    <mergeCell ref="C96:C100"/>
+    <mergeCell ref="D96:D100"/>
+    <mergeCell ref="A101:A106"/>
+    <mergeCell ref="B101:B106"/>
+    <mergeCell ref="C101:C106"/>
+    <mergeCell ref="D101:D106"/>
+    <mergeCell ref="A107:A113"/>
+    <mergeCell ref="B107:B113"/>
+    <mergeCell ref="C107:C113"/>
+    <mergeCell ref="D107:D113"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>

--- a/src/test/resources/test_descriptions/RottenTomatoes_TestCases.xlsx
+++ b/src/test/resources/test_descriptions/RottenTomatoes_TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\project\UITest2Code\src\test\resources\test_descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14653154-9894-427B-8FFF-FC0980B6BE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E06769-634E-4793-8530-54A65BC9A1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="15600" xr2:uid="{791CFF3F-B61E-4861-A956-A2059CE938E6}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15600" xr2:uid="{791CFF3F-B61E-4861-A956-A2059CE938E6}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="335">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -916,9 +916,6 @@
     <t>2. Click one of the links under the episodic reviews title</t>
   </si>
   <si>
-    <t>A movie's page will be displayed with the correct movie title. The subtitle EPISODES is visible.</t>
-  </si>
-  <si>
     <t>Verify that clicking one of the episodic reviews links in the TV Shows tab, works well</t>
   </si>
   <si>
@@ -941,13 +938,133 @@
   </si>
   <si>
     <t>TV Shows - Top TV Shows - Premiere Dates - December Link</t>
+  </si>
+  <si>
+    <t>A season's page will be displayed with the correct season title. The subtitle EPISODES is visible.</t>
+  </si>
+  <si>
+    <t>Section 4</t>
+  </si>
+  <si>
+    <t>RT PODCAST - Display</t>
+  </si>
+  <si>
+    <t>RT PODCAST - Play Spotify</t>
+  </si>
+  <si>
+    <t>RT PODCAST - Play Youtube Video</t>
+  </si>
+  <si>
+    <t>RT_49</t>
+  </si>
+  <si>
+    <t>1. Click the RT PODCAST button in the top navigation</t>
+  </si>
+  <si>
+    <t>Verify that clicking the RT PODCAST button in the top navigation is working</t>
+  </si>
+  <si>
+    <t>A page with the title "ROTTEN TOMATOES IS WRONG" (A PODCAST FROM ROTTEN TOMATOES) will be displayed. A youtube, spotify and apple podcasts will be presented.</t>
+  </si>
+  <si>
+    <t>RT_50</t>
+  </si>
+  <si>
+    <t>A page with the title "ROTTEN TOMATOES IS WRONG" (A PODCAST FROM ROTTEN TOMATOES) will be displayed.</t>
+  </si>
+  <si>
+    <t>2. Click the play button in the youtube video</t>
+  </si>
+  <si>
+    <t>The video will start playing</t>
+  </si>
+  <si>
+    <t>RT_51</t>
+  </si>
+  <si>
+    <t>Verify the youtube play function in the rotten tomatoes podcast page is working</t>
+  </si>
+  <si>
+    <t>Verify the Spotify play function in the rotten tomatoes podcast page is working</t>
+  </si>
+  <si>
+    <t>2. Click the play button in the spotify frame</t>
+  </si>
+  <si>
+    <t>The podcast will start playing</t>
+  </si>
+  <si>
+    <t>RT PODCAST - Play Apple Podcast</t>
+  </si>
+  <si>
+    <t>Verify the Apple Podcast play function in the rotten tomatoes podcast page is working</t>
+  </si>
+  <si>
+    <t>2. Click the play button in the apple podcast frame</t>
+  </si>
+  <si>
+    <t>RT_52</t>
+  </si>
+  <si>
+    <t>RT_53</t>
+  </si>
+  <si>
+    <t>RT PODCAST - Episodes</t>
+  </si>
+  <si>
+    <t>Verify the list of episodes in the rotten tomatoes podcast page is displayed and working</t>
+  </si>
+  <si>
+    <t>A page with the title "ROTTEN TOMATOES IS WRONG" (A PODCAST FROM ROTTEN TOMATOES) will be displayed. There is a list of Episodes of “Rotten Tomatoes Is Wrong” About…</t>
+  </si>
+  <si>
+    <t>2. Click the fourth link in the list</t>
+  </si>
+  <si>
+    <t>A page with the title of the clicked link will be presented.</t>
+  </si>
+  <si>
+    <t>RT_54</t>
+  </si>
+  <si>
+    <t>RT PODCAST - Tag Cloud</t>
+  </si>
+  <si>
+    <t>A page with the title "ROTTEN TOMATOES IS WRONG" (A PODCAST FROM ROTTEN TOMATOES) will be displayed. There is a tag cloud section with links. All the words that contain only one item are at the same size.</t>
+  </si>
+  <si>
+    <t>2. Click one of the words</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A page with the title TAG &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>the chosen word</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> will be displayed with number of articles as specified in the tag cloud element.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1003,6 +1120,13 @@
       <b/>
       <sz val="14"/>
       <color theme="0"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
@@ -1063,7 +1187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1528,11 +1652,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1612,6 +1758,60 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1630,47 +1830,29 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1681,30 +1863,12 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1714,11 +1878,17 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2034,10 +2204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B4C97A-71D1-473B-A994-4B6E5B9F3EEF}">
-  <dimension ref="A1:F150"/>
+  <dimension ref="A1:F162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="E156" sqref="E156"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="E165" sqref="E165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2070,26 +2240,26 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="61" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -2100,10 +2270,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="50"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
@@ -2112,16 +2282,16 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="51" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="3"/>
@@ -2131,8 +2301,8 @@
     </row>
     <row r="6" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="56"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="57"/>
       <c r="E6" s="8" t="s">
         <v>17</v>
@@ -2142,16 +2312,16 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="61" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="3"/>
@@ -2160,10 +2330,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="55"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="50"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="52"/>
       <c r="E8" s="13" t="s">
         <v>21</v>
       </c>
@@ -2172,10 +2342,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="50"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="10" t="s">
         <v>23</v>
       </c>
@@ -2184,16 +2354,16 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="51" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="12" t="s">
@@ -2202,10 +2372,10 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="50"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="13" t="s">
         <v>39</v>
       </c>
@@ -2214,16 +2384,16 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="51" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="12" t="s">
@@ -2234,10 +2404,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="50"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="52"/>
       <c r="E13" s="13" t="s">
         <v>42</v>
       </c>
@@ -2246,16 +2416,16 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="51" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="12" t="s">
@@ -2266,10 +2436,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A15" s="61"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="50"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="52"/>
       <c r="E15" s="15" t="s">
         <v>53</v>
       </c>
@@ -2278,10 +2448,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="50"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="15" t="s">
         <v>55</v>
       </c>
@@ -2290,16 +2460,16 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="53" t="s">
+      <c r="D17" s="51" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="12"/>
@@ -2308,10 +2478,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="52"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="50"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="13" t="s">
         <v>70</v>
       </c>
@@ -2321,8 +2491,8 @@
     </row>
     <row r="19" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="57"/>
       <c r="E19" s="11" t="s">
         <v>71</v>
@@ -2352,16 +2522,16 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="40" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="12"/>
@@ -2370,10 +2540,10 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A22" s="44"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="62"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="58"/>
       <c r="E22" s="13" t="s">
         <v>62</v>
       </c>
@@ -2382,26 +2552,26 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="62"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="58"/>
       <c r="E23" s="16"/>
       <c r="F23" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="40" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="12" t="s">
@@ -2412,26 +2582,26 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="38"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="42"/>
       <c r="E25" s="8"/>
       <c r="F25" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="40" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="12" t="s">
@@ -2442,10 +2612,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="38"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="42"/>
       <c r="E27" s="8" t="s">
         <v>77</v>
       </c>
@@ -2454,16 +2624,16 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="40" t="s">
         <v>10</v>
       </c>
       <c r="E28" s="12" t="s">
@@ -2474,10 +2644,10 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A29" s="44"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="37"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="41"/>
       <c r="E29" s="16" t="s">
         <v>82</v>
       </c>
@@ -2486,10 +2656,10 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="38"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="42"/>
       <c r="E30" s="8" t="s">
         <v>84</v>
       </c>
@@ -2498,16 +2668,16 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="40" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="12" t="s">
@@ -2518,10 +2688,10 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A32" s="44"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="37"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="41"/>
       <c r="E32" s="16" t="s">
         <v>82</v>
       </c>
@@ -2530,10 +2700,10 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="38"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="42"/>
       <c r="E33" s="8" t="s">
         <v>87</v>
       </c>
@@ -2542,16 +2712,16 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="36" t="s">
+      <c r="D34" s="40" t="s">
         <v>10</v>
       </c>
       <c r="E34" s="12" t="s">
@@ -2560,10 +2730,10 @@
       <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="38"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="42"/>
       <c r="E35" s="8" t="s">
         <v>94</v>
       </c>
@@ -2572,16 +2742,16 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="36" t="s">
+      <c r="D36" s="40" t="s">
         <v>10</v>
       </c>
       <c r="E36" s="12" t="s">
@@ -2592,26 +2762,26 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="38"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="42"/>
       <c r="E37" s="8"/>
       <c r="F37" s="9" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="39" t="s">
+      <c r="A38" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="40" t="s">
         <v>10</v>
       </c>
       <c r="E38" s="12" t="s">
@@ -2622,10 +2792,10 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="66.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="38"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="42"/>
       <c r="E39" s="8" t="s">
         <v>106</v>
       </c>
@@ -2634,16 +2804,16 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="33" t="s">
+      <c r="C40" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="D40" s="36" t="s">
+      <c r="D40" s="40" t="s">
         <v>10</v>
       </c>
       <c r="E40" s="12" t="s">
@@ -2654,10 +2824,10 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="38"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="42"/>
       <c r="E41" s="8" t="s">
         <v>109</v>
       </c>
@@ -2686,16 +2856,16 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="50.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="33" t="s">
+      <c r="C43" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="D43" s="36" t="s">
+      <c r="D43" s="40" t="s">
         <v>10</v>
       </c>
       <c r="E43" s="12" t="s">
@@ -2706,10 +2876,10 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="38"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="42"/>
       <c r="E44" s="8" t="s">
         <v>121</v>
       </c>
@@ -2718,16 +2888,16 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="39" t="s">
+      <c r="A45" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="C45" s="33" t="s">
+      <c r="C45" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="D45" s="36" t="s">
+      <c r="D45" s="40" t="s">
         <v>10</v>
       </c>
       <c r="E45" s="12" t="s">
@@ -2738,10 +2908,10 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="40"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="38"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="42"/>
       <c r="E46" s="8" t="s">
         <v>106</v>
       </c>
@@ -2750,14 +2920,14 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="45" t="s">
+      <c r="A47" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="B47" s="46"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
     </row>
     <row r="48" spans="1:6" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
@@ -2780,16 +2950,16 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="39" t="s">
+      <c r="A49" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="C49" s="33" t="s">
+      <c r="C49" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="D49" s="36" t="s">
+      <c r="D49" s="40" t="s">
         <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
@@ -2800,10 +2970,10 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="38"/>
+      <c r="A50" s="33"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="42"/>
       <c r="E50" s="8" t="s">
         <v>133</v>
       </c>
@@ -2812,16 +2982,16 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="B51" s="41" t="s">
+      <c r="B51" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="C51" s="33" t="s">
+      <c r="C51" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="D51" s="36" t="s">
+      <c r="D51" s="40" t="s">
         <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
@@ -2832,10 +3002,10 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="83.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="40"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="38"/>
+      <c r="A52" s="33"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="42"/>
       <c r="E52" s="8" t="s">
         <v>137</v>
       </c>
@@ -2844,16 +3014,16 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="D53" s="36" t="s">
+      <c r="D53" s="40" t="s">
         <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
@@ -2864,10 +3034,10 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A54" s="28"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="37"/>
+      <c r="A54" s="46"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="41"/>
       <c r="E54" s="25" t="s">
         <v>137</v>
       </c>
@@ -2876,10 +3046,10 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="29"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="38"/>
+      <c r="A55" s="47"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="42"/>
       <c r="E55" s="8" t="s">
         <v>144</v>
       </c>
@@ -2888,16 +3058,16 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="B56" s="30" t="s">
+      <c r="B56" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="C56" s="33" t="s">
+      <c r="C56" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="D56" s="36" t="s">
+      <c r="D56" s="40" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
@@ -2908,10 +3078,10 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A57" s="28"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="37"/>
+      <c r="A57" s="46"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="41"/>
       <c r="E57" s="25" t="s">
         <v>137</v>
       </c>
@@ -2920,10 +3090,10 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A58" s="28"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="37"/>
+      <c r="A58" s="46"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="41"/>
       <c r="E58" s="25" t="s">
         <v>144</v>
       </c>
@@ -2932,10 +3102,10 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="28"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="37"/>
+      <c r="A59" s="46"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="41"/>
       <c r="E59" s="25" t="s">
         <v>148</v>
       </c>
@@ -2944,10 +3114,10 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="29"/>
-      <c r="B60" s="32"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="38"/>
+      <c r="A60" s="47"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="42"/>
       <c r="E60" s="8" t="s">
         <v>150</v>
       </c>
@@ -2956,16 +3126,16 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="27" t="s">
+      <c r="A61" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="B61" s="30" t="s">
+      <c r="B61" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="C61" s="33" t="s">
+      <c r="C61" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="D61" s="36" t="s">
+      <c r="D61" s="40" t="s">
         <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
@@ -2976,10 +3146,10 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A62" s="28"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="37"/>
+      <c r="A62" s="46"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="41"/>
       <c r="E62" s="25" t="s">
         <v>137</v>
       </c>
@@ -2988,10 +3158,10 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A63" s="28"/>
-      <c r="B63" s="31"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="37"/>
+      <c r="A63" s="46"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="41"/>
       <c r="E63" s="25" t="s">
         <v>144</v>
       </c>
@@ -3000,10 +3170,10 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="99" x14ac:dyDescent="0.2">
-      <c r="A64" s="28"/>
-      <c r="B64" s="31"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="37"/>
+      <c r="A64" s="46"/>
+      <c r="B64" s="49"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="41"/>
       <c r="E64" s="25" t="s">
         <v>161</v>
       </c>
@@ -3012,10 +3182,10 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="29"/>
-      <c r="B65" s="32"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="38"/>
+      <c r="A65" s="47"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="42"/>
       <c r="E65" s="8" t="s">
         <v>163</v>
       </c>
@@ -3024,16 +3194,16 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="27" t="s">
+      <c r="A66" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="B66" s="30" t="s">
+      <c r="B66" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="C66" s="33" t="s">
+      <c r="C66" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="D66" s="36" t="s">
+      <c r="D66" s="40" t="s">
         <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
@@ -3044,10 +3214,10 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="28"/>
-      <c r="B67" s="31"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="37"/>
+      <c r="A67" s="46"/>
+      <c r="B67" s="49"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="41"/>
       <c r="E67" s="25" t="s">
         <v>172</v>
       </c>
@@ -3056,10 +3226,10 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="28"/>
-      <c r="B68" s="31"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="37"/>
+      <c r="A68" s="46"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="41"/>
       <c r="E68" s="25" t="s">
         <v>174</v>
       </c>
@@ -3068,10 +3238,10 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="29"/>
-      <c r="B69" s="32"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="38"/>
+      <c r="A69" s="47"/>
+      <c r="B69" s="50"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="42"/>
       <c r="E69" s="8" t="s">
         <v>177</v>
       </c>
@@ -3080,16 +3250,16 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="27" t="s">
+      <c r="A70" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="B70" s="30" t="s">
+      <c r="B70" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="C70" s="33" t="s">
+      <c r="C70" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="D70" s="36" t="s">
+      <c r="D70" s="40" t="s">
         <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
@@ -3100,10 +3270,10 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A71" s="28"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="34"/>
-      <c r="D71" s="37"/>
+      <c r="A71" s="46"/>
+      <c r="B71" s="49"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="41"/>
       <c r="E71" s="25" t="s">
         <v>172</v>
       </c>
@@ -3112,10 +3282,10 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="29"/>
-      <c r="B72" s="32"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="38"/>
+      <c r="A72" s="47"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="42"/>
       <c r="E72" s="8" t="s">
         <v>182</v>
       </c>
@@ -3124,16 +3294,16 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="39" t="s">
+      <c r="A73" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="B73" s="41" t="s">
+      <c r="B73" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="C73" s="33" t="s">
+      <c r="C73" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="D73" s="53" t="s">
+      <c r="D73" s="51" t="s">
         <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
@@ -3144,10 +3314,10 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="44"/>
-      <c r="B74" s="43"/>
-      <c r="C74" s="34"/>
-      <c r="D74" s="50"/>
+      <c r="A74" s="32"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="52"/>
       <c r="E74" s="25" t="s">
         <v>172</v>
       </c>
@@ -3156,10 +3326,10 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="44"/>
-      <c r="B75" s="43"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="50"/>
+      <c r="A75" s="32"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="52"/>
       <c r="E75" s="25" t="s">
         <v>205</v>
       </c>
@@ -3168,10 +3338,10 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="44"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="50"/>
+      <c r="A76" s="32"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="52"/>
       <c r="E76" s="8" t="s">
         <v>206</v>
       </c>
@@ -3180,16 +3350,16 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="27" t="s">
+      <c r="A77" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="B77" s="30" t="s">
+      <c r="B77" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="C77" s="33" t="s">
+      <c r="C77" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="D77" s="36" t="s">
+      <c r="D77" s="40" t="s">
         <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
@@ -3200,20 +3370,20 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="28"/>
-      <c r="B78" s="31"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="37"/>
+      <c r="A78" s="46"/>
+      <c r="B78" s="49"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="41"/>
       <c r="E78" s="25" t="s">
         <v>172</v>
       </c>
       <c r="F78" s="6"/>
     </row>
     <row r="79" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="28"/>
-      <c r="B79" s="31"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="37"/>
+      <c r="A79" s="46"/>
+      <c r="B79" s="49"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="41"/>
       <c r="E79" s="25" t="s">
         <v>185</v>
       </c>
@@ -3222,10 +3392,10 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="66.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="29"/>
-      <c r="B80" s="32"/>
-      <c r="C80" s="35"/>
-      <c r="D80" s="38"/>
+      <c r="A80" s="47"/>
+      <c r="B80" s="50"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="42"/>
       <c r="E80" s="8" t="s">
         <v>186</v>
       </c>
@@ -3234,16 +3404,16 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="27" t="s">
+      <c r="A81" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="B81" s="30" t="s">
+      <c r="B81" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="C81" s="33" t="s">
+      <c r="C81" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="D81" s="36" t="s">
+      <c r="D81" s="40" t="s">
         <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
@@ -3254,20 +3424,20 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="28"/>
-      <c r="B82" s="31"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="37"/>
+      <c r="A82" s="46"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="38"/>
+      <c r="D82" s="41"/>
       <c r="E82" s="25" t="s">
         <v>172</v>
       </c>
       <c r="F82" s="6"/>
     </row>
     <row r="83" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="28"/>
-      <c r="B83" s="31"/>
-      <c r="C83" s="34"/>
-      <c r="D83" s="37"/>
+      <c r="A83" s="46"/>
+      <c r="B83" s="49"/>
+      <c r="C83" s="38"/>
+      <c r="D83" s="41"/>
       <c r="E83" s="25" t="s">
         <v>185</v>
       </c>
@@ -3276,10 +3446,10 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="28"/>
-      <c r="B84" s="31"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="37"/>
+      <c r="A84" s="46"/>
+      <c r="B84" s="49"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="41"/>
       <c r="E84" s="16" t="s">
         <v>186</v>
       </c>
@@ -3288,10 +3458,10 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="29"/>
-      <c r="B85" s="32"/>
-      <c r="C85" s="35"/>
-      <c r="D85" s="38"/>
+      <c r="A85" s="47"/>
+      <c r="B85" s="50"/>
+      <c r="C85" s="39"/>
+      <c r="D85" s="42"/>
       <c r="E85" s="8" t="s">
         <v>209</v>
       </c>
@@ -3300,16 +3470,16 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="27" t="s">
+      <c r="A86" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="B86" s="30" t="s">
+      <c r="B86" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="C86" s="33" t="s">
+      <c r="C86" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="D86" s="36" t="s">
+      <c r="D86" s="40" t="s">
         <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
@@ -3320,20 +3490,20 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="28"/>
-      <c r="B87" s="31"/>
-      <c r="C87" s="34"/>
-      <c r="D87" s="37"/>
+      <c r="A87" s="46"/>
+      <c r="B87" s="49"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="41"/>
       <c r="E87" s="25" t="s">
         <v>172</v>
       </c>
       <c r="F87" s="6"/>
     </row>
     <row r="88" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="28"/>
-      <c r="B88" s="31"/>
-      <c r="C88" s="34"/>
-      <c r="D88" s="37"/>
+      <c r="A88" s="46"/>
+      <c r="B88" s="49"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="41"/>
       <c r="E88" s="25" t="s">
         <v>185</v>
       </c>
@@ -3342,10 +3512,10 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A89" s="28"/>
-      <c r="B89" s="31"/>
-      <c r="C89" s="34"/>
-      <c r="D89" s="37"/>
+      <c r="A89" s="46"/>
+      <c r="B89" s="49"/>
+      <c r="C89" s="38"/>
+      <c r="D89" s="41"/>
       <c r="E89" s="16" t="s">
         <v>186</v>
       </c>
@@ -3354,10 +3524,10 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="29"/>
-      <c r="B90" s="32"/>
-      <c r="C90" s="35"/>
-      <c r="D90" s="38"/>
+      <c r="A90" s="47"/>
+      <c r="B90" s="50"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="42"/>
       <c r="E90" s="8" t="s">
         <v>196</v>
       </c>
@@ -3366,16 +3536,16 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="27" t="s">
+      <c r="A91" s="45" t="s">
         <v>198</v>
       </c>
-      <c r="B91" s="30" t="s">
+      <c r="B91" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="C91" s="33" t="s">
+      <c r="C91" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="D91" s="36" t="s">
+      <c r="D91" s="40" t="s">
         <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
@@ -3386,20 +3556,20 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="28"/>
-      <c r="B92" s="31"/>
-      <c r="C92" s="34"/>
-      <c r="D92" s="37"/>
+      <c r="A92" s="46"/>
+      <c r="B92" s="49"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="41"/>
       <c r="E92" s="25" t="s">
         <v>172</v>
       </c>
       <c r="F92" s="6"/>
     </row>
     <row r="93" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="28"/>
-      <c r="B93" s="31"/>
-      <c r="C93" s="34"/>
-      <c r="D93" s="37"/>
+      <c r="A93" s="46"/>
+      <c r="B93" s="49"/>
+      <c r="C93" s="38"/>
+      <c r="D93" s="41"/>
       <c r="E93" s="25" t="s">
         <v>185</v>
       </c>
@@ -3408,10 +3578,10 @@
       </c>
     </row>
     <row r="94" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A94" s="28"/>
-      <c r="B94" s="31"/>
-      <c r="C94" s="34"/>
-      <c r="D94" s="37"/>
+      <c r="A94" s="46"/>
+      <c r="B94" s="49"/>
+      <c r="C94" s="38"/>
+      <c r="D94" s="41"/>
       <c r="E94" s="16" t="s">
         <v>186</v>
       </c>
@@ -3420,10 +3590,10 @@
       </c>
     </row>
     <row r="95" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="29"/>
-      <c r="B95" s="32"/>
-      <c r="C95" s="35"/>
-      <c r="D95" s="38"/>
+      <c r="A95" s="47"/>
+      <c r="B95" s="50"/>
+      <c r="C95" s="39"/>
+      <c r="D95" s="42"/>
       <c r="E95" s="8" t="s">
         <v>215</v>
       </c>
@@ -3432,16 +3602,16 @@
       </c>
     </row>
     <row r="96" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="27" t="s">
+      <c r="A96" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="B96" s="30" t="s">
+      <c r="B96" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="C96" s="33" t="s">
+      <c r="C96" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="D96" s="36" t="s">
+      <c r="D96" s="40" t="s">
         <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
@@ -3452,20 +3622,20 @@
       </c>
     </row>
     <row r="97" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A97" s="28"/>
-      <c r="B97" s="31"/>
-      <c r="C97" s="34"/>
-      <c r="D97" s="37"/>
+      <c r="A97" s="46"/>
+      <c r="B97" s="49"/>
+      <c r="C97" s="38"/>
+      <c r="D97" s="41"/>
       <c r="E97" s="25" t="s">
         <v>172</v>
       </c>
       <c r="F97" s="6"/>
     </row>
     <row r="98" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="28"/>
-      <c r="B98" s="31"/>
-      <c r="C98" s="34"/>
-      <c r="D98" s="37"/>
+      <c r="A98" s="46"/>
+      <c r="B98" s="49"/>
+      <c r="C98" s="38"/>
+      <c r="D98" s="41"/>
       <c r="E98" s="25" t="s">
         <v>185</v>
       </c>
@@ -3474,10 +3644,10 @@
       </c>
     </row>
     <row r="99" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A99" s="28"/>
-      <c r="B99" s="31"/>
-      <c r="C99" s="34"/>
-      <c r="D99" s="37"/>
+      <c r="A99" s="46"/>
+      <c r="B99" s="49"/>
+      <c r="C99" s="38"/>
+      <c r="D99" s="41"/>
       <c r="E99" s="16" t="s">
         <v>186</v>
       </c>
@@ -3486,10 +3656,10 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="29"/>
-      <c r="B100" s="32"/>
-      <c r="C100" s="35"/>
-      <c r="D100" s="38"/>
+      <c r="A100" s="47"/>
+      <c r="B100" s="50"/>
+      <c r="C100" s="39"/>
+      <c r="D100" s="42"/>
       <c r="E100" s="8" t="s">
         <v>214</v>
       </c>
@@ -3498,16 +3668,16 @@
       </c>
     </row>
     <row r="101" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="27" t="s">
+      <c r="A101" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="B101" s="30" t="s">
+      <c r="B101" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="C101" s="33" t="s">
+      <c r="C101" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="D101" s="36" t="s">
+      <c r="D101" s="40" t="s">
         <v>10</v>
       </c>
       <c r="E101" s="16" t="s">
@@ -3518,20 +3688,20 @@
       </c>
     </row>
     <row r="102" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="28"/>
-      <c r="B102" s="31"/>
-      <c r="C102" s="34"/>
-      <c r="D102" s="37"/>
+      <c r="A102" s="46"/>
+      <c r="B102" s="49"/>
+      <c r="C102" s="38"/>
+      <c r="D102" s="41"/>
       <c r="E102" s="25" t="s">
         <v>172</v>
       </c>
       <c r="F102" s="6"/>
     </row>
     <row r="103" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="28"/>
-      <c r="B103" s="31"/>
-      <c r="C103" s="34"/>
-      <c r="D103" s="37"/>
+      <c r="A103" s="46"/>
+      <c r="B103" s="49"/>
+      <c r="C103" s="38"/>
+      <c r="D103" s="41"/>
       <c r="E103" s="25" t="s">
         <v>185</v>
       </c>
@@ -3540,10 +3710,10 @@
       </c>
     </row>
     <row r="104" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A104" s="28"/>
-      <c r="B104" s="31"/>
-      <c r="C104" s="34"/>
-      <c r="D104" s="37"/>
+      <c r="A104" s="46"/>
+      <c r="B104" s="49"/>
+      <c r="C104" s="38"/>
+      <c r="D104" s="41"/>
       <c r="E104" s="25" t="s">
         <v>186</v>
       </c>
@@ -3552,10 +3722,10 @@
       </c>
     </row>
     <row r="105" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="28"/>
-      <c r="B105" s="31"/>
-      <c r="C105" s="34"/>
-      <c r="D105" s="37"/>
+      <c r="A105" s="46"/>
+      <c r="B105" s="49"/>
+      <c r="C105" s="38"/>
+      <c r="D105" s="41"/>
       <c r="E105" s="25" t="s">
         <v>214</v>
       </c>
@@ -3564,10 +3734,10 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="29"/>
-      <c r="B106" s="32"/>
-      <c r="C106" s="35"/>
-      <c r="D106" s="38"/>
+      <c r="A106" s="47"/>
+      <c r="B106" s="50"/>
+      <c r="C106" s="39"/>
+      <c r="D106" s="42"/>
       <c r="E106" s="8" t="s">
         <v>216</v>
       </c>
@@ -3576,16 +3746,16 @@
       </c>
     </row>
     <row r="107" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="27" t="s">
+      <c r="A107" s="45" t="s">
         <v>227</v>
       </c>
-      <c r="B107" s="30" t="s">
+      <c r="B107" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="C107" s="33" t="s">
+      <c r="C107" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="D107" s="36" t="s">
+      <c r="D107" s="40" t="s">
         <v>10</v>
       </c>
       <c r="E107" s="16" t="s">
@@ -3596,20 +3766,20 @@
       </c>
     </row>
     <row r="108" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="28"/>
-      <c r="B108" s="31"/>
-      <c r="C108" s="34"/>
-      <c r="D108" s="37"/>
+      <c r="A108" s="46"/>
+      <c r="B108" s="49"/>
+      <c r="C108" s="38"/>
+      <c r="D108" s="41"/>
       <c r="E108" s="25" t="s">
         <v>172</v>
       </c>
       <c r="F108" s="6"/>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="28"/>
-      <c r="B109" s="31"/>
-      <c r="C109" s="34"/>
-      <c r="D109" s="37"/>
+      <c r="A109" s="46"/>
+      <c r="B109" s="49"/>
+      <c r="C109" s="38"/>
+      <c r="D109" s="41"/>
       <c r="E109" s="25" t="s">
         <v>185</v>
       </c>
@@ -3618,10 +3788,10 @@
       </c>
     </row>
     <row r="110" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A110" s="28"/>
-      <c r="B110" s="31"/>
-      <c r="C110" s="34"/>
-      <c r="D110" s="37"/>
+      <c r="A110" s="46"/>
+      <c r="B110" s="49"/>
+      <c r="C110" s="38"/>
+      <c r="D110" s="41"/>
       <c r="E110" s="25" t="s">
         <v>186</v>
       </c>
@@ -3630,10 +3800,10 @@
       </c>
     </row>
     <row r="111" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="28"/>
-      <c r="B111" s="31"/>
-      <c r="C111" s="34"/>
-      <c r="D111" s="37"/>
+      <c r="A111" s="46"/>
+      <c r="B111" s="49"/>
+      <c r="C111" s="38"/>
+      <c r="D111" s="41"/>
       <c r="E111" s="25" t="s">
         <v>214</v>
       </c>
@@ -3642,10 +3812,10 @@
       </c>
     </row>
     <row r="112" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A112" s="28"/>
-      <c r="B112" s="31"/>
-      <c r="C112" s="34"/>
-      <c r="D112" s="37"/>
+      <c r="A112" s="46"/>
+      <c r="B112" s="49"/>
+      <c r="C112" s="38"/>
+      <c r="D112" s="41"/>
       <c r="E112" s="16" t="s">
         <v>218</v>
       </c>
@@ -3654,10 +3824,10 @@
       </c>
     </row>
     <row r="113" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="29"/>
-      <c r="B113" s="32"/>
-      <c r="C113" s="35"/>
-      <c r="D113" s="38"/>
+      <c r="A113" s="47"/>
+      <c r="B113" s="50"/>
+      <c r="C113" s="39"/>
+      <c r="D113" s="42"/>
       <c r="E113" s="8" t="s">
         <v>220</v>
       </c>
@@ -3666,14 +3836,14 @@
       </c>
     </row>
     <row r="114" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="45" t="s">
+      <c r="A114" s="43" t="s">
         <v>228</v>
       </c>
-      <c r="B114" s="46"/>
-      <c r="C114" s="46"/>
-      <c r="D114" s="46"/>
-      <c r="E114" s="46"/>
-      <c r="F114" s="46"/>
+      <c r="B114" s="44"/>
+      <c r="C114" s="44"/>
+      <c r="D114" s="44"/>
+      <c r="E114" s="44"/>
+      <c r="F114" s="44"/>
     </row>
     <row r="115" spans="1:6" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="22" t="s">
@@ -3696,16 +3866,16 @@
       </c>
     </row>
     <row r="116" spans="1:6" ht="50.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="39" t="s">
+      <c r="A116" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="B116" s="41" t="s">
+      <c r="B116" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="C116" s="33" t="s">
+      <c r="C116" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="D116" s="36" t="s">
+      <c r="D116" s="40" t="s">
         <v>10</v>
       </c>
       <c r="E116" s="16" t="s">
@@ -3716,28 +3886,28 @@
       </c>
     </row>
     <row r="117" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="40"/>
-      <c r="B117" s="42"/>
-      <c r="C117" s="35"/>
-      <c r="D117" s="38"/>
+      <c r="A117" s="33"/>
+      <c r="B117" s="36"/>
+      <c r="C117" s="39"/>
+      <c r="D117" s="42"/>
       <c r="E117" s="8" t="s">
         <v>236</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="50.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="39" t="s">
+      <c r="A118" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="B118" s="41" t="s">
-        <v>298</v>
-      </c>
-      <c r="C118" s="33" t="s">
+      <c r="B118" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C118" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="D118" s="36" t="s">
+      <c r="D118" s="40" t="s">
         <v>10</v>
       </c>
       <c r="E118" s="16" t="s">
@@ -3748,28 +3918,28 @@
       </c>
     </row>
     <row r="119" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="40"/>
-      <c r="B119" s="42"/>
-      <c r="C119" s="35"/>
-      <c r="D119" s="38"/>
+      <c r="A119" s="33"/>
+      <c r="B119" s="36"/>
+      <c r="C119" s="39"/>
+      <c r="D119" s="42"/>
       <c r="E119" s="8" t="s">
         <v>239</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="39" t="s">
+      <c r="A120" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="B120" s="41" t="s">
+      <c r="B120" s="34" t="s">
         <v>240</v>
       </c>
-      <c r="C120" s="33" t="s">
+      <c r="C120" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="D120" s="36" t="s">
+      <c r="D120" s="40" t="s">
         <v>10</v>
       </c>
       <c r="E120" s="16" t="s">
@@ -3780,10 +3950,10 @@
       </c>
     </row>
     <row r="121" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="40"/>
-      <c r="B121" s="42"/>
-      <c r="C121" s="35"/>
-      <c r="D121" s="38"/>
+      <c r="A121" s="33"/>
+      <c r="B121" s="36"/>
+      <c r="C121" s="39"/>
+      <c r="D121" s="42"/>
       <c r="E121" s="8" t="s">
         <v>242</v>
       </c>
@@ -3792,16 +3962,16 @@
       </c>
     </row>
     <row r="122" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="39" t="s">
+      <c r="A122" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="B122" s="41" t="s">
+      <c r="B122" s="34" t="s">
         <v>248</v>
       </c>
-      <c r="C122" s="33" t="s">
+      <c r="C122" s="37" t="s">
         <v>249</v>
       </c>
-      <c r="D122" s="36" t="s">
+      <c r="D122" s="40" t="s">
         <v>10</v>
       </c>
       <c r="E122" s="16" t="s">
@@ -3812,10 +3982,10 @@
       </c>
     </row>
     <row r="123" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A123" s="44"/>
-      <c r="B123" s="43"/>
-      <c r="C123" s="34"/>
-      <c r="D123" s="37"/>
+      <c r="A123" s="32"/>
+      <c r="B123" s="35"/>
+      <c r="C123" s="38"/>
+      <c r="D123" s="41"/>
       <c r="E123" s="25" t="s">
         <v>242</v>
       </c>
@@ -3824,10 +3994,10 @@
       </c>
     </row>
     <row r="124" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A124" s="44"/>
-      <c r="B124" s="43"/>
-      <c r="C124" s="34"/>
-      <c r="D124" s="37"/>
+      <c r="A124" s="32"/>
+      <c r="B124" s="35"/>
+      <c r="C124" s="38"/>
+      <c r="D124" s="41"/>
       <c r="E124" s="25" t="s">
         <v>250</v>
       </c>
@@ -3836,10 +4006,10 @@
       </c>
     </row>
     <row r="125" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="40"/>
-      <c r="B125" s="42"/>
-      <c r="C125" s="35"/>
-      <c r="D125" s="38"/>
+      <c r="A125" s="33"/>
+      <c r="B125" s="36"/>
+      <c r="C125" s="39"/>
+      <c r="D125" s="42"/>
       <c r="E125" s="8" t="s">
         <v>252</v>
       </c>
@@ -3848,16 +4018,16 @@
       </c>
     </row>
     <row r="126" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="39" t="s">
+      <c r="A126" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="B126" s="41" t="s">
+      <c r="B126" s="34" t="s">
         <v>261</v>
       </c>
-      <c r="C126" s="33" t="s">
+      <c r="C126" s="37" t="s">
         <v>270</v>
       </c>
-      <c r="D126" s="36" t="s">
+      <c r="D126" s="40" t="s">
         <v>10</v>
       </c>
       <c r="E126" s="16" t="s">
@@ -3868,10 +4038,10 @@
       </c>
     </row>
     <row r="127" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="40"/>
-      <c r="B127" s="42"/>
-      <c r="C127" s="35"/>
-      <c r="D127" s="38"/>
+      <c r="A127" s="33"/>
+      <c r="B127" s="36"/>
+      <c r="C127" s="39"/>
+      <c r="D127" s="42"/>
       <c r="E127" s="8" t="s">
         <v>256</v>
       </c>
@@ -3880,16 +4050,16 @@
       </c>
     </row>
     <row r="128" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="39" t="s">
+      <c r="A128" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="B128" s="41" t="s">
+      <c r="B128" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="C128" s="33" t="s">
+      <c r="C128" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="D128" s="36" t="s">
+      <c r="D128" s="40" t="s">
         <v>10</v>
       </c>
       <c r="E128" s="16" t="s">
@@ -3900,10 +4070,10 @@
       </c>
     </row>
     <row r="129" spans="1:6" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A129" s="44"/>
-      <c r="B129" s="43"/>
-      <c r="C129" s="34"/>
-      <c r="D129" s="37"/>
+      <c r="A129" s="32"/>
+      <c r="B129" s="35"/>
+      <c r="C129" s="38"/>
+      <c r="D129" s="41"/>
       <c r="E129" s="25" t="s">
         <v>256</v>
       </c>
@@ -3912,10 +4082,10 @@
       </c>
     </row>
     <row r="130" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="40"/>
-      <c r="B130" s="42"/>
-      <c r="C130" s="35"/>
-      <c r="D130" s="38"/>
+      <c r="A130" s="33"/>
+      <c r="B130" s="36"/>
+      <c r="C130" s="39"/>
+      <c r="D130" s="42"/>
       <c r="E130" s="8" t="s">
         <v>263</v>
       </c>
@@ -3924,16 +4094,16 @@
       </c>
     </row>
     <row r="131" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="39" t="s">
+      <c r="A131" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="B131" s="41" t="s">
+      <c r="B131" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="C131" s="33" t="s">
+      <c r="C131" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="D131" s="36" t="s">
+      <c r="D131" s="40" t="s">
         <v>10</v>
       </c>
       <c r="E131" s="16" t="s">
@@ -3944,10 +4114,10 @@
       </c>
     </row>
     <row r="132" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="44"/>
-      <c r="B132" s="43"/>
-      <c r="C132" s="34"/>
-      <c r="D132" s="37"/>
+      <c r="A132" s="32"/>
+      <c r="B132" s="35"/>
+      <c r="C132" s="38"/>
+      <c r="D132" s="41"/>
       <c r="E132" s="25" t="s">
         <v>256</v>
       </c>
@@ -3956,28 +4126,28 @@
       </c>
     </row>
     <row r="133" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="40"/>
-      <c r="B133" s="42"/>
-      <c r="C133" s="35"/>
-      <c r="D133" s="38"/>
+      <c r="A133" s="33"/>
+      <c r="B133" s="36"/>
+      <c r="C133" s="39"/>
+      <c r="D133" s="42"/>
       <c r="E133" s="8" t="s">
         <v>268</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="39" t="s">
+      <c r="A134" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="B134" s="41" t="s">
-        <v>302</v>
-      </c>
-      <c r="C134" s="33" t="s">
+      <c r="B134" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="C134" s="37" t="s">
         <v>275</v>
       </c>
-      <c r="D134" s="36" t="s">
+      <c r="D134" s="40" t="s">
         <v>10</v>
       </c>
       <c r="E134" s="16" t="s">
@@ -3988,10 +4158,10 @@
       </c>
     </row>
     <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A135" s="44"/>
-      <c r="B135" s="43"/>
-      <c r="C135" s="34"/>
-      <c r="D135" s="37"/>
+      <c r="A135" s="32"/>
+      <c r="B135" s="35"/>
+      <c r="C135" s="38"/>
+      <c r="D135" s="41"/>
       <c r="E135" s="25" t="s">
         <v>256</v>
       </c>
@@ -4000,10 +4170,10 @@
       </c>
     </row>
     <row r="136" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A136" s="44"/>
-      <c r="B136" s="43"/>
-      <c r="C136" s="34"/>
-      <c r="D136" s="37"/>
+      <c r="A136" s="32"/>
+      <c r="B136" s="35"/>
+      <c r="C136" s="38"/>
+      <c r="D136" s="41"/>
       <c r="E136" s="16" t="s">
         <v>268</v>
       </c>
@@ -4012,28 +4182,28 @@
       </c>
     </row>
     <row r="137" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="40"/>
-      <c r="B137" s="42"/>
-      <c r="C137" s="35"/>
-      <c r="D137" s="38"/>
+      <c r="A137" s="33"/>
+      <c r="B137" s="36"/>
+      <c r="C137" s="39"/>
+      <c r="D137" s="42"/>
       <c r="E137" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="F137" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="F137" s="9" t="s">
-        <v>301</v>
-      </c>
     </row>
     <row r="138" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="39" t="s">
+      <c r="A138" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="B138" s="41" t="s">
+      <c r="B138" s="34" t="s">
         <v>278</v>
       </c>
-      <c r="C138" s="33" t="s">
+      <c r="C138" s="37" t="s">
         <v>279</v>
       </c>
-      <c r="D138" s="36" t="s">
+      <c r="D138" s="40" t="s">
         <v>10</v>
       </c>
       <c r="E138" s="16" t="s">
@@ -4044,10 +4214,10 @@
       </c>
     </row>
     <row r="139" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A139" s="44"/>
-      <c r="B139" s="43"/>
-      <c r="C139" s="34"/>
-      <c r="D139" s="37"/>
+      <c r="A139" s="32"/>
+      <c r="B139" s="35"/>
+      <c r="C139" s="38"/>
+      <c r="D139" s="41"/>
       <c r="E139" s="25" t="s">
         <v>256</v>
       </c>
@@ -4056,10 +4226,10 @@
       </c>
     </row>
     <row r="140" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A140" s="44"/>
-      <c r="B140" s="43"/>
-      <c r="C140" s="34"/>
-      <c r="D140" s="37"/>
+      <c r="A140" s="32"/>
+      <c r="B140" s="35"/>
+      <c r="C140" s="38"/>
+      <c r="D140" s="41"/>
       <c r="E140" s="16" t="s">
         <v>268</v>
       </c>
@@ -4068,10 +4238,10 @@
       </c>
     </row>
     <row r="141" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="40"/>
-      <c r="B141" s="42"/>
-      <c r="C141" s="35"/>
-      <c r="D141" s="38"/>
+      <c r="A141" s="33"/>
+      <c r="B141" s="36"/>
+      <c r="C141" s="39"/>
+      <c r="D141" s="42"/>
       <c r="E141" s="8" t="s">
         <v>277</v>
       </c>
@@ -4080,16 +4250,16 @@
       </c>
     </row>
     <row r="142" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="39" t="s">
+      <c r="A142" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="B142" s="41" t="s">
+      <c r="B142" s="34" t="s">
         <v>283</v>
       </c>
-      <c r="C142" s="33" t="s">
+      <c r="C142" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="D142" s="36" t="s">
+      <c r="D142" s="40" t="s">
         <v>10</v>
       </c>
       <c r="E142" s="16" t="s">
@@ -4100,10 +4270,10 @@
       </c>
     </row>
     <row r="143" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A143" s="44"/>
-      <c r="B143" s="43"/>
-      <c r="C143" s="34"/>
-      <c r="D143" s="37"/>
+      <c r="A143" s="32"/>
+      <c r="B143" s="35"/>
+      <c r="C143" s="38"/>
+      <c r="D143" s="41"/>
       <c r="E143" s="25" t="s">
         <v>256</v>
       </c>
@@ -4112,10 +4282,10 @@
       </c>
     </row>
     <row r="144" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A144" s="44"/>
-      <c r="B144" s="43"/>
-      <c r="C144" s="34"/>
-      <c r="D144" s="37"/>
+      <c r="A144" s="32"/>
+      <c r="B144" s="35"/>
+      <c r="C144" s="38"/>
+      <c r="D144" s="41"/>
       <c r="E144" s="25" t="s">
         <v>268</v>
       </c>
@@ -4124,10 +4294,10 @@
       </c>
     </row>
     <row r="145" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A145" s="44"/>
-      <c r="B145" s="43"/>
-      <c r="C145" s="34"/>
-      <c r="D145" s="37"/>
+      <c r="A145" s="32"/>
+      <c r="B145" s="35"/>
+      <c r="C145" s="38"/>
+      <c r="D145" s="41"/>
       <c r="E145" s="25" t="s">
         <v>282</v>
       </c>
@@ -4136,10 +4306,10 @@
       </c>
     </row>
     <row r="146" spans="1:6" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A146" s="44"/>
-      <c r="B146" s="43"/>
-      <c r="C146" s="34"/>
-      <c r="D146" s="37"/>
+      <c r="A146" s="32"/>
+      <c r="B146" s="35"/>
+      <c r="C146" s="38"/>
+      <c r="D146" s="41"/>
       <c r="E146" s="16" t="s">
         <v>285</v>
       </c>
@@ -4148,10 +4318,10 @@
       </c>
     </row>
     <row r="147" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="40"/>
-      <c r="B147" s="42"/>
-      <c r="C147" s="35"/>
-      <c r="D147" s="38"/>
+      <c r="A147" s="33"/>
+      <c r="B147" s="36"/>
+      <c r="C147" s="39"/>
+      <c r="D147" s="42"/>
       <c r="E147" s="8" t="s">
         <v>288</v>
       </c>
@@ -4160,16 +4330,16 @@
       </c>
     </row>
     <row r="148" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="39" t="s">
+      <c r="A148" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="B148" s="41" t="s">
+      <c r="B148" s="34" t="s">
         <v>291</v>
       </c>
-      <c r="C148" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="D148" s="36" t="s">
+      <c r="C148" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="D148" s="40" t="s">
         <v>10</v>
       </c>
       <c r="E148" s="16" t="s">
@@ -4180,93 +4350,313 @@
       </c>
     </row>
     <row r="149" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="40"/>
-      <c r="B149" s="42"/>
-      <c r="C149" s="35"/>
-      <c r="D149" s="38"/>
+      <c r="A149" s="33"/>
+      <c r="B149" s="36"/>
+      <c r="C149" s="39"/>
+      <c r="D149" s="42"/>
       <c r="E149" s="8" t="s">
         <v>293</v>
       </c>
       <c r="F149" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="69" t="s">
+        <v>303</v>
+      </c>
+      <c r="B150" s="70"/>
+      <c r="C150" s="70"/>
+      <c r="D150" s="70"/>
+      <c r="E150" s="70"/>
+      <c r="F150" s="70"/>
+    </row>
+    <row r="151" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="B151" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="C151" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="D151" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E151" s="67" t="s">
+        <v>308</v>
+      </c>
+      <c r="F151" s="68" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="B152" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="C152" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="D152" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E152" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="F152" s="17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="33"/>
+      <c r="B153" s="36"/>
+      <c r="C153" s="39"/>
+      <c r="D153" s="42"/>
+      <c r="E153" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="F153" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="B154" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="C154" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="D154" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E154" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="F154" s="17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="33"/>
+      <c r="B155" s="36"/>
+      <c r="C155" s="39"/>
+      <c r="D155" s="42"/>
+      <c r="E155" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="F155" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="B156" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="C156" s="37" t="s">
+        <v>321</v>
+      </c>
+      <c r="D156" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E156" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="F156" s="17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="33"/>
+      <c r="B157" s="36"/>
+      <c r="C157" s="39"/>
+      <c r="D157" s="42"/>
+      <c r="E157" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="F157" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="50.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="B158" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C158" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="D158" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E158" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="F158" s="17" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="33"/>
+      <c r="B159" s="36"/>
+      <c r="C159" s="39"/>
+      <c r="D159" s="42"/>
+      <c r="E159" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="F159" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="66.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="B160" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="C160" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="D160" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E160" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="F160" s="17" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="33"/>
+      <c r="B161" s="36"/>
+      <c r="C161" s="39"/>
+      <c r="D161" s="42"/>
+      <c r="E161" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="F161" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="179">
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="D138:D141"/>
-    <mergeCell ref="A142:A147"/>
-    <mergeCell ref="B142:B147"/>
-    <mergeCell ref="C142:C147"/>
-    <mergeCell ref="D142:D147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="D128:D130"/>
-    <mergeCell ref="A131:A133"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="C131:C133"/>
-    <mergeCell ref="D131:D133"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="C134:C137"/>
-    <mergeCell ref="D134:D137"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="C86:C90"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="B91:B95"/>
-    <mergeCell ref="C91:C95"/>
-    <mergeCell ref="D91:D95"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="C81:C85"/>
-    <mergeCell ref="D81:D85"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="C73:C76"/>
-    <mergeCell ref="D73:D76"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="D70:D72"/>
+  <mergeCells count="200">
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="B156:B157"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="D156:D157"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="B158:B159"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="D158:D159"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="D160:D161"/>
+    <mergeCell ref="A150:F150"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="A96:A100"/>
+    <mergeCell ref="B96:B100"/>
+    <mergeCell ref="C96:C100"/>
+    <mergeCell ref="D96:D100"/>
+    <mergeCell ref="A101:A106"/>
+    <mergeCell ref="B101:B106"/>
+    <mergeCell ref="C101:C106"/>
+    <mergeCell ref="D101:D106"/>
+    <mergeCell ref="A107:A113"/>
+    <mergeCell ref="B107:B113"/>
+    <mergeCell ref="C107:C113"/>
+    <mergeCell ref="D107:D113"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="C61:C65"/>
+    <mergeCell ref="D61:D65"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="C14:C16"/>
@@ -4291,88 +4681,79 @@
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="D21:D23"/>
     <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="C61:C65"/>
-    <mergeCell ref="D61:D65"/>
-    <mergeCell ref="A61:A65"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="A96:A100"/>
-    <mergeCell ref="B96:B100"/>
-    <mergeCell ref="C96:C100"/>
-    <mergeCell ref="D96:D100"/>
-    <mergeCell ref="A101:A106"/>
-    <mergeCell ref="B101:B106"/>
-    <mergeCell ref="C101:C106"/>
-    <mergeCell ref="D101:D106"/>
-    <mergeCell ref="A107:A113"/>
-    <mergeCell ref="B107:B113"/>
-    <mergeCell ref="C107:C113"/>
-    <mergeCell ref="D107:D113"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="C73:C76"/>
+    <mergeCell ref="D73:D76"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="C86:C90"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="C91:C95"/>
+    <mergeCell ref="D91:D95"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="C81:C85"/>
+    <mergeCell ref="D81:D85"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="D128:D130"/>
+    <mergeCell ref="A131:A133"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="C131:C133"/>
+    <mergeCell ref="D131:D133"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="D134:D137"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="D138:D141"/>
+    <mergeCell ref="A142:A147"/>
+    <mergeCell ref="B142:B147"/>
+    <mergeCell ref="C142:C147"/>
+    <mergeCell ref="D142:D147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="D148:D149"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>

--- a/src/test/resources/test_descriptions/RottenTomatoes_TestCases.xlsx
+++ b/src/test/resources/test_descriptions/RottenTomatoes_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\project\UITest2Code\src\test\resources\test_descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E06769-634E-4793-8530-54A65BC9A1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0283A5-D2B2-481C-BA87-1555696710D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15600" xr2:uid="{791CFF3F-B61E-4861-A956-A2059CE938E6}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="443">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -994,15 +995,6 @@
     <t>The podcast will start playing</t>
   </si>
   <si>
-    <t>RT PODCAST - Play Apple Podcast</t>
-  </si>
-  <si>
-    <t>Verify the Apple Podcast play function in the rotten tomatoes podcast page is working</t>
-  </si>
-  <si>
-    <t>2. Click the play button in the apple podcast frame</t>
-  </si>
-  <si>
     <t>RT_52</t>
   </si>
   <si>
@@ -1013,9 +1005,6 @@
   </si>
   <si>
     <t>Verify the list of episodes in the rotten tomatoes podcast page is displayed and working</t>
-  </si>
-  <si>
-    <t>A page with the title "ROTTEN TOMATOES IS WRONG" (A PODCAST FROM ROTTEN TOMATOES) will be displayed. There is a list of Episodes of “Rotten Tomatoes Is Wrong” About…</t>
   </si>
   <si>
     <t>2. Click the fourth link in the list</t>
@@ -1058,6 +1047,342 @@
       </rPr>
       <t xml:space="preserve"> will be displayed with number of articles as specified in the tag cloud element.</t>
     </r>
+  </si>
+  <si>
+    <t>RT_55</t>
+  </si>
+  <si>
+    <t>Verify that after hovering over the News top tab, a menu will get opened</t>
+  </si>
+  <si>
+    <t>1. Hover over the NEWS tab</t>
+  </si>
+  <si>
+    <t>A menu will be displayed, with the titles COLUMNS, BEST AND WORST, GUIDES, RT NEWS</t>
+  </si>
+  <si>
+    <t>RT_56</t>
+  </si>
+  <si>
+    <t>News Tab - Columns</t>
+  </si>
+  <si>
+    <t>2. Click one of the links</t>
+  </si>
+  <si>
+    <t>A page with the link's text title will be presented, including news items</t>
+  </si>
+  <si>
+    <t>Verify that the columns section in the News top tab is functioning</t>
+  </si>
+  <si>
+    <t>News Tab - Best and Worst</t>
+  </si>
+  <si>
+    <t>Verify that the best and worst items from the News top tab is functioning</t>
+  </si>
+  <si>
+    <t>A menu will be displayed, with the title COLUMNS. Under it there'll be 18 column links</t>
+  </si>
+  <si>
+    <t>A menu will be displayed, with the title BEST AND WORST and two options that end with the text "Ranked Worst to Best by Tomatometer"</t>
+  </si>
+  <si>
+    <t>A page with ranking to the clicked link will be presented. The ranking will be from n to 1</t>
+  </si>
+  <si>
+    <t>RT_58</t>
+  </si>
+  <si>
+    <t>RT_57</t>
+  </si>
+  <si>
+    <t>News Tab - Fall TV</t>
+  </si>
+  <si>
+    <t>A menu will be displayed, with the title GUIDES, and under it the option Fall TV</t>
+  </si>
+  <si>
+    <t>2. Click Fall TV</t>
+  </si>
+  <si>
+    <t>Fall TV page will be presented, including the navigation bar with the options Home, Premiere Dates, News &amp; Guides, Renewed/Cancelled, a carousel, two spotlights, more fall tv and tweets by @rottentomatoes</t>
+  </si>
+  <si>
+    <t>Verify that the Fall TV page is displayed well</t>
+  </si>
+  <si>
+    <t>News Tab - RT News</t>
+  </si>
+  <si>
+    <t>Verify that the RT News section in the News top tab is displayed well and functions</t>
+  </si>
+  <si>
+    <t>A menu will be displayed, with the title RT News</t>
+  </si>
+  <si>
+    <t>2. Click One of the RT News links</t>
+  </si>
+  <si>
+    <t>An article with the link's text will be displayed</t>
+  </si>
+  <si>
+    <t>RT_59</t>
+  </si>
+  <si>
+    <t>RT_60</t>
+  </si>
+  <si>
+    <t>News Tab - RT News - View All - FEATURED ON RT</t>
+  </si>
+  <si>
+    <t>2. Click the View All link of the RT News section</t>
+  </si>
+  <si>
+    <t>3. Click one of the articles links under FEATURED ON RT title in the right column</t>
+  </si>
+  <si>
+    <t>Verify that the FEATURED ON RT section in the right column of the RT News page functions</t>
+  </si>
+  <si>
+    <t>RT_61</t>
+  </si>
+  <si>
+    <t>News Tab - RT News - View All - TOP HEADLINES</t>
+  </si>
+  <si>
+    <t>Verify that the TOP HEADLINES section in the right column of the RT News page functions</t>
+  </si>
+  <si>
+    <t>3. Click one of the articles links under TOP HEADLINES title in the right column</t>
+  </si>
+  <si>
+    <t>Showtimes - Change Location</t>
+  </si>
+  <si>
+    <t>Showtimes - Change Location - Zip</t>
+  </si>
+  <si>
+    <t>RT_62</t>
+  </si>
+  <si>
+    <t>Verify that changing the location in the Showtimes page is working</t>
+  </si>
+  <si>
+    <t>1. Click Showtimes in the top navigation</t>
+  </si>
+  <si>
+    <t>Movie Showtimes page will be displayed</t>
+  </si>
+  <si>
+    <t>Verify that changing the location via zip in the Showtimes page is working</t>
+  </si>
+  <si>
+    <t>2. Click the Change location button</t>
+  </si>
+  <si>
+    <t>3. type 'New York' into the loocation picker text box</t>
+  </si>
+  <si>
+    <t>4. Click the submit button</t>
+  </si>
+  <si>
+    <t>location picker form will be displayed</t>
+  </si>
+  <si>
+    <t>RT_63</t>
+  </si>
+  <si>
+    <t>The location picked text will become TICKETS &amp; SHOWTIMES NEAR 10001 with results presented</t>
+  </si>
+  <si>
+    <t>The location picker text will become TICKETS &amp; SHOWTIMES NEAR NEW YORK with results presented</t>
+  </si>
+  <si>
+    <t>RT_64</t>
+  </si>
+  <si>
+    <t>Showtimes - Select Movies</t>
+  </si>
+  <si>
+    <t>Verify that selecting a movie from the movie filters in the Showtimes page is working</t>
+  </si>
+  <si>
+    <t>2. Click one of the checkboxes in the movie filters section, under the title Featured Picks</t>
+  </si>
+  <si>
+    <t>The page will display that movie only</t>
+  </si>
+  <si>
+    <t>3. Click the movie's name in the results</t>
+  </si>
+  <si>
+    <t>The movie page will be displayed, with the right title and right tomatometer and audience scores</t>
+  </si>
+  <si>
+    <t>3. type '10001' into the loocation picker text box</t>
+  </si>
+  <si>
+    <t>RT_65</t>
+  </si>
+  <si>
+    <t>Showtimes - Select Another Movie Dropdown</t>
+  </si>
+  <si>
+    <t>Verify that selecting a movie from thadditional movies dropdown in the Showtimes page is working</t>
+  </si>
+  <si>
+    <t>2. Click the additional movies dropdown</t>
+  </si>
+  <si>
+    <t>The dropdown will get opened</t>
+  </si>
+  <si>
+    <t>3. Choose one of the movies from the dropdown</t>
+  </si>
+  <si>
+    <t>4. Click the movie's name in the results</t>
+  </si>
+  <si>
+    <t>RT_66</t>
+  </si>
+  <si>
+    <t>Showtimes - Select Theaters</t>
+  </si>
+  <si>
+    <t>Verify that selecting a theater from the theaters list in the Showtimes page is working</t>
+  </si>
+  <si>
+    <t>2. Click one of the checkboxes in the theaters list</t>
+  </si>
+  <si>
+    <t>The page will display movies only from the selected theater</t>
+  </si>
+  <si>
+    <t>RT_67</t>
+  </si>
+  <si>
+    <t>Showtimes - Load More</t>
+  </si>
+  <si>
+    <t>Verify that the Load More button in the Showtimes page is working</t>
+  </si>
+  <si>
+    <t>2. Click the Load More button</t>
+  </si>
+  <si>
+    <t>The page will display more movies than it did before</t>
+  </si>
+  <si>
+    <t>RT_68</t>
+  </si>
+  <si>
+    <t>Showtimes - Change Date</t>
+  </si>
+  <si>
+    <t>Verify that changing the date using the showtimes calendar in the Showtimes page is working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Click one of the dates, that isn't today </t>
+  </si>
+  <si>
+    <t>The chosen date will be selected and the presented movies will reload and some will change</t>
+  </si>
+  <si>
+    <t>Showtimes - Choose showtime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Showtimes - Other Dates </t>
+  </si>
+  <si>
+    <t>Verify that clicking the right button in the showtimes calendar in the Showtimes page is working</t>
+  </si>
+  <si>
+    <t>2. Click the right button in the showtimes calendar</t>
+  </si>
+  <si>
+    <t>The displayed dates will change, and continue from right after the initially displayed ones</t>
+  </si>
+  <si>
+    <t>RT_69</t>
+  </si>
+  <si>
+    <t>RT_70</t>
+  </si>
+  <si>
+    <t>Verify that clicking one of the showtimes of a movie in the Showtimes page is working</t>
+  </si>
+  <si>
+    <t>2. Click one of the show times of the first displayed movie</t>
+  </si>
+  <si>
+    <t>A page with the title But Tickets will be displayed, presenting the first movie from the previous page, at the chosen date and time</t>
+  </si>
+  <si>
+    <t>Section 5</t>
+  </si>
+  <si>
+    <t>RT_71</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Verify that clicking the facebook logo at the top of the home page works</t>
+  </si>
+  <si>
+    <t>1. Click the facebook logo at the top of the page</t>
+  </si>
+  <si>
+    <t>A facebook page will get opened in a new tab, presenting the Rotten Tomatoes page</t>
+  </si>
+  <si>
+    <t>Snapchat</t>
+  </si>
+  <si>
+    <t>Verify that clicking the snapchat logo at the top of the home page works</t>
+  </si>
+  <si>
+    <t>1. Click the snapchat logo at the top of the page</t>
+  </si>
+  <si>
+    <t>RT_72</t>
+  </si>
+  <si>
+    <t>RT_73</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>Verify that clicking the youtube logo at the top of the home page works</t>
+  </si>
+  <si>
+    <t>1. Click the youtube logo at the top of the page</t>
+  </si>
+  <si>
+    <t>A youtube page will get opened in a new tab, presenting the Rotten Tomatoes page. A video will start playing automatically</t>
+  </si>
+  <si>
+    <t>A snapchat page will get opened in a new tab, presenting the rottentomatoes' snapcode</t>
+  </si>
+  <si>
+    <t>RT PODCAST - Apple News</t>
+  </si>
+  <si>
+    <t>Verify the Apple News link in the rotten tomatoes podcast page is working</t>
+  </si>
+  <si>
+    <t>2. Click the link with the text "On an Apple device? Follow Rotten Tomatoes on Apple News"</t>
+  </si>
+  <si>
+    <t>In a new tab, a page with the title This channel is only available in Apple News. will be displayed</t>
+  </si>
+  <si>
+    <t>A page with the title "ROTTEN TOMATOES IS WRONG" (A PODCAST FROM ROTTEN TOMATOES) will be displayed. There is a list of Episodes of “Rotten Tomatoes Is Wrong”</t>
+  </si>
+  <si>
+    <t>News Tab - Display</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1512,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1674,11 +1999,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1770,6 +2108,21 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1877,12 +2230,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2204,10 +2551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B4C97A-71D1-473B-A994-4B6E5B9F3EEF}">
-  <dimension ref="A1:F162"/>
+  <dimension ref="A1:F206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="E165" sqref="E165"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="E161" sqref="E161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2240,26 +2587,26 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="66" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -2270,10 +2617,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="52"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
@@ -2282,16 +2629,16 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="56" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="3"/>
@@ -2300,10 +2647,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="57"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="8" t="s">
         <v>17</v>
       </c>
@@ -2312,16 +2659,16 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="66" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="3"/>
@@ -2330,10 +2677,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="63"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="52"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="57"/>
       <c r="E8" s="13" t="s">
         <v>21</v>
       </c>
@@ -2342,10 +2689,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="52"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="57"/>
       <c r="E9" s="10" t="s">
         <v>23</v>
       </c>
@@ -2354,16 +2701,16 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="56" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="12" t="s">
@@ -2372,10 +2719,10 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="52"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="57"/>
       <c r="E11" s="13" t="s">
         <v>39</v>
       </c>
@@ -2384,16 +2731,16 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="56" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="12" t="s">
@@ -2404,10 +2751,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="52"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="57"/>
       <c r="E13" s="13" t="s">
         <v>42</v>
       </c>
@@ -2416,16 +2763,16 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="56" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="12" t="s">
@@ -2436,10 +2783,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A15" s="53"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="52"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="57"/>
       <c r="E15" s="15" t="s">
         <v>53</v>
       </c>
@@ -2448,10 +2795,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="52"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="15" t="s">
         <v>55</v>
       </c>
@@ -2460,16 +2807,16 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="56" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="12"/>
@@ -2478,10 +2825,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="55"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="52"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="57"/>
       <c r="E18" s="13" t="s">
         <v>70</v>
       </c>
@@ -2490,10 +2837,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="57"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="62"/>
       <c r="E19" s="11" t="s">
         <v>71</v>
       </c>
@@ -2522,16 +2869,16 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="12"/>
@@ -2540,10 +2887,10 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A22" s="32"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="58"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="13" t="s">
         <v>62</v>
       </c>
@@ -2552,26 +2899,26 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="58"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="63"/>
       <c r="E23" s="16"/>
       <c r="F23" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="40" t="s">
+      <c r="D24" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="12" t="s">
@@ -2582,26 +2929,26 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="42"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="47"/>
       <c r="E25" s="8"/>
       <c r="F25" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="D26" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="12" t="s">
@@ -2612,10 +2959,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="42"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="47"/>
       <c r="E27" s="8" t="s">
         <v>77</v>
       </c>
@@ -2624,16 +2971,16 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="40" t="s">
+      <c r="D28" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E28" s="12" t="s">
@@ -2644,10 +2991,10 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A29" s="32"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="41"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="46"/>
       <c r="E29" s="16" t="s">
         <v>82</v>
       </c>
@@ -2656,10 +3003,10 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="42"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="8" t="s">
         <v>84</v>
       </c>
@@ -2668,16 +3015,16 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="40" t="s">
+      <c r="D31" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="12" t="s">
@@ -2688,10 +3035,10 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A32" s="32"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="41"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="46"/>
       <c r="E32" s="16" t="s">
         <v>82</v>
       </c>
@@ -2700,10 +3047,10 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="42"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="47"/>
       <c r="E33" s="8" t="s">
         <v>87</v>
       </c>
@@ -2712,16 +3059,16 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="40" t="s">
+      <c r="D34" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E34" s="12" t="s">
@@ -2730,10 +3077,10 @@
       <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="42"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="47"/>
       <c r="E35" s="8" t="s">
         <v>94</v>
       </c>
@@ -2742,16 +3089,16 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="40" t="s">
+      <c r="D36" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E36" s="12" t="s">
@@ -2762,26 +3109,26 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="33"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="42"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="47"/>
       <c r="E37" s="8"/>
       <c r="F37" s="9" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="37" t="s">
+      <c r="C38" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="40" t="s">
+      <c r="D38" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E38" s="12" t="s">
@@ -2792,10 +3139,10 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="66.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="33"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="42"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="47"/>
       <c r="E39" s="8" t="s">
         <v>106</v>
       </c>
@@ -2804,16 +3151,16 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="37" t="s">
+      <c r="C40" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="D40" s="40" t="s">
+      <c r="D40" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E40" s="12" t="s">
@@ -2824,10 +3171,10 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="42"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="47"/>
       <c r="E41" s="8" t="s">
         <v>109</v>
       </c>
@@ -2856,16 +3203,16 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="50.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="37" t="s">
+      <c r="C43" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="D43" s="40" t="s">
+      <c r="D43" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E43" s="12" t="s">
@@ -2876,10 +3223,10 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="33"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="42"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="47"/>
       <c r="E44" s="8" t="s">
         <v>121</v>
       </c>
@@ -2888,16 +3235,16 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="C45" s="37" t="s">
+      <c r="C45" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="D45" s="40" t="s">
+      <c r="D45" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E45" s="12" t="s">
@@ -2908,10 +3255,10 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="33"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="42"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="47"/>
       <c r="E46" s="8" t="s">
         <v>106</v>
       </c>
@@ -2920,14 +3267,14 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="43" t="s">
+      <c r="A47" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
     </row>
     <row r="48" spans="1:6" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
@@ -2950,16 +3297,16 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="C49" s="37" t="s">
+      <c r="C49" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="D49" s="40" t="s">
+      <c r="D49" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
@@ -2970,10 +3317,10 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="33"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="42"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="47"/>
       <c r="E50" s="8" t="s">
         <v>133</v>
       </c>
@@ -2982,16 +3329,16 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="31" t="s">
+      <c r="A51" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="C51" s="37" t="s">
+      <c r="C51" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="D51" s="40" t="s">
+      <c r="D51" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
@@ -3002,10 +3349,10 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="83.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="33"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="42"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="47"/>
       <c r="E52" s="8" t="s">
         <v>137</v>
       </c>
@@ -3014,16 +3361,16 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="45" t="s">
+      <c r="A53" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="B53" s="48" t="s">
+      <c r="B53" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="C53" s="37" t="s">
+      <c r="C53" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="D53" s="40" t="s">
+      <c r="D53" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
@@ -3034,10 +3381,10 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A54" s="46"/>
-      <c r="B54" s="49"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="41"/>
+      <c r="A54" s="51"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="46"/>
       <c r="E54" s="25" t="s">
         <v>137</v>
       </c>
@@ -3046,10 +3393,10 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="47"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="42"/>
+      <c r="A55" s="52"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="47"/>
       <c r="E55" s="8" t="s">
         <v>144</v>
       </c>
@@ -3058,16 +3405,16 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="45" t="s">
+      <c r="A56" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="B56" s="48" t="s">
+      <c r="B56" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="C56" s="37" t="s">
+      <c r="C56" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="D56" s="40" t="s">
+      <c r="D56" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
@@ -3078,10 +3425,10 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A57" s="46"/>
-      <c r="B57" s="49"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="41"/>
+      <c r="A57" s="51"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="46"/>
       <c r="E57" s="25" t="s">
         <v>137</v>
       </c>
@@ -3090,10 +3437,10 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A58" s="46"/>
-      <c r="B58" s="49"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="41"/>
+      <c r="A58" s="51"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="46"/>
       <c r="E58" s="25" t="s">
         <v>144</v>
       </c>
@@ -3102,10 +3449,10 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="46"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="41"/>
+      <c r="A59" s="51"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="46"/>
       <c r="E59" s="25" t="s">
         <v>148</v>
       </c>
@@ -3114,10 +3461,10 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="47"/>
-      <c r="B60" s="50"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="42"/>
+      <c r="A60" s="52"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="47"/>
       <c r="E60" s="8" t="s">
         <v>150</v>
       </c>
@@ -3126,16 +3473,16 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="45" t="s">
+      <c r="A61" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="B61" s="48" t="s">
+      <c r="B61" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="C61" s="37" t="s">
+      <c r="C61" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="D61" s="40" t="s">
+      <c r="D61" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
@@ -3146,10 +3493,10 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A62" s="46"/>
-      <c r="B62" s="49"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="41"/>
+      <c r="A62" s="51"/>
+      <c r="B62" s="54"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="46"/>
       <c r="E62" s="25" t="s">
         <v>137</v>
       </c>
@@ -3158,10 +3505,10 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A63" s="46"/>
-      <c r="B63" s="49"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="41"/>
+      <c r="A63" s="51"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="46"/>
       <c r="E63" s="25" t="s">
         <v>144</v>
       </c>
@@ -3170,10 +3517,10 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="99" x14ac:dyDescent="0.2">
-      <c r="A64" s="46"/>
-      <c r="B64" s="49"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="41"/>
+      <c r="A64" s="51"/>
+      <c r="B64" s="54"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="46"/>
       <c r="E64" s="25" t="s">
         <v>161</v>
       </c>
@@ -3182,10 +3529,10 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="47"/>
-      <c r="B65" s="50"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="42"/>
+      <c r="A65" s="52"/>
+      <c r="B65" s="55"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="47"/>
       <c r="E65" s="8" t="s">
         <v>163</v>
       </c>
@@ -3194,16 +3541,16 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="45" t="s">
+      <c r="A66" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="B66" s="48" t="s">
+      <c r="B66" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="C66" s="37" t="s">
+      <c r="C66" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="D66" s="40" t="s">
+      <c r="D66" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
@@ -3214,10 +3561,10 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="46"/>
-      <c r="B67" s="49"/>
-      <c r="C67" s="38"/>
-      <c r="D67" s="41"/>
+      <c r="A67" s="51"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="46"/>
       <c r="E67" s="25" t="s">
         <v>172</v>
       </c>
@@ -3226,10 +3573,10 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="46"/>
-      <c r="B68" s="49"/>
-      <c r="C68" s="38"/>
-      <c r="D68" s="41"/>
+      <c r="A68" s="51"/>
+      <c r="B68" s="54"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="46"/>
       <c r="E68" s="25" t="s">
         <v>174</v>
       </c>
@@ -3238,10 +3585,10 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="47"/>
-      <c r="B69" s="50"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="42"/>
+      <c r="A69" s="52"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="47"/>
       <c r="E69" s="8" t="s">
         <v>177</v>
       </c>
@@ -3250,16 +3597,16 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="45" t="s">
+      <c r="A70" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="B70" s="48" t="s">
+      <c r="B70" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="C70" s="37" t="s">
+      <c r="C70" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="D70" s="40" t="s">
+      <c r="D70" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
@@ -3270,10 +3617,10 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A71" s="46"/>
-      <c r="B71" s="49"/>
-      <c r="C71" s="38"/>
-      <c r="D71" s="41"/>
+      <c r="A71" s="51"/>
+      <c r="B71" s="54"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="46"/>
       <c r="E71" s="25" t="s">
         <v>172</v>
       </c>
@@ -3282,10 +3629,10 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="47"/>
-      <c r="B72" s="50"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="42"/>
+      <c r="A72" s="52"/>
+      <c r="B72" s="55"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="47"/>
       <c r="E72" s="8" t="s">
         <v>182</v>
       </c>
@@ -3293,17 +3640,17 @@
         <v>184</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="31" t="s">
+    <row r="73" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="B73" s="34" t="s">
+      <c r="B73" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="C73" s="37" t="s">
+      <c r="C73" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="D73" s="51" t="s">
+      <c r="D73" s="56" t="s">
         <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
@@ -3314,10 +3661,10 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="32"/>
-      <c r="B74" s="35"/>
-      <c r="C74" s="38"/>
-      <c r="D74" s="52"/>
+      <c r="A74" s="37"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="57"/>
       <c r="E74" s="25" t="s">
         <v>172</v>
       </c>
@@ -3326,10 +3673,10 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="32"/>
-      <c r="B75" s="35"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="52"/>
+      <c r="A75" s="37"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="57"/>
       <c r="E75" s="25" t="s">
         <v>205</v>
       </c>
@@ -3338,10 +3685,10 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="32"/>
-      <c r="B76" s="35"/>
-      <c r="C76" s="38"/>
-      <c r="D76" s="52"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="57"/>
       <c r="E76" s="8" t="s">
         <v>206</v>
       </c>
@@ -3350,16 +3697,16 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="45" t="s">
+      <c r="A77" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="B77" s="48" t="s">
+      <c r="B77" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="C77" s="37" t="s">
+      <c r="C77" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="D77" s="40" t="s">
+      <c r="D77" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
@@ -3370,20 +3717,20 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="46"/>
-      <c r="B78" s="49"/>
-      <c r="C78" s="38"/>
-      <c r="D78" s="41"/>
+      <c r="A78" s="51"/>
+      <c r="B78" s="54"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="46"/>
       <c r="E78" s="25" t="s">
         <v>172</v>
       </c>
       <c r="F78" s="6"/>
     </row>
     <row r="79" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="46"/>
-      <c r="B79" s="49"/>
-      <c r="C79" s="38"/>
-      <c r="D79" s="41"/>
+      <c r="A79" s="51"/>
+      <c r="B79" s="54"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="46"/>
       <c r="E79" s="25" t="s">
         <v>185</v>
       </c>
@@ -3392,10 +3739,10 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="66.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="47"/>
-      <c r="B80" s="50"/>
-      <c r="C80" s="39"/>
-      <c r="D80" s="42"/>
+      <c r="A80" s="52"/>
+      <c r="B80" s="55"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="47"/>
       <c r="E80" s="8" t="s">
         <v>186</v>
       </c>
@@ -3404,16 +3751,16 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="45" t="s">
+      <c r="A81" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="B81" s="48" t="s">
+      <c r="B81" s="53" t="s">
         <v>191</v>
       </c>
-      <c r="C81" s="37" t="s">
+      <c r="C81" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="D81" s="40" t="s">
+      <c r="D81" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
@@ -3424,20 +3771,20 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="46"/>
-      <c r="B82" s="49"/>
-      <c r="C82" s="38"/>
-      <c r="D82" s="41"/>
+      <c r="A82" s="51"/>
+      <c r="B82" s="54"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="46"/>
       <c r="E82" s="25" t="s">
         <v>172</v>
       </c>
       <c r="F82" s="6"/>
     </row>
     <row r="83" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="46"/>
-      <c r="B83" s="49"/>
-      <c r="C83" s="38"/>
-      <c r="D83" s="41"/>
+      <c r="A83" s="51"/>
+      <c r="B83" s="54"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="46"/>
       <c r="E83" s="25" t="s">
         <v>185</v>
       </c>
@@ -3446,10 +3793,10 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="46"/>
-      <c r="B84" s="49"/>
-      <c r="C84" s="38"/>
-      <c r="D84" s="41"/>
+      <c r="A84" s="51"/>
+      <c r="B84" s="54"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="46"/>
       <c r="E84" s="16" t="s">
         <v>186</v>
       </c>
@@ -3458,10 +3805,10 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="47"/>
-      <c r="B85" s="50"/>
-      <c r="C85" s="39"/>
-      <c r="D85" s="42"/>
+      <c r="A85" s="52"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="47"/>
       <c r="E85" s="8" t="s">
         <v>209</v>
       </c>
@@ -3469,17 +3816,17 @@
         <v>193</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="45" t="s">
+    <row r="86" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="B86" s="48" t="s">
+      <c r="B86" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="C86" s="37" t="s">
+      <c r="C86" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="D86" s="40" t="s">
+      <c r="D86" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
@@ -3490,20 +3837,20 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="46"/>
-      <c r="B87" s="49"/>
-      <c r="C87" s="38"/>
-      <c r="D87" s="41"/>
+      <c r="A87" s="51"/>
+      <c r="B87" s="54"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="46"/>
       <c r="E87" s="25" t="s">
         <v>172</v>
       </c>
       <c r="F87" s="6"/>
     </row>
     <row r="88" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="46"/>
-      <c r="B88" s="49"/>
-      <c r="C88" s="38"/>
-      <c r="D88" s="41"/>
+      <c r="A88" s="51"/>
+      <c r="B88" s="54"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="46"/>
       <c r="E88" s="25" t="s">
         <v>185</v>
       </c>
@@ -3512,10 +3859,10 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A89" s="46"/>
-      <c r="B89" s="49"/>
-      <c r="C89" s="38"/>
-      <c r="D89" s="41"/>
+      <c r="A89" s="51"/>
+      <c r="B89" s="54"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="46"/>
       <c r="E89" s="16" t="s">
         <v>186</v>
       </c>
@@ -3524,10 +3871,10 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="47"/>
-      <c r="B90" s="50"/>
-      <c r="C90" s="39"/>
-      <c r="D90" s="42"/>
+      <c r="A90" s="52"/>
+      <c r="B90" s="55"/>
+      <c r="C90" s="44"/>
+      <c r="D90" s="47"/>
       <c r="E90" s="8" t="s">
         <v>196</v>
       </c>
@@ -3535,17 +3882,17 @@
         <v>197</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="45" t="s">
+    <row r="91" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="B91" s="48" t="s">
+      <c r="B91" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="C91" s="37" t="s">
+      <c r="C91" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="D91" s="40" t="s">
+      <c r="D91" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
@@ -3556,20 +3903,20 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="46"/>
-      <c r="B92" s="49"/>
-      <c r="C92" s="38"/>
-      <c r="D92" s="41"/>
+      <c r="A92" s="51"/>
+      <c r="B92" s="54"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="46"/>
       <c r="E92" s="25" t="s">
         <v>172</v>
       </c>
       <c r="F92" s="6"/>
     </row>
     <row r="93" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="46"/>
-      <c r="B93" s="49"/>
-      <c r="C93" s="38"/>
-      <c r="D93" s="41"/>
+      <c r="A93" s="51"/>
+      <c r="B93" s="54"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="46"/>
       <c r="E93" s="25" t="s">
         <v>185</v>
       </c>
@@ -3578,10 +3925,10 @@
       </c>
     </row>
     <row r="94" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A94" s="46"/>
-      <c r="B94" s="49"/>
-      <c r="C94" s="38"/>
-      <c r="D94" s="41"/>
+      <c r="A94" s="51"/>
+      <c r="B94" s="54"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="46"/>
       <c r="E94" s="16" t="s">
         <v>186</v>
       </c>
@@ -3590,10 +3937,10 @@
       </c>
     </row>
     <row r="95" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="47"/>
-      <c r="B95" s="50"/>
-      <c r="C95" s="39"/>
-      <c r="D95" s="42"/>
+      <c r="A95" s="52"/>
+      <c r="B95" s="55"/>
+      <c r="C95" s="44"/>
+      <c r="D95" s="47"/>
       <c r="E95" s="8" t="s">
         <v>215</v>
       </c>
@@ -3602,16 +3949,16 @@
       </c>
     </row>
     <row r="96" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="45" t="s">
+      <c r="A96" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="B96" s="48" t="s">
+      <c r="B96" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="C96" s="37" t="s">
+      <c r="C96" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="D96" s="40" t="s">
+      <c r="D96" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
@@ -3622,20 +3969,20 @@
       </c>
     </row>
     <row r="97" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A97" s="46"/>
-      <c r="B97" s="49"/>
-      <c r="C97" s="38"/>
-      <c r="D97" s="41"/>
+      <c r="A97" s="51"/>
+      <c r="B97" s="54"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="46"/>
       <c r="E97" s="25" t="s">
         <v>172</v>
       </c>
       <c r="F97" s="6"/>
     </row>
     <row r="98" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="46"/>
-      <c r="B98" s="49"/>
-      <c r="C98" s="38"/>
-      <c r="D98" s="41"/>
+      <c r="A98" s="51"/>
+      <c r="B98" s="54"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="46"/>
       <c r="E98" s="25" t="s">
         <v>185</v>
       </c>
@@ -3644,10 +3991,10 @@
       </c>
     </row>
     <row r="99" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A99" s="46"/>
-      <c r="B99" s="49"/>
-      <c r="C99" s="38"/>
-      <c r="D99" s="41"/>
+      <c r="A99" s="51"/>
+      <c r="B99" s="54"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="46"/>
       <c r="E99" s="16" t="s">
         <v>186</v>
       </c>
@@ -3656,10 +4003,10 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="47"/>
-      <c r="B100" s="50"/>
-      <c r="C100" s="39"/>
-      <c r="D100" s="42"/>
+      <c r="A100" s="52"/>
+      <c r="B100" s="55"/>
+      <c r="C100" s="44"/>
+      <c r="D100" s="47"/>
       <c r="E100" s="8" t="s">
         <v>214</v>
       </c>
@@ -3668,16 +4015,16 @@
       </c>
     </row>
     <row r="101" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="45" t="s">
+      <c r="A101" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="B101" s="48" t="s">
+      <c r="B101" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="C101" s="37" t="s">
+      <c r="C101" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="D101" s="40" t="s">
+      <c r="D101" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E101" s="16" t="s">
@@ -3688,20 +4035,20 @@
       </c>
     </row>
     <row r="102" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="46"/>
-      <c r="B102" s="49"/>
-      <c r="C102" s="38"/>
-      <c r="D102" s="41"/>
+      <c r="A102" s="51"/>
+      <c r="B102" s="54"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="46"/>
       <c r="E102" s="25" t="s">
         <v>172</v>
       </c>
       <c r="F102" s="6"/>
     </row>
     <row r="103" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="46"/>
-      <c r="B103" s="49"/>
-      <c r="C103" s="38"/>
-      <c r="D103" s="41"/>
+      <c r="A103" s="51"/>
+      <c r="B103" s="54"/>
+      <c r="C103" s="43"/>
+      <c r="D103" s="46"/>
       <c r="E103" s="25" t="s">
         <v>185</v>
       </c>
@@ -3710,10 +4057,10 @@
       </c>
     </row>
     <row r="104" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A104" s="46"/>
-      <c r="B104" s="49"/>
-      <c r="C104" s="38"/>
-      <c r="D104" s="41"/>
+      <c r="A104" s="51"/>
+      <c r="B104" s="54"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="46"/>
       <c r="E104" s="25" t="s">
         <v>186</v>
       </c>
@@ -3722,10 +4069,10 @@
       </c>
     </row>
     <row r="105" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="46"/>
-      <c r="B105" s="49"/>
-      <c r="C105" s="38"/>
-      <c r="D105" s="41"/>
+      <c r="A105" s="51"/>
+      <c r="B105" s="54"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="46"/>
       <c r="E105" s="25" t="s">
         <v>214</v>
       </c>
@@ -3734,10 +4081,10 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="47"/>
-      <c r="B106" s="50"/>
-      <c r="C106" s="39"/>
-      <c r="D106" s="42"/>
+      <c r="A106" s="52"/>
+      <c r="B106" s="55"/>
+      <c r="C106" s="44"/>
+      <c r="D106" s="47"/>
       <c r="E106" s="8" t="s">
         <v>216</v>
       </c>
@@ -3746,16 +4093,16 @@
       </c>
     </row>
     <row r="107" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="45" t="s">
+      <c r="A107" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="B107" s="48" t="s">
+      <c r="B107" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="C107" s="37" t="s">
+      <c r="C107" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="D107" s="40" t="s">
+      <c r="D107" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E107" s="16" t="s">
@@ -3766,20 +4113,20 @@
       </c>
     </row>
     <row r="108" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="46"/>
-      <c r="B108" s="49"/>
-      <c r="C108" s="38"/>
-      <c r="D108" s="41"/>
+      <c r="A108" s="51"/>
+      <c r="B108" s="54"/>
+      <c r="C108" s="43"/>
+      <c r="D108" s="46"/>
       <c r="E108" s="25" t="s">
         <v>172</v>
       </c>
       <c r="F108" s="6"/>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="46"/>
-      <c r="B109" s="49"/>
-      <c r="C109" s="38"/>
-      <c r="D109" s="41"/>
+      <c r="A109" s="51"/>
+      <c r="B109" s="54"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="46"/>
       <c r="E109" s="25" t="s">
         <v>185</v>
       </c>
@@ -3788,10 +4135,10 @@
       </c>
     </row>
     <row r="110" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A110" s="46"/>
-      <c r="B110" s="49"/>
-      <c r="C110" s="38"/>
-      <c r="D110" s="41"/>
+      <c r="A110" s="51"/>
+      <c r="B110" s="54"/>
+      <c r="C110" s="43"/>
+      <c r="D110" s="46"/>
       <c r="E110" s="25" t="s">
         <v>186</v>
       </c>
@@ -3800,10 +4147,10 @@
       </c>
     </row>
     <row r="111" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="46"/>
-      <c r="B111" s="49"/>
-      <c r="C111" s="38"/>
-      <c r="D111" s="41"/>
+      <c r="A111" s="51"/>
+      <c r="B111" s="54"/>
+      <c r="C111" s="43"/>
+      <c r="D111" s="46"/>
       <c r="E111" s="25" t="s">
         <v>214</v>
       </c>
@@ -3812,10 +4159,10 @@
       </c>
     </row>
     <row r="112" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A112" s="46"/>
-      <c r="B112" s="49"/>
-      <c r="C112" s="38"/>
-      <c r="D112" s="41"/>
+      <c r="A112" s="51"/>
+      <c r="B112" s="54"/>
+      <c r="C112" s="43"/>
+      <c r="D112" s="46"/>
       <c r="E112" s="16" t="s">
         <v>218</v>
       </c>
@@ -3824,10 +4171,10 @@
       </c>
     </row>
     <row r="113" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="47"/>
-      <c r="B113" s="50"/>
-      <c r="C113" s="39"/>
-      <c r="D113" s="42"/>
+      <c r="A113" s="52"/>
+      <c r="B113" s="55"/>
+      <c r="C113" s="44"/>
+      <c r="D113" s="47"/>
       <c r="E113" s="8" t="s">
         <v>220</v>
       </c>
@@ -3836,14 +4183,14 @@
       </c>
     </row>
     <row r="114" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="43" t="s">
+      <c r="A114" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="B114" s="44"/>
-      <c r="C114" s="44"/>
-      <c r="D114" s="44"/>
-      <c r="E114" s="44"/>
-      <c r="F114" s="44"/>
+      <c r="B114" s="49"/>
+      <c r="C114" s="49"/>
+      <c r="D114" s="49"/>
+      <c r="E114" s="49"/>
+      <c r="F114" s="49"/>
     </row>
     <row r="115" spans="1:6" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="22" t="s">
@@ -3866,16 +4213,16 @@
       </c>
     </row>
     <row r="116" spans="1:6" ht="50.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="31" t="s">
+      <c r="A116" s="36" t="s">
         <v>237</v>
       </c>
-      <c r="B116" s="34" t="s">
+      <c r="B116" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="C116" s="37" t="s">
+      <c r="C116" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="D116" s="40" t="s">
+      <c r="D116" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E116" s="16" t="s">
@@ -3886,10 +4233,10 @@
       </c>
     </row>
     <row r="117" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="33"/>
-      <c r="B117" s="36"/>
-      <c r="C117" s="39"/>
-      <c r="D117" s="42"/>
+      <c r="A117" s="38"/>
+      <c r="B117" s="41"/>
+      <c r="C117" s="44"/>
+      <c r="D117" s="47"/>
       <c r="E117" s="8" t="s">
         <v>236</v>
       </c>
@@ -3898,16 +4245,16 @@
       </c>
     </row>
     <row r="118" spans="1:6" ht="50.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="31" t="s">
+      <c r="A118" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="B118" s="34" t="s">
+      <c r="B118" s="39" t="s">
         <v>297</v>
       </c>
-      <c r="C118" s="37" t="s">
+      <c r="C118" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="D118" s="40" t="s">
+      <c r="D118" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E118" s="16" t="s">
@@ -3918,10 +4265,10 @@
       </c>
     </row>
     <row r="119" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="33"/>
-      <c r="B119" s="36"/>
-      <c r="C119" s="39"/>
-      <c r="D119" s="42"/>
+      <c r="A119" s="38"/>
+      <c r="B119" s="41"/>
+      <c r="C119" s="44"/>
+      <c r="D119" s="47"/>
       <c r="E119" s="8" t="s">
         <v>239</v>
       </c>
@@ -3929,17 +4276,17 @@
         <v>296</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="31" t="s">
+    <row r="120" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="B120" s="34" t="s">
+      <c r="B120" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="C120" s="37" t="s">
+      <c r="C120" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="D120" s="40" t="s">
+      <c r="D120" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E120" s="16" t="s">
@@ -3950,10 +4297,10 @@
       </c>
     </row>
     <row r="121" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="33"/>
-      <c r="B121" s="36"/>
-      <c r="C121" s="39"/>
-      <c r="D121" s="42"/>
+      <c r="A121" s="38"/>
+      <c r="B121" s="41"/>
+      <c r="C121" s="44"/>
+      <c r="D121" s="47"/>
       <c r="E121" s="8" t="s">
         <v>242</v>
       </c>
@@ -3962,16 +4309,16 @@
       </c>
     </row>
     <row r="122" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="31" t="s">
+      <c r="A122" s="36" t="s">
         <v>254</v>
       </c>
-      <c r="B122" s="34" t="s">
+      <c r="B122" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="C122" s="37" t="s">
+      <c r="C122" s="42" t="s">
         <v>249</v>
       </c>
-      <c r="D122" s="40" t="s">
+      <c r="D122" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E122" s="16" t="s">
@@ -3982,10 +4329,10 @@
       </c>
     </row>
     <row r="123" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A123" s="32"/>
-      <c r="B123" s="35"/>
-      <c r="C123" s="38"/>
-      <c r="D123" s="41"/>
+      <c r="A123" s="37"/>
+      <c r="B123" s="40"/>
+      <c r="C123" s="43"/>
+      <c r="D123" s="46"/>
       <c r="E123" s="25" t="s">
         <v>242</v>
       </c>
@@ -3994,10 +4341,10 @@
       </c>
     </row>
     <row r="124" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A124" s="32"/>
-      <c r="B124" s="35"/>
-      <c r="C124" s="38"/>
-      <c r="D124" s="41"/>
+      <c r="A124" s="37"/>
+      <c r="B124" s="40"/>
+      <c r="C124" s="43"/>
+      <c r="D124" s="46"/>
       <c r="E124" s="25" t="s">
         <v>250</v>
       </c>
@@ -4006,10 +4353,10 @@
       </c>
     </row>
     <row r="125" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="33"/>
-      <c r="B125" s="36"/>
-      <c r="C125" s="39"/>
-      <c r="D125" s="42"/>
+      <c r="A125" s="38"/>
+      <c r="B125" s="41"/>
+      <c r="C125" s="44"/>
+      <c r="D125" s="47"/>
       <c r="E125" s="8" t="s">
         <v>252</v>
       </c>
@@ -4018,16 +4365,16 @@
       </c>
     </row>
     <row r="126" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="31" t="s">
+      <c r="A126" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="B126" s="34" t="s">
+      <c r="B126" s="39" t="s">
         <v>261</v>
       </c>
-      <c r="C126" s="37" t="s">
+      <c r="C126" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="D126" s="40" t="s">
+      <c r="D126" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E126" s="16" t="s">
@@ -4038,10 +4385,10 @@
       </c>
     </row>
     <row r="127" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="33"/>
-      <c r="B127" s="36"/>
-      <c r="C127" s="39"/>
-      <c r="D127" s="42"/>
+      <c r="A127" s="38"/>
+      <c r="B127" s="41"/>
+      <c r="C127" s="44"/>
+      <c r="D127" s="47"/>
       <c r="E127" s="8" t="s">
         <v>256</v>
       </c>
@@ -4050,16 +4397,16 @@
       </c>
     </row>
     <row r="128" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="31" t="s">
+      <c r="A128" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="B128" s="34" t="s">
+      <c r="B128" s="39" t="s">
         <v>262</v>
       </c>
-      <c r="C128" s="37" t="s">
+      <c r="C128" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="D128" s="40" t="s">
+      <c r="D128" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E128" s="16" t="s">
@@ -4070,10 +4417,10 @@
       </c>
     </row>
     <row r="129" spans="1:6" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A129" s="32"/>
-      <c r="B129" s="35"/>
-      <c r="C129" s="38"/>
-      <c r="D129" s="41"/>
+      <c r="A129" s="37"/>
+      <c r="B129" s="40"/>
+      <c r="C129" s="43"/>
+      <c r="D129" s="46"/>
       <c r="E129" s="25" t="s">
         <v>256</v>
       </c>
@@ -4082,10 +4429,10 @@
       </c>
     </row>
     <row r="130" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="33"/>
-      <c r="B130" s="36"/>
-      <c r="C130" s="39"/>
-      <c r="D130" s="42"/>
+      <c r="A130" s="38"/>
+      <c r="B130" s="41"/>
+      <c r="C130" s="44"/>
+      <c r="D130" s="47"/>
       <c r="E130" s="8" t="s">
         <v>263</v>
       </c>
@@ -4094,16 +4441,16 @@
       </c>
     </row>
     <row r="131" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="31" t="s">
+      <c r="A131" s="36" t="s">
         <v>266</v>
       </c>
-      <c r="B131" s="34" t="s">
+      <c r="B131" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="C131" s="37" t="s">
+      <c r="C131" s="42" t="s">
         <v>272</v>
       </c>
-      <c r="D131" s="40" t="s">
+      <c r="D131" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E131" s="16" t="s">
@@ -4114,10 +4461,10 @@
       </c>
     </row>
     <row r="132" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="32"/>
-      <c r="B132" s="35"/>
-      <c r="C132" s="38"/>
-      <c r="D132" s="41"/>
+      <c r="A132" s="37"/>
+      <c r="B132" s="40"/>
+      <c r="C132" s="43"/>
+      <c r="D132" s="46"/>
       <c r="E132" s="25" t="s">
         <v>256</v>
       </c>
@@ -4126,10 +4473,10 @@
       </c>
     </row>
     <row r="133" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="33"/>
-      <c r="B133" s="36"/>
-      <c r="C133" s="39"/>
-      <c r="D133" s="42"/>
+      <c r="A133" s="38"/>
+      <c r="B133" s="41"/>
+      <c r="C133" s="44"/>
+      <c r="D133" s="47"/>
       <c r="E133" s="8" t="s">
         <v>268</v>
       </c>
@@ -4138,16 +4485,16 @@
       </c>
     </row>
     <row r="134" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="31" t="s">
+      <c r="A134" s="36" t="s">
         <v>273</v>
       </c>
-      <c r="B134" s="34" t="s">
+      <c r="B134" s="39" t="s">
         <v>301</v>
       </c>
-      <c r="C134" s="37" t="s">
+      <c r="C134" s="42" t="s">
         <v>275</v>
       </c>
-      <c r="D134" s="40" t="s">
+      <c r="D134" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E134" s="16" t="s">
@@ -4158,10 +4505,10 @@
       </c>
     </row>
     <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A135" s="32"/>
-      <c r="B135" s="35"/>
-      <c r="C135" s="38"/>
-      <c r="D135" s="41"/>
+      <c r="A135" s="37"/>
+      <c r="B135" s="40"/>
+      <c r="C135" s="43"/>
+      <c r="D135" s="46"/>
       <c r="E135" s="25" t="s">
         <v>256</v>
       </c>
@@ -4170,10 +4517,10 @@
       </c>
     </row>
     <row r="136" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A136" s="32"/>
-      <c r="B136" s="35"/>
-      <c r="C136" s="38"/>
-      <c r="D136" s="41"/>
+      <c r="A136" s="37"/>
+      <c r="B136" s="40"/>
+      <c r="C136" s="43"/>
+      <c r="D136" s="46"/>
       <c r="E136" s="16" t="s">
         <v>268</v>
       </c>
@@ -4182,10 +4529,10 @@
       </c>
     </row>
     <row r="137" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="33"/>
-      <c r="B137" s="36"/>
-      <c r="C137" s="39"/>
-      <c r="D137" s="42"/>
+      <c r="A137" s="38"/>
+      <c r="B137" s="41"/>
+      <c r="C137" s="44"/>
+      <c r="D137" s="47"/>
       <c r="E137" s="8" t="s">
         <v>299</v>
       </c>
@@ -4193,17 +4540,17 @@
         <v>300</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="31" t="s">
+    <row r="138" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="36" t="s">
         <v>280</v>
       </c>
-      <c r="B138" s="34" t="s">
+      <c r="B138" s="39" t="s">
         <v>278</v>
       </c>
-      <c r="C138" s="37" t="s">
+      <c r="C138" s="42" t="s">
         <v>279</v>
       </c>
-      <c r="D138" s="40" t="s">
+      <c r="D138" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E138" s="16" t="s">
@@ -4214,10 +4561,10 @@
       </c>
     </row>
     <row r="139" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A139" s="32"/>
-      <c r="B139" s="35"/>
-      <c r="C139" s="38"/>
-      <c r="D139" s="41"/>
+      <c r="A139" s="37"/>
+      <c r="B139" s="40"/>
+      <c r="C139" s="43"/>
+      <c r="D139" s="46"/>
       <c r="E139" s="25" t="s">
         <v>256</v>
       </c>
@@ -4226,10 +4573,10 @@
       </c>
     </row>
     <row r="140" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A140" s="32"/>
-      <c r="B140" s="35"/>
-      <c r="C140" s="38"/>
-      <c r="D140" s="41"/>
+      <c r="A140" s="37"/>
+      <c r="B140" s="40"/>
+      <c r="C140" s="43"/>
+      <c r="D140" s="46"/>
       <c r="E140" s="16" t="s">
         <v>268</v>
       </c>
@@ -4238,10 +4585,10 @@
       </c>
     </row>
     <row r="141" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="33"/>
-      <c r="B141" s="36"/>
-      <c r="C141" s="39"/>
-      <c r="D141" s="42"/>
+      <c r="A141" s="38"/>
+      <c r="B141" s="41"/>
+      <c r="C141" s="44"/>
+      <c r="D141" s="47"/>
       <c r="E141" s="8" t="s">
         <v>277</v>
       </c>
@@ -4250,16 +4597,16 @@
       </c>
     </row>
     <row r="142" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="31" t="s">
+      <c r="A142" s="36" t="s">
         <v>281</v>
       </c>
-      <c r="B142" s="34" t="s">
+      <c r="B142" s="39" t="s">
         <v>283</v>
       </c>
-      <c r="C142" s="37" t="s">
+      <c r="C142" s="42" t="s">
         <v>286</v>
       </c>
-      <c r="D142" s="40" t="s">
+      <c r="D142" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E142" s="16" t="s">
@@ -4270,10 +4617,10 @@
       </c>
     </row>
     <row r="143" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A143" s="32"/>
-      <c r="B143" s="35"/>
-      <c r="C143" s="38"/>
-      <c r="D143" s="41"/>
+      <c r="A143" s="37"/>
+      <c r="B143" s="40"/>
+      <c r="C143" s="43"/>
+      <c r="D143" s="46"/>
       <c r="E143" s="25" t="s">
         <v>256</v>
       </c>
@@ -4282,10 +4629,10 @@
       </c>
     </row>
     <row r="144" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A144" s="32"/>
-      <c r="B144" s="35"/>
-      <c r="C144" s="38"/>
-      <c r="D144" s="41"/>
+      <c r="A144" s="37"/>
+      <c r="B144" s="40"/>
+      <c r="C144" s="43"/>
+      <c r="D144" s="46"/>
       <c r="E144" s="25" t="s">
         <v>268</v>
       </c>
@@ -4294,10 +4641,10 @@
       </c>
     </row>
     <row r="145" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A145" s="32"/>
-      <c r="B145" s="35"/>
-      <c r="C145" s="38"/>
-      <c r="D145" s="41"/>
+      <c r="A145" s="37"/>
+      <c r="B145" s="40"/>
+      <c r="C145" s="43"/>
+      <c r="D145" s="46"/>
       <c r="E145" s="25" t="s">
         <v>282</v>
       </c>
@@ -4306,10 +4653,10 @@
       </c>
     </row>
     <row r="146" spans="1:6" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A146" s="32"/>
-      <c r="B146" s="35"/>
-      <c r="C146" s="38"/>
-      <c r="D146" s="41"/>
+      <c r="A146" s="37"/>
+      <c r="B146" s="40"/>
+      <c r="C146" s="43"/>
+      <c r="D146" s="46"/>
       <c r="E146" s="16" t="s">
         <v>285</v>
       </c>
@@ -4318,10 +4665,10 @@
       </c>
     </row>
     <row r="147" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="33"/>
-      <c r="B147" s="36"/>
-      <c r="C147" s="39"/>
-      <c r="D147" s="42"/>
+      <c r="A147" s="38"/>
+      <c r="B147" s="41"/>
+      <c r="C147" s="44"/>
+      <c r="D147" s="47"/>
       <c r="E147" s="8" t="s">
         <v>288</v>
       </c>
@@ -4330,16 +4677,16 @@
       </c>
     </row>
     <row r="148" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="31" t="s">
+      <c r="A148" s="36" t="s">
         <v>290</v>
       </c>
-      <c r="B148" s="34" t="s">
+      <c r="B148" s="39" t="s">
         <v>291</v>
       </c>
-      <c r="C148" s="37" t="s">
+      <c r="C148" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="D148" s="40" t="s">
+      <c r="D148" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E148" s="16" t="s">
@@ -4350,10 +4697,10 @@
       </c>
     </row>
     <row r="149" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="33"/>
-      <c r="B149" s="36"/>
-      <c r="C149" s="39"/>
-      <c r="D149" s="42"/>
+      <c r="A149" s="38"/>
+      <c r="B149" s="41"/>
+      <c r="C149" s="44"/>
+      <c r="D149" s="47"/>
       <c r="E149" s="8" t="s">
         <v>293</v>
       </c>
@@ -4362,14 +4709,14 @@
       </c>
     </row>
     <row r="150" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="69" t="s">
+      <c r="A150" s="72" t="s">
         <v>303</v>
       </c>
-      <c r="B150" s="70"/>
-      <c r="C150" s="70"/>
-      <c r="D150" s="70"/>
-      <c r="E150" s="70"/>
-      <c r="F150" s="70"/>
+      <c r="B150" s="73"/>
+      <c r="C150" s="73"/>
+      <c r="D150" s="73"/>
+      <c r="E150" s="73"/>
+      <c r="F150" s="73"/>
     </row>
     <row r="151" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="28" t="s">
@@ -4384,24 +4731,24 @@
       <c r="D151" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E151" s="67" t="s">
+      <c r="E151" s="32" t="s">
         <v>308</v>
       </c>
-      <c r="F151" s="68" t="s">
+      <c r="F151" s="33" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="31" t="s">
+      <c r="A152" s="36" t="s">
         <v>311</v>
       </c>
-      <c r="B152" s="34" t="s">
+      <c r="B152" s="39" t="s">
         <v>306</v>
       </c>
-      <c r="C152" s="37" t="s">
+      <c r="C152" s="42" t="s">
         <v>316</v>
       </c>
-      <c r="D152" s="40" t="s">
+      <c r="D152" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E152" s="16" t="s">
@@ -4412,10 +4759,10 @@
       </c>
     </row>
     <row r="153" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="33"/>
-      <c r="B153" s="36"/>
-      <c r="C153" s="39"/>
-      <c r="D153" s="42"/>
+      <c r="A153" s="38"/>
+      <c r="B153" s="41"/>
+      <c r="C153" s="44"/>
+      <c r="D153" s="47"/>
       <c r="E153" s="8" t="s">
         <v>313</v>
       </c>
@@ -4424,16 +4771,16 @@
       </c>
     </row>
     <row r="154" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="31" t="s">
+      <c r="A154" s="36" t="s">
         <v>315</v>
       </c>
-      <c r="B154" s="34" t="s">
+      <c r="B154" s="39" t="s">
         <v>305</v>
       </c>
-      <c r="C154" s="37" t="s">
+      <c r="C154" s="42" t="s">
         <v>317</v>
       </c>
-      <c r="D154" s="40" t="s">
+      <c r="D154" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E154" s="16" t="s">
@@ -4444,10 +4791,10 @@
       </c>
     </row>
     <row r="155" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="33"/>
-      <c r="B155" s="36"/>
-      <c r="C155" s="39"/>
-      <c r="D155" s="42"/>
+      <c r="A155" s="38"/>
+      <c r="B155" s="41"/>
+      <c r="C155" s="44"/>
+      <c r="D155" s="47"/>
       <c r="E155" s="8" t="s">
         <v>318</v>
       </c>
@@ -4456,16 +4803,16 @@
       </c>
     </row>
     <row r="156" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="31" t="s">
-        <v>323</v>
-      </c>
-      <c r="B156" s="34" t="s">
+      <c r="A156" s="36" t="s">
         <v>320</v>
       </c>
-      <c r="C156" s="37" t="s">
-        <v>321</v>
-      </c>
-      <c r="D156" s="40" t="s">
+      <c r="B156" s="39" t="s">
+        <v>437</v>
+      </c>
+      <c r="C156" s="42" t="s">
+        <v>438</v>
+      </c>
+      <c r="D156" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E156" s="16" t="s">
@@ -4475,85 +4822,788 @@
         <v>312</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="33"/>
-      <c r="B157" s="36"/>
-      <c r="C157" s="39"/>
-      <c r="D157" s="42"/>
+    <row r="157" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="38"/>
+      <c r="B157" s="41"/>
+      <c r="C157" s="44"/>
+      <c r="D157" s="47"/>
       <c r="E157" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="F157" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="50.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="B158" s="39" t="s">
         <v>322</v>
       </c>
-      <c r="F157" s="9" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="50.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="31" t="s">
-        <v>324</v>
-      </c>
-      <c r="B158" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C158" s="37" t="s">
-        <v>326</v>
-      </c>
-      <c r="D158" s="40" t="s">
+      <c r="C158" s="42" t="s">
+        <v>323</v>
+      </c>
+      <c r="D158" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E158" s="16" t="s">
         <v>308</v>
       </c>
       <c r="F158" s="17" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="38"/>
+      <c r="B159" s="41"/>
+      <c r="C159" s="44"/>
+      <c r="D159" s="47"/>
+      <c r="E159" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="F159" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="66.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="B160" s="39" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="33"/>
-      <c r="B159" s="36"/>
-      <c r="C159" s="39"/>
-      <c r="D159" s="42"/>
-      <c r="E159" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="F159" s="9" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="66.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="31" t="s">
-        <v>330</v>
-      </c>
-      <c r="B160" s="34" t="s">
-        <v>331</v>
-      </c>
-      <c r="C160" s="37" t="s">
-        <v>326</v>
-      </c>
-      <c r="D160" s="40" t="s">
+      <c r="C160" s="42" t="s">
+        <v>323</v>
+      </c>
+      <c r="D160" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E160" s="16" t="s">
         <v>308</v>
       </c>
       <c r="F160" s="17" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="38"/>
+      <c r="B161" s="41"/>
+      <c r="C161" s="44"/>
+      <c r="D161" s="47"/>
+      <c r="E161" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="F161" s="9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="B162" s="23" t="s">
+        <v>442</v>
+      </c>
+      <c r="C162" s="31" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="33"/>
-      <c r="B161" s="36"/>
-      <c r="C161" s="39"/>
-      <c r="D161" s="42"/>
-      <c r="E161" s="8" t="s">
+      <c r="D162" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E162" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="F161" s="9" t="s">
+      <c r="F162" s="9" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="163" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="B163" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="C163" s="42" t="s">
+        <v>339</v>
+      </c>
+      <c r="D163" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E163" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="F163" s="17" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="38"/>
+      <c r="B164" s="41"/>
+      <c r="C164" s="44"/>
+      <c r="D164" s="47"/>
+      <c r="E164" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="F164" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="50.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="36" t="s">
+        <v>346</v>
+      </c>
+      <c r="B165" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="C165" s="42" t="s">
+        <v>341</v>
+      </c>
+      <c r="D165" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E165" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="F165" s="17" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="38"/>
+      <c r="B166" s="41"/>
+      <c r="C166" s="44"/>
+      <c r="D166" s="47"/>
+      <c r="E166" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="F166" s="9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="36" t="s">
+        <v>345</v>
+      </c>
+      <c r="B167" s="39" t="s">
+        <v>347</v>
+      </c>
+      <c r="C167" s="42" t="s">
+        <v>351</v>
+      </c>
+      <c r="D167" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E167" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="F167" s="17" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="66.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="38"/>
+      <c r="B168" s="41"/>
+      <c r="C168" s="44"/>
+      <c r="D168" s="47"/>
+      <c r="E168" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="F168" s="9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="B169" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="C169" s="42" t="s">
+        <v>353</v>
+      </c>
+      <c r="D169" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E169" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="F169" s="17" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="38"/>
+      <c r="B170" s="41"/>
+      <c r="C170" s="44"/>
+      <c r="D170" s="47"/>
+      <c r="E170" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="F170" s="9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="B171" s="39" t="s">
+        <v>359</v>
+      </c>
+      <c r="C171" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="D171" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E171" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="F171" s="17" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A172" s="37"/>
+      <c r="B172" s="40"/>
+      <c r="C172" s="43"/>
+      <c r="D172" s="46"/>
+      <c r="E172" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="F172" s="35" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="38"/>
+      <c r="B173" s="41"/>
+      <c r="C173" s="44"/>
+      <c r="D173" s="47"/>
+      <c r="E173" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="F173" s="9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="B174" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="C174" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="D174" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E174" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="F174" s="17" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A175" s="37"/>
+      <c r="B175" s="40"/>
+      <c r="C175" s="43"/>
+      <c r="D175" s="46"/>
+      <c r="E175" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="F175" s="35" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="38"/>
+      <c r="B176" s="41"/>
+      <c r="C176" s="44"/>
+      <c r="D176" s="47"/>
+      <c r="E176" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="F176" s="9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="B177" s="39" t="s">
+        <v>367</v>
+      </c>
+      <c r="C177" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="D177" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E177" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="F177" s="17" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A178" s="37"/>
+      <c r="B178" s="40"/>
+      <c r="C178" s="43"/>
+      <c r="D178" s="46"/>
+      <c r="E178" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="F178" s="35" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A179" s="37"/>
+      <c r="B179" s="40"/>
+      <c r="C179" s="43"/>
+      <c r="D179" s="46"/>
+      <c r="E179" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="F179" s="35"/>
+    </row>
+    <row r="180" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="38"/>
+      <c r="B180" s="41"/>
+      <c r="C180" s="44"/>
+      <c r="D180" s="47"/>
+      <c r="E180" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="F180" s="9" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="36" t="s">
+        <v>378</v>
+      </c>
+      <c r="B181" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="C181" s="42" t="s">
+        <v>373</v>
+      </c>
+      <c r="D181" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E181" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="F181" s="17" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A182" s="37"/>
+      <c r="B182" s="40"/>
+      <c r="C182" s="43"/>
+      <c r="D182" s="46"/>
+      <c r="E182" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="F182" s="35" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A183" s="37"/>
+      <c r="B183" s="40"/>
+      <c r="C183" s="43"/>
+      <c r="D183" s="46"/>
+      <c r="E183" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="F183" s="35"/>
+    </row>
+    <row r="184" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="38"/>
+      <c r="B184" s="41"/>
+      <c r="C184" s="44"/>
+      <c r="D184" s="47"/>
+      <c r="E184" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="F184" s="9" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="36" t="s">
+        <v>381</v>
+      </c>
+      <c r="B185" s="39" t="s">
+        <v>382</v>
+      </c>
+      <c r="C185" s="42" t="s">
+        <v>383</v>
+      </c>
+      <c r="D185" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E185" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="F185" s="17" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="37"/>
+      <c r="B186" s="40"/>
+      <c r="C186" s="43"/>
+      <c r="D186" s="46"/>
+      <c r="E186" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="F186" s="35" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="38"/>
+      <c r="B187" s="41"/>
+      <c r="C187" s="44"/>
+      <c r="D187" s="47"/>
+      <c r="E187" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="F187" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="36" t="s">
+        <v>389</v>
+      </c>
+      <c r="B188" s="39" t="s">
+        <v>390</v>
+      </c>
+      <c r="C188" s="42" t="s">
+        <v>391</v>
+      </c>
+      <c r="D188" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E188" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="F188" s="17" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A189" s="37"/>
+      <c r="B189" s="40"/>
+      <c r="C189" s="43"/>
+      <c r="D189" s="46"/>
+      <c r="E189" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="F189" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A190" s="37"/>
+      <c r="B190" s="40"/>
+      <c r="C190" s="43"/>
+      <c r="D190" s="46"/>
+      <c r="E190" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="F190" s="35" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="38"/>
+      <c r="B191" s="41"/>
+      <c r="C191" s="44"/>
+      <c r="D191" s="47"/>
+      <c r="E191" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="F191" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="B192" s="39" t="s">
+        <v>397</v>
+      </c>
+      <c r="C192" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="D192" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E192" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="F192" s="17" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="38"/>
+      <c r="B193" s="41"/>
+      <c r="C193" s="44"/>
+      <c r="D193" s="47"/>
+      <c r="E193" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="F193" s="9" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="36" t="s">
+        <v>401</v>
+      </c>
+      <c r="B194" s="39" t="s">
+        <v>402</v>
+      </c>
+      <c r="C194" s="42" t="s">
+        <v>403</v>
+      </c>
+      <c r="D194" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E194" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="F194" s="17" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="38"/>
+      <c r="B195" s="41"/>
+      <c r="C195" s="44"/>
+      <c r="D195" s="47"/>
+      <c r="E195" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="F195" s="9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="36" t="s">
+        <v>406</v>
+      </c>
+      <c r="B196" s="39" t="s">
+        <v>407</v>
+      </c>
+      <c r="C196" s="42" t="s">
+        <v>408</v>
+      </c>
+      <c r="D196" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E196" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="F196" s="17" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="38"/>
+      <c r="B197" s="41"/>
+      <c r="C197" s="44"/>
+      <c r="D197" s="47"/>
+      <c r="E197" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="F197" s="9" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="B198" s="39" t="s">
+        <v>412</v>
+      </c>
+      <c r="C198" s="42" t="s">
+        <v>413</v>
+      </c>
+      <c r="D198" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E198" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="F198" s="17" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="38"/>
+      <c r="B199" s="41"/>
+      <c r="C199" s="44"/>
+      <c r="D199" s="47"/>
+      <c r="E199" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="F199" s="9" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="36" t="s">
+        <v>417</v>
+      </c>
+      <c r="B200" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="C200" s="42" t="s">
+        <v>418</v>
+      </c>
+      <c r="D200" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E200" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="F200" s="17" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="38"/>
+      <c r="B201" s="41"/>
+      <c r="C201" s="44"/>
+      <c r="D201" s="47"/>
+      <c r="E201" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="F201" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="72" t="s">
+        <v>421</v>
+      </c>
+      <c r="B202" s="73"/>
+      <c r="C202" s="73"/>
+      <c r="D202" s="73"/>
+      <c r="E202" s="73"/>
+      <c r="F202" s="73"/>
+    </row>
+    <row r="203" spans="1:6" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="B203" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="C203" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="D203" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E203" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="F203" s="9" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="B204" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="C204" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="D204" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E204" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="F204" s="9" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="B205" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="C205" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="D205" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E205" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="F205" s="9" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="200">
+  <mergeCells count="261">
+    <mergeCell ref="A200:A201"/>
+    <mergeCell ref="B200:B201"/>
+    <mergeCell ref="C200:C201"/>
+    <mergeCell ref="D200:D201"/>
+    <mergeCell ref="A202:F202"/>
+    <mergeCell ref="A194:A195"/>
+    <mergeCell ref="B194:B195"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="D194:D195"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="A198:A199"/>
+    <mergeCell ref="B198:B199"/>
+    <mergeCell ref="C198:C199"/>
+    <mergeCell ref="D198:D199"/>
+    <mergeCell ref="A185:A187"/>
+    <mergeCell ref="B185:B187"/>
+    <mergeCell ref="C185:C187"/>
+    <mergeCell ref="D185:D187"/>
+    <mergeCell ref="A188:A191"/>
+    <mergeCell ref="B188:B191"/>
+    <mergeCell ref="C188:C191"/>
+    <mergeCell ref="D188:D191"/>
+    <mergeCell ref="A192:A193"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="D192:D193"/>
     <mergeCell ref="A156:A157"/>
     <mergeCell ref="B156:B157"/>
     <mergeCell ref="C156:C157"/>
@@ -4754,6 +5804,38 @@
     <mergeCell ref="B148:B149"/>
     <mergeCell ref="C148:C149"/>
     <mergeCell ref="D148:D149"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="D165:D166"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="D167:D168"/>
+    <mergeCell ref="A177:A180"/>
+    <mergeCell ref="B177:B180"/>
+    <mergeCell ref="C177:C180"/>
+    <mergeCell ref="D177:D180"/>
+    <mergeCell ref="B181:B184"/>
+    <mergeCell ref="A181:A184"/>
+    <mergeCell ref="C181:C184"/>
+    <mergeCell ref="D181:D184"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="A171:A173"/>
+    <mergeCell ref="B171:B173"/>
+    <mergeCell ref="C171:C173"/>
+    <mergeCell ref="D171:D173"/>
+    <mergeCell ref="A174:A176"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="C174:C176"/>
+    <mergeCell ref="D174:D176"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>

--- a/src/test/resources/test_descriptions/RottenTomatoes_TestCases.xlsx
+++ b/src/test/resources/test_descriptions/RottenTomatoes_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\project\UITest2Code\src\test\resources\test_descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0283A5-D2B2-481C-BA87-1555696710D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D1A7C4-4BC3-4E0E-9395-8985A0B30711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15600" xr2:uid="{791CFF3F-B61E-4861-A956-A2059CE938E6}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1106,9 +1105,6 @@
     <t>2. Click Fall TV</t>
   </si>
   <si>
-    <t>Fall TV page will be presented, including the navigation bar with the options Home, Premiere Dates, News &amp; Guides, Renewed/Cancelled, a carousel, two spotlights, more fall tv and tweets by @rottentomatoes</t>
-  </si>
-  <si>
     <t>Verify that the Fall TV page is displayed well</t>
   </si>
   <si>
@@ -1383,6 +1379,9 @@
   </si>
   <si>
     <t>News Tab - Display</t>
+  </si>
+  <si>
+    <t>Fall TV page will be presented, including the navigation bar with the options Home, Premiere Dates, News &amp; Guides, Renewed/Cancelled, a carousel, two spotlights, more fall tv and Tweets by @RottenTomatoes</t>
   </si>
 </sst>
 </file>
@@ -2126,37 +2125,61 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2165,77 +2188,53 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2553,8 +2552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B4C97A-71D1-473B-A994-4B6E5B9F3EEF}">
   <dimension ref="A1:F206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="E161" sqref="E161"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="E186" sqref="E186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2587,26 +2586,26 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
     </row>
     <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="60" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -2617,10 +2616,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="57"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
@@ -2629,16 +2628,16 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="64" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="3"/>
@@ -2647,10 +2646,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="62"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="8" t="s">
         <v>17</v>
       </c>
@@ -2659,7 +2658,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="65" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="53" t="s">
@@ -2668,7 +2667,7 @@
       <c r="C7" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="60" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="3"/>
@@ -2677,10 +2676,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="68"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="54"/>
       <c r="C8" s="71"/>
-      <c r="D8" s="57"/>
+      <c r="D8" s="61"/>
       <c r="E8" s="13" t="s">
         <v>21</v>
       </c>
@@ -2692,7 +2691,7 @@
       <c r="A9" s="69"/>
       <c r="B9" s="54"/>
       <c r="C9" s="71"/>
-      <c r="D9" s="57"/>
+      <c r="D9" s="61"/>
       <c r="E9" s="10" t="s">
         <v>23</v>
       </c>
@@ -2701,16 +2700,16 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="65" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="64" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="12" t="s">
@@ -2719,10 +2718,10 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="68"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="54"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="57"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="61"/>
       <c r="E11" s="13" t="s">
         <v>39</v>
       </c>
@@ -2731,16 +2730,16 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="64" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="12" t="s">
@@ -2751,10 +2750,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="57"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="61"/>
       <c r="E13" s="13" t="s">
         <v>42</v>
       </c>
@@ -2769,10 +2768,10 @@
       <c r="B14" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="64" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="12" t="s">
@@ -2783,10 +2782,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A15" s="58"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="54"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="57"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="61"/>
       <c r="E15" s="15" t="s">
         <v>53</v>
       </c>
@@ -2795,10 +2794,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="54"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="57"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="61"/>
       <c r="E16" s="15" t="s">
         <v>55</v>
       </c>
@@ -2807,16 +2806,16 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="56" t="s">
+      <c r="D17" s="64" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="12"/>
@@ -2825,10 +2824,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="60"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="57"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="61"/>
       <c r="E18" s="13" t="s">
         <v>70</v>
       </c>
@@ -2837,10 +2836,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="62"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="68"/>
       <c r="E19" s="11" t="s">
         <v>71</v>
       </c>
@@ -2872,13 +2871,13 @@
       <c r="A21" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="45" t="s">
+      <c r="D21" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="12"/>
@@ -2887,10 +2886,10 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A22" s="37"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="63"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="73"/>
       <c r="E22" s="13" t="s">
         <v>62</v>
       </c>
@@ -2899,10 +2898,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="63"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="73"/>
       <c r="E23" s="16"/>
       <c r="F23" s="9" t="s">
         <v>64</v>
@@ -2912,13 +2911,13 @@
       <c r="A24" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="45" t="s">
+      <c r="D24" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="12" t="s">
@@ -2929,10 +2928,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="47"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="43"/>
       <c r="E25" s="8"/>
       <c r="F25" s="9" t="s">
         <v>73</v>
@@ -2942,13 +2941,13 @@
       <c r="A26" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="45" t="s">
+      <c r="D26" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="12" t="s">
@@ -2959,10 +2958,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="47"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="43"/>
       <c r="E27" s="8" t="s">
         <v>77</v>
       </c>
@@ -2974,13 +2973,13 @@
       <c r="A28" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="C28" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="45" t="s">
+      <c r="D28" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E28" s="12" t="s">
@@ -2991,10 +2990,10 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A29" s="37"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="46"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="49"/>
       <c r="E29" s="16" t="s">
         <v>82</v>
       </c>
@@ -3003,10 +3002,10 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="47"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="43"/>
       <c r="E30" s="8" t="s">
         <v>84</v>
       </c>
@@ -3018,13 +3017,13 @@
       <c r="A31" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="45" t="s">
+      <c r="D31" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="12" t="s">
@@ -3035,10 +3034,10 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A32" s="37"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="46"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="49"/>
       <c r="E32" s="16" t="s">
         <v>82</v>
       </c>
@@ -3047,10 +3046,10 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="47"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="43"/>
       <c r="E33" s="8" t="s">
         <v>87</v>
       </c>
@@ -3062,13 +3061,13 @@
       <c r="A34" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="42" t="s">
+      <c r="C34" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="45" t="s">
+      <c r="D34" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E34" s="12" t="s">
@@ -3077,10 +3076,10 @@
       <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="47"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="43"/>
       <c r="E35" s="8" t="s">
         <v>94</v>
       </c>
@@ -3092,13 +3091,13 @@
       <c r="A36" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="45" t="s">
+      <c r="D36" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E36" s="12" t="s">
@@ -3109,10 +3108,10 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="47"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="43"/>
       <c r="E37" s="8"/>
       <c r="F37" s="9" t="s">
         <v>99</v>
@@ -3122,13 +3121,13 @@
       <c r="A38" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="42" t="s">
+      <c r="C38" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="45" t="s">
+      <c r="D38" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E38" s="12" t="s">
@@ -3139,10 +3138,10 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="66.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="47"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="43"/>
       <c r="E39" s="8" t="s">
         <v>106</v>
       </c>
@@ -3154,13 +3153,13 @@
       <c r="A40" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="42" t="s">
+      <c r="C40" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="D40" s="45" t="s">
+      <c r="D40" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E40" s="12" t="s">
@@ -3171,10 +3170,10 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="47"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="43"/>
       <c r="E41" s="8" t="s">
         <v>109</v>
       </c>
@@ -3206,13 +3205,13 @@
       <c r="A43" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="B43" s="39" t="s">
+      <c r="B43" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="42" t="s">
+      <c r="C43" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="D43" s="45" t="s">
+      <c r="D43" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E43" s="12" t="s">
@@ -3223,10 +3222,10 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="47"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="43"/>
       <c r="E44" s="8" t="s">
         <v>121</v>
       </c>
@@ -3238,13 +3237,13 @@
       <c r="A45" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="B45" s="39" t="s">
+      <c r="B45" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="C45" s="42" t="s">
+      <c r="C45" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="D45" s="45" t="s">
+      <c r="D45" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E45" s="12" t="s">
@@ -3255,10 +3254,10 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="47"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="43"/>
       <c r="E46" s="8" t="s">
         <v>106</v>
       </c>
@@ -3267,14 +3266,14 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="48" t="s">
+      <c r="A47" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="B47" s="49"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
     </row>
     <row r="48" spans="1:6" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
@@ -3300,13 +3299,13 @@
       <c r="A49" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="B49" s="39" t="s">
+      <c r="B49" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="C49" s="42" t="s">
+      <c r="C49" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
@@ -3317,10 +3316,10 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="38"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="47"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="43"/>
       <c r="E50" s="8" t="s">
         <v>133</v>
       </c>
@@ -3332,13 +3331,13 @@
       <c r="A51" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="B51" s="39" t="s">
+      <c r="B51" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="C51" s="42" t="s">
+      <c r="C51" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="D51" s="45" t="s">
+      <c r="D51" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
@@ -3349,10 +3348,10 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="83.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="47"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="43"/>
       <c r="E52" s="8" t="s">
         <v>137</v>
       </c>
@@ -3367,10 +3366,10 @@
       <c r="B53" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="C53" s="42" t="s">
+      <c r="C53" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="D53" s="45" t="s">
+      <c r="D53" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
@@ -3383,8 +3382,8 @@
     <row r="54" spans="1:6" ht="33" x14ac:dyDescent="0.2">
       <c r="A54" s="51"/>
       <c r="B54" s="54"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="46"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="49"/>
       <c r="E54" s="25" t="s">
         <v>137</v>
       </c>
@@ -3395,8 +3394,8 @@
     <row r="55" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="52"/>
       <c r="B55" s="55"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="47"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="43"/>
       <c r="E55" s="8" t="s">
         <v>144</v>
       </c>
@@ -3411,10 +3410,10 @@
       <c r="B56" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="C56" s="42" t="s">
+      <c r="C56" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="D56" s="45" t="s">
+      <c r="D56" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
@@ -3427,8 +3426,8 @@
     <row r="57" spans="1:6" ht="33" x14ac:dyDescent="0.2">
       <c r="A57" s="51"/>
       <c r="B57" s="54"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="46"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="49"/>
       <c r="E57" s="25" t="s">
         <v>137</v>
       </c>
@@ -3439,8 +3438,8 @@
     <row r="58" spans="1:6" ht="33" x14ac:dyDescent="0.2">
       <c r="A58" s="51"/>
       <c r="B58" s="54"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="46"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="49"/>
       <c r="E58" s="25" t="s">
         <v>144</v>
       </c>
@@ -3451,8 +3450,8 @@
     <row r="59" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="51"/>
       <c r="B59" s="54"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="46"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="49"/>
       <c r="E59" s="25" t="s">
         <v>148</v>
       </c>
@@ -3463,8 +3462,8 @@
     <row r="60" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="52"/>
       <c r="B60" s="55"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="47"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="43"/>
       <c r="E60" s="8" t="s">
         <v>150</v>
       </c>
@@ -3479,10 +3478,10 @@
       <c r="B61" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="C61" s="42" t="s">
+      <c r="C61" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="D61" s="45" t="s">
+      <c r="D61" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
@@ -3495,8 +3494,8 @@
     <row r="62" spans="1:6" ht="33" x14ac:dyDescent="0.2">
       <c r="A62" s="51"/>
       <c r="B62" s="54"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="46"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="49"/>
       <c r="E62" s="25" t="s">
         <v>137</v>
       </c>
@@ -3507,8 +3506,8 @@
     <row r="63" spans="1:6" ht="33" x14ac:dyDescent="0.2">
       <c r="A63" s="51"/>
       <c r="B63" s="54"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="46"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="49"/>
       <c r="E63" s="25" t="s">
         <v>144</v>
       </c>
@@ -3519,8 +3518,8 @@
     <row r="64" spans="1:6" ht="99" x14ac:dyDescent="0.2">
       <c r="A64" s="51"/>
       <c r="B64" s="54"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="46"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="49"/>
       <c r="E64" s="25" t="s">
         <v>161</v>
       </c>
@@ -3531,8 +3530,8 @@
     <row r="65" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="52"/>
       <c r="B65" s="55"/>
-      <c r="C65" s="44"/>
-      <c r="D65" s="47"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="43"/>
       <c r="E65" s="8" t="s">
         <v>163</v>
       </c>
@@ -3547,10 +3546,10 @@
       <c r="B66" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="C66" s="42" t="s">
+      <c r="C66" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="D66" s="45" t="s">
+      <c r="D66" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
@@ -3563,8 +3562,8 @@
     <row r="67" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="51"/>
       <c r="B67" s="54"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="46"/>
+      <c r="C67" s="48"/>
+      <c r="D67" s="49"/>
       <c r="E67" s="25" t="s">
         <v>172</v>
       </c>
@@ -3575,8 +3574,8 @@
     <row r="68" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="51"/>
       <c r="B68" s="54"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="46"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="49"/>
       <c r="E68" s="25" t="s">
         <v>174</v>
       </c>
@@ -3587,8 +3586,8 @@
     <row r="69" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="52"/>
       <c r="B69" s="55"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="47"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="43"/>
       <c r="E69" s="8" t="s">
         <v>177</v>
       </c>
@@ -3603,10 +3602,10 @@
       <c r="B70" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="C70" s="42" t="s">
+      <c r="C70" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="D70" s="45" t="s">
+      <c r="D70" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
@@ -3619,8 +3618,8 @@
     <row r="71" spans="1:6" ht="33" x14ac:dyDescent="0.2">
       <c r="A71" s="51"/>
       <c r="B71" s="54"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="46"/>
+      <c r="C71" s="48"/>
+      <c r="D71" s="49"/>
       <c r="E71" s="25" t="s">
         <v>172</v>
       </c>
@@ -3631,8 +3630,8 @@
     <row r="72" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="52"/>
       <c r="B72" s="55"/>
-      <c r="C72" s="44"/>
-      <c r="D72" s="47"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="43"/>
       <c r="E72" s="8" t="s">
         <v>182</v>
       </c>
@@ -3644,13 +3643,13 @@
       <c r="A73" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="B73" s="39" t="s">
+      <c r="B73" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="C73" s="42" t="s">
+      <c r="C73" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="D73" s="56" t="s">
+      <c r="D73" s="64" t="s">
         <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
@@ -3661,10 +3660,10 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="37"/>
-      <c r="B74" s="40"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="57"/>
+      <c r="A74" s="46"/>
+      <c r="B74" s="47"/>
+      <c r="C74" s="48"/>
+      <c r="D74" s="61"/>
       <c r="E74" s="25" t="s">
         <v>172</v>
       </c>
@@ -3673,10 +3672,10 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="37"/>
-      <c r="B75" s="40"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="57"/>
+      <c r="A75" s="46"/>
+      <c r="B75" s="47"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="61"/>
       <c r="E75" s="25" t="s">
         <v>205</v>
       </c>
@@ -3685,10 +3684,10 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="37"/>
-      <c r="B76" s="40"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="57"/>
+      <c r="A76" s="46"/>
+      <c r="B76" s="47"/>
+      <c r="C76" s="48"/>
+      <c r="D76" s="61"/>
       <c r="E76" s="8" t="s">
         <v>206</v>
       </c>
@@ -3703,10 +3702,10 @@
       <c r="B77" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="C77" s="42" t="s">
+      <c r="C77" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="D77" s="45" t="s">
+      <c r="D77" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
@@ -3719,8 +3718,8 @@
     <row r="78" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="51"/>
       <c r="B78" s="54"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="46"/>
+      <c r="C78" s="48"/>
+      <c r="D78" s="49"/>
       <c r="E78" s="25" t="s">
         <v>172</v>
       </c>
@@ -3729,8 +3728,8 @@
     <row r="79" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="51"/>
       <c r="B79" s="54"/>
-      <c r="C79" s="43"/>
-      <c r="D79" s="46"/>
+      <c r="C79" s="48"/>
+      <c r="D79" s="49"/>
       <c r="E79" s="25" t="s">
         <v>185</v>
       </c>
@@ -3741,8 +3740,8 @@
     <row r="80" spans="1:6" ht="66.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="52"/>
       <c r="B80" s="55"/>
-      <c r="C80" s="44"/>
-      <c r="D80" s="47"/>
+      <c r="C80" s="41"/>
+      <c r="D80" s="43"/>
       <c r="E80" s="8" t="s">
         <v>186</v>
       </c>
@@ -3757,10 +3756,10 @@
       <c r="B81" s="53" t="s">
         <v>191</v>
       </c>
-      <c r="C81" s="42" t="s">
+      <c r="C81" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="D81" s="45" t="s">
+      <c r="D81" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
@@ -3773,8 +3772,8 @@
     <row r="82" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="51"/>
       <c r="B82" s="54"/>
-      <c r="C82" s="43"/>
-      <c r="D82" s="46"/>
+      <c r="C82" s="48"/>
+      <c r="D82" s="49"/>
       <c r="E82" s="25" t="s">
         <v>172</v>
       </c>
@@ -3783,8 +3782,8 @@
     <row r="83" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="51"/>
       <c r="B83" s="54"/>
-      <c r="C83" s="43"/>
-      <c r="D83" s="46"/>
+      <c r="C83" s="48"/>
+      <c r="D83" s="49"/>
       <c r="E83" s="25" t="s">
         <v>185</v>
       </c>
@@ -3795,8 +3794,8 @@
     <row r="84" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="51"/>
       <c r="B84" s="54"/>
-      <c r="C84" s="43"/>
-      <c r="D84" s="46"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="49"/>
       <c r="E84" s="16" t="s">
         <v>186</v>
       </c>
@@ -3807,8 +3806,8 @@
     <row r="85" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="52"/>
       <c r="B85" s="55"/>
-      <c r="C85" s="44"/>
-      <c r="D85" s="47"/>
+      <c r="C85" s="41"/>
+      <c r="D85" s="43"/>
       <c r="E85" s="8" t="s">
         <v>209</v>
       </c>
@@ -3823,10 +3822,10 @@
       <c r="B86" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="C86" s="42" t="s">
+      <c r="C86" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="D86" s="45" t="s">
+      <c r="D86" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
@@ -3839,8 +3838,8 @@
     <row r="87" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="51"/>
       <c r="B87" s="54"/>
-      <c r="C87" s="43"/>
-      <c r="D87" s="46"/>
+      <c r="C87" s="48"/>
+      <c r="D87" s="49"/>
       <c r="E87" s="25" t="s">
         <v>172</v>
       </c>
@@ -3849,8 +3848,8 @@
     <row r="88" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="51"/>
       <c r="B88" s="54"/>
-      <c r="C88" s="43"/>
-      <c r="D88" s="46"/>
+      <c r="C88" s="48"/>
+      <c r="D88" s="49"/>
       <c r="E88" s="25" t="s">
         <v>185</v>
       </c>
@@ -3861,8 +3860,8 @@
     <row r="89" spans="1:6" ht="33" x14ac:dyDescent="0.2">
       <c r="A89" s="51"/>
       <c r="B89" s="54"/>
-      <c r="C89" s="43"/>
-      <c r="D89" s="46"/>
+      <c r="C89" s="48"/>
+      <c r="D89" s="49"/>
       <c r="E89" s="16" t="s">
         <v>186</v>
       </c>
@@ -3873,8 +3872,8 @@
     <row r="90" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="52"/>
       <c r="B90" s="55"/>
-      <c r="C90" s="44"/>
-      <c r="D90" s="47"/>
+      <c r="C90" s="41"/>
+      <c r="D90" s="43"/>
       <c r="E90" s="8" t="s">
         <v>196</v>
       </c>
@@ -3889,10 +3888,10 @@
       <c r="B91" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="C91" s="42" t="s">
+      <c r="C91" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="D91" s="45" t="s">
+      <c r="D91" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
@@ -3905,8 +3904,8 @@
     <row r="92" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="51"/>
       <c r="B92" s="54"/>
-      <c r="C92" s="43"/>
-      <c r="D92" s="46"/>
+      <c r="C92" s="48"/>
+      <c r="D92" s="49"/>
       <c r="E92" s="25" t="s">
         <v>172</v>
       </c>
@@ -3915,8 +3914,8 @@
     <row r="93" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="51"/>
       <c r="B93" s="54"/>
-      <c r="C93" s="43"/>
-      <c r="D93" s="46"/>
+      <c r="C93" s="48"/>
+      <c r="D93" s="49"/>
       <c r="E93" s="25" t="s">
         <v>185</v>
       </c>
@@ -3927,8 +3926,8 @@
     <row r="94" spans="1:6" ht="33" x14ac:dyDescent="0.2">
       <c r="A94" s="51"/>
       <c r="B94" s="54"/>
-      <c r="C94" s="43"/>
-      <c r="D94" s="46"/>
+      <c r="C94" s="48"/>
+      <c r="D94" s="49"/>
       <c r="E94" s="16" t="s">
         <v>186</v>
       </c>
@@ -3939,8 +3938,8 @@
     <row r="95" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="52"/>
       <c r="B95" s="55"/>
-      <c r="C95" s="44"/>
-      <c r="D95" s="47"/>
+      <c r="C95" s="41"/>
+      <c r="D95" s="43"/>
       <c r="E95" s="8" t="s">
         <v>215</v>
       </c>
@@ -3955,10 +3954,10 @@
       <c r="B96" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="C96" s="42" t="s">
+      <c r="C96" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="D96" s="45" t="s">
+      <c r="D96" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
@@ -3971,8 +3970,8 @@
     <row r="97" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="51"/>
       <c r="B97" s="54"/>
-      <c r="C97" s="43"/>
-      <c r="D97" s="46"/>
+      <c r="C97" s="48"/>
+      <c r="D97" s="49"/>
       <c r="E97" s="25" t="s">
         <v>172</v>
       </c>
@@ -3981,8 +3980,8 @@
     <row r="98" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="51"/>
       <c r="B98" s="54"/>
-      <c r="C98" s="43"/>
-      <c r="D98" s="46"/>
+      <c r="C98" s="48"/>
+      <c r="D98" s="49"/>
       <c r="E98" s="25" t="s">
         <v>185</v>
       </c>
@@ -3993,8 +3992,8 @@
     <row r="99" spans="1:6" ht="33" x14ac:dyDescent="0.2">
       <c r="A99" s="51"/>
       <c r="B99" s="54"/>
-      <c r="C99" s="43"/>
-      <c r="D99" s="46"/>
+      <c r="C99" s="48"/>
+      <c r="D99" s="49"/>
       <c r="E99" s="16" t="s">
         <v>186</v>
       </c>
@@ -4005,8 +4004,8 @@
     <row r="100" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="52"/>
       <c r="B100" s="55"/>
-      <c r="C100" s="44"/>
-      <c r="D100" s="47"/>
+      <c r="C100" s="41"/>
+      <c r="D100" s="43"/>
       <c r="E100" s="8" t="s">
         <v>214</v>
       </c>
@@ -4021,10 +4020,10 @@
       <c r="B101" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="C101" s="42" t="s">
+      <c r="C101" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="D101" s="45" t="s">
+      <c r="D101" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E101" s="16" t="s">
@@ -4037,8 +4036,8 @@
     <row r="102" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="51"/>
       <c r="B102" s="54"/>
-      <c r="C102" s="43"/>
-      <c r="D102" s="46"/>
+      <c r="C102" s="48"/>
+      <c r="D102" s="49"/>
       <c r="E102" s="25" t="s">
         <v>172</v>
       </c>
@@ -4047,8 +4046,8 @@
     <row r="103" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="51"/>
       <c r="B103" s="54"/>
-      <c r="C103" s="43"/>
-      <c r="D103" s="46"/>
+      <c r="C103" s="48"/>
+      <c r="D103" s="49"/>
       <c r="E103" s="25" t="s">
         <v>185</v>
       </c>
@@ -4059,8 +4058,8 @@
     <row r="104" spans="1:6" ht="33" x14ac:dyDescent="0.2">
       <c r="A104" s="51"/>
       <c r="B104" s="54"/>
-      <c r="C104" s="43"/>
-      <c r="D104" s="46"/>
+      <c r="C104" s="48"/>
+      <c r="D104" s="49"/>
       <c r="E104" s="25" t="s">
         <v>186</v>
       </c>
@@ -4071,8 +4070,8 @@
     <row r="105" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="51"/>
       <c r="B105" s="54"/>
-      <c r="C105" s="43"/>
-      <c r="D105" s="46"/>
+      <c r="C105" s="48"/>
+      <c r="D105" s="49"/>
       <c r="E105" s="25" t="s">
         <v>214</v>
       </c>
@@ -4083,8 +4082,8 @@
     <row r="106" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="52"/>
       <c r="B106" s="55"/>
-      <c r="C106" s="44"/>
-      <c r="D106" s="47"/>
+      <c r="C106" s="41"/>
+      <c r="D106" s="43"/>
       <c r="E106" s="8" t="s">
         <v>216</v>
       </c>
@@ -4099,10 +4098,10 @@
       <c r="B107" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="C107" s="42" t="s">
+      <c r="C107" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="D107" s="45" t="s">
+      <c r="D107" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E107" s="16" t="s">
@@ -4115,8 +4114,8 @@
     <row r="108" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="51"/>
       <c r="B108" s="54"/>
-      <c r="C108" s="43"/>
-      <c r="D108" s="46"/>
+      <c r="C108" s="48"/>
+      <c r="D108" s="49"/>
       <c r="E108" s="25" t="s">
         <v>172</v>
       </c>
@@ -4125,8 +4124,8 @@
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="51"/>
       <c r="B109" s="54"/>
-      <c r="C109" s="43"/>
-      <c r="D109" s="46"/>
+      <c r="C109" s="48"/>
+      <c r="D109" s="49"/>
       <c r="E109" s="25" t="s">
         <v>185</v>
       </c>
@@ -4137,8 +4136,8 @@
     <row r="110" spans="1:6" ht="33" x14ac:dyDescent="0.2">
       <c r="A110" s="51"/>
       <c r="B110" s="54"/>
-      <c r="C110" s="43"/>
-      <c r="D110" s="46"/>
+      <c r="C110" s="48"/>
+      <c r="D110" s="49"/>
       <c r="E110" s="25" t="s">
         <v>186</v>
       </c>
@@ -4149,8 +4148,8 @@
     <row r="111" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="51"/>
       <c r="B111" s="54"/>
-      <c r="C111" s="43"/>
-      <c r="D111" s="46"/>
+      <c r="C111" s="48"/>
+      <c r="D111" s="49"/>
       <c r="E111" s="25" t="s">
         <v>214</v>
       </c>
@@ -4161,8 +4160,8 @@
     <row r="112" spans="1:6" ht="33" x14ac:dyDescent="0.2">
       <c r="A112" s="51"/>
       <c r="B112" s="54"/>
-      <c r="C112" s="43"/>
-      <c r="D112" s="46"/>
+      <c r="C112" s="48"/>
+      <c r="D112" s="49"/>
       <c r="E112" s="16" t="s">
         <v>218</v>
       </c>
@@ -4173,8 +4172,8 @@
     <row r="113" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="52"/>
       <c r="B113" s="55"/>
-      <c r="C113" s="44"/>
-      <c r="D113" s="47"/>
+      <c r="C113" s="41"/>
+      <c r="D113" s="43"/>
       <c r="E113" s="8" t="s">
         <v>220</v>
       </c>
@@ -4183,14 +4182,14 @@
       </c>
     </row>
     <row r="114" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="48" t="s">
+      <c r="A114" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="B114" s="49"/>
-      <c r="C114" s="49"/>
-      <c r="D114" s="49"/>
-      <c r="E114" s="49"/>
-      <c r="F114" s="49"/>
+      <c r="B114" s="57"/>
+      <c r="C114" s="57"/>
+      <c r="D114" s="57"/>
+      <c r="E114" s="57"/>
+      <c r="F114" s="57"/>
     </row>
     <row r="115" spans="1:6" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="22" t="s">
@@ -4216,13 +4215,13 @@
       <c r="A116" s="36" t="s">
         <v>237</v>
       </c>
-      <c r="B116" s="39" t="s">
+      <c r="B116" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="C116" s="42" t="s">
+      <c r="C116" s="40" t="s">
         <v>243</v>
       </c>
-      <c r="D116" s="45" t="s">
+      <c r="D116" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E116" s="16" t="s">
@@ -4233,10 +4232,10 @@
       </c>
     </row>
     <row r="117" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="38"/>
-      <c r="B117" s="41"/>
-      <c r="C117" s="44"/>
-      <c r="D117" s="47"/>
+      <c r="A117" s="37"/>
+      <c r="B117" s="39"/>
+      <c r="C117" s="41"/>
+      <c r="D117" s="43"/>
       <c r="E117" s="8" t="s">
         <v>236</v>
       </c>
@@ -4248,13 +4247,13 @@
       <c r="A118" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="B118" s="39" t="s">
+      <c r="B118" s="38" t="s">
         <v>297</v>
       </c>
-      <c r="C118" s="42" t="s">
+      <c r="C118" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="D118" s="45" t="s">
+      <c r="D118" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E118" s="16" t="s">
@@ -4265,10 +4264,10 @@
       </c>
     </row>
     <row r="119" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="38"/>
-      <c r="B119" s="41"/>
-      <c r="C119" s="44"/>
-      <c r="D119" s="47"/>
+      <c r="A119" s="37"/>
+      <c r="B119" s="39"/>
+      <c r="C119" s="41"/>
+      <c r="D119" s="43"/>
       <c r="E119" s="8" t="s">
         <v>239</v>
       </c>
@@ -4280,13 +4279,13 @@
       <c r="A120" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="B120" s="39" t="s">
+      <c r="B120" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="C120" s="42" t="s">
+      <c r="C120" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="D120" s="45" t="s">
+      <c r="D120" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E120" s="16" t="s">
@@ -4297,10 +4296,10 @@
       </c>
     </row>
     <row r="121" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="38"/>
-      <c r="B121" s="41"/>
-      <c r="C121" s="44"/>
-      <c r="D121" s="47"/>
+      <c r="A121" s="37"/>
+      <c r="B121" s="39"/>
+      <c r="C121" s="41"/>
+      <c r="D121" s="43"/>
       <c r="E121" s="8" t="s">
         <v>242</v>
       </c>
@@ -4312,13 +4311,13 @@
       <c r="A122" s="36" t="s">
         <v>254</v>
       </c>
-      <c r="B122" s="39" t="s">
+      <c r="B122" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="C122" s="42" t="s">
+      <c r="C122" s="40" t="s">
         <v>249</v>
       </c>
-      <c r="D122" s="45" t="s">
+      <c r="D122" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E122" s="16" t="s">
@@ -4329,10 +4328,10 @@
       </c>
     </row>
     <row r="123" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A123" s="37"/>
-      <c r="B123" s="40"/>
-      <c r="C123" s="43"/>
-      <c r="D123" s="46"/>
+      <c r="A123" s="46"/>
+      <c r="B123" s="47"/>
+      <c r="C123" s="48"/>
+      <c r="D123" s="49"/>
       <c r="E123" s="25" t="s">
         <v>242</v>
       </c>
@@ -4341,10 +4340,10 @@
       </c>
     </row>
     <row r="124" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A124" s="37"/>
-      <c r="B124" s="40"/>
-      <c r="C124" s="43"/>
-      <c r="D124" s="46"/>
+      <c r="A124" s="46"/>
+      <c r="B124" s="47"/>
+      <c r="C124" s="48"/>
+      <c r="D124" s="49"/>
       <c r="E124" s="25" t="s">
         <v>250</v>
       </c>
@@ -4353,10 +4352,10 @@
       </c>
     </row>
     <row r="125" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="38"/>
-      <c r="B125" s="41"/>
-      <c r="C125" s="44"/>
-      <c r="D125" s="47"/>
+      <c r="A125" s="37"/>
+      <c r="B125" s="39"/>
+      <c r="C125" s="41"/>
+      <c r="D125" s="43"/>
       <c r="E125" s="8" t="s">
         <v>252</v>
       </c>
@@ -4368,13 +4367,13 @@
       <c r="A126" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="B126" s="39" t="s">
+      <c r="B126" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="C126" s="42" t="s">
+      <c r="C126" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="D126" s="45" t="s">
+      <c r="D126" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E126" s="16" t="s">
@@ -4385,10 +4384,10 @@
       </c>
     </row>
     <row r="127" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="38"/>
-      <c r="B127" s="41"/>
-      <c r="C127" s="44"/>
-      <c r="D127" s="47"/>
+      <c r="A127" s="37"/>
+      <c r="B127" s="39"/>
+      <c r="C127" s="41"/>
+      <c r="D127" s="43"/>
       <c r="E127" s="8" t="s">
         <v>256</v>
       </c>
@@ -4400,13 +4399,13 @@
       <c r="A128" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="B128" s="39" t="s">
+      <c r="B128" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="C128" s="42" t="s">
+      <c r="C128" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="D128" s="45" t="s">
+      <c r="D128" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E128" s="16" t="s">
@@ -4417,10 +4416,10 @@
       </c>
     </row>
     <row r="129" spans="1:6" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A129" s="37"/>
-      <c r="B129" s="40"/>
-      <c r="C129" s="43"/>
-      <c r="D129" s="46"/>
+      <c r="A129" s="46"/>
+      <c r="B129" s="47"/>
+      <c r="C129" s="48"/>
+      <c r="D129" s="49"/>
       <c r="E129" s="25" t="s">
         <v>256</v>
       </c>
@@ -4429,10 +4428,10 @@
       </c>
     </row>
     <row r="130" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="38"/>
-      <c r="B130" s="41"/>
-      <c r="C130" s="44"/>
-      <c r="D130" s="47"/>
+      <c r="A130" s="37"/>
+      <c r="B130" s="39"/>
+      <c r="C130" s="41"/>
+      <c r="D130" s="43"/>
       <c r="E130" s="8" t="s">
         <v>263</v>
       </c>
@@ -4444,13 +4443,13 @@
       <c r="A131" s="36" t="s">
         <v>266</v>
       </c>
-      <c r="B131" s="39" t="s">
+      <c r="B131" s="38" t="s">
         <v>269</v>
       </c>
-      <c r="C131" s="42" t="s">
+      <c r="C131" s="40" t="s">
         <v>272</v>
       </c>
-      <c r="D131" s="45" t="s">
+      <c r="D131" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E131" s="16" t="s">
@@ -4461,10 +4460,10 @@
       </c>
     </row>
     <row r="132" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="37"/>
-      <c r="B132" s="40"/>
-      <c r="C132" s="43"/>
-      <c r="D132" s="46"/>
+      <c r="A132" s="46"/>
+      <c r="B132" s="47"/>
+      <c r="C132" s="48"/>
+      <c r="D132" s="49"/>
       <c r="E132" s="25" t="s">
         <v>256</v>
       </c>
@@ -4473,10 +4472,10 @@
       </c>
     </row>
     <row r="133" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="38"/>
-      <c r="B133" s="41"/>
-      <c r="C133" s="44"/>
-      <c r="D133" s="47"/>
+      <c r="A133" s="37"/>
+      <c r="B133" s="39"/>
+      <c r="C133" s="41"/>
+      <c r="D133" s="43"/>
       <c r="E133" s="8" t="s">
         <v>268</v>
       </c>
@@ -4488,13 +4487,13 @@
       <c r="A134" s="36" t="s">
         <v>273</v>
       </c>
-      <c r="B134" s="39" t="s">
+      <c r="B134" s="38" t="s">
         <v>301</v>
       </c>
-      <c r="C134" s="42" t="s">
+      <c r="C134" s="40" t="s">
         <v>275</v>
       </c>
-      <c r="D134" s="45" t="s">
+      <c r="D134" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E134" s="16" t="s">
@@ -4505,10 +4504,10 @@
       </c>
     </row>
     <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A135" s="37"/>
-      <c r="B135" s="40"/>
-      <c r="C135" s="43"/>
-      <c r="D135" s="46"/>
+      <c r="A135" s="46"/>
+      <c r="B135" s="47"/>
+      <c r="C135" s="48"/>
+      <c r="D135" s="49"/>
       <c r="E135" s="25" t="s">
         <v>256</v>
       </c>
@@ -4517,10 +4516,10 @@
       </c>
     </row>
     <row r="136" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A136" s="37"/>
-      <c r="B136" s="40"/>
-      <c r="C136" s="43"/>
-      <c r="D136" s="46"/>
+      <c r="A136" s="46"/>
+      <c r="B136" s="47"/>
+      <c r="C136" s="48"/>
+      <c r="D136" s="49"/>
       <c r="E136" s="16" t="s">
         <v>268</v>
       </c>
@@ -4529,10 +4528,10 @@
       </c>
     </row>
     <row r="137" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="38"/>
-      <c r="B137" s="41"/>
-      <c r="C137" s="44"/>
-      <c r="D137" s="47"/>
+      <c r="A137" s="37"/>
+      <c r="B137" s="39"/>
+      <c r="C137" s="41"/>
+      <c r="D137" s="43"/>
       <c r="E137" s="8" t="s">
         <v>299</v>
       </c>
@@ -4544,13 +4543,13 @@
       <c r="A138" s="36" t="s">
         <v>280</v>
       </c>
-      <c r="B138" s="39" t="s">
+      <c r="B138" s="38" t="s">
         <v>278</v>
       </c>
-      <c r="C138" s="42" t="s">
+      <c r="C138" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="D138" s="45" t="s">
+      <c r="D138" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E138" s="16" t="s">
@@ -4561,10 +4560,10 @@
       </c>
     </row>
     <row r="139" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A139" s="37"/>
-      <c r="B139" s="40"/>
-      <c r="C139" s="43"/>
-      <c r="D139" s="46"/>
+      <c r="A139" s="46"/>
+      <c r="B139" s="47"/>
+      <c r="C139" s="48"/>
+      <c r="D139" s="49"/>
       <c r="E139" s="25" t="s">
         <v>256</v>
       </c>
@@ -4573,10 +4572,10 @@
       </c>
     </row>
     <row r="140" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A140" s="37"/>
-      <c r="B140" s="40"/>
-      <c r="C140" s="43"/>
-      <c r="D140" s="46"/>
+      <c r="A140" s="46"/>
+      <c r="B140" s="47"/>
+      <c r="C140" s="48"/>
+      <c r="D140" s="49"/>
       <c r="E140" s="16" t="s">
         <v>268</v>
       </c>
@@ -4585,10 +4584,10 @@
       </c>
     </row>
     <row r="141" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="38"/>
-      <c r="B141" s="41"/>
-      <c r="C141" s="44"/>
-      <c r="D141" s="47"/>
+      <c r="A141" s="37"/>
+      <c r="B141" s="39"/>
+      <c r="C141" s="41"/>
+      <c r="D141" s="43"/>
       <c r="E141" s="8" t="s">
         <v>277</v>
       </c>
@@ -4600,13 +4599,13 @@
       <c r="A142" s="36" t="s">
         <v>281</v>
       </c>
-      <c r="B142" s="39" t="s">
+      <c r="B142" s="38" t="s">
         <v>283</v>
       </c>
-      <c r="C142" s="42" t="s">
+      <c r="C142" s="40" t="s">
         <v>286</v>
       </c>
-      <c r="D142" s="45" t="s">
+      <c r="D142" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E142" s="16" t="s">
@@ -4617,10 +4616,10 @@
       </c>
     </row>
     <row r="143" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A143" s="37"/>
-      <c r="B143" s="40"/>
-      <c r="C143" s="43"/>
-      <c r="D143" s="46"/>
+      <c r="A143" s="46"/>
+      <c r="B143" s="47"/>
+      <c r="C143" s="48"/>
+      <c r="D143" s="49"/>
       <c r="E143" s="25" t="s">
         <v>256</v>
       </c>
@@ -4629,10 +4628,10 @@
       </c>
     </row>
     <row r="144" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A144" s="37"/>
-      <c r="B144" s="40"/>
-      <c r="C144" s="43"/>
-      <c r="D144" s="46"/>
+      <c r="A144" s="46"/>
+      <c r="B144" s="47"/>
+      <c r="C144" s="48"/>
+      <c r="D144" s="49"/>
       <c r="E144" s="25" t="s">
         <v>268</v>
       </c>
@@ -4641,10 +4640,10 @@
       </c>
     </row>
     <row r="145" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A145" s="37"/>
-      <c r="B145" s="40"/>
-      <c r="C145" s="43"/>
-      <c r="D145" s="46"/>
+      <c r="A145" s="46"/>
+      <c r="B145" s="47"/>
+      <c r="C145" s="48"/>
+      <c r="D145" s="49"/>
       <c r="E145" s="25" t="s">
         <v>282</v>
       </c>
@@ -4653,10 +4652,10 @@
       </c>
     </row>
     <row r="146" spans="1:6" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A146" s="37"/>
-      <c r="B146" s="40"/>
-      <c r="C146" s="43"/>
-      <c r="D146" s="46"/>
+      <c r="A146" s="46"/>
+      <c r="B146" s="47"/>
+      <c r="C146" s="48"/>
+      <c r="D146" s="49"/>
       <c r="E146" s="16" t="s">
         <v>285</v>
       </c>
@@ -4665,10 +4664,10 @@
       </c>
     </row>
     <row r="147" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="38"/>
-      <c r="B147" s="41"/>
-      <c r="C147" s="44"/>
-      <c r="D147" s="47"/>
+      <c r="A147" s="37"/>
+      <c r="B147" s="39"/>
+      <c r="C147" s="41"/>
+      <c r="D147" s="43"/>
       <c r="E147" s="8" t="s">
         <v>288</v>
       </c>
@@ -4680,13 +4679,13 @@
       <c r="A148" s="36" t="s">
         <v>290</v>
       </c>
-      <c r="B148" s="39" t="s">
+      <c r="B148" s="38" t="s">
         <v>291</v>
       </c>
-      <c r="C148" s="42" t="s">
+      <c r="C148" s="40" t="s">
         <v>294</v>
       </c>
-      <c r="D148" s="45" t="s">
+      <c r="D148" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E148" s="16" t="s">
@@ -4697,10 +4696,10 @@
       </c>
     </row>
     <row r="149" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="38"/>
-      <c r="B149" s="41"/>
-      <c r="C149" s="44"/>
-      <c r="D149" s="47"/>
+      <c r="A149" s="37"/>
+      <c r="B149" s="39"/>
+      <c r="C149" s="41"/>
+      <c r="D149" s="43"/>
       <c r="E149" s="8" t="s">
         <v>293</v>
       </c>
@@ -4709,14 +4708,14 @@
       </c>
     </row>
     <row r="150" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="72" t="s">
+      <c r="A150" s="44" t="s">
         <v>303</v>
       </c>
-      <c r="B150" s="73"/>
-      <c r="C150" s="73"/>
-      <c r="D150" s="73"/>
-      <c r="E150" s="73"/>
-      <c r="F150" s="73"/>
+      <c r="B150" s="45"/>
+      <c r="C150" s="45"/>
+      <c r="D150" s="45"/>
+      <c r="E150" s="45"/>
+      <c r="F150" s="45"/>
     </row>
     <row r="151" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="28" t="s">
@@ -4742,13 +4741,13 @@
       <c r="A152" s="36" t="s">
         <v>311</v>
       </c>
-      <c r="B152" s="39" t="s">
+      <c r="B152" s="38" t="s">
         <v>306</v>
       </c>
-      <c r="C152" s="42" t="s">
+      <c r="C152" s="40" t="s">
         <v>316</v>
       </c>
-      <c r="D152" s="45" t="s">
+      <c r="D152" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E152" s="16" t="s">
@@ -4759,10 +4758,10 @@
       </c>
     </row>
     <row r="153" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="38"/>
-      <c r="B153" s="41"/>
-      <c r="C153" s="44"/>
-      <c r="D153" s="47"/>
+      <c r="A153" s="37"/>
+      <c r="B153" s="39"/>
+      <c r="C153" s="41"/>
+      <c r="D153" s="43"/>
       <c r="E153" s="8" t="s">
         <v>313</v>
       </c>
@@ -4774,13 +4773,13 @@
       <c r="A154" s="36" t="s">
         <v>315</v>
       </c>
-      <c r="B154" s="39" t="s">
+      <c r="B154" s="38" t="s">
         <v>305</v>
       </c>
-      <c r="C154" s="42" t="s">
+      <c r="C154" s="40" t="s">
         <v>317</v>
       </c>
-      <c r="D154" s="45" t="s">
+      <c r="D154" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E154" s="16" t="s">
@@ -4791,10 +4790,10 @@
       </c>
     </row>
     <row r="155" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="38"/>
-      <c r="B155" s="41"/>
-      <c r="C155" s="44"/>
-      <c r="D155" s="47"/>
+      <c r="A155" s="37"/>
+      <c r="B155" s="39"/>
+      <c r="C155" s="41"/>
+      <c r="D155" s="43"/>
       <c r="E155" s="8" t="s">
         <v>318</v>
       </c>
@@ -4806,13 +4805,13 @@
       <c r="A156" s="36" t="s">
         <v>320</v>
       </c>
-      <c r="B156" s="39" t="s">
+      <c r="B156" s="38" t="s">
+        <v>436</v>
+      </c>
+      <c r="C156" s="40" t="s">
         <v>437</v>
       </c>
-      <c r="C156" s="42" t="s">
-        <v>438</v>
-      </c>
-      <c r="D156" s="45" t="s">
+      <c r="D156" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E156" s="16" t="s">
@@ -4823,42 +4822,42 @@
       </c>
     </row>
     <row r="157" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="38"/>
-      <c r="B157" s="41"/>
-      <c r="C157" s="44"/>
-      <c r="D157" s="47"/>
+      <c r="A157" s="37"/>
+      <c r="B157" s="39"/>
+      <c r="C157" s="41"/>
+      <c r="D157" s="43"/>
       <c r="E157" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F157" s="9" t="s">
         <v>439</v>
-      </c>
-      <c r="F157" s="9" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="50.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A158" s="36" t="s">
         <v>321</v>
       </c>
-      <c r="B158" s="39" t="s">
+      <c r="B158" s="38" t="s">
         <v>322</v>
       </c>
-      <c r="C158" s="42" t="s">
+      <c r="C158" s="40" t="s">
         <v>323</v>
       </c>
-      <c r="D158" s="45" t="s">
+      <c r="D158" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E158" s="16" t="s">
         <v>308</v>
       </c>
       <c r="F158" s="17" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="38"/>
-      <c r="B159" s="41"/>
-      <c r="C159" s="44"/>
-      <c r="D159" s="47"/>
+      <c r="A159" s="37"/>
+      <c r="B159" s="39"/>
+      <c r="C159" s="41"/>
+      <c r="D159" s="43"/>
       <c r="E159" s="8" t="s">
         <v>324</v>
       </c>
@@ -4870,13 +4869,13 @@
       <c r="A160" s="36" t="s">
         <v>326</v>
       </c>
-      <c r="B160" s="39" t="s">
+      <c r="B160" s="38" t="s">
         <v>327</v>
       </c>
-      <c r="C160" s="42" t="s">
+      <c r="C160" s="40" t="s">
         <v>323</v>
       </c>
-      <c r="D160" s="45" t="s">
+      <c r="D160" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E160" s="16" t="s">
@@ -4887,10 +4886,10 @@
       </c>
     </row>
     <row r="161" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="38"/>
-      <c r="B161" s="41"/>
-      <c r="C161" s="44"/>
-      <c r="D161" s="47"/>
+      <c r="A161" s="37"/>
+      <c r="B161" s="39"/>
+      <c r="C161" s="41"/>
+      <c r="D161" s="43"/>
       <c r="E161" s="8" t="s">
         <v>329</v>
       </c>
@@ -4903,7 +4902,7 @@
         <v>331</v>
       </c>
       <c r="B162" s="23" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C162" s="31" t="s">
         <v>332</v>
@@ -4922,13 +4921,13 @@
       <c r="A163" s="36" t="s">
         <v>335</v>
       </c>
-      <c r="B163" s="39" t="s">
+      <c r="B163" s="38" t="s">
         <v>336</v>
       </c>
-      <c r="C163" s="42" t="s">
+      <c r="C163" s="40" t="s">
         <v>339</v>
       </c>
-      <c r="D163" s="45" t="s">
+      <c r="D163" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E163" s="16" t="s">
@@ -4939,10 +4938,10 @@
       </c>
     </row>
     <row r="164" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="38"/>
-      <c r="B164" s="41"/>
-      <c r="C164" s="44"/>
-      <c r="D164" s="47"/>
+      <c r="A164" s="37"/>
+      <c r="B164" s="39"/>
+      <c r="C164" s="41"/>
+      <c r="D164" s="43"/>
       <c r="E164" s="8" t="s">
         <v>337</v>
       </c>
@@ -4954,13 +4953,13 @@
       <c r="A165" s="36" t="s">
         <v>346</v>
       </c>
-      <c r="B165" s="39" t="s">
+      <c r="B165" s="38" t="s">
         <v>340</v>
       </c>
-      <c r="C165" s="42" t="s">
+      <c r="C165" s="40" t="s">
         <v>341</v>
       </c>
-      <c r="D165" s="45" t="s">
+      <c r="D165" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E165" s="16" t="s">
@@ -4971,10 +4970,10 @@
       </c>
     </row>
     <row r="166" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="38"/>
-      <c r="B166" s="41"/>
-      <c r="C166" s="44"/>
-      <c r="D166" s="47"/>
+      <c r="A166" s="37"/>
+      <c r="B166" s="39"/>
+      <c r="C166" s="41"/>
+      <c r="D166" s="43"/>
       <c r="E166" s="8" t="s">
         <v>337</v>
       </c>
@@ -4986,13 +4985,13 @@
       <c r="A167" s="36" t="s">
         <v>345</v>
       </c>
-      <c r="B167" s="39" t="s">
+      <c r="B167" s="38" t="s">
         <v>347</v>
       </c>
-      <c r="C167" s="42" t="s">
-        <v>351</v>
-      </c>
-      <c r="D167" s="45" t="s">
+      <c r="C167" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="D167" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E167" s="16" t="s">
@@ -5003,640 +5002,753 @@
       </c>
     </row>
     <row r="168" spans="1:6" ht="66.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="38"/>
-      <c r="B168" s="41"/>
-      <c r="C168" s="44"/>
-      <c r="D168" s="47"/>
+      <c r="A168" s="37"/>
+      <c r="B168" s="39"/>
+      <c r="C168" s="41"/>
+      <c r="D168" s="43"/>
       <c r="E168" s="8" t="s">
         <v>349</v>
       </c>
       <c r="F168" s="9" t="s">
-        <v>350</v>
+        <v>442</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A169" s="36" t="s">
-        <v>357</v>
-      </c>
-      <c r="B169" s="39" t="s">
+        <v>356</v>
+      </c>
+      <c r="B169" s="38" t="s">
+        <v>351</v>
+      </c>
+      <c r="C169" s="40" t="s">
         <v>352</v>
       </c>
-      <c r="C169" s="42" t="s">
-        <v>353</v>
-      </c>
-      <c r="D169" s="45" t="s">
+      <c r="D169" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E169" s="16" t="s">
         <v>333</v>
       </c>
       <c r="F169" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="37"/>
+      <c r="B170" s="39"/>
+      <c r="C170" s="41"/>
+      <c r="D170" s="43"/>
+      <c r="E170" s="8" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="38"/>
-      <c r="B170" s="41"/>
-      <c r="C170" s="44"/>
-      <c r="D170" s="47"/>
-      <c r="E170" s="8" t="s">
+      <c r="F170" s="9" t="s">
         <v>355</v>
-      </c>
-      <c r="F170" s="9" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A171" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="B171" s="38" t="s">
         <v>358</v>
       </c>
-      <c r="B171" s="39" t="s">
-        <v>359</v>
-      </c>
-      <c r="C171" s="42" t="s">
-        <v>362</v>
-      </c>
-      <c r="D171" s="45" t="s">
+      <c r="C171" s="40" t="s">
+        <v>361</v>
+      </c>
+      <c r="D171" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E171" s="16" t="s">
         <v>333</v>
       </c>
       <c r="F171" s="17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A172" s="37"/>
-      <c r="B172" s="40"/>
-      <c r="C172" s="43"/>
-      <c r="D172" s="46"/>
+      <c r="A172" s="46"/>
+      <c r="B172" s="47"/>
+      <c r="C172" s="48"/>
+      <c r="D172" s="49"/>
       <c r="E172" s="25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F172" s="35" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="38"/>
-      <c r="B173" s="41"/>
-      <c r="C173" s="44"/>
-      <c r="D173" s="47"/>
+      <c r="A173" s="37"/>
+      <c r="B173" s="39"/>
+      <c r="C173" s="41"/>
+      <c r="D173" s="43"/>
       <c r="E173" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F173" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A174" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="B174" s="38" t="s">
         <v>363</v>
       </c>
-      <c r="B174" s="39" t="s">
+      <c r="C174" s="40" t="s">
         <v>364</v>
       </c>
-      <c r="C174" s="42" t="s">
-        <v>365</v>
-      </c>
-      <c r="D174" s="45" t="s">
+      <c r="D174" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E174" s="16" t="s">
         <v>333</v>
       </c>
       <c r="F174" s="17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A175" s="37"/>
-      <c r="B175" s="40"/>
-      <c r="C175" s="43"/>
-      <c r="D175" s="46"/>
+      <c r="A175" s="46"/>
+      <c r="B175" s="47"/>
+      <c r="C175" s="48"/>
+      <c r="D175" s="49"/>
       <c r="E175" s="25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F175" s="35" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="38"/>
-      <c r="B176" s="41"/>
-      <c r="C176" s="44"/>
-      <c r="D176" s="47"/>
+      <c r="A176" s="37"/>
+      <c r="B176" s="39"/>
+      <c r="C176" s="41"/>
+      <c r="D176" s="43"/>
       <c r="E176" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F176" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A177" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="B177" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="C177" s="40" t="s">
         <v>369</v>
       </c>
-      <c r="B177" s="39" t="s">
-        <v>367</v>
-      </c>
-      <c r="C177" s="42" t="s">
+      <c r="D177" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E177" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="D177" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="E177" s="16" t="s">
+      <c r="F177" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="F177" s="17" t="s">
-        <v>372</v>
-      </c>
     </row>
     <row r="178" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A178" s="37"/>
-      <c r="B178" s="40"/>
-      <c r="C178" s="43"/>
-      <c r="D178" s="46"/>
+      <c r="A178" s="46"/>
+      <c r="B178" s="47"/>
+      <c r="C178" s="48"/>
+      <c r="D178" s="49"/>
       <c r="E178" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="F178" s="35" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A179" s="46"/>
+      <c r="B179" s="47"/>
+      <c r="C179" s="48"/>
+      <c r="D179" s="49"/>
+      <c r="E179" s="25" t="s">
         <v>374</v>
       </c>
-      <c r="F178" s="35" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A179" s="37"/>
-      <c r="B179" s="40"/>
-      <c r="C179" s="43"/>
-      <c r="D179" s="46"/>
-      <c r="E179" s="25" t="s">
+      <c r="F179" s="35"/>
+    </row>
+    <row r="180" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="37"/>
+      <c r="B180" s="39"/>
+      <c r="C180" s="41"/>
+      <c r="D180" s="43"/>
+      <c r="E180" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="F179" s="35"/>
-    </row>
-    <row r="180" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="38"/>
-      <c r="B180" s="41"/>
-      <c r="C180" s="44"/>
-      <c r="D180" s="47"/>
-      <c r="E180" s="8" t="s">
-        <v>376</v>
-      </c>
       <c r="F180" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A181" s="36" t="s">
+        <v>377</v>
+      </c>
+      <c r="B181" s="38" t="s">
+        <v>367</v>
+      </c>
+      <c r="C181" s="40" t="s">
+        <v>372</v>
+      </c>
+      <c r="D181" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E181" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="F181" s="17" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A182" s="46"/>
+      <c r="B182" s="47"/>
+      <c r="C182" s="48"/>
+      <c r="D182" s="49"/>
+      <c r="E182" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="F182" s="35" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A183" s="46"/>
+      <c r="B183" s="47"/>
+      <c r="C183" s="48"/>
+      <c r="D183" s="49"/>
+      <c r="E183" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="F183" s="35"/>
+    </row>
+    <row r="184" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="37"/>
+      <c r="B184" s="39"/>
+      <c r="C184" s="41"/>
+      <c r="D184" s="43"/>
+      <c r="E184" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="F184" s="9" t="s">
         <v>378</v>
-      </c>
-      <c r="B181" s="39" t="s">
-        <v>368</v>
-      </c>
-      <c r="C181" s="42" t="s">
-        <v>373</v>
-      </c>
-      <c r="D181" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="E181" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="F181" s="17" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A182" s="37"/>
-      <c r="B182" s="40"/>
-      <c r="C182" s="43"/>
-      <c r="D182" s="46"/>
-      <c r="E182" s="25" t="s">
-        <v>374</v>
-      </c>
-      <c r="F182" s="35" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A183" s="37"/>
-      <c r="B183" s="40"/>
-      <c r="C183" s="43"/>
-      <c r="D183" s="46"/>
-      <c r="E183" s="25" t="s">
-        <v>388</v>
-      </c>
-      <c r="F183" s="35"/>
-    </row>
-    <row r="184" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="38"/>
-      <c r="B184" s="41"/>
-      <c r="C184" s="44"/>
-      <c r="D184" s="47"/>
-      <c r="E184" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="F184" s="9" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A185" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="B185" s="38" t="s">
         <v>381</v>
       </c>
-      <c r="B185" s="39" t="s">
+      <c r="C185" s="40" t="s">
         <v>382</v>
       </c>
-      <c r="C185" s="42" t="s">
+      <c r="D185" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E185" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="F185" s="17" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="46"/>
+      <c r="B186" s="47"/>
+      <c r="C186" s="48"/>
+      <c r="D186" s="49"/>
+      <c r="E186" s="25" t="s">
         <v>383</v>
       </c>
-      <c r="D185" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="E185" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="F185" s="17" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="37"/>
-      <c r="B186" s="40"/>
-      <c r="C186" s="43"/>
-      <c r="D186" s="46"/>
-      <c r="E186" s="25" t="s">
+      <c r="F186" s="35" t="s">
         <v>384</v>
       </c>
-      <c r="F186" s="35" t="s">
+    </row>
+    <row r="187" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="37"/>
+      <c r="B187" s="39"/>
+      <c r="C187" s="41"/>
+      <c r="D187" s="43"/>
+      <c r="E187" s="8" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="38"/>
-      <c r="B187" s="41"/>
-      <c r="C187" s="44"/>
-      <c r="D187" s="47"/>
-      <c r="E187" s="8" t="s">
+      <c r="F187" s="9" t="s">
         <v>386</v>
-      </c>
-      <c r="F187" s="9" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A188" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="B188" s="38" t="s">
         <v>389</v>
       </c>
-      <c r="B188" s="39" t="s">
+      <c r="C188" s="40" t="s">
         <v>390</v>
       </c>
-      <c r="C188" s="42" t="s">
+      <c r="D188" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E188" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="F188" s="17" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A189" s="46"/>
+      <c r="B189" s="47"/>
+      <c r="C189" s="48"/>
+      <c r="D189" s="49"/>
+      <c r="E189" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="D188" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="E188" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="F188" s="17" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A189" s="37"/>
-      <c r="B189" s="40"/>
-      <c r="C189" s="43"/>
-      <c r="D189" s="46"/>
-      <c r="E189" s="25" t="s">
+      <c r="F189" s="35" t="s">
         <v>392</v>
       </c>
-      <c r="F189" s="35" t="s">
+    </row>
+    <row r="190" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A190" s="46"/>
+      <c r="B190" s="47"/>
+      <c r="C190" s="48"/>
+      <c r="D190" s="49"/>
+      <c r="E190" s="16" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A190" s="37"/>
-      <c r="B190" s="40"/>
-      <c r="C190" s="43"/>
-      <c r="D190" s="46"/>
-      <c r="E190" s="16" t="s">
+      <c r="F190" s="35" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="37"/>
+      <c r="B191" s="39"/>
+      <c r="C191" s="41"/>
+      <c r="D191" s="43"/>
+      <c r="E191" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="F190" s="35" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="38"/>
-      <c r="B191" s="41"/>
-      <c r="C191" s="44"/>
-      <c r="D191" s="47"/>
-      <c r="E191" s="8" t="s">
-        <v>395</v>
-      </c>
       <c r="F191" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A192" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="B192" s="38" t="s">
         <v>396</v>
       </c>
-      <c r="B192" s="39" t="s">
+      <c r="C192" s="40" t="s">
         <v>397</v>
       </c>
-      <c r="C192" s="42" t="s">
+      <c r="D192" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E192" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="F192" s="17" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="37"/>
+      <c r="B193" s="39"/>
+      <c r="C193" s="41"/>
+      <c r="D193" s="43"/>
+      <c r="E193" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="D192" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="E192" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="F192" s="17" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="38"/>
-      <c r="B193" s="41"/>
-      <c r="C193" s="44"/>
-      <c r="D193" s="47"/>
-      <c r="E193" s="8" t="s">
+      <c r="F193" s="9" t="s">
         <v>399</v>
-      </c>
-      <c r="F193" s="9" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A194" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="B194" s="38" t="s">
         <v>401</v>
       </c>
-      <c r="B194" s="39" t="s">
+      <c r="C194" s="40" t="s">
         <v>402</v>
       </c>
-      <c r="C194" s="42" t="s">
+      <c r="D194" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E194" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="F194" s="17" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="37"/>
+      <c r="B195" s="39"/>
+      <c r="C195" s="41"/>
+      <c r="D195" s="43"/>
+      <c r="E195" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="D194" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="E194" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="F194" s="17" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="38"/>
-      <c r="B195" s="41"/>
-      <c r="C195" s="44"/>
-      <c r="D195" s="47"/>
-      <c r="E195" s="8" t="s">
+      <c r="F195" s="9" t="s">
         <v>404</v>
-      </c>
-      <c r="F195" s="9" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A196" s="36" t="s">
+        <v>405</v>
+      </c>
+      <c r="B196" s="38" t="s">
         <v>406</v>
       </c>
-      <c r="B196" s="39" t="s">
+      <c r="C196" s="40" t="s">
         <v>407</v>
       </c>
-      <c r="C196" s="42" t="s">
+      <c r="D196" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E196" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="F196" s="17" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="37"/>
+      <c r="B197" s="39"/>
+      <c r="C197" s="41"/>
+      <c r="D197" s="43"/>
+      <c r="E197" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="D196" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="E196" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="F196" s="17" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="38"/>
-      <c r="B197" s="41"/>
-      <c r="C197" s="44"/>
-      <c r="D197" s="47"/>
-      <c r="E197" s="8" t="s">
+      <c r="F197" s="9" t="s">
         <v>409</v>
-      </c>
-      <c r="F197" s="9" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A198" s="36" t="s">
-        <v>416</v>
-      </c>
-      <c r="B198" s="39" t="s">
+        <v>415</v>
+      </c>
+      <c r="B198" s="38" t="s">
+        <v>411</v>
+      </c>
+      <c r="C198" s="40" t="s">
         <v>412</v>
       </c>
-      <c r="C198" s="42" t="s">
+      <c r="D198" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E198" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="F198" s="17" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="37"/>
+      <c r="B199" s="39"/>
+      <c r="C199" s="41"/>
+      <c r="D199" s="43"/>
+      <c r="E199" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="D198" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="E198" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="F198" s="17" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="38"/>
-      <c r="B199" s="41"/>
-      <c r="C199" s="44"/>
-      <c r="D199" s="47"/>
-      <c r="E199" s="8" t="s">
+      <c r="F199" s="9" t="s">
         <v>414</v>
-      </c>
-      <c r="F199" s="9" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A200" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="B200" s="38" t="s">
+        <v>410</v>
+      </c>
+      <c r="C200" s="40" t="s">
         <v>417</v>
       </c>
-      <c r="B200" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="C200" s="42" t="s">
+      <c r="D200" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E200" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="F200" s="17" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="37"/>
+      <c r="B201" s="39"/>
+      <c r="C201" s="41"/>
+      <c r="D201" s="43"/>
+      <c r="E201" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="D200" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="E200" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="F200" s="17" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="38"/>
-      <c r="B201" s="41"/>
-      <c r="C201" s="44"/>
-      <c r="D201" s="47"/>
-      <c r="E201" s="8" t="s">
+      <c r="F201" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="F201" s="9" t="s">
+    </row>
+    <row r="202" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="44" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="72" t="s">
-        <v>421</v>
-      </c>
-      <c r="B202" s="73"/>
-      <c r="C202" s="73"/>
-      <c r="D202" s="73"/>
-      <c r="E202" s="73"/>
-      <c r="F202" s="73"/>
+      <c r="B202" s="45"/>
+      <c r="C202" s="45"/>
+      <c r="D202" s="45"/>
+      <c r="E202" s="45"/>
+      <c r="F202" s="45"/>
     </row>
     <row r="203" spans="1:6" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A203" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="B203" s="23" t="s">
         <v>422</v>
       </c>
-      <c r="B203" s="23" t="s">
+      <c r="C203" s="34" t="s">
         <v>423</v>
       </c>
-      <c r="C203" s="34" t="s">
+      <c r="D203" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E203" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="D203" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E203" s="8" t="s">
+      <c r="F203" s="9" t="s">
         <v>425</v>
-      </c>
-      <c r="F203" s="9" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A204" s="22" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B204" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="C204" s="34" t="s">
         <v>427</v>
       </c>
-      <c r="C204" s="34" t="s">
+      <c r="D204" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E204" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="D204" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E204" s="8" t="s">
-        <v>429</v>
-      </c>
       <c r="F204" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A205" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="B205" s="23" t="s">
         <v>431</v>
       </c>
-      <c r="B205" s="23" t="s">
+      <c r="C205" s="34" t="s">
         <v>432</v>
       </c>
-      <c r="C205" s="34" t="s">
+      <c r="D205" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E205" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="D205" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E205" s="8" t="s">
+      <c r="F205" s="9" t="s">
         <v>434</v>
-      </c>
-      <c r="F205" s="9" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="261">
-    <mergeCell ref="A200:A201"/>
-    <mergeCell ref="B200:B201"/>
-    <mergeCell ref="C200:C201"/>
-    <mergeCell ref="D200:D201"/>
-    <mergeCell ref="A202:F202"/>
-    <mergeCell ref="A194:A195"/>
-    <mergeCell ref="B194:B195"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="D194:D195"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="A198:A199"/>
-    <mergeCell ref="B198:B199"/>
-    <mergeCell ref="C198:C199"/>
-    <mergeCell ref="D198:D199"/>
-    <mergeCell ref="A185:A187"/>
-    <mergeCell ref="B185:B187"/>
-    <mergeCell ref="C185:C187"/>
-    <mergeCell ref="D185:D187"/>
-    <mergeCell ref="A188:A191"/>
-    <mergeCell ref="B188:B191"/>
-    <mergeCell ref="C188:C191"/>
-    <mergeCell ref="D188:D191"/>
-    <mergeCell ref="A192:A193"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="C192:C193"/>
-    <mergeCell ref="D192:D193"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="B156:B157"/>
-    <mergeCell ref="C156:C157"/>
-    <mergeCell ref="D156:D157"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="B158:B159"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="D158:D159"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="A150:F150"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="D152:D153"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="A96:A100"/>
-    <mergeCell ref="B96:B100"/>
-    <mergeCell ref="C96:C100"/>
-    <mergeCell ref="D96:D100"/>
-    <mergeCell ref="A101:A106"/>
-    <mergeCell ref="B101:B106"/>
-    <mergeCell ref="C101:C106"/>
-    <mergeCell ref="D101:D106"/>
-    <mergeCell ref="A107:A113"/>
-    <mergeCell ref="B107:B113"/>
-    <mergeCell ref="C107:C113"/>
-    <mergeCell ref="D107:D113"/>
+    <mergeCell ref="A177:A180"/>
+    <mergeCell ref="B177:B180"/>
+    <mergeCell ref="C177:C180"/>
+    <mergeCell ref="D177:D180"/>
+    <mergeCell ref="B181:B184"/>
+    <mergeCell ref="A181:A184"/>
+    <mergeCell ref="C181:C184"/>
+    <mergeCell ref="D181:D184"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="A171:A173"/>
+    <mergeCell ref="B171:B173"/>
+    <mergeCell ref="C171:C173"/>
+    <mergeCell ref="D171:D173"/>
+    <mergeCell ref="A174:A176"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="C174:C176"/>
+    <mergeCell ref="D174:D176"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="D165:D166"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="D167:D168"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="D138:D141"/>
+    <mergeCell ref="A142:A147"/>
+    <mergeCell ref="B142:B147"/>
+    <mergeCell ref="C142:C147"/>
+    <mergeCell ref="D142:D147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="D128:D130"/>
+    <mergeCell ref="A131:A133"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="C131:C133"/>
+    <mergeCell ref="D131:D133"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="D134:D137"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="C86:C90"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="C91:C95"/>
+    <mergeCell ref="D91:D95"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="C81:C85"/>
+    <mergeCell ref="D81:D85"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="C73:C76"/>
+    <mergeCell ref="D73:D76"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="A38:A39"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="B40:B41"/>
@@ -5661,181 +5773,68 @@
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="C73:C76"/>
-    <mergeCell ref="D73:D76"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="C86:C90"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="B91:B95"/>
-    <mergeCell ref="C91:C95"/>
-    <mergeCell ref="D91:D95"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="C81:C85"/>
-    <mergeCell ref="D81:D85"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="D128:D130"/>
-    <mergeCell ref="A131:A133"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="C131:C133"/>
-    <mergeCell ref="D131:D133"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="C134:C137"/>
-    <mergeCell ref="D134:D137"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="D138:D141"/>
-    <mergeCell ref="A142:A147"/>
-    <mergeCell ref="B142:B147"/>
-    <mergeCell ref="C142:C147"/>
-    <mergeCell ref="D142:D147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="A165:A166"/>
-    <mergeCell ref="B165:B166"/>
-    <mergeCell ref="C165:C166"/>
-    <mergeCell ref="D165:D166"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="B167:B168"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="D167:D168"/>
-    <mergeCell ref="A177:A180"/>
-    <mergeCell ref="B177:B180"/>
-    <mergeCell ref="C177:C180"/>
-    <mergeCell ref="D177:D180"/>
-    <mergeCell ref="B181:B184"/>
-    <mergeCell ref="A181:A184"/>
-    <mergeCell ref="C181:C184"/>
-    <mergeCell ref="D181:D184"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="D169:D170"/>
-    <mergeCell ref="A171:A173"/>
-    <mergeCell ref="B171:B173"/>
-    <mergeCell ref="C171:C173"/>
-    <mergeCell ref="D171:D173"/>
-    <mergeCell ref="A174:A176"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="C174:C176"/>
-    <mergeCell ref="D174:D176"/>
+    <mergeCell ref="A96:A100"/>
+    <mergeCell ref="B96:B100"/>
+    <mergeCell ref="C96:C100"/>
+    <mergeCell ref="D96:D100"/>
+    <mergeCell ref="A101:A106"/>
+    <mergeCell ref="B101:B106"/>
+    <mergeCell ref="C101:C106"/>
+    <mergeCell ref="D101:D106"/>
+    <mergeCell ref="A107:A113"/>
+    <mergeCell ref="B107:B113"/>
+    <mergeCell ref="C107:C113"/>
+    <mergeCell ref="D107:D113"/>
+    <mergeCell ref="A150:F150"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="B156:B157"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="D156:D157"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="B158:B159"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="D158:D159"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="D160:D161"/>
+    <mergeCell ref="A185:A187"/>
+    <mergeCell ref="B185:B187"/>
+    <mergeCell ref="C185:C187"/>
+    <mergeCell ref="D185:D187"/>
+    <mergeCell ref="A188:A191"/>
+    <mergeCell ref="B188:B191"/>
+    <mergeCell ref="C188:C191"/>
+    <mergeCell ref="D188:D191"/>
+    <mergeCell ref="A192:A193"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="D192:D193"/>
+    <mergeCell ref="A200:A201"/>
+    <mergeCell ref="B200:B201"/>
+    <mergeCell ref="C200:C201"/>
+    <mergeCell ref="D200:D201"/>
+    <mergeCell ref="A202:F202"/>
+    <mergeCell ref="A194:A195"/>
+    <mergeCell ref="B194:B195"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="D194:D195"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="A198:A199"/>
+    <mergeCell ref="B198:B199"/>
+    <mergeCell ref="C198:C199"/>
+    <mergeCell ref="D198:D199"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>

--- a/src/test/resources/test_descriptions/RottenTomatoes_TestCases.xlsx
+++ b/src/test/resources/test_descriptions/RottenTomatoes_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\project\UITest2Code\src\test\resources\test_descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D1A7C4-4BC3-4E0E-9395-8985A0B30711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8EFC04-034B-47D3-90A2-934E17A1DA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15600" xr2:uid="{791CFF3F-B61E-4861-A956-A2059CE938E6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="445">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1249,9 +1249,6 @@
     <t>Verify that selecting a theater from the theaters list in the Showtimes page is working</t>
   </si>
   <si>
-    <t>2. Click one of the checkboxes in the theaters list</t>
-  </si>
-  <si>
     <t>The page will display movies only from the selected theater</t>
   </si>
   <si>
@@ -1264,9 +1261,6 @@
     <t>Verify that the Load More button in the Showtimes page is working</t>
   </si>
   <si>
-    <t>2. Click the Load More button</t>
-  </si>
-  <si>
     <t>The page will display more movies than it did before</t>
   </si>
   <si>
@@ -1279,9 +1273,6 @@
     <t>Verify that changing the date using the showtimes calendar in the Showtimes page is working</t>
   </si>
   <si>
-    <t xml:space="preserve">2. Click one of the dates, that isn't today </t>
-  </si>
-  <si>
     <t>The chosen date will be selected and the presented movies will reload and some will change</t>
   </si>
   <si>
@@ -1297,9 +1288,6 @@
     <t>2. Click the right button in the showtimes calendar</t>
   </si>
   <si>
-    <t>The displayed dates will change, and continue from right after the initially displayed ones</t>
-  </si>
-  <si>
     <t>RT_69</t>
   </si>
   <si>
@@ -1309,12 +1297,6 @@
     <t>Verify that clicking one of the showtimes of a movie in the Showtimes page is working</t>
   </si>
   <si>
-    <t>2. Click one of the show times of the first displayed movie</t>
-  </si>
-  <si>
-    <t>A page with the title But Tickets will be displayed, presenting the first movie from the previous page, at the chosen date and time</t>
-  </si>
-  <si>
     <t>Section 5</t>
   </si>
   <si>
@@ -1382,6 +1364,30 @@
   </si>
   <si>
     <t>Fall TV page will be presented, including the navigation bar with the options Home, Premiere Dates, News &amp; Guides, Renewed/Cancelled, a carousel, two spotlights, more fall tv and Tweets by @RottenTomatoes</t>
+  </si>
+  <si>
+    <t>4. Click one of the checkboxes in the theaters list</t>
+  </si>
+  <si>
+    <t>3. Search 'New York' in the loocation picker</t>
+  </si>
+  <si>
+    <t>The location picker text will become TICKETS &amp; SHOWTIMES NEAR NEW YORK</t>
+  </si>
+  <si>
+    <t>4. Click the Load More button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Click one of the dates, that isn't today </t>
+  </si>
+  <si>
+    <t>The displayed dates will move by one and continue from right after the initially displayed ones</t>
+  </si>
+  <si>
+    <t>4. Click one of the show times of the first displayed movie</t>
+  </si>
+  <si>
+    <t>A page with the title Buy Tickets will be displayed, presenting the first movie from the previous page, at the chosen date and time</t>
   </si>
 </sst>
 </file>
@@ -2125,116 +2131,116 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2550,10 +2556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B4C97A-71D1-473B-A994-4B6E5B9F3EEF}">
-  <dimension ref="A1:F206"/>
+  <dimension ref="A1:F214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="E186" sqref="E186"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="E216" sqref="E216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2586,26 +2592,26 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="66" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -2616,10 +2622,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="61"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
@@ -2628,16 +2634,16 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="56" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="3"/>
@@ -2646,10 +2652,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="67"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="68"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="8" t="s">
         <v>17</v>
       </c>
@@ -2658,7 +2664,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="67" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="53" t="s">
@@ -2667,7 +2673,7 @@
       <c r="C7" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="66" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="3"/>
@@ -2676,10 +2682,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="66"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="54"/>
       <c r="C8" s="71"/>
-      <c r="D8" s="61"/>
+      <c r="D8" s="57"/>
       <c r="E8" s="13" t="s">
         <v>21</v>
       </c>
@@ -2691,7 +2697,7 @@
       <c r="A9" s="69"/>
       <c r="B9" s="54"/>
       <c r="C9" s="71"/>
-      <c r="D9" s="61"/>
+      <c r="D9" s="57"/>
       <c r="E9" s="10" t="s">
         <v>23</v>
       </c>
@@ -2700,16 +2706,16 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="67" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="56" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="12" t="s">
@@ -2718,10 +2724,10 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="66"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="54"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="61"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="57"/>
       <c r="E11" s="13" t="s">
         <v>39</v>
       </c>
@@ -2730,16 +2736,16 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="56" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="12" t="s">
@@ -2750,10 +2756,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="61"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="57"/>
       <c r="E13" s="13" t="s">
         <v>42</v>
       </c>
@@ -2768,10 +2774,10 @@
       <c r="B14" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="56" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="12" t="s">
@@ -2782,10 +2788,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A15" s="72"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="54"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="61"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="57"/>
       <c r="E15" s="15" t="s">
         <v>53</v>
       </c>
@@ -2794,10 +2800,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="72"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="54"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="61"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="15" t="s">
         <v>55</v>
       </c>
@@ -2806,16 +2812,16 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="56" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="12"/>
@@ -2824,10 +2830,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="63"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="61"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="57"/>
       <c r="E18" s="13" t="s">
         <v>70</v>
       </c>
@@ -2836,10 +2842,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="68"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="62"/>
       <c r="E19" s="11" t="s">
         <v>71</v>
       </c>
@@ -2871,13 +2877,13 @@
       <c r="A21" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="12"/>
@@ -2886,10 +2892,10 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A22" s="46"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="73"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="13" t="s">
         <v>62</v>
       </c>
@@ -2898,10 +2904,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="73"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="63"/>
       <c r="E23" s="16"/>
       <c r="F23" s="9" t="s">
         <v>64</v>
@@ -2911,13 +2917,13 @@
       <c r="A24" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="12" t="s">
@@ -2928,10 +2934,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="43"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="47"/>
       <c r="E25" s="8"/>
       <c r="F25" s="9" t="s">
         <v>73</v>
@@ -2941,13 +2947,13 @@
       <c r="A26" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="12" t="s">
@@ -2958,10 +2964,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="43"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="47"/>
       <c r="E27" s="8" t="s">
         <v>77</v>
       </c>
@@ -2973,13 +2979,13 @@
       <c r="A28" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E28" s="12" t="s">
@@ -2990,10 +2996,10 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A29" s="46"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="49"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="46"/>
       <c r="E29" s="16" t="s">
         <v>82</v>
       </c>
@@ -3002,10 +3008,10 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="43"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="8" t="s">
         <v>84</v>
       </c>
@@ -3017,13 +3023,13 @@
       <c r="A31" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="42" t="s">
+      <c r="D31" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="12" t="s">
@@ -3034,10 +3040,10 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A32" s="46"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="49"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="46"/>
       <c r="E32" s="16" t="s">
         <v>82</v>
       </c>
@@ -3046,10 +3052,10 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="43"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="47"/>
       <c r="E33" s="8" t="s">
         <v>87</v>
       </c>
@@ -3061,13 +3067,13 @@
       <c r="A34" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="40" t="s">
+      <c r="C34" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="42" t="s">
+      <c r="D34" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E34" s="12" t="s">
@@ -3076,10 +3082,10 @@
       <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="43"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="47"/>
       <c r="E35" s="8" t="s">
         <v>94</v>
       </c>
@@ -3091,13 +3097,13 @@
       <c r="A36" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="40" t="s">
+      <c r="C36" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="42" t="s">
+      <c r="D36" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E36" s="12" t="s">
@@ -3108,10 +3114,10 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="43"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="47"/>
       <c r="E37" s="8"/>
       <c r="F37" s="9" t="s">
         <v>99</v>
@@ -3121,13 +3127,13 @@
       <c r="A38" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="40" t="s">
+      <c r="C38" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="42" t="s">
+      <c r="D38" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E38" s="12" t="s">
@@ -3138,10 +3144,10 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="66.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="43"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="47"/>
       <c r="E39" s="8" t="s">
         <v>106</v>
       </c>
@@ -3153,13 +3159,13 @@
       <c r="A40" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="38" t="s">
+      <c r="B40" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="40" t="s">
+      <c r="C40" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="D40" s="42" t="s">
+      <c r="D40" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E40" s="12" t="s">
@@ -3170,10 +3176,10 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="43"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="47"/>
       <c r="E41" s="8" t="s">
         <v>109</v>
       </c>
@@ -3205,13 +3211,13 @@
       <c r="A43" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="40" t="s">
+      <c r="C43" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="D43" s="42" t="s">
+      <c r="D43" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E43" s="12" t="s">
@@ -3222,10 +3228,10 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="43"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="47"/>
       <c r="E44" s="8" t="s">
         <v>121</v>
       </c>
@@ -3237,13 +3243,13 @@
       <c r="A45" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="C45" s="40" t="s">
+      <c r="C45" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="D45" s="42" t="s">
+      <c r="D45" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E45" s="12" t="s">
@@ -3254,10 +3260,10 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="37"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="43"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="47"/>
       <c r="E46" s="8" t="s">
         <v>106</v>
       </c>
@@ -3266,14 +3272,14 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="56" t="s">
+      <c r="A47" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="B47" s="57"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
     </row>
     <row r="48" spans="1:6" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
@@ -3299,13 +3305,13 @@
       <c r="A49" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="B49" s="38" t="s">
+      <c r="B49" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="C49" s="40" t="s">
+      <c r="C49" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="D49" s="42" t="s">
+      <c r="D49" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
@@ -3316,10 +3322,10 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="37"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="43"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="47"/>
       <c r="E50" s="8" t="s">
         <v>133</v>
       </c>
@@ -3331,13 +3337,13 @@
       <c r="A51" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="B51" s="38" t="s">
+      <c r="B51" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="C51" s="40" t="s">
+      <c r="C51" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="D51" s="42" t="s">
+      <c r="D51" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
@@ -3348,10 +3354,10 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="83.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="37"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="43"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="47"/>
       <c r="E52" s="8" t="s">
         <v>137</v>
       </c>
@@ -3366,10 +3372,10 @@
       <c r="B53" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="C53" s="40" t="s">
+      <c r="C53" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="D53" s="42" t="s">
+      <c r="D53" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
@@ -3382,8 +3388,8 @@
     <row r="54" spans="1:6" ht="33" x14ac:dyDescent="0.2">
       <c r="A54" s="51"/>
       <c r="B54" s="54"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="49"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="46"/>
       <c r="E54" s="25" t="s">
         <v>137</v>
       </c>
@@ -3394,8 +3400,8 @@
     <row r="55" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="52"/>
       <c r="B55" s="55"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="43"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="47"/>
       <c r="E55" s="8" t="s">
         <v>144</v>
       </c>
@@ -3410,10 +3416,10 @@
       <c r="B56" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="C56" s="40" t="s">
+      <c r="C56" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="D56" s="42" t="s">
+      <c r="D56" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
@@ -3426,8 +3432,8 @@
     <row r="57" spans="1:6" ht="33" x14ac:dyDescent="0.2">
       <c r="A57" s="51"/>
       <c r="B57" s="54"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="49"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="46"/>
       <c r="E57" s="25" t="s">
         <v>137</v>
       </c>
@@ -3438,8 +3444,8 @@
     <row r="58" spans="1:6" ht="33" x14ac:dyDescent="0.2">
       <c r="A58" s="51"/>
       <c r="B58" s="54"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="49"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="46"/>
       <c r="E58" s="25" t="s">
         <v>144</v>
       </c>
@@ -3450,8 +3456,8 @@
     <row r="59" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="51"/>
       <c r="B59" s="54"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="49"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="46"/>
       <c r="E59" s="25" t="s">
         <v>148</v>
       </c>
@@ -3462,8 +3468,8 @@
     <row r="60" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="52"/>
       <c r="B60" s="55"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="43"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="47"/>
       <c r="E60" s="8" t="s">
         <v>150</v>
       </c>
@@ -3478,10 +3484,10 @@
       <c r="B61" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="C61" s="40" t="s">
+      <c r="C61" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="D61" s="42" t="s">
+      <c r="D61" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
@@ -3494,8 +3500,8 @@
     <row r="62" spans="1:6" ht="33" x14ac:dyDescent="0.2">
       <c r="A62" s="51"/>
       <c r="B62" s="54"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="49"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="46"/>
       <c r="E62" s="25" t="s">
         <v>137</v>
       </c>
@@ -3506,8 +3512,8 @@
     <row r="63" spans="1:6" ht="33" x14ac:dyDescent="0.2">
       <c r="A63" s="51"/>
       <c r="B63" s="54"/>
-      <c r="C63" s="48"/>
-      <c r="D63" s="49"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="46"/>
       <c r="E63" s="25" t="s">
         <v>144</v>
       </c>
@@ -3518,8 +3524,8 @@
     <row r="64" spans="1:6" ht="99" x14ac:dyDescent="0.2">
       <c r="A64" s="51"/>
       <c r="B64" s="54"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="49"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="46"/>
       <c r="E64" s="25" t="s">
         <v>161</v>
       </c>
@@ -3530,8 +3536,8 @@
     <row r="65" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="52"/>
       <c r="B65" s="55"/>
-      <c r="C65" s="41"/>
-      <c r="D65" s="43"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="47"/>
       <c r="E65" s="8" t="s">
         <v>163</v>
       </c>
@@ -3546,10 +3552,10 @@
       <c r="B66" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="C66" s="40" t="s">
+      <c r="C66" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="D66" s="42" t="s">
+      <c r="D66" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
@@ -3562,8 +3568,8 @@
     <row r="67" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="51"/>
       <c r="B67" s="54"/>
-      <c r="C67" s="48"/>
-      <c r="D67" s="49"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="46"/>
       <c r="E67" s="25" t="s">
         <v>172</v>
       </c>
@@ -3574,8 +3580,8 @@
     <row r="68" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="51"/>
       <c r="B68" s="54"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="49"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="46"/>
       <c r="E68" s="25" t="s">
         <v>174</v>
       </c>
@@ -3586,8 +3592,8 @@
     <row r="69" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="52"/>
       <c r="B69" s="55"/>
-      <c r="C69" s="41"/>
-      <c r="D69" s="43"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="47"/>
       <c r="E69" s="8" t="s">
         <v>177</v>
       </c>
@@ -3602,10 +3608,10 @@
       <c r="B70" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="C70" s="40" t="s">
+      <c r="C70" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="D70" s="42" t="s">
+      <c r="D70" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
@@ -3618,8 +3624,8 @@
     <row r="71" spans="1:6" ht="33" x14ac:dyDescent="0.2">
       <c r="A71" s="51"/>
       <c r="B71" s="54"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="49"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="46"/>
       <c r="E71" s="25" t="s">
         <v>172</v>
       </c>
@@ -3630,8 +3636,8 @@
     <row r="72" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="52"/>
       <c r="B72" s="55"/>
-      <c r="C72" s="41"/>
-      <c r="D72" s="43"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="47"/>
       <c r="E72" s="8" t="s">
         <v>182</v>
       </c>
@@ -3643,13 +3649,13 @@
       <c r="A73" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="B73" s="38" t="s">
+      <c r="B73" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="C73" s="40" t="s">
+      <c r="C73" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="D73" s="64" t="s">
+      <c r="D73" s="56" t="s">
         <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
@@ -3660,10 +3666,10 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="46"/>
-      <c r="B74" s="47"/>
-      <c r="C74" s="48"/>
-      <c r="D74" s="61"/>
+      <c r="A74" s="37"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="57"/>
       <c r="E74" s="25" t="s">
         <v>172</v>
       </c>
@@ -3672,10 +3678,10 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="46"/>
-      <c r="B75" s="47"/>
-      <c r="C75" s="48"/>
-      <c r="D75" s="61"/>
+      <c r="A75" s="37"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="57"/>
       <c r="E75" s="25" t="s">
         <v>205</v>
       </c>
@@ -3684,10 +3690,10 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="46"/>
-      <c r="B76" s="47"/>
-      <c r="C76" s="48"/>
-      <c r="D76" s="61"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="57"/>
       <c r="E76" s="8" t="s">
         <v>206</v>
       </c>
@@ -3702,10 +3708,10 @@
       <c r="B77" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="C77" s="40" t="s">
+      <c r="C77" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="D77" s="42" t="s">
+      <c r="D77" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
@@ -3718,8 +3724,8 @@
     <row r="78" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="51"/>
       <c r="B78" s="54"/>
-      <c r="C78" s="48"/>
-      <c r="D78" s="49"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="46"/>
       <c r="E78" s="25" t="s">
         <v>172</v>
       </c>
@@ -3728,8 +3734,8 @@
     <row r="79" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="51"/>
       <c r="B79" s="54"/>
-      <c r="C79" s="48"/>
-      <c r="D79" s="49"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="46"/>
       <c r="E79" s="25" t="s">
         <v>185</v>
       </c>
@@ -3740,8 +3746,8 @@
     <row r="80" spans="1:6" ht="66.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="52"/>
       <c r="B80" s="55"/>
-      <c r="C80" s="41"/>
-      <c r="D80" s="43"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="47"/>
       <c r="E80" s="8" t="s">
         <v>186</v>
       </c>
@@ -3756,10 +3762,10 @@
       <c r="B81" s="53" t="s">
         <v>191</v>
       </c>
-      <c r="C81" s="40" t="s">
+      <c r="C81" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="D81" s="42" t="s">
+      <c r="D81" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
@@ -3772,8 +3778,8 @@
     <row r="82" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="51"/>
       <c r="B82" s="54"/>
-      <c r="C82" s="48"/>
-      <c r="D82" s="49"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="46"/>
       <c r="E82" s="25" t="s">
         <v>172</v>
       </c>
@@ -3782,8 +3788,8 @@
     <row r="83" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="51"/>
       <c r="B83" s="54"/>
-      <c r="C83" s="48"/>
-      <c r="D83" s="49"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="46"/>
       <c r="E83" s="25" t="s">
         <v>185</v>
       </c>
@@ -3794,8 +3800,8 @@
     <row r="84" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="51"/>
       <c r="B84" s="54"/>
-      <c r="C84" s="48"/>
-      <c r="D84" s="49"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="46"/>
       <c r="E84" s="16" t="s">
         <v>186</v>
       </c>
@@ -3806,8 +3812,8 @@
     <row r="85" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="52"/>
       <c r="B85" s="55"/>
-      <c r="C85" s="41"/>
-      <c r="D85" s="43"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="47"/>
       <c r="E85" s="8" t="s">
         <v>209</v>
       </c>
@@ -3822,10 +3828,10 @@
       <c r="B86" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="C86" s="40" t="s">
+      <c r="C86" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="D86" s="42" t="s">
+      <c r="D86" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
@@ -3838,8 +3844,8 @@
     <row r="87" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="51"/>
       <c r="B87" s="54"/>
-      <c r="C87" s="48"/>
-      <c r="D87" s="49"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="46"/>
       <c r="E87" s="25" t="s">
         <v>172</v>
       </c>
@@ -3848,8 +3854,8 @@
     <row r="88" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="51"/>
       <c r="B88" s="54"/>
-      <c r="C88" s="48"/>
-      <c r="D88" s="49"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="46"/>
       <c r="E88" s="25" t="s">
         <v>185</v>
       </c>
@@ -3860,8 +3866,8 @@
     <row r="89" spans="1:6" ht="33" x14ac:dyDescent="0.2">
       <c r="A89" s="51"/>
       <c r="B89" s="54"/>
-      <c r="C89" s="48"/>
-      <c r="D89" s="49"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="46"/>
       <c r="E89" s="16" t="s">
         <v>186</v>
       </c>
@@ -3872,8 +3878,8 @@
     <row r="90" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="52"/>
       <c r="B90" s="55"/>
-      <c r="C90" s="41"/>
-      <c r="D90" s="43"/>
+      <c r="C90" s="44"/>
+      <c r="D90" s="47"/>
       <c r="E90" s="8" t="s">
         <v>196</v>
       </c>
@@ -3888,10 +3894,10 @@
       <c r="B91" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="C91" s="40" t="s">
+      <c r="C91" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="D91" s="42" t="s">
+      <c r="D91" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
@@ -3904,8 +3910,8 @@
     <row r="92" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="51"/>
       <c r="B92" s="54"/>
-      <c r="C92" s="48"/>
-      <c r="D92" s="49"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="46"/>
       <c r="E92" s="25" t="s">
         <v>172</v>
       </c>
@@ -3914,8 +3920,8 @@
     <row r="93" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="51"/>
       <c r="B93" s="54"/>
-      <c r="C93" s="48"/>
-      <c r="D93" s="49"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="46"/>
       <c r="E93" s="25" t="s">
         <v>185</v>
       </c>
@@ -3926,8 +3932,8 @@
     <row r="94" spans="1:6" ht="33" x14ac:dyDescent="0.2">
       <c r="A94" s="51"/>
       <c r="B94" s="54"/>
-      <c r="C94" s="48"/>
-      <c r="D94" s="49"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="46"/>
       <c r="E94" s="16" t="s">
         <v>186</v>
       </c>
@@ -3938,8 +3944,8 @@
     <row r="95" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="52"/>
       <c r="B95" s="55"/>
-      <c r="C95" s="41"/>
-      <c r="D95" s="43"/>
+      <c r="C95" s="44"/>
+      <c r="D95" s="47"/>
       <c r="E95" s="8" t="s">
         <v>215</v>
       </c>
@@ -3954,10 +3960,10 @@
       <c r="B96" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="C96" s="40" t="s">
+      <c r="C96" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="D96" s="42" t="s">
+      <c r="D96" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
@@ -3970,8 +3976,8 @@
     <row r="97" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="51"/>
       <c r="B97" s="54"/>
-      <c r="C97" s="48"/>
-      <c r="D97" s="49"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="46"/>
       <c r="E97" s="25" t="s">
         <v>172</v>
       </c>
@@ -3980,8 +3986,8 @@
     <row r="98" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="51"/>
       <c r="B98" s="54"/>
-      <c r="C98" s="48"/>
-      <c r="D98" s="49"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="46"/>
       <c r="E98" s="25" t="s">
         <v>185</v>
       </c>
@@ -3992,8 +3998,8 @@
     <row r="99" spans="1:6" ht="33" x14ac:dyDescent="0.2">
       <c r="A99" s="51"/>
       <c r="B99" s="54"/>
-      <c r="C99" s="48"/>
-      <c r="D99" s="49"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="46"/>
       <c r="E99" s="16" t="s">
         <v>186</v>
       </c>
@@ -4004,8 +4010,8 @@
     <row r="100" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="52"/>
       <c r="B100" s="55"/>
-      <c r="C100" s="41"/>
-      <c r="D100" s="43"/>
+      <c r="C100" s="44"/>
+      <c r="D100" s="47"/>
       <c r="E100" s="8" t="s">
         <v>214</v>
       </c>
@@ -4020,10 +4026,10 @@
       <c r="B101" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="C101" s="40" t="s">
+      <c r="C101" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="D101" s="42" t="s">
+      <c r="D101" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E101" s="16" t="s">
@@ -4036,8 +4042,8 @@
     <row r="102" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="51"/>
       <c r="B102" s="54"/>
-      <c r="C102" s="48"/>
-      <c r="D102" s="49"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="46"/>
       <c r="E102" s="25" t="s">
         <v>172</v>
       </c>
@@ -4046,8 +4052,8 @@
     <row r="103" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="51"/>
       <c r="B103" s="54"/>
-      <c r="C103" s="48"/>
-      <c r="D103" s="49"/>
+      <c r="C103" s="43"/>
+      <c r="D103" s="46"/>
       <c r="E103" s="25" t="s">
         <v>185</v>
       </c>
@@ -4058,8 +4064,8 @@
     <row r="104" spans="1:6" ht="33" x14ac:dyDescent="0.2">
       <c r="A104" s="51"/>
       <c r="B104" s="54"/>
-      <c r="C104" s="48"/>
-      <c r="D104" s="49"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="46"/>
       <c r="E104" s="25" t="s">
         <v>186</v>
       </c>
@@ -4070,8 +4076,8 @@
     <row r="105" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="51"/>
       <c r="B105" s="54"/>
-      <c r="C105" s="48"/>
-      <c r="D105" s="49"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="46"/>
       <c r="E105" s="25" t="s">
         <v>214</v>
       </c>
@@ -4082,8 +4088,8 @@
     <row r="106" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="52"/>
       <c r="B106" s="55"/>
-      <c r="C106" s="41"/>
-      <c r="D106" s="43"/>
+      <c r="C106" s="44"/>
+      <c r="D106" s="47"/>
       <c r="E106" s="8" t="s">
         <v>216</v>
       </c>
@@ -4098,10 +4104,10 @@
       <c r="B107" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="C107" s="40" t="s">
+      <c r="C107" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="D107" s="42" t="s">
+      <c r="D107" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E107" s="16" t="s">
@@ -4114,8 +4120,8 @@
     <row r="108" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="51"/>
       <c r="B108" s="54"/>
-      <c r="C108" s="48"/>
-      <c r="D108" s="49"/>
+      <c r="C108" s="43"/>
+      <c r="D108" s="46"/>
       <c r="E108" s="25" t="s">
         <v>172</v>
       </c>
@@ -4124,8 +4130,8 @@
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="51"/>
       <c r="B109" s="54"/>
-      <c r="C109" s="48"/>
-      <c r="D109" s="49"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="46"/>
       <c r="E109" s="25" t="s">
         <v>185</v>
       </c>
@@ -4136,8 +4142,8 @@
     <row r="110" spans="1:6" ht="33" x14ac:dyDescent="0.2">
       <c r="A110" s="51"/>
       <c r="B110" s="54"/>
-      <c r="C110" s="48"/>
-      <c r="D110" s="49"/>
+      <c r="C110" s="43"/>
+      <c r="D110" s="46"/>
       <c r="E110" s="25" t="s">
         <v>186</v>
       </c>
@@ -4148,8 +4154,8 @@
     <row r="111" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="51"/>
       <c r="B111" s="54"/>
-      <c r="C111" s="48"/>
-      <c r="D111" s="49"/>
+      <c r="C111" s="43"/>
+      <c r="D111" s="46"/>
       <c r="E111" s="25" t="s">
         <v>214</v>
       </c>
@@ -4160,8 +4166,8 @@
     <row r="112" spans="1:6" ht="33" x14ac:dyDescent="0.2">
       <c r="A112" s="51"/>
       <c r="B112" s="54"/>
-      <c r="C112" s="48"/>
-      <c r="D112" s="49"/>
+      <c r="C112" s="43"/>
+      <c r="D112" s="46"/>
       <c r="E112" s="16" t="s">
         <v>218</v>
       </c>
@@ -4172,8 +4178,8 @@
     <row r="113" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="52"/>
       <c r="B113" s="55"/>
-      <c r="C113" s="41"/>
-      <c r="D113" s="43"/>
+      <c r="C113" s="44"/>
+      <c r="D113" s="47"/>
       <c r="E113" s="8" t="s">
         <v>220</v>
       </c>
@@ -4182,14 +4188,14 @@
       </c>
     </row>
     <row r="114" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="56" t="s">
+      <c r="A114" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="B114" s="57"/>
-      <c r="C114" s="57"/>
-      <c r="D114" s="57"/>
-      <c r="E114" s="57"/>
-      <c r="F114" s="57"/>
+      <c r="B114" s="49"/>
+      <c r="C114" s="49"/>
+      <c r="D114" s="49"/>
+      <c r="E114" s="49"/>
+      <c r="F114" s="49"/>
     </row>
     <row r="115" spans="1:6" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="22" t="s">
@@ -4215,13 +4221,13 @@
       <c r="A116" s="36" t="s">
         <v>237</v>
       </c>
-      <c r="B116" s="38" t="s">
+      <c r="B116" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="C116" s="40" t="s">
+      <c r="C116" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="D116" s="42" t="s">
+      <c r="D116" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E116" s="16" t="s">
@@ -4232,10 +4238,10 @@
       </c>
     </row>
     <row r="117" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="37"/>
-      <c r="B117" s="39"/>
-      <c r="C117" s="41"/>
-      <c r="D117" s="43"/>
+      <c r="A117" s="38"/>
+      <c r="B117" s="41"/>
+      <c r="C117" s="44"/>
+      <c r="D117" s="47"/>
       <c r="E117" s="8" t="s">
         <v>236</v>
       </c>
@@ -4247,13 +4253,13 @@
       <c r="A118" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="B118" s="38" t="s">
+      <c r="B118" s="39" t="s">
         <v>297</v>
       </c>
-      <c r="C118" s="40" t="s">
+      <c r="C118" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="D118" s="42" t="s">
+      <c r="D118" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E118" s="16" t="s">
@@ -4264,10 +4270,10 @@
       </c>
     </row>
     <row r="119" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="37"/>
-      <c r="B119" s="39"/>
-      <c r="C119" s="41"/>
-      <c r="D119" s="43"/>
+      <c r="A119" s="38"/>
+      <c r="B119" s="41"/>
+      <c r="C119" s="44"/>
+      <c r="D119" s="47"/>
       <c r="E119" s="8" t="s">
         <v>239</v>
       </c>
@@ -4279,13 +4285,13 @@
       <c r="A120" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="B120" s="38" t="s">
+      <c r="B120" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="C120" s="40" t="s">
+      <c r="C120" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="D120" s="42" t="s">
+      <c r="D120" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E120" s="16" t="s">
@@ -4296,10 +4302,10 @@
       </c>
     </row>
     <row r="121" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="37"/>
-      <c r="B121" s="39"/>
-      <c r="C121" s="41"/>
-      <c r="D121" s="43"/>
+      <c r="A121" s="38"/>
+      <c r="B121" s="41"/>
+      <c r="C121" s="44"/>
+      <c r="D121" s="47"/>
       <c r="E121" s="8" t="s">
         <v>242</v>
       </c>
@@ -4311,13 +4317,13 @@
       <c r="A122" s="36" t="s">
         <v>254</v>
       </c>
-      <c r="B122" s="38" t="s">
+      <c r="B122" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="C122" s="40" t="s">
+      <c r="C122" s="42" t="s">
         <v>249</v>
       </c>
-      <c r="D122" s="42" t="s">
+      <c r="D122" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E122" s="16" t="s">
@@ -4328,10 +4334,10 @@
       </c>
     </row>
     <row r="123" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A123" s="46"/>
-      <c r="B123" s="47"/>
-      <c r="C123" s="48"/>
-      <c r="D123" s="49"/>
+      <c r="A123" s="37"/>
+      <c r="B123" s="40"/>
+      <c r="C123" s="43"/>
+      <c r="D123" s="46"/>
       <c r="E123" s="25" t="s">
         <v>242</v>
       </c>
@@ -4340,10 +4346,10 @@
       </c>
     </row>
     <row r="124" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A124" s="46"/>
-      <c r="B124" s="47"/>
-      <c r="C124" s="48"/>
-      <c r="D124" s="49"/>
+      <c r="A124" s="37"/>
+      <c r="B124" s="40"/>
+      <c r="C124" s="43"/>
+      <c r="D124" s="46"/>
       <c r="E124" s="25" t="s">
         <v>250</v>
       </c>
@@ -4352,10 +4358,10 @@
       </c>
     </row>
     <row r="125" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="37"/>
-      <c r="B125" s="39"/>
-      <c r="C125" s="41"/>
-      <c r="D125" s="43"/>
+      <c r="A125" s="38"/>
+      <c r="B125" s="41"/>
+      <c r="C125" s="44"/>
+      <c r="D125" s="47"/>
       <c r="E125" s="8" t="s">
         <v>252</v>
       </c>
@@ -4367,13 +4373,13 @@
       <c r="A126" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="B126" s="38" t="s">
+      <c r="B126" s="39" t="s">
         <v>261</v>
       </c>
-      <c r="C126" s="40" t="s">
+      <c r="C126" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="D126" s="42" t="s">
+      <c r="D126" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E126" s="16" t="s">
@@ -4384,10 +4390,10 @@
       </c>
     </row>
     <row r="127" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="37"/>
-      <c r="B127" s="39"/>
-      <c r="C127" s="41"/>
-      <c r="D127" s="43"/>
+      <c r="A127" s="38"/>
+      <c r="B127" s="41"/>
+      <c r="C127" s="44"/>
+      <c r="D127" s="47"/>
       <c r="E127" s="8" t="s">
         <v>256</v>
       </c>
@@ -4399,13 +4405,13 @@
       <c r="A128" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="B128" s="38" t="s">
+      <c r="B128" s="39" t="s">
         <v>262</v>
       </c>
-      <c r="C128" s="40" t="s">
+      <c r="C128" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="D128" s="42" t="s">
+      <c r="D128" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E128" s="16" t="s">
@@ -4416,10 +4422,10 @@
       </c>
     </row>
     <row r="129" spans="1:6" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A129" s="46"/>
-      <c r="B129" s="47"/>
-      <c r="C129" s="48"/>
-      <c r="D129" s="49"/>
+      <c r="A129" s="37"/>
+      <c r="B129" s="40"/>
+      <c r="C129" s="43"/>
+      <c r="D129" s="46"/>
       <c r="E129" s="25" t="s">
         <v>256</v>
       </c>
@@ -4428,10 +4434,10 @@
       </c>
     </row>
     <row r="130" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="37"/>
-      <c r="B130" s="39"/>
-      <c r="C130" s="41"/>
-      <c r="D130" s="43"/>
+      <c r="A130" s="38"/>
+      <c r="B130" s="41"/>
+      <c r="C130" s="44"/>
+      <c r="D130" s="47"/>
       <c r="E130" s="8" t="s">
         <v>263</v>
       </c>
@@ -4443,13 +4449,13 @@
       <c r="A131" s="36" t="s">
         <v>266</v>
       </c>
-      <c r="B131" s="38" t="s">
+      <c r="B131" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="C131" s="40" t="s">
+      <c r="C131" s="42" t="s">
         <v>272</v>
       </c>
-      <c r="D131" s="42" t="s">
+      <c r="D131" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E131" s="16" t="s">
@@ -4460,10 +4466,10 @@
       </c>
     </row>
     <row r="132" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="46"/>
-      <c r="B132" s="47"/>
-      <c r="C132" s="48"/>
-      <c r="D132" s="49"/>
+      <c r="A132" s="37"/>
+      <c r="B132" s="40"/>
+      <c r="C132" s="43"/>
+      <c r="D132" s="46"/>
       <c r="E132" s="25" t="s">
         <v>256</v>
       </c>
@@ -4472,10 +4478,10 @@
       </c>
     </row>
     <row r="133" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="37"/>
-      <c r="B133" s="39"/>
-      <c r="C133" s="41"/>
-      <c r="D133" s="43"/>
+      <c r="A133" s="38"/>
+      <c r="B133" s="41"/>
+      <c r="C133" s="44"/>
+      <c r="D133" s="47"/>
       <c r="E133" s="8" t="s">
         <v>268</v>
       </c>
@@ -4487,13 +4493,13 @@
       <c r="A134" s="36" t="s">
         <v>273</v>
       </c>
-      <c r="B134" s="38" t="s">
+      <c r="B134" s="39" t="s">
         <v>301</v>
       </c>
-      <c r="C134" s="40" t="s">
+      <c r="C134" s="42" t="s">
         <v>275</v>
       </c>
-      <c r="D134" s="42" t="s">
+      <c r="D134" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E134" s="16" t="s">
@@ -4504,10 +4510,10 @@
       </c>
     </row>
     <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A135" s="46"/>
-      <c r="B135" s="47"/>
-      <c r="C135" s="48"/>
-      <c r="D135" s="49"/>
+      <c r="A135" s="37"/>
+      <c r="B135" s="40"/>
+      <c r="C135" s="43"/>
+      <c r="D135" s="46"/>
       <c r="E135" s="25" t="s">
         <v>256</v>
       </c>
@@ -4516,10 +4522,10 @@
       </c>
     </row>
     <row r="136" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A136" s="46"/>
-      <c r="B136" s="47"/>
-      <c r="C136" s="48"/>
-      <c r="D136" s="49"/>
+      <c r="A136" s="37"/>
+      <c r="B136" s="40"/>
+      <c r="C136" s="43"/>
+      <c r="D136" s="46"/>
       <c r="E136" s="16" t="s">
         <v>268</v>
       </c>
@@ -4528,10 +4534,10 @@
       </c>
     </row>
     <row r="137" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="37"/>
-      <c r="B137" s="39"/>
-      <c r="C137" s="41"/>
-      <c r="D137" s="43"/>
+      <c r="A137" s="38"/>
+      <c r="B137" s="41"/>
+      <c r="C137" s="44"/>
+      <c r="D137" s="47"/>
       <c r="E137" s="8" t="s">
         <v>299</v>
       </c>
@@ -4543,13 +4549,13 @@
       <c r="A138" s="36" t="s">
         <v>280</v>
       </c>
-      <c r="B138" s="38" t="s">
+      <c r="B138" s="39" t="s">
         <v>278</v>
       </c>
-      <c r="C138" s="40" t="s">
+      <c r="C138" s="42" t="s">
         <v>279</v>
       </c>
-      <c r="D138" s="42" t="s">
+      <c r="D138" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E138" s="16" t="s">
@@ -4560,10 +4566,10 @@
       </c>
     </row>
     <row r="139" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A139" s="46"/>
-      <c r="B139" s="47"/>
-      <c r="C139" s="48"/>
-      <c r="D139" s="49"/>
+      <c r="A139" s="37"/>
+      <c r="B139" s="40"/>
+      <c r="C139" s="43"/>
+      <c r="D139" s="46"/>
       <c r="E139" s="25" t="s">
         <v>256</v>
       </c>
@@ -4572,10 +4578,10 @@
       </c>
     </row>
     <row r="140" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A140" s="46"/>
-      <c r="B140" s="47"/>
-      <c r="C140" s="48"/>
-      <c r="D140" s="49"/>
+      <c r="A140" s="37"/>
+      <c r="B140" s="40"/>
+      <c r="C140" s="43"/>
+      <c r="D140" s="46"/>
       <c r="E140" s="16" t="s">
         <v>268</v>
       </c>
@@ -4584,10 +4590,10 @@
       </c>
     </row>
     <row r="141" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="37"/>
-      <c r="B141" s="39"/>
-      <c r="C141" s="41"/>
-      <c r="D141" s="43"/>
+      <c r="A141" s="38"/>
+      <c r="B141" s="41"/>
+      <c r="C141" s="44"/>
+      <c r="D141" s="47"/>
       <c r="E141" s="8" t="s">
         <v>277</v>
       </c>
@@ -4599,13 +4605,13 @@
       <c r="A142" s="36" t="s">
         <v>281</v>
       </c>
-      <c r="B142" s="38" t="s">
+      <c r="B142" s="39" t="s">
         <v>283</v>
       </c>
-      <c r="C142" s="40" t="s">
+      <c r="C142" s="42" t="s">
         <v>286</v>
       </c>
-      <c r="D142" s="42" t="s">
+      <c r="D142" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E142" s="16" t="s">
@@ -4616,10 +4622,10 @@
       </c>
     </row>
     <row r="143" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A143" s="46"/>
-      <c r="B143" s="47"/>
-      <c r="C143" s="48"/>
-      <c r="D143" s="49"/>
+      <c r="A143" s="37"/>
+      <c r="B143" s="40"/>
+      <c r="C143" s="43"/>
+      <c r="D143" s="46"/>
       <c r="E143" s="25" t="s">
         <v>256</v>
       </c>
@@ -4628,10 +4634,10 @@
       </c>
     </row>
     <row r="144" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A144" s="46"/>
-      <c r="B144" s="47"/>
-      <c r="C144" s="48"/>
-      <c r="D144" s="49"/>
+      <c r="A144" s="37"/>
+      <c r="B144" s="40"/>
+      <c r="C144" s="43"/>
+      <c r="D144" s="46"/>
       <c r="E144" s="25" t="s">
         <v>268</v>
       </c>
@@ -4640,10 +4646,10 @@
       </c>
     </row>
     <row r="145" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A145" s="46"/>
-      <c r="B145" s="47"/>
-      <c r="C145" s="48"/>
-      <c r="D145" s="49"/>
+      <c r="A145" s="37"/>
+      <c r="B145" s="40"/>
+      <c r="C145" s="43"/>
+      <c r="D145" s="46"/>
       <c r="E145" s="25" t="s">
         <v>282</v>
       </c>
@@ -4652,10 +4658,10 @@
       </c>
     </row>
     <row r="146" spans="1:6" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A146" s="46"/>
-      <c r="B146" s="47"/>
-      <c r="C146" s="48"/>
-      <c r="D146" s="49"/>
+      <c r="A146" s="37"/>
+      <c r="B146" s="40"/>
+      <c r="C146" s="43"/>
+      <c r="D146" s="46"/>
       <c r="E146" s="16" t="s">
         <v>285</v>
       </c>
@@ -4664,10 +4670,10 @@
       </c>
     </row>
     <row r="147" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="37"/>
-      <c r="B147" s="39"/>
-      <c r="C147" s="41"/>
-      <c r="D147" s="43"/>
+      <c r="A147" s="38"/>
+      <c r="B147" s="41"/>
+      <c r="C147" s="44"/>
+      <c r="D147" s="47"/>
       <c r="E147" s="8" t="s">
         <v>288</v>
       </c>
@@ -4679,13 +4685,13 @@
       <c r="A148" s="36" t="s">
         <v>290</v>
       </c>
-      <c r="B148" s="38" t="s">
+      <c r="B148" s="39" t="s">
         <v>291</v>
       </c>
-      <c r="C148" s="40" t="s">
+      <c r="C148" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="D148" s="42" t="s">
+      <c r="D148" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E148" s="16" t="s">
@@ -4696,10 +4702,10 @@
       </c>
     </row>
     <row r="149" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="37"/>
-      <c r="B149" s="39"/>
-      <c r="C149" s="41"/>
-      <c r="D149" s="43"/>
+      <c r="A149" s="38"/>
+      <c r="B149" s="41"/>
+      <c r="C149" s="44"/>
+      <c r="D149" s="47"/>
       <c r="E149" s="8" t="s">
         <v>293</v>
       </c>
@@ -4708,14 +4714,14 @@
       </c>
     </row>
     <row r="150" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="44" t="s">
+      <c r="A150" s="72" t="s">
         <v>303</v>
       </c>
-      <c r="B150" s="45"/>
-      <c r="C150" s="45"/>
-      <c r="D150" s="45"/>
-      <c r="E150" s="45"/>
-      <c r="F150" s="45"/>
+      <c r="B150" s="73"/>
+      <c r="C150" s="73"/>
+      <c r="D150" s="73"/>
+      <c r="E150" s="73"/>
+      <c r="F150" s="73"/>
     </row>
     <row r="151" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="28" t="s">
@@ -4741,13 +4747,13 @@
       <c r="A152" s="36" t="s">
         <v>311</v>
       </c>
-      <c r="B152" s="38" t="s">
+      <c r="B152" s="39" t="s">
         <v>306</v>
       </c>
-      <c r="C152" s="40" t="s">
+      <c r="C152" s="42" t="s">
         <v>316</v>
       </c>
-      <c r="D152" s="42" t="s">
+      <c r="D152" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E152" s="16" t="s">
@@ -4758,10 +4764,10 @@
       </c>
     </row>
     <row r="153" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="37"/>
-      <c r="B153" s="39"/>
-      <c r="C153" s="41"/>
-      <c r="D153" s="43"/>
+      <c r="A153" s="38"/>
+      <c r="B153" s="41"/>
+      <c r="C153" s="44"/>
+      <c r="D153" s="47"/>
       <c r="E153" s="8" t="s">
         <v>313</v>
       </c>
@@ -4773,13 +4779,13 @@
       <c r="A154" s="36" t="s">
         <v>315</v>
       </c>
-      <c r="B154" s="38" t="s">
+      <c r="B154" s="39" t="s">
         <v>305</v>
       </c>
-      <c r="C154" s="40" t="s">
+      <c r="C154" s="42" t="s">
         <v>317</v>
       </c>
-      <c r="D154" s="42" t="s">
+      <c r="D154" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E154" s="16" t="s">
@@ -4790,10 +4796,10 @@
       </c>
     </row>
     <row r="155" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="37"/>
-      <c r="B155" s="39"/>
-      <c r="C155" s="41"/>
-      <c r="D155" s="43"/>
+      <c r="A155" s="38"/>
+      <c r="B155" s="41"/>
+      <c r="C155" s="44"/>
+      <c r="D155" s="47"/>
       <c r="E155" s="8" t="s">
         <v>318</v>
       </c>
@@ -4805,13 +4811,13 @@
       <c r="A156" s="36" t="s">
         <v>320</v>
       </c>
-      <c r="B156" s="38" t="s">
-        <v>436</v>
-      </c>
-      <c r="C156" s="40" t="s">
-        <v>437</v>
-      </c>
-      <c r="D156" s="42" t="s">
+      <c r="B156" s="39" t="s">
+        <v>430</v>
+      </c>
+      <c r="C156" s="42" t="s">
+        <v>431</v>
+      </c>
+      <c r="D156" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E156" s="16" t="s">
@@ -4822,42 +4828,42 @@
       </c>
     </row>
     <row r="157" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="37"/>
-      <c r="B157" s="39"/>
-      <c r="C157" s="41"/>
-      <c r="D157" s="43"/>
+      <c r="A157" s="38"/>
+      <c r="B157" s="41"/>
+      <c r="C157" s="44"/>
+      <c r="D157" s="47"/>
       <c r="E157" s="8" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="F157" s="9" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="50.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A158" s="36" t="s">
         <v>321</v>
       </c>
-      <c r="B158" s="38" t="s">
+      <c r="B158" s="39" t="s">
         <v>322</v>
       </c>
-      <c r="C158" s="40" t="s">
+      <c r="C158" s="42" t="s">
         <v>323</v>
       </c>
-      <c r="D158" s="42" t="s">
+      <c r="D158" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E158" s="16" t="s">
         <v>308</v>
       </c>
       <c r="F158" s="17" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="37"/>
-      <c r="B159" s="39"/>
-      <c r="C159" s="41"/>
-      <c r="D159" s="43"/>
+      <c r="A159" s="38"/>
+      <c r="B159" s="41"/>
+      <c r="C159" s="44"/>
+      <c r="D159" s="47"/>
       <c r="E159" s="8" t="s">
         <v>324</v>
       </c>
@@ -4869,13 +4875,13 @@
       <c r="A160" s="36" t="s">
         <v>326</v>
       </c>
-      <c r="B160" s="38" t="s">
+      <c r="B160" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="C160" s="40" t="s">
+      <c r="C160" s="42" t="s">
         <v>323</v>
       </c>
-      <c r="D160" s="42" t="s">
+      <c r="D160" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E160" s="16" t="s">
@@ -4886,10 +4892,10 @@
       </c>
     </row>
     <row r="161" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="37"/>
-      <c r="B161" s="39"/>
-      <c r="C161" s="41"/>
-      <c r="D161" s="43"/>
+      <c r="A161" s="38"/>
+      <c r="B161" s="41"/>
+      <c r="C161" s="44"/>
+      <c r="D161" s="47"/>
       <c r="E161" s="8" t="s">
         <v>329</v>
       </c>
@@ -4902,7 +4908,7 @@
         <v>331</v>
       </c>
       <c r="B162" s="23" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C162" s="31" t="s">
         <v>332</v>
@@ -4921,13 +4927,13 @@
       <c r="A163" s="36" t="s">
         <v>335</v>
       </c>
-      <c r="B163" s="38" t="s">
+      <c r="B163" s="39" t="s">
         <v>336</v>
       </c>
-      <c r="C163" s="40" t="s">
+      <c r="C163" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="D163" s="42" t="s">
+      <c r="D163" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E163" s="16" t="s">
@@ -4938,10 +4944,10 @@
       </c>
     </row>
     <row r="164" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="37"/>
-      <c r="B164" s="39"/>
-      <c r="C164" s="41"/>
-      <c r="D164" s="43"/>
+      <c r="A164" s="38"/>
+      <c r="B164" s="41"/>
+      <c r="C164" s="44"/>
+      <c r="D164" s="47"/>
       <c r="E164" s="8" t="s">
         <v>337</v>
       </c>
@@ -4953,13 +4959,13 @@
       <c r="A165" s="36" t="s">
         <v>346</v>
       </c>
-      <c r="B165" s="38" t="s">
+      <c r="B165" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="C165" s="40" t="s">
+      <c r="C165" s="42" t="s">
         <v>341</v>
       </c>
-      <c r="D165" s="42" t="s">
+      <c r="D165" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E165" s="16" t="s">
@@ -4970,10 +4976,10 @@
       </c>
     </row>
     <row r="166" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="37"/>
-      <c r="B166" s="39"/>
-      <c r="C166" s="41"/>
-      <c r="D166" s="43"/>
+      <c r="A166" s="38"/>
+      <c r="B166" s="41"/>
+      <c r="C166" s="44"/>
+      <c r="D166" s="47"/>
       <c r="E166" s="8" t="s">
         <v>337</v>
       </c>
@@ -4985,13 +4991,13 @@
       <c r="A167" s="36" t="s">
         <v>345</v>
       </c>
-      <c r="B167" s="38" t="s">
+      <c r="B167" s="39" t="s">
         <v>347</v>
       </c>
-      <c r="C167" s="40" t="s">
+      <c r="C167" s="42" t="s">
         <v>350</v>
       </c>
-      <c r="D167" s="42" t="s">
+      <c r="D167" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E167" s="16" t="s">
@@ -5002,28 +5008,28 @@
       </c>
     </row>
     <row r="168" spans="1:6" ht="66.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="37"/>
-      <c r="B168" s="39"/>
-      <c r="C168" s="41"/>
-      <c r="D168" s="43"/>
+      <c r="A168" s="38"/>
+      <c r="B168" s="41"/>
+      <c r="C168" s="44"/>
+      <c r="D168" s="47"/>
       <c r="E168" s="8" t="s">
         <v>349</v>
       </c>
       <c r="F168" s="9" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A169" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="B169" s="38" t="s">
+      <c r="B169" s="39" t="s">
         <v>351</v>
       </c>
-      <c r="C169" s="40" t="s">
+      <c r="C169" s="42" t="s">
         <v>352</v>
       </c>
-      <c r="D169" s="42" t="s">
+      <c r="D169" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E169" s="16" t="s">
@@ -5034,10 +5040,10 @@
       </c>
     </row>
     <row r="170" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="37"/>
-      <c r="B170" s="39"/>
-      <c r="C170" s="41"/>
-      <c r="D170" s="43"/>
+      <c r="A170" s="38"/>
+      <c r="B170" s="41"/>
+      <c r="C170" s="44"/>
+      <c r="D170" s="47"/>
       <c r="E170" s="8" t="s">
         <v>354</v>
       </c>
@@ -5049,13 +5055,13 @@
       <c r="A171" s="36" t="s">
         <v>357</v>
       </c>
-      <c r="B171" s="38" t="s">
+      <c r="B171" s="39" t="s">
         <v>358</v>
       </c>
-      <c r="C171" s="40" t="s">
+      <c r="C171" s="42" t="s">
         <v>361</v>
       </c>
-      <c r="D171" s="42" t="s">
+      <c r="D171" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E171" s="16" t="s">
@@ -5066,10 +5072,10 @@
       </c>
     </row>
     <row r="172" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A172" s="46"/>
-      <c r="B172" s="47"/>
-      <c r="C172" s="48"/>
-      <c r="D172" s="49"/>
+      <c r="A172" s="37"/>
+      <c r="B172" s="40"/>
+      <c r="C172" s="43"/>
+      <c r="D172" s="46"/>
       <c r="E172" s="25" t="s">
         <v>359</v>
       </c>
@@ -5078,10 +5084,10 @@
       </c>
     </row>
     <row r="173" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="37"/>
-      <c r="B173" s="39"/>
-      <c r="C173" s="41"/>
-      <c r="D173" s="43"/>
+      <c r="A173" s="38"/>
+      <c r="B173" s="41"/>
+      <c r="C173" s="44"/>
+      <c r="D173" s="47"/>
       <c r="E173" s="8" t="s">
         <v>360</v>
       </c>
@@ -5093,13 +5099,13 @@
       <c r="A174" s="36" t="s">
         <v>362</v>
       </c>
-      <c r="B174" s="38" t="s">
+      <c r="B174" s="39" t="s">
         <v>363</v>
       </c>
-      <c r="C174" s="40" t="s">
+      <c r="C174" s="42" t="s">
         <v>364</v>
       </c>
-      <c r="D174" s="42" t="s">
+      <c r="D174" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E174" s="16" t="s">
@@ -5110,10 +5116,10 @@
       </c>
     </row>
     <row r="175" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A175" s="46"/>
-      <c r="B175" s="47"/>
-      <c r="C175" s="48"/>
-      <c r="D175" s="49"/>
+      <c r="A175" s="37"/>
+      <c r="B175" s="40"/>
+      <c r="C175" s="43"/>
+      <c r="D175" s="46"/>
       <c r="E175" s="25" t="s">
         <v>359</v>
       </c>
@@ -5122,10 +5128,10 @@
       </c>
     </row>
     <row r="176" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="37"/>
-      <c r="B176" s="39"/>
-      <c r="C176" s="41"/>
-      <c r="D176" s="43"/>
+      <c r="A176" s="38"/>
+      <c r="B176" s="41"/>
+      <c r="C176" s="44"/>
+      <c r="D176" s="47"/>
       <c r="E176" s="8" t="s">
         <v>365</v>
       </c>
@@ -5137,13 +5143,13 @@
       <c r="A177" s="36" t="s">
         <v>368</v>
       </c>
-      <c r="B177" s="38" t="s">
+      <c r="B177" s="39" t="s">
         <v>366</v>
       </c>
-      <c r="C177" s="40" t="s">
+      <c r="C177" s="42" t="s">
         <v>369</v>
       </c>
-      <c r="D177" s="42" t="s">
+      <c r="D177" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E177" s="16" t="s">
@@ -5154,10 +5160,10 @@
       </c>
     </row>
     <row r="178" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A178" s="46"/>
-      <c r="B178" s="47"/>
-      <c r="C178" s="48"/>
-      <c r="D178" s="49"/>
+      <c r="A178" s="37"/>
+      <c r="B178" s="40"/>
+      <c r="C178" s="43"/>
+      <c r="D178" s="46"/>
       <c r="E178" s="25" t="s">
         <v>373</v>
       </c>
@@ -5166,20 +5172,20 @@
       </c>
     </row>
     <row r="179" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A179" s="46"/>
-      <c r="B179" s="47"/>
-      <c r="C179" s="48"/>
-      <c r="D179" s="49"/>
+      <c r="A179" s="37"/>
+      <c r="B179" s="40"/>
+      <c r="C179" s="43"/>
+      <c r="D179" s="46"/>
       <c r="E179" s="25" t="s">
         <v>374</v>
       </c>
       <c r="F179" s="35"/>
     </row>
     <row r="180" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="37"/>
-      <c r="B180" s="39"/>
-      <c r="C180" s="41"/>
-      <c r="D180" s="43"/>
+      <c r="A180" s="38"/>
+      <c r="B180" s="41"/>
+      <c r="C180" s="44"/>
+      <c r="D180" s="47"/>
       <c r="E180" s="8" t="s">
         <v>375</v>
       </c>
@@ -5191,13 +5197,13 @@
       <c r="A181" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="B181" s="38" t="s">
+      <c r="B181" s="39" t="s">
         <v>367</v>
       </c>
-      <c r="C181" s="40" t="s">
+      <c r="C181" s="42" t="s">
         <v>372</v>
       </c>
-      <c r="D181" s="42" t="s">
+      <c r="D181" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E181" s="16" t="s">
@@ -5208,10 +5214,10 @@
       </c>
     </row>
     <row r="182" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A182" s="46"/>
-      <c r="B182" s="47"/>
-      <c r="C182" s="48"/>
-      <c r="D182" s="49"/>
+      <c r="A182" s="37"/>
+      <c r="B182" s="40"/>
+      <c r="C182" s="43"/>
+      <c r="D182" s="46"/>
       <c r="E182" s="25" t="s">
         <v>373</v>
       </c>
@@ -5220,20 +5226,20 @@
       </c>
     </row>
     <row r="183" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A183" s="46"/>
-      <c r="B183" s="47"/>
-      <c r="C183" s="48"/>
-      <c r="D183" s="49"/>
+      <c r="A183" s="37"/>
+      <c r="B183" s="40"/>
+      <c r="C183" s="43"/>
+      <c r="D183" s="46"/>
       <c r="E183" s="25" t="s">
         <v>387</v>
       </c>
       <c r="F183" s="35"/>
     </row>
     <row r="184" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="37"/>
-      <c r="B184" s="39"/>
-      <c r="C184" s="41"/>
-      <c r="D184" s="43"/>
+      <c r="A184" s="38"/>
+      <c r="B184" s="41"/>
+      <c r="C184" s="44"/>
+      <c r="D184" s="47"/>
       <c r="E184" s="8" t="s">
         <v>375</v>
       </c>
@@ -5245,13 +5251,13 @@
       <c r="A185" s="36" t="s">
         <v>380</v>
       </c>
-      <c r="B185" s="38" t="s">
+      <c r="B185" s="39" t="s">
         <v>381</v>
       </c>
-      <c r="C185" s="40" t="s">
+      <c r="C185" s="42" t="s">
         <v>382</v>
       </c>
-      <c r="D185" s="42" t="s">
+      <c r="D185" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E185" s="16" t="s">
@@ -5262,10 +5268,10 @@
       </c>
     </row>
     <row r="186" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="46"/>
-      <c r="B186" s="47"/>
-      <c r="C186" s="48"/>
-      <c r="D186" s="49"/>
+      <c r="A186" s="37"/>
+      <c r="B186" s="40"/>
+      <c r="C186" s="43"/>
+      <c r="D186" s="46"/>
       <c r="E186" s="25" t="s">
         <v>383</v>
       </c>
@@ -5274,10 +5280,10 @@
       </c>
     </row>
     <row r="187" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="37"/>
-      <c r="B187" s="39"/>
-      <c r="C187" s="41"/>
-      <c r="D187" s="43"/>
+      <c r="A187" s="38"/>
+      <c r="B187" s="41"/>
+      <c r="C187" s="44"/>
+      <c r="D187" s="47"/>
       <c r="E187" s="8" t="s">
         <v>385</v>
       </c>
@@ -5289,13 +5295,13 @@
       <c r="A188" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="B188" s="38" t="s">
+      <c r="B188" s="39" t="s">
         <v>389</v>
       </c>
-      <c r="C188" s="40" t="s">
+      <c r="C188" s="42" t="s">
         <v>390</v>
       </c>
-      <c r="D188" s="42" t="s">
+      <c r="D188" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E188" s="16" t="s">
@@ -5306,10 +5312,10 @@
       </c>
     </row>
     <row r="189" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A189" s="46"/>
-      <c r="B189" s="47"/>
-      <c r="C189" s="48"/>
-      <c r="D189" s="49"/>
+      <c r="A189" s="37"/>
+      <c r="B189" s="40"/>
+      <c r="C189" s="43"/>
+      <c r="D189" s="46"/>
       <c r="E189" s="25" t="s">
         <v>391</v>
       </c>
@@ -5318,10 +5324,10 @@
       </c>
     </row>
     <row r="190" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A190" s="46"/>
-      <c r="B190" s="47"/>
-      <c r="C190" s="48"/>
-      <c r="D190" s="49"/>
+      <c r="A190" s="37"/>
+      <c r="B190" s="40"/>
+      <c r="C190" s="43"/>
+      <c r="D190" s="46"/>
       <c r="E190" s="16" t="s">
         <v>393</v>
       </c>
@@ -5330,10 +5336,10 @@
       </c>
     </row>
     <row r="191" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="37"/>
-      <c r="B191" s="39"/>
-      <c r="C191" s="41"/>
-      <c r="D191" s="43"/>
+      <c r="A191" s="38"/>
+      <c r="B191" s="41"/>
+      <c r="C191" s="44"/>
+      <c r="D191" s="47"/>
       <c r="E191" s="8" t="s">
         <v>394</v>
       </c>
@@ -5345,13 +5351,13 @@
       <c r="A192" s="36" t="s">
         <v>395</v>
       </c>
-      <c r="B192" s="38" t="s">
+      <c r="B192" s="39" t="s">
         <v>396</v>
       </c>
-      <c r="C192" s="40" t="s">
+      <c r="C192" s="42" t="s">
         <v>397</v>
       </c>
-      <c r="D192" s="42" t="s">
+      <c r="D192" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E192" s="16" t="s">
@@ -5361,61 +5367,53 @@
         <v>371</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A193" s="37"/>
-      <c r="B193" s="39"/>
-      <c r="C193" s="41"/>
-      <c r="D193" s="43"/>
-      <c r="E193" s="8" t="s">
+      <c r="B193" s="40"/>
+      <c r="C193" s="43"/>
+      <c r="D193" s="46"/>
+      <c r="E193" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="F193" s="35" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A194" s="37"/>
+      <c r="B194" s="40"/>
+      <c r="C194" s="43"/>
+      <c r="D194" s="46"/>
+      <c r="E194" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="F194" s="35" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="38"/>
+      <c r="B195" s="41"/>
+      <c r="C195" s="44"/>
+      <c r="D195" s="47"/>
+      <c r="E195" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="F195" s="9" t="s">
         <v>398</v>
-      </c>
-      <c r="F193" s="9" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="36" t="s">
-        <v>400</v>
-      </c>
-      <c r="B194" s="38" t="s">
-        <v>401</v>
-      </c>
-      <c r="C194" s="40" t="s">
-        <v>402</v>
-      </c>
-      <c r="D194" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="E194" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="F194" s="17" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="37"/>
-      <c r="B195" s="39"/>
-      <c r="C195" s="41"/>
-      <c r="D195" s="43"/>
-      <c r="E195" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="F195" s="9" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A196" s="36" t="s">
-        <v>405</v>
-      </c>
-      <c r="B196" s="38" t="s">
-        <v>406</v>
-      </c>
-      <c r="C196" s="40" t="s">
-        <v>407</v>
-      </c>
-      <c r="D196" s="42" t="s">
+        <v>399</v>
+      </c>
+      <c r="B196" s="39" t="s">
+        <v>400</v>
+      </c>
+      <c r="C196" s="42" t="s">
+        <v>401</v>
+      </c>
+      <c r="D196" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E196" s="16" t="s">
@@ -5425,61 +5423,53 @@
         <v>371</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A197" s="37"/>
-      <c r="B197" s="39"/>
-      <c r="C197" s="41"/>
-      <c r="D197" s="43"/>
-      <c r="E197" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="F197" s="9" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="36" t="s">
-        <v>415</v>
-      </c>
-      <c r="B198" s="38" t="s">
-        <v>411</v>
-      </c>
-      <c r="C198" s="40" t="s">
-        <v>412</v>
-      </c>
-      <c r="D198" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="E198" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="F198" s="17" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="37"/>
-      <c r="B199" s="39"/>
-      <c r="C199" s="41"/>
-      <c r="D199" s="43"/>
+      <c r="B197" s="40"/>
+      <c r="C197" s="43"/>
+      <c r="D197" s="46"/>
+      <c r="E197" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="F197" s="35" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A198" s="37"/>
+      <c r="B198" s="40"/>
+      <c r="C198" s="43"/>
+      <c r="D198" s="46"/>
+      <c r="E198" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="F198" s="35" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="38"/>
+      <c r="B199" s="41"/>
+      <c r="C199" s="44"/>
+      <c r="D199" s="47"/>
       <c r="E199" s="8" t="s">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="F199" s="9" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A200" s="36" t="s">
-        <v>416</v>
-      </c>
-      <c r="B200" s="38" t="s">
-        <v>410</v>
-      </c>
-      <c r="C200" s="40" t="s">
-        <v>417</v>
-      </c>
-      <c r="D200" s="42" t="s">
+        <v>403</v>
+      </c>
+      <c r="B200" s="39" t="s">
+        <v>404</v>
+      </c>
+      <c r="C200" s="42" t="s">
+        <v>405</v>
+      </c>
+      <c r="D200" s="45" t="s">
         <v>10</v>
       </c>
       <c r="E200" s="16" t="s">
@@ -5489,196 +5479,335 @@
         <v>371</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A201" s="37"/>
-      <c r="B201" s="39"/>
-      <c r="C201" s="41"/>
-      <c r="D201" s="43"/>
-      <c r="E201" s="8" t="s">
+      <c r="B201" s="40"/>
+      <c r="C201" s="43"/>
+      <c r="D201" s="46"/>
+      <c r="E201" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="F201" s="35" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A202" s="37"/>
+      <c r="B202" s="40"/>
+      <c r="C202" s="43"/>
+      <c r="D202" s="46"/>
+      <c r="E202" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="F202" s="35" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="38"/>
+      <c r="B203" s="41"/>
+      <c r="C203" s="44"/>
+      <c r="D203" s="47"/>
+      <c r="E203" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="F203" s="9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="36" t="s">
+        <v>411</v>
+      </c>
+      <c r="B204" s="39" t="s">
+        <v>408</v>
+      </c>
+      <c r="C204" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="D204" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E204" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="F204" s="17" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="38"/>
+      <c r="B205" s="41"/>
+      <c r="C205" s="44"/>
+      <c r="D205" s="47"/>
+      <c r="E205" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="F205" s="9" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="B206" s="39" t="s">
+        <v>407</v>
+      </c>
+      <c r="C206" s="42" t="s">
+        <v>413</v>
+      </c>
+      <c r="D206" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E206" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="F206" s="17" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A207" s="37"/>
+      <c r="B207" s="40"/>
+      <c r="C207" s="43"/>
+      <c r="D207" s="46"/>
+      <c r="E207" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="F207" s="35" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A208" s="37"/>
+      <c r="B208" s="40"/>
+      <c r="C208" s="43"/>
+      <c r="D208" s="46"/>
+      <c r="E208" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="F208" s="35" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="38"/>
+      <c r="B209" s="41"/>
+      <c r="C209" s="44"/>
+      <c r="D209" s="47"/>
+      <c r="E209" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F209" s="9" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A210" s="72" t="s">
+        <v>414</v>
+      </c>
+      <c r="B210" s="73"/>
+      <c r="C210" s="73"/>
+      <c r="D210" s="73"/>
+      <c r="E210" s="73"/>
+      <c r="F210" s="73"/>
+    </row>
+    <row r="211" spans="1:6" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="B211" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="C211" s="34" t="s">
+        <v>417</v>
+      </c>
+      <c r="D211" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E211" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="F201" s="9" t="s">
+      <c r="F211" s="9" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="44" t="s">
+    <row r="212" spans="1:6" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="B212" s="23" t="s">
         <v>420</v>
       </c>
-      <c r="B202" s="45"/>
-      <c r="C202" s="45"/>
-      <c r="D202" s="45"/>
-      <c r="E202" s="45"/>
-      <c r="F202" s="45"/>
-    </row>
-    <row r="203" spans="1:6" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="22" t="s">
+      <c r="C212" s="34" t="s">
         <v>421</v>
       </c>
-      <c r="B203" s="23" t="s">
+      <c r="D212" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E212" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="C203" s="34" t="s">
-        <v>423</v>
-      </c>
-      <c r="D203" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E203" s="8" t="s">
+      <c r="F212" s="9" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="22" t="s">
         <v>424</v>
       </c>
-      <c r="F203" s="9" t="s">
+      <c r="B213" s="23" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="22" t="s">
-        <v>429</v>
-      </c>
-      <c r="B204" s="23" t="s">
+      <c r="C213" s="34" t="s">
         <v>426</v>
       </c>
-      <c r="C204" s="34" t="s">
+      <c r="D213" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E213" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="D204" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E204" s="8" t="s">
+      <c r="F213" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="F204" s="9" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="22" t="s">
-        <v>430</v>
-      </c>
-      <c r="B205" s="23" t="s">
-        <v>431</v>
-      </c>
-      <c r="C205" s="34" t="s">
-        <v>432</v>
-      </c>
-      <c r="D205" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E205" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="F205" s="9" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="214" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="261">
-    <mergeCell ref="A177:A180"/>
-    <mergeCell ref="B177:B180"/>
-    <mergeCell ref="C177:C180"/>
-    <mergeCell ref="D177:D180"/>
-    <mergeCell ref="B181:B184"/>
-    <mergeCell ref="A181:A184"/>
-    <mergeCell ref="C181:C184"/>
-    <mergeCell ref="D181:D184"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="D169:D170"/>
-    <mergeCell ref="A171:A173"/>
-    <mergeCell ref="B171:B173"/>
-    <mergeCell ref="C171:C173"/>
-    <mergeCell ref="D171:D173"/>
-    <mergeCell ref="A174:A176"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="C174:C176"/>
-    <mergeCell ref="D174:D176"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="A165:A166"/>
-    <mergeCell ref="B165:B166"/>
-    <mergeCell ref="C165:C166"/>
-    <mergeCell ref="D165:D166"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="B167:B168"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="D167:D168"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="D138:D141"/>
-    <mergeCell ref="A142:A147"/>
-    <mergeCell ref="B142:B147"/>
-    <mergeCell ref="C142:C147"/>
-    <mergeCell ref="D142:D147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="D128:D130"/>
-    <mergeCell ref="A131:A133"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="C131:C133"/>
-    <mergeCell ref="D131:D133"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="C134:C137"/>
-    <mergeCell ref="D134:D137"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="C86:C90"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="B91:B95"/>
-    <mergeCell ref="C91:C95"/>
-    <mergeCell ref="D91:D95"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="C81:C85"/>
-    <mergeCell ref="D81:D85"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="C73:C76"/>
-    <mergeCell ref="D73:D76"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="A206:A209"/>
+    <mergeCell ref="B206:B209"/>
+    <mergeCell ref="C206:C209"/>
+    <mergeCell ref="D206:D209"/>
+    <mergeCell ref="A210:F210"/>
+    <mergeCell ref="A196:A199"/>
+    <mergeCell ref="B196:B199"/>
+    <mergeCell ref="C196:C199"/>
+    <mergeCell ref="D196:D199"/>
+    <mergeCell ref="A200:A203"/>
+    <mergeCell ref="B200:B203"/>
+    <mergeCell ref="C200:C203"/>
+    <mergeCell ref="D200:D203"/>
+    <mergeCell ref="A204:A205"/>
+    <mergeCell ref="B204:B205"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="D204:D205"/>
+    <mergeCell ref="A185:A187"/>
+    <mergeCell ref="B185:B187"/>
+    <mergeCell ref="C185:C187"/>
+    <mergeCell ref="D185:D187"/>
+    <mergeCell ref="A188:A191"/>
+    <mergeCell ref="B188:B191"/>
+    <mergeCell ref="C188:C191"/>
+    <mergeCell ref="D188:D191"/>
+    <mergeCell ref="A192:A195"/>
+    <mergeCell ref="B192:B195"/>
+    <mergeCell ref="C192:C195"/>
+    <mergeCell ref="D192:D195"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="B156:B157"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="D156:D157"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="B158:B159"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="D158:D159"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="D160:D161"/>
+    <mergeCell ref="A150:F150"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="A96:A100"/>
+    <mergeCell ref="B96:B100"/>
+    <mergeCell ref="C96:C100"/>
+    <mergeCell ref="D96:D100"/>
+    <mergeCell ref="A101:A106"/>
+    <mergeCell ref="B101:B106"/>
+    <mergeCell ref="C101:C106"/>
+    <mergeCell ref="D101:D106"/>
+    <mergeCell ref="A107:A113"/>
+    <mergeCell ref="B107:B113"/>
+    <mergeCell ref="C107:C113"/>
+    <mergeCell ref="D107:D113"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="C61:C65"/>
+    <mergeCell ref="D61:D65"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="C14:C16"/>
@@ -5703,138 +5832,111 @@
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="D21:D23"/>
     <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="C61:C65"/>
-    <mergeCell ref="D61:D65"/>
-    <mergeCell ref="A61:A65"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="A96:A100"/>
-    <mergeCell ref="B96:B100"/>
-    <mergeCell ref="C96:C100"/>
-    <mergeCell ref="D96:D100"/>
-    <mergeCell ref="A101:A106"/>
-    <mergeCell ref="B101:B106"/>
-    <mergeCell ref="C101:C106"/>
-    <mergeCell ref="D101:D106"/>
-    <mergeCell ref="A107:A113"/>
-    <mergeCell ref="B107:B113"/>
-    <mergeCell ref="C107:C113"/>
-    <mergeCell ref="D107:D113"/>
-    <mergeCell ref="A150:F150"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="D152:D153"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="B156:B157"/>
-    <mergeCell ref="C156:C157"/>
-    <mergeCell ref="D156:D157"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="B158:B159"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="D158:D159"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="A185:A187"/>
-    <mergeCell ref="B185:B187"/>
-    <mergeCell ref="C185:C187"/>
-    <mergeCell ref="D185:D187"/>
-    <mergeCell ref="A188:A191"/>
-    <mergeCell ref="B188:B191"/>
-    <mergeCell ref="C188:C191"/>
-    <mergeCell ref="D188:D191"/>
-    <mergeCell ref="A192:A193"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="C192:C193"/>
-    <mergeCell ref="D192:D193"/>
-    <mergeCell ref="A200:A201"/>
-    <mergeCell ref="B200:B201"/>
-    <mergeCell ref="C200:C201"/>
-    <mergeCell ref="D200:D201"/>
-    <mergeCell ref="A202:F202"/>
-    <mergeCell ref="A194:A195"/>
-    <mergeCell ref="B194:B195"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="D194:D195"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="A198:A199"/>
-    <mergeCell ref="B198:B199"/>
-    <mergeCell ref="C198:C199"/>
-    <mergeCell ref="D198:D199"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="C73:C76"/>
+    <mergeCell ref="D73:D76"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="C86:C90"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="C91:C95"/>
+    <mergeCell ref="D91:D95"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="C81:C85"/>
+    <mergeCell ref="D81:D85"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="D128:D130"/>
+    <mergeCell ref="A131:A133"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="C131:C133"/>
+    <mergeCell ref="D131:D133"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="D134:D137"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="D138:D141"/>
+    <mergeCell ref="A142:A147"/>
+    <mergeCell ref="B142:B147"/>
+    <mergeCell ref="C142:C147"/>
+    <mergeCell ref="D142:D147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="D165:D166"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="D167:D168"/>
+    <mergeCell ref="A177:A180"/>
+    <mergeCell ref="B177:B180"/>
+    <mergeCell ref="C177:C180"/>
+    <mergeCell ref="D177:D180"/>
+    <mergeCell ref="B181:B184"/>
+    <mergeCell ref="A181:A184"/>
+    <mergeCell ref="C181:C184"/>
+    <mergeCell ref="D181:D184"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="A171:A173"/>
+    <mergeCell ref="B171:B173"/>
+    <mergeCell ref="C171:C173"/>
+    <mergeCell ref="D171:D173"/>
+    <mergeCell ref="A174:A176"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="C174:C176"/>
+    <mergeCell ref="D174:D176"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>

--- a/src/test/resources/test_descriptions/RottenTomatoes_TestCases.xlsx
+++ b/src/test/resources/test_descriptions/RottenTomatoes_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\project\UITest2Code\src\test\resources\test_descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8EFC04-034B-47D3-90A2-934E17A1DA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F33724-63E3-477D-BF3F-403CC0B89BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15600" xr2:uid="{791CFF3F-B61E-4861-A956-A2059CE938E6}"/>
   </bookViews>
@@ -1339,9 +1339,6 @@
     <t>1. Click the youtube logo at the top of the page</t>
   </si>
   <si>
-    <t>A youtube page will get opened in a new tab, presenting the Rotten Tomatoes page. A video will start playing automatically</t>
-  </si>
-  <si>
     <t>A snapchat page will get opened in a new tab, presenting the rottentomatoes' snapcode</t>
   </si>
   <si>
@@ -1388,6 +1385,9 @@
   </si>
   <si>
     <t>A page with the title Buy Tickets will be displayed, presenting the first movie from the previous page, at the chosen date and time</t>
+  </si>
+  <si>
+    <t>A youtube page will get opened in a new tab, presenting the Rotten Tomatoes page.</t>
   </si>
 </sst>
 </file>
@@ -2164,83 +2164,83 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2559,7 +2559,7 @@
   <dimension ref="A1:F214"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="E216" sqref="E216"/>
+      <selection activeCell="F214" sqref="F214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2592,26 +2592,26 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
     </row>
     <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="59" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="60" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -2625,7 +2625,7 @@
       <c r="A4" s="37"/>
       <c r="B4" s="40"/>
       <c r="C4" s="43"/>
-      <c r="D4" s="57"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
@@ -2634,7 +2634,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="62" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="39" t="s">
@@ -2643,7 +2643,7 @@
       <c r="C5" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="64" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="3"/>
@@ -2652,10 +2652,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
+      <c r="A6" s="67"/>
       <c r="B6" s="41"/>
       <c r="C6" s="44"/>
-      <c r="D6" s="62"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="8" t="s">
         <v>17</v>
       </c>
@@ -2664,7 +2664,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="65" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="53" t="s">
@@ -2673,7 +2673,7 @@
       <c r="C7" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="60" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="3"/>
@@ -2682,10 +2682,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="68"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="54"/>
       <c r="C8" s="71"/>
-      <c r="D8" s="57"/>
+      <c r="D8" s="61"/>
       <c r="E8" s="13" t="s">
         <v>21</v>
       </c>
@@ -2697,7 +2697,7 @@
       <c r="A9" s="69"/>
       <c r="B9" s="54"/>
       <c r="C9" s="71"/>
-      <c r="D9" s="57"/>
+      <c r="D9" s="61"/>
       <c r="E9" s="10" t="s">
         <v>23</v>
       </c>
@@ -2706,7 +2706,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="65" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="53" t="s">
@@ -2715,7 +2715,7 @@
       <c r="C10" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="64" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="12" t="s">
@@ -2724,10 +2724,10 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="68"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="54"/>
       <c r="C11" s="43"/>
-      <c r="D11" s="57"/>
+      <c r="D11" s="61"/>
       <c r="E11" s="13" t="s">
         <v>39</v>
       </c>
@@ -2736,7 +2736,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="33.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="62" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="39" t="s">
@@ -2745,7 +2745,7 @@
       <c r="C12" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="64" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="12" t="s">
@@ -2756,10 +2756,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="40"/>
       <c r="C13" s="43"/>
-      <c r="D13" s="57"/>
+      <c r="D13" s="61"/>
       <c r="E13" s="13" t="s">
         <v>42</v>
       </c>
@@ -2777,7 +2777,7 @@
       <c r="C14" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="64" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="12" t="s">
@@ -2788,10 +2788,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A15" s="58"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="54"/>
       <c r="C15" s="43"/>
-      <c r="D15" s="57"/>
+      <c r="D15" s="61"/>
       <c r="E15" s="15" t="s">
         <v>53</v>
       </c>
@@ -2800,10 +2800,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="54"/>
       <c r="C16" s="43"/>
-      <c r="D16" s="57"/>
+      <c r="D16" s="61"/>
       <c r="E16" s="15" t="s">
         <v>55</v>
       </c>
@@ -2812,7 +2812,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="62" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="39" t="s">
@@ -2821,7 +2821,7 @@
       <c r="C17" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="56" t="s">
+      <c r="D17" s="64" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="12"/>
@@ -2830,10 +2830,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="60"/>
+      <c r="A18" s="63"/>
       <c r="B18" s="40"/>
       <c r="C18" s="43"/>
-      <c r="D18" s="57"/>
+      <c r="D18" s="61"/>
       <c r="E18" s="13" t="s">
         <v>70</v>
       </c>
@@ -2842,10 +2842,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
+      <c r="A19" s="67"/>
       <c r="B19" s="41"/>
       <c r="C19" s="44"/>
-      <c r="D19" s="62"/>
+      <c r="D19" s="68"/>
       <c r="E19" s="11" t="s">
         <v>71</v>
       </c>
@@ -2895,7 +2895,7 @@
       <c r="A22" s="37"/>
       <c r="B22" s="40"/>
       <c r="C22" s="43"/>
-      <c r="D22" s="63"/>
+      <c r="D22" s="73"/>
       <c r="E22" s="13" t="s">
         <v>62</v>
       </c>
@@ -2907,7 +2907,7 @@
       <c r="A23" s="37"/>
       <c r="B23" s="40"/>
       <c r="C23" s="43"/>
-      <c r="D23" s="63"/>
+      <c r="D23" s="73"/>
       <c r="E23" s="16"/>
       <c r="F23" s="9" t="s">
         <v>64</v>
@@ -3272,14 +3272,14 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="48" t="s">
+      <c r="A47" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="B47" s="49"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
     </row>
     <row r="48" spans="1:6" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
@@ -3655,7 +3655,7 @@
       <c r="C73" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="D73" s="56" t="s">
+      <c r="D73" s="64" t="s">
         <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
@@ -3669,7 +3669,7 @@
       <c r="A74" s="37"/>
       <c r="B74" s="40"/>
       <c r="C74" s="43"/>
-      <c r="D74" s="57"/>
+      <c r="D74" s="61"/>
       <c r="E74" s="25" t="s">
         <v>172</v>
       </c>
@@ -3681,7 +3681,7 @@
       <c r="A75" s="37"/>
       <c r="B75" s="40"/>
       <c r="C75" s="43"/>
-      <c r="D75" s="57"/>
+      <c r="D75" s="61"/>
       <c r="E75" s="25" t="s">
         <v>205</v>
       </c>
@@ -3693,7 +3693,7 @@
       <c r="A76" s="37"/>
       <c r="B76" s="40"/>
       <c r="C76" s="43"/>
-      <c r="D76" s="57"/>
+      <c r="D76" s="61"/>
       <c r="E76" s="8" t="s">
         <v>206</v>
       </c>
@@ -4188,14 +4188,14 @@
       </c>
     </row>
     <row r="114" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="48" t="s">
+      <c r="A114" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="B114" s="49"/>
-      <c r="C114" s="49"/>
-      <c r="D114" s="49"/>
-      <c r="E114" s="49"/>
-      <c r="F114" s="49"/>
+      <c r="B114" s="57"/>
+      <c r="C114" s="57"/>
+      <c r="D114" s="57"/>
+      <c r="E114" s="57"/>
+      <c r="F114" s="57"/>
     </row>
     <row r="115" spans="1:6" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="22" t="s">
@@ -4714,14 +4714,14 @@
       </c>
     </row>
     <row r="150" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="72" t="s">
+      <c r="A150" s="48" t="s">
         <v>303</v>
       </c>
-      <c r="B150" s="73"/>
-      <c r="C150" s="73"/>
-      <c r="D150" s="73"/>
-      <c r="E150" s="73"/>
-      <c r="F150" s="73"/>
+      <c r="B150" s="49"/>
+      <c r="C150" s="49"/>
+      <c r="D150" s="49"/>
+      <c r="E150" s="49"/>
+      <c r="F150" s="49"/>
     </row>
     <row r="151" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="28" t="s">
@@ -4812,10 +4812,10 @@
         <v>320</v>
       </c>
       <c r="B156" s="39" t="s">
+        <v>429</v>
+      </c>
+      <c r="C156" s="42" t="s">
         <v>430</v>
-      </c>
-      <c r="C156" s="42" t="s">
-        <v>431</v>
       </c>
       <c r="D156" s="45" t="s">
         <v>10</v>
@@ -4833,10 +4833,10 @@
       <c r="C157" s="44"/>
       <c r="D157" s="47"/>
       <c r="E157" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="F157" s="9" t="s">
         <v>432</v>
-      </c>
-      <c r="F157" s="9" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="50.25" thickTop="1" x14ac:dyDescent="0.2">
@@ -4856,7 +4856,7 @@
         <v>308</v>
       </c>
       <c r="F158" s="17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -4908,7 +4908,7 @@
         <v>331</v>
       </c>
       <c r="B162" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C162" s="31" t="s">
         <v>332</v>
@@ -5016,7 +5016,7 @@
         <v>349</v>
       </c>
       <c r="F168" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
@@ -5385,10 +5385,10 @@
       <c r="C194" s="43"/>
       <c r="D194" s="46"/>
       <c r="E194" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="F194" s="35" t="s">
         <v>438</v>
-      </c>
-      <c r="F194" s="35" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -5397,7 +5397,7 @@
       <c r="C195" s="44"/>
       <c r="D195" s="47"/>
       <c r="E195" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F195" s="9" t="s">
         <v>398</v>
@@ -5441,10 +5441,10 @@
       <c r="C198" s="43"/>
       <c r="D198" s="46"/>
       <c r="E198" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="F198" s="35" t="s">
         <v>438</v>
-      </c>
-      <c r="F198" s="35" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -5453,7 +5453,7 @@
       <c r="C199" s="44"/>
       <c r="D199" s="47"/>
       <c r="E199" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F199" s="9" t="s">
         <v>402</v>
@@ -5497,10 +5497,10 @@
       <c r="C202" s="43"/>
       <c r="D202" s="46"/>
       <c r="E202" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="F202" s="35" t="s">
         <v>438</v>
-      </c>
-      <c r="F202" s="35" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5509,7 +5509,7 @@
       <c r="C203" s="44"/>
       <c r="D203" s="47"/>
       <c r="E203" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F203" s="9" t="s">
         <v>406</v>
@@ -5544,7 +5544,7 @@
         <v>410</v>
       </c>
       <c r="F205" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
@@ -5585,10 +5585,10 @@
       <c r="C208" s="43"/>
       <c r="D208" s="46"/>
       <c r="E208" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="F208" s="35" t="s">
         <v>438</v>
-      </c>
-      <c r="F208" s="35" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -5597,21 +5597,21 @@
       <c r="C209" s="44"/>
       <c r="D209" s="47"/>
       <c r="E209" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="F209" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="F209" s="9" t="s">
-        <v>444</v>
-      </c>
     </row>
     <row r="210" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A210" s="72" t="s">
+      <c r="A210" s="48" t="s">
         <v>414</v>
       </c>
-      <c r="B210" s="73"/>
-      <c r="C210" s="73"/>
-      <c r="D210" s="73"/>
-      <c r="E210" s="73"/>
-      <c r="F210" s="73"/>
+      <c r="B210" s="49"/>
+      <c r="C210" s="49"/>
+      <c r="D210" s="49"/>
+      <c r="E210" s="49"/>
+      <c r="F210" s="49"/>
     </row>
     <row r="211" spans="1:6" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A211" s="22" t="s">
@@ -5650,10 +5650,10 @@
         <v>422</v>
       </c>
       <c r="F212" s="9" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A213" s="22" t="s">
         <v>424</v>
       </c>
@@ -5670,74 +5670,187 @@
         <v>427</v>
       </c>
       <c r="F213" s="9" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="261">
-    <mergeCell ref="A206:A209"/>
-    <mergeCell ref="B206:B209"/>
-    <mergeCell ref="C206:C209"/>
-    <mergeCell ref="D206:D209"/>
-    <mergeCell ref="A210:F210"/>
-    <mergeCell ref="A196:A199"/>
-    <mergeCell ref="B196:B199"/>
-    <mergeCell ref="C196:C199"/>
-    <mergeCell ref="D196:D199"/>
-    <mergeCell ref="A200:A203"/>
-    <mergeCell ref="B200:B203"/>
-    <mergeCell ref="C200:C203"/>
-    <mergeCell ref="D200:D203"/>
-    <mergeCell ref="A204:A205"/>
-    <mergeCell ref="B204:B205"/>
-    <mergeCell ref="C204:C205"/>
-    <mergeCell ref="D204:D205"/>
-    <mergeCell ref="A185:A187"/>
-    <mergeCell ref="B185:B187"/>
-    <mergeCell ref="C185:C187"/>
-    <mergeCell ref="D185:D187"/>
-    <mergeCell ref="A188:A191"/>
-    <mergeCell ref="B188:B191"/>
-    <mergeCell ref="C188:C191"/>
-    <mergeCell ref="D188:D191"/>
-    <mergeCell ref="A192:A195"/>
-    <mergeCell ref="B192:B195"/>
-    <mergeCell ref="C192:C195"/>
-    <mergeCell ref="D192:D195"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="B156:B157"/>
-    <mergeCell ref="C156:C157"/>
-    <mergeCell ref="D156:D157"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="B158:B159"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="D158:D159"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="A150:F150"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="D152:D153"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="A96:A100"/>
-    <mergeCell ref="B96:B100"/>
-    <mergeCell ref="C96:C100"/>
-    <mergeCell ref="D96:D100"/>
-    <mergeCell ref="A101:A106"/>
-    <mergeCell ref="B101:B106"/>
-    <mergeCell ref="C101:C106"/>
-    <mergeCell ref="D101:D106"/>
-    <mergeCell ref="A107:A113"/>
-    <mergeCell ref="B107:B113"/>
-    <mergeCell ref="C107:C113"/>
-    <mergeCell ref="D107:D113"/>
+    <mergeCell ref="A177:A180"/>
+    <mergeCell ref="B177:B180"/>
+    <mergeCell ref="C177:C180"/>
+    <mergeCell ref="D177:D180"/>
+    <mergeCell ref="B181:B184"/>
+    <mergeCell ref="A181:A184"/>
+    <mergeCell ref="C181:C184"/>
+    <mergeCell ref="D181:D184"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="A171:A173"/>
+    <mergeCell ref="B171:B173"/>
+    <mergeCell ref="C171:C173"/>
+    <mergeCell ref="D171:D173"/>
+    <mergeCell ref="A174:A176"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="C174:C176"/>
+    <mergeCell ref="D174:D176"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="D165:D166"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="D167:D168"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="D138:D141"/>
+    <mergeCell ref="A142:A147"/>
+    <mergeCell ref="B142:B147"/>
+    <mergeCell ref="C142:C147"/>
+    <mergeCell ref="D142:D147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="D128:D130"/>
+    <mergeCell ref="A131:A133"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="C131:C133"/>
+    <mergeCell ref="D131:D133"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="D134:D137"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="C86:C90"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="C91:C95"/>
+    <mergeCell ref="D91:D95"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="C81:C85"/>
+    <mergeCell ref="D81:D85"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="C73:C76"/>
+    <mergeCell ref="D73:D76"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="A38:A39"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="B40:B41"/>
@@ -5762,181 +5875,68 @@
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="C73:C76"/>
-    <mergeCell ref="D73:D76"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="C86:C90"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="B91:B95"/>
-    <mergeCell ref="C91:C95"/>
-    <mergeCell ref="D91:D95"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="C81:C85"/>
-    <mergeCell ref="D81:D85"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="D128:D130"/>
-    <mergeCell ref="A131:A133"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="C131:C133"/>
-    <mergeCell ref="D131:D133"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="C134:C137"/>
-    <mergeCell ref="D134:D137"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="D138:D141"/>
-    <mergeCell ref="A142:A147"/>
-    <mergeCell ref="B142:B147"/>
-    <mergeCell ref="C142:C147"/>
-    <mergeCell ref="D142:D147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="A165:A166"/>
-    <mergeCell ref="B165:B166"/>
-    <mergeCell ref="C165:C166"/>
-    <mergeCell ref="D165:D166"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="B167:B168"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="D167:D168"/>
-    <mergeCell ref="A177:A180"/>
-    <mergeCell ref="B177:B180"/>
-    <mergeCell ref="C177:C180"/>
-    <mergeCell ref="D177:D180"/>
-    <mergeCell ref="B181:B184"/>
-    <mergeCell ref="A181:A184"/>
-    <mergeCell ref="C181:C184"/>
-    <mergeCell ref="D181:D184"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="D169:D170"/>
-    <mergeCell ref="A171:A173"/>
-    <mergeCell ref="B171:B173"/>
-    <mergeCell ref="C171:C173"/>
-    <mergeCell ref="D171:D173"/>
-    <mergeCell ref="A174:A176"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="C174:C176"/>
-    <mergeCell ref="D174:D176"/>
+    <mergeCell ref="A96:A100"/>
+    <mergeCell ref="B96:B100"/>
+    <mergeCell ref="C96:C100"/>
+    <mergeCell ref="D96:D100"/>
+    <mergeCell ref="A101:A106"/>
+    <mergeCell ref="B101:B106"/>
+    <mergeCell ref="C101:C106"/>
+    <mergeCell ref="D101:D106"/>
+    <mergeCell ref="A107:A113"/>
+    <mergeCell ref="B107:B113"/>
+    <mergeCell ref="C107:C113"/>
+    <mergeCell ref="D107:D113"/>
+    <mergeCell ref="A150:F150"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="B156:B157"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="D156:D157"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="B158:B159"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="D158:D159"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="D160:D161"/>
+    <mergeCell ref="A185:A187"/>
+    <mergeCell ref="B185:B187"/>
+    <mergeCell ref="C185:C187"/>
+    <mergeCell ref="D185:D187"/>
+    <mergeCell ref="A188:A191"/>
+    <mergeCell ref="B188:B191"/>
+    <mergeCell ref="C188:C191"/>
+    <mergeCell ref="D188:D191"/>
+    <mergeCell ref="A192:A195"/>
+    <mergeCell ref="B192:B195"/>
+    <mergeCell ref="C192:C195"/>
+    <mergeCell ref="D192:D195"/>
+    <mergeCell ref="A206:A209"/>
+    <mergeCell ref="B206:B209"/>
+    <mergeCell ref="C206:C209"/>
+    <mergeCell ref="D206:D209"/>
+    <mergeCell ref="A210:F210"/>
+    <mergeCell ref="A196:A199"/>
+    <mergeCell ref="B196:B199"/>
+    <mergeCell ref="C196:C199"/>
+    <mergeCell ref="D196:D199"/>
+    <mergeCell ref="A200:A203"/>
+    <mergeCell ref="B200:B203"/>
+    <mergeCell ref="C200:C203"/>
+    <mergeCell ref="D200:D203"/>
+    <mergeCell ref="A204:A205"/>
+    <mergeCell ref="B204:B205"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="D204:D205"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
